--- a/账本/健忘症患者的账本.xlsx
+++ b/账本/健忘症患者的账本.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/lalala/项目/-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/lalala/项目/-/账本/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="199">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1606,6 +1606,65 @@
     <t>2019/5月</t>
     <rPh sb="6" eb="7">
       <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货运费</t>
+    <rPh sb="0" eb="1">
+      <t>tui huo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yun fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收纳箱</t>
+    <rPh sb="0" eb="1">
+      <t>shou na xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来一份</t>
+    <rPh sb="0" eb="1">
+      <t>lai yi fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费</t>
+    <rPh sb="0" eb="1">
+      <t>hua fei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <rPh sb="0" eb="1">
+      <t>shui guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卸妆水</t>
+    <rPh sb="0" eb="1">
+      <t>xie zhuang shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包</t>
+    <rPh sb="0" eb="1">
+      <t>bao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔离</t>
+    <rPh sb="0" eb="1">
+      <t>ge li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1814,9 +1873,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1827,6 +1883,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1835,23 +1906,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2159,7 +2218,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2173,7 +2232,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -2186,14 +2245,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-100</v>
+        <v>-104</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>25.971599999999999</v>
+        <v>24.972692307692306</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -2206,16 +2265,16 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>25.714455445544552</v>
+        <v>24.734857142857141</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2683,7 +2742,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="54">
+      <c r="A36" s="52">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -2697,7 +2756,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
+      <c r="A37" s="52"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -2709,7 +2768,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
+      <c r="A38" s="52"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -3523,6 +3582,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
@@ -3539,20 +3612,6 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3579,7 +3638,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3593,7 +3652,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -3606,14 +3665,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-69</v>
+        <v>-73</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>37.797246376811607</v>
+        <v>35.72616438356166</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -3635,7 +3694,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>37.257285714285729</v>
+        <v>35.243378378378395</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3863,7 +3922,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="54">
+      <c r="A16" s="52">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -3877,7 +3936,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
+      <c r="A17" s="52"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -3889,7 +3948,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="52"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -3901,7 +3960,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="52"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -3919,7 +3978,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="52"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -3938,7 +3997,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
+      <c r="A21" s="52"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -3957,7 +4016,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="54">
+      <c r="A22" s="52">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -3978,7 +4037,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
+      <c r="A23" s="52"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -3997,7 +4056,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
+      <c r="A24" s="52"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -4232,7 +4291,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="54">
+      <c r="A43" s="52">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -4246,7 +4305,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
+      <c r="A44" s="52"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -4484,7 +4543,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="54">
+      <c r="A63" s="52">
         <v>43484</v>
       </c>
       <c r="B63">
@@ -4498,7 +4557,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
+      <c r="A64" s="52"/>
       <c r="B64">
         <v>-62</v>
       </c>
@@ -4510,7 +4569,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="54">
+      <c r="A65" s="52">
         <v>43485</v>
       </c>
       <c r="B65">
@@ -4524,7 +4583,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
+      <c r="A66" s="52"/>
       <c r="B66">
         <v>-30</v>
       </c>
@@ -4536,7 +4595,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
+      <c r="A67" s="52"/>
       <c r="B67">
         <v>-98</v>
       </c>
@@ -4737,7 +4796,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="54">
+      <c r="A83" s="52">
         <v>43492</v>
       </c>
       <c r="B83">
@@ -4751,7 +4810,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="54"/>
+      <c r="A84" s="52"/>
       <c r="B84">
         <v>-13.8</v>
       </c>
@@ -4916,6 +4975,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A92:A95"/>
@@ -4932,18 +5003,6 @@
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4971,7 +5030,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4990,7 +5049,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -5003,14 +5062,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>-41</v>
+        <v>-45</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>49.609268292682913</v>
+        <v>45.199555555555548</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5025,7 +5084,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>48.428095238095224</v>
+        <v>44.216956521739121</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5040,7 +5099,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="54">
+      <c r="A5" s="52">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -5051,7 +5110,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="52"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -5060,7 +5119,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="52"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -5105,7 +5164,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="55">
+      <c r="A10" s="56">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -5116,7 +5175,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
@@ -5132,7 +5191,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -5141,7 +5200,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -5150,7 +5209,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="55">
+      <c r="A14" s="56">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -5161,7 +5220,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -5175,7 +5234,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="55">
+      <c r="A17" s="56">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -5186,7 +5245,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18">
         <v>-300</v>
       </c>
@@ -5195,7 +5254,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19">
         <v>-149</v>
       </c>
@@ -5215,7 +5274,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="54">
+      <c r="A21" s="52">
         <v>43503</v>
       </c>
       <c r="B21">
@@ -5226,7 +5285,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
+      <c r="A22" s="52"/>
       <c r="B22">
         <v>-130.27000000000001</v>
       </c>
@@ -5235,7 +5294,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="54">
+      <c r="A23" s="52">
         <v>43504</v>
       </c>
       <c r="B23">
@@ -5246,7 +5305,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
+      <c r="A24" s="52"/>
       <c r="B24">
         <v>-15</v>
       </c>
@@ -5255,7 +5314,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="54">
+      <c r="A25" s="52">
         <v>43505</v>
       </c>
       <c r="B25">
@@ -5266,7 +5325,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
+      <c r="A26" s="52"/>
       <c r="B26">
         <v>-39</v>
       </c>
@@ -5275,7 +5334,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
+      <c r="A27" s="52"/>
       <c r="B27">
         <v>-10</v>
       </c>
@@ -5284,7 +5343,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
+      <c r="A28" s="52"/>
       <c r="B28">
         <v>-17.600000000000001</v>
       </c>
@@ -5296,7 +5355,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
+      <c r="A29" s="52"/>
       <c r="B29">
         <v>-25</v>
       </c>
@@ -5308,7 +5367,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+      <c r="A30" s="52"/>
       <c r="B30">
         <v>-83</v>
       </c>
@@ -5317,7 +5376,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
+      <c r="A31" s="52"/>
       <c r="B31">
         <v>-128</v>
       </c>
@@ -5326,7 +5385,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
+      <c r="A32" s="52"/>
       <c r="B32">
         <v>-28</v>
       </c>
@@ -5335,7 +5394,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
+      <c r="A33" s="52"/>
       <c r="B33">
         <v>-65</v>
       </c>
@@ -5347,7 +5406,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
+      <c r="A34" s="52"/>
       <c r="B34">
         <v>-127.9</v>
       </c>
@@ -5375,7 +5434,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
+      <c r="A37" s="55"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -5539,7 +5598,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="54">
+      <c r="A50" s="52">
         <v>43512</v>
       </c>
       <c r="B50">
@@ -5553,7 +5612,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
+      <c r="A51" s="52"/>
       <c r="B51">
         <v>-33.5</v>
       </c>
@@ -5565,7 +5624,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="54">
+      <c r="A52" s="52">
         <v>43513</v>
       </c>
       <c r="B52">
@@ -5579,7 +5638,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="54"/>
+      <c r="A53" s="52"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -5591,7 +5650,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
+      <c r="A54" s="52"/>
       <c r="B54">
         <v>-2</v>
       </c>
@@ -5877,7 +5936,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="54">
+      <c r="A77" s="52">
         <v>43519</v>
       </c>
       <c r="B77">
@@ -5891,7 +5950,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
+      <c r="A78" s="52"/>
       <c r="B78">
         <f>-2.8-7.2-9.34-4</f>
         <v>-23.34</v>
@@ -5904,7 +5963,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="54"/>
+      <c r="A79" s="52"/>
       <c r="B79">
         <v>-30</v>
       </c>
@@ -5916,7 +5975,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="52" t="s">
         <v>115</v>
       </c>
       <c r="B80">
@@ -5930,7 +5989,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="54"/>
+      <c r="A81" s="52"/>
       <c r="B81">
         <v>-16</v>
       </c>
@@ -5942,7 +6001,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="54"/>
+      <c r="A82" s="52"/>
       <c r="B82">
         <v>-2.5</v>
       </c>
@@ -5954,7 +6013,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="54"/>
+      <c r="A83" s="52"/>
       <c r="B83">
         <v>-16</v>
       </c>
@@ -6197,6 +6256,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A69"/>
     <mergeCell ref="A87:A90"/>
     <mergeCell ref="A91:A94"/>
     <mergeCell ref="A95:A100"/>
@@ -6205,24 +6282,6 @@
     <mergeCell ref="A77:A79"/>
     <mergeCell ref="A80:A83"/>
     <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6251,7 +6310,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6265,7 +6324,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -6278,14 +6337,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>61.58400000000006</v>
+        <v>43.988571428571468</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -6307,7 +6366,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>55.985454545454601</v>
+        <v>41.05600000000004</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6432,7 +6491,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="55">
+      <c r="A10" s="56">
         <v>43527</v>
       </c>
       <c r="B10">
@@ -6456,7 +6515,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11">
         <v>-2</v>
       </c>
@@ -6478,7 +6537,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12">
         <v>-49</v>
       </c>
@@ -6500,7 +6559,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13">
         <v>-109</v>
       </c>
@@ -6781,7 +6840,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="55">
+      <c r="A33" s="56">
         <v>43533</v>
       </c>
       <c r="B33">
@@ -6795,7 +6854,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
+      <c r="A34" s="56"/>
       <c r="B34">
         <v>-32.6</v>
       </c>
@@ -6807,7 +6866,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="B35">
         <v>-51</v>
       </c>
@@ -6819,7 +6878,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36">
         <v>-36.9</v>
       </c>
@@ -6831,7 +6890,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="55">
+      <c r="A37" s="56">
         <v>43534</v>
       </c>
       <c r="B37">
@@ -6845,7 +6904,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
+      <c r="A38" s="56"/>
       <c r="B38">
         <v>-6</v>
       </c>
@@ -6857,7 +6916,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="B39">
         <v>-30</v>
       </c>
@@ -7093,7 +7152,7 @@
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="55">
+      <c r="A57" s="56">
         <v>43540</v>
       </c>
       <c r="B57">
@@ -7109,7 +7168,7 @@
       <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="55"/>
+      <c r="A58" s="56"/>
       <c r="B58">
         <v>-35</v>
       </c>
@@ -7123,7 +7182,7 @@
       <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="55"/>
+      <c r="A59" s="56"/>
       <c r="B59">
         <v>-21</v>
       </c>
@@ -7137,7 +7196,7 @@
       <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="55">
+      <c r="A60" s="56">
         <v>43541</v>
       </c>
       <c r="B60">
@@ -7153,7 +7212,7 @@
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="55"/>
+      <c r="A61" s="56"/>
       <c r="B61">
         <v>-13</v>
       </c>
@@ -7167,7 +7226,7 @@
       <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="55"/>
+      <c r="A62" s="56"/>
       <c r="B62">
         <v>-3</v>
       </c>
@@ -7435,7 +7494,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="55">
+      <c r="A83" s="56">
         <v>43547</v>
       </c>
       <c r="B83">
@@ -7449,7 +7508,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="55"/>
+      <c r="A84" s="56"/>
       <c r="B84">
         <v>-62</v>
       </c>
@@ -7461,7 +7520,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="55">
+      <c r="A85" s="56">
         <v>43548</v>
       </c>
       <c r="B85">
@@ -7475,7 +7534,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="55"/>
+      <c r="A86" s="56"/>
       <c r="B86">
         <v>-10.75</v>
       </c>
@@ -7487,7 +7546,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="55"/>
+      <c r="A87" s="56"/>
       <c r="B87">
         <v>-37.119999999999997</v>
       </c>
@@ -7701,7 +7760,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="55">
+      <c r="A104" s="56">
         <v>43554</v>
       </c>
       <c r="B104">
@@ -7715,7 +7774,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="55"/>
+      <c r="A105" s="56"/>
       <c r="B105">
         <v>-8</v>
       </c>
@@ -7727,7 +7786,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="55"/>
+      <c r="A106" s="56"/>
       <c r="B106">
         <v>-30</v>
       </c>
@@ -7964,23 +8023,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A160:A163"/>
     <mergeCell ref="A164:A167"/>
     <mergeCell ref="A29:A32"/>
@@ -7997,6 +8039,23 @@
     <mergeCell ref="A104:A106"/>
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A66:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8005,10 +8064,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N215"/>
+  <dimension ref="A1:N225"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8025,41 +8084,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="37">
-        <f>SUMIF(B4:B257,"&lt;0")</f>
-        <v>-2074.25</v>
+        <f>SUMIF(B4:B267,"&lt;0")</f>
+        <v>-3109.33</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13">
         <f>3000+C1</f>
-        <v>925.75</v>
+        <v>-109.32999999999993</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-92.575000000000003</v>
+        <v>7.8092857142857088</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -8081,7 +8140,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>-84.159090909090907</v>
+        <v>7.2886666666666615</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -8296,7 +8355,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54">
+      <c r="A13" s="52">
         <v>43560</v>
       </c>
       <c r="B13" s="8">
@@ -8320,7 +8379,7 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="8">
         <v>-6</v>
       </c>
@@ -8332,7 +8391,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="8">
         <v>-5</v>
       </c>
@@ -8361,7 +8420,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="54">
+      <c r="A17" s="52">
         <v>43562</v>
       </c>
       <c r="B17" s="8">
@@ -8378,7 +8437,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="8">
         <v>-30</v>
       </c>
@@ -8393,7 +8452,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="8">
         <v>-42.5</v>
       </c>
@@ -8408,7 +8467,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="8">
         <v>-2.5</v>
       </c>
@@ -8423,7 +8482,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="8">
         <v>-5.3</v>
       </c>
@@ -8444,7 +8503,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="8">
         <v>-3.33</v>
       </c>
@@ -8461,7 +8520,7 @@
         <v>142</v>
       </c>
       <c r="J22">
-        <f>SUMIF($D$4:$D283,H22,$B$4:$B$283)</f>
+        <f>SUMIF($D$4:$D293,H22,$B$4:$B$293)</f>
         <v>-242</v>
       </c>
     </row>
@@ -8485,8 +8544,8 @@
         <v>143</v>
       </c>
       <c r="J23">
-        <f ca="1">SUMIF($D$4:$D284,H23,$B$4:$B$283)</f>
-        <v>-321.25000000000006</v>
+        <f ca="1">SUMIF($D$4:$D294,H23,$B$4:$B$293)</f>
+        <v>-435.90000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -8548,8 +8607,8 @@
         <v>45</v>
       </c>
       <c r="J27">
-        <f ca="1">SUMIF($D$4:$D285,H27,$B$4:$B$283)</f>
-        <v>-91</v>
+        <f ca="1">SUMIF($D$4:$D295,H27,$B$4:$B$293)</f>
+        <v>-1011.4300000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -8585,12 +8644,12 @@
         <v>46</v>
       </c>
       <c r="J29">
-        <f ca="1">SUMIF($D$4:$D286,H29,$B$4:$B$283)</f>
+        <f ca="1">SUMIF($D$4:$D296,H29,$B$4:$B$293)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="8">
         <v>-10</v>
       </c>
@@ -8603,7 +8662,7 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="8">
         <v>-12</v>
       </c>
@@ -8616,7 +8675,7 @@
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="8">
         <v>-20</v>
       </c>
@@ -8642,7 +8701,7 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="38">
+      <c r="A34" s="47">
         <v>43566</v>
       </c>
       <c r="B34" s="8">
@@ -8661,204 +8720,228 @@
         <v>40</v>
       </c>
       <c r="J34">
-        <f ca="1">SUMIF($D$4:$D287,H34,$B$4:$B$283)</f>
+        <f ca="1">SUMIF($D$4:$D297,H34,$B$4:$B$293)</f>
         <v>-1420</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="8">
+        <v>-20</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="12">
+        <v>3</v>
+      </c>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="41"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="12"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="8">
+        <v>-8</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="12">
+        <v>2</v>
+      </c>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="43"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="12"/>
+      <c r="A37" s="48">
+        <v>43567</v>
+      </c>
+      <c r="B37" s="8">
+        <v>-14</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="12">
+        <v>2</v>
+      </c>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="38">
-        <v>43567</v>
-      </c>
+      <c r="A38" s="48"/>
       <c r="B38" s="8">
+        <v>-59.9</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="12">
+        <v>3</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="48"/>
+      <c r="B39" s="8">
+        <v>-31.1</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="12">
+        <v>2</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="48"/>
+      <c r="B40" s="8">
         <v>-11</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="12">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="40">
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="52">
         <v>43568</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="12"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="40">
+      <c r="B41" s="8">
+        <v>-10</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D41" s="12">
+        <v>3</v>
+      </c>
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="52"/>
+      <c r="B42" s="8">
+        <v>-4.5</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2</v>
+      </c>
+      <c r="I42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="52"/>
+      <c r="B43" s="8">
+        <v>-21.7</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="12">
+        <v>2</v>
+      </c>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="52">
         <v>43569</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="12"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="38">
+      <c r="B44" s="8">
+        <v>-13.35</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="12">
+        <v>2</v>
+      </c>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="52"/>
+      <c r="B45" s="8">
+        <v>-231.53</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="12">
+        <v>3</v>
+      </c>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="52"/>
+      <c r="B46" s="8">
+        <v>-4</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="12">
+        <v>2</v>
+      </c>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="48">
         <v>43570</v>
       </c>
-      <c r="B41" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="12">
-        <v>1</v>
-      </c>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="38">
-        <v>43571</v>
-      </c>
-      <c r="B42" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="12">
-        <v>1</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J42">
-        <f ca="1">SUM(J22:J34)</f>
-        <v>-2074.25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="38">
-        <v>43572</v>
-      </c>
-      <c r="B43" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="38">
-        <v>43573</v>
-      </c>
-      <c r="B44" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="38">
-        <v>43574</v>
-      </c>
-      <c r="B45" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="40">
-        <v>43575</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="12"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="40">
-        <v>43576</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="12"/>
+      <c r="B47" s="8">
+        <v>-16</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="12">
+        <v>2</v>
+      </c>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="38">
-        <v>43577</v>
-      </c>
+      <c r="A48" s="48"/>
       <c r="B48" s="8">
-        <v>-11</v>
+        <v>-189</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="D48" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="38">
-        <v>43578</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="48"/>
       <c r="B49" s="8">
-        <v>-11</v>
+        <v>-410</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="D49" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="38">
-        <v>43579</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="48"/>
       <c r="B50" s="8">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="D50" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="38">
-        <v>43580</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="48"/>
       <c r="B51" s="8">
         <v>-11</v>
       </c>
@@ -8868,10 +8951,11 @@
       <c r="D51" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="38">
-        <v>43581</v>
+        <v>43571</v>
       </c>
       <c r="B52" s="8">
         <v>-11</v>
@@ -8882,18 +8966,31 @@
       <c r="D52" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="47">
-        <v>43582</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I52" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J52">
+        <f ca="1">SUM(J22:J34)</f>
+        <v>-3109.33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="38">
+        <v>43572</v>
+      </c>
+      <c r="B53" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="38">
-        <v>43583</v>
+        <v>43573</v>
       </c>
       <c r="B54" s="8">
         <v>-11</v>
@@ -8905,9 +9002,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="38">
-        <v>43584</v>
+        <v>43574</v>
       </c>
       <c r="B55" s="8">
         <v>-11</v>
@@ -8919,72 +9016,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="38">
-        <v>43585</v>
-      </c>
-      <c r="B56" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="38"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="40">
+        <v>43575</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="12"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="40">
+        <v>43576</v>
+      </c>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
+      <c r="D57" s="12"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="38">
+        <v>43577</v>
+      </c>
+      <c r="B58" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="38">
+        <v>43578</v>
+      </c>
+      <c r="B59" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="38">
+        <v>43579</v>
+      </c>
+      <c r="B60" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="38">
+        <v>43580</v>
+      </c>
+      <c r="B61" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="38">
+        <v>43581</v>
+      </c>
+      <c r="B62" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="46">
+        <v>43582</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="38">
+        <v>43583</v>
+      </c>
+      <c r="B64" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
+      <c r="A65" s="38">
+        <v>43584</v>
+      </c>
+      <c r="B65" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
+      <c r="A66" s="38">
+        <v>43585</v>
+      </c>
+      <c r="B66" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
+      <c r="A67" s="38"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
     </row>
@@ -8997,71 +9166,51 @@
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
@@ -9130,123 +9279,143 @@
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -9766,15 +9935,69 @@
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
     </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="8"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="8"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A23:A26"/>
+  <mergeCells count="11">
+    <mergeCell ref="A47:A51"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9882,7 +10105,7 @@
       <c r="E6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="50"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="27"/>
       <c r="M6" t="s">
         <v>149</v>
@@ -9905,7 +10128,7 @@
       <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="50"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="27"/>
       <c r="M7" t="s">
         <v>172</v>
@@ -9923,7 +10146,7 @@
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="50"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="27"/>
       <c r="M8" t="s">
         <v>173</v>
@@ -9951,7 +10174,7 @@
       <c r="E9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="50"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="27"/>
       <c r="M9" t="s">
         <v>185</v>
@@ -9969,7 +10192,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="I10" s="50"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="27"/>
       <c r="M10" t="s">
         <v>186</v>
@@ -10105,8 +10328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10123,7 +10346,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -10131,33 +10354,33 @@
       </c>
       <c r="C1" s="37">
         <f>SUMIF(B4:B257,"&lt;0")</f>
-        <v>-2074.25</v>
+        <v>0</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13">
         <f>3000+C1</f>
-        <v>925.75</v>
+        <v>3000</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-92.575000000000003</v>
+        <v>-214.28571428571428</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -10167,7 +10390,7 @@
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -10179,7 +10402,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>-84.159090909090907</v>
+        <v>-200</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -10188,18 +10411,12 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44">
+      <c r="A4" s="43">
         <v>43556</v>
       </c>
-      <c r="B4" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -10212,18 +10429,12 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44">
+      <c r="A5" s="43">
         <v>43557</v>
       </c>
-      <c r="B5" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -10239,15 +10450,9 @@
       <c r="A6" s="48">
         <v>43558</v>
       </c>
-      <c r="B6" s="8">
-        <v>-22</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="12">
-        <v>2</v>
-      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -10261,15 +10466,9 @@
     </row>
     <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="48"/>
-      <c r="B7" s="8">
-        <v>-7.3</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="12">
-        <v>2</v>
-      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -10283,15 +10482,9 @@
     </row>
     <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48"/>
-      <c r="B8" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -10307,15 +10500,9 @@
       <c r="A9" s="48">
         <v>43559</v>
       </c>
-      <c r="B9" s="8">
-        <v>-9</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="12">
-        <v>2</v>
-      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -10329,15 +10516,9 @@
     </row>
     <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
-      <c r="B10" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -10351,15 +10532,9 @@
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
-      <c r="B11" s="8">
-        <v>-1420</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="12">
-        <v>5</v>
-      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -10373,15 +10548,9 @@
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
-      <c r="B12" s="8">
-        <v>-89</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="12">
-        <v>2</v>
-      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -10394,18 +10563,12 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54">
+      <c r="A13" s="52">
         <v>43560</v>
       </c>
-      <c r="B13" s="8">
-        <v>-13</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="12">
-        <v>3</v>
-      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -10418,119 +10581,71 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="8">
-        <v>-6</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="12">
-        <v>2</v>
-      </c>
+      <c r="A14" s="52"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="8">
-        <v>-5</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="12">
-        <v>2</v>
-      </c>
+      <c r="A15" s="52"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="45">
+      <c r="A16" s="44">
         <v>43561</v>
       </c>
-      <c r="B16" s="8">
-        <v>-3</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D16" s="12">
-        <v>2</v>
-      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="12"/>
       <c r="H16" s="9"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="54">
+      <c r="A17" s="52">
         <v>43562</v>
       </c>
-      <c r="B17" s="8">
-        <v>-48</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="12">
-        <v>3</v>
-      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="12"/>
       <c r="H17" s="9"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="8">
-        <v>-30</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="12">
-        <v>3</v>
-      </c>
+      <c r="A18" s="52"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="12"/>
       <c r="H18" s="9"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="8">
-        <v>-42.5</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="12">
-        <v>2</v>
-      </c>
+      <c r="A19" s="52"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="12"/>
       <c r="H19" s="9"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="8">
-        <v>-2.5</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D20" s="12">
-        <v>2</v>
-      </c>
+      <c r="A20" s="52"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="12"/>
       <c r="H20" s="9"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="8">
-        <v>-5.3</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D21" s="12">
-        <v>2</v>
-      </c>
+      <c r="A21" s="52"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="12"/>
       <c r="H21" s="9" t="s">
         <v>43</v>
       </c>
@@ -10542,16 +10657,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="8">
-        <v>-3.33</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="12">
-        <v>2</v>
-      </c>
+      <c r="A22" s="52"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="12"/>
       <c r="H22">
         <v>1</v>
       </c>
@@ -10560,22 +10669,16 @@
       </c>
       <c r="J22">
         <f>SUMIF($D$4:$D283,H22,$B$4:$B$283)</f>
-        <v>-242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="48">
         <v>43563</v>
       </c>
-      <c r="B23" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="12">
-        <v>1</v>
-      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="12"/>
       <c r="H23">
         <v>2</v>
       </c>
@@ -10584,61 +10687,37 @@
       </c>
       <c r="J23">
         <f ca="1">SUMIF($D$4:$D284,H23,$B$4:$B$283)</f>
-        <v>-321.25000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="48"/>
-      <c r="B24" s="8">
-        <v>-58.52</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="12">
-        <v>2</v>
-      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="12"/>
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="48"/>
-      <c r="B25" s="8">
-        <v>-6.3</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" s="12">
-        <v>2</v>
-      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="12"/>
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
-      <c r="B26" s="8">
-        <v>-4</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="12">
-        <v>2</v>
-      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="12"/>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="48">
         <v>43564</v>
       </c>
-      <c r="B27" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="12">
-        <v>1</v>
-      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="12"/>
       <c r="H27">
         <v>3</v>
       </c>
@@ -10647,35 +10726,23 @@
       </c>
       <c r="J27">
         <f ca="1">SUMIF($D$4:$D285,H27,$B$4:$B$283)</f>
-        <v>-91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
-      <c r="B28" s="8">
-        <v>-10.199999999999999</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="12">
-        <v>2</v>
-      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="12"/>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="44">
+      <c r="A29" s="43">
         <v>43565</v>
       </c>
-      <c r="B29" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="12">
-        <v>1</v>
-      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="12"/>
       <c r="H29">
         <v>4</v>
       </c>
@@ -10688,70 +10755,40 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="44"/>
-      <c r="B30" s="8">
-        <v>-10</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D30" s="12">
-        <v>2</v>
-      </c>
+      <c r="A30" s="43"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="12"/>
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="8">
-        <v>-12</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" s="12">
-        <v>2</v>
-      </c>
+      <c r="A31" s="43"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="12"/>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="8">
-        <v>-20</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="12">
-        <v>2</v>
-      </c>
+      <c r="A32" s="43"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="12"/>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="8">
-        <v>-5.3</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="12">
-        <v>2</v>
-      </c>
+      <c r="A33" s="43"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="12"/>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="44">
+      <c r="A34" s="43">
         <v>43566</v>
       </c>
-      <c r="B34" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="12">
-        <v>1</v>
-      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="12"/>
       <c r="H34">
         <v>5</v>
       </c>
@@ -10760,47 +10797,41 @@
       </c>
       <c r="J34">
         <f ca="1">SUMIF($D$4:$D287,H34,$B$4:$B$283)</f>
-        <v>-1420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="12"/>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="44"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="12"/>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="44"/>
+      <c r="A37" s="48">
+        <v>43567</v>
+      </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="12"/>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="44">
-        <v>43567</v>
-      </c>
-      <c r="B38" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="12">
-        <v>1</v>
-      </c>
+      <c r="A38" s="48"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="12"/>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="47">
+      <c r="A39" s="46">
         <v>43568</v>
       </c>
       <c r="B39" s="8"/>
@@ -10809,7 +10840,7 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="47">
+      <c r="A40" s="46">
         <v>43569</v>
       </c>
       <c r="B40" s="8"/>
@@ -10818,85 +10849,55 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="44">
+      <c r="A41" s="43">
         <v>43570</v>
       </c>
-      <c r="B41" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="12">
-        <v>1</v>
-      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="12"/>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="44">
+      <c r="A42" s="43">
         <v>43571</v>
       </c>
-      <c r="B42" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="12">
-        <v>1</v>
-      </c>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="12"/>
       <c r="I42" s="4" t="s">
         <v>144</v>
       </c>
       <c r="J42">
         <f ca="1">SUM(J22:J34)</f>
-        <v>-2074.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="44">
+      <c r="A43" s="43">
         <v>43572</v>
       </c>
-      <c r="B43" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="12">
-        <v>1</v>
-      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="44">
+      <c r="A44" s="43">
         <v>43573</v>
       </c>
-      <c r="B44" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="12">
-        <v>1</v>
-      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="44">
+      <c r="A45" s="43">
         <v>43574</v>
       </c>
-      <c r="B45" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="12">
-        <v>1</v>
-      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="47">
+      <c r="A46" s="46">
         <v>43575</v>
       </c>
       <c r="B46" s="8"/>
@@ -10904,7 +10905,7 @@
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="47">
+      <c r="A47" s="46">
         <v>43576</v>
       </c>
       <c r="B47" s="8"/>
@@ -10912,77 +10913,47 @@
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="44">
+      <c r="A48" s="43">
         <v>43577</v>
       </c>
-      <c r="B48" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="12">
-        <v>1</v>
-      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="44">
+      <c r="A49" s="43">
         <v>43578</v>
       </c>
-      <c r="B49" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="12">
-        <v>1</v>
-      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="44">
+      <c r="A50" s="43">
         <v>43579</v>
       </c>
-      <c r="B50" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="12">
-        <v>1</v>
-      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="44">
+      <c r="A51" s="43">
         <v>43580</v>
       </c>
-      <c r="B51" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" s="12">
-        <v>1</v>
-      </c>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="44">
+      <c r="A52" s="43">
         <v>43581</v>
       </c>
-      <c r="B52" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="12">
-        <v>1</v>
-      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="47">
+      <c r="A53" s="46">
         <v>43582</v>
       </c>
       <c r="B53" s="12"/>
@@ -10990,49 +10961,31 @@
       <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="44">
+      <c r="A54" s="43">
         <v>43583</v>
       </c>
-      <c r="B54" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="12">
-        <v>1</v>
-      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="44">
+      <c r="A55" s="43">
         <v>43584</v>
       </c>
-      <c r="B55" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="12">
-        <v>1</v>
-      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="44">
+      <c r="A56" s="43">
         <v>43585</v>
       </c>
-      <c r="B56" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="12">
-        <v>1</v>
-      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="44"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
     </row>
@@ -11865,7 +11818,8 @@
       <c r="C215" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A6:A8"/>

--- a/账本/健忘症患者的账本.xlsx
+++ b/账本/健忘症患者的账本.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="200">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1665,6 +1665,13 @@
     <t>隔离</t>
     <rPh sb="0" eb="1">
       <t>ge li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益母草</t>
+    <rPh sb="0" eb="1">
+      <t>yi mu cao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1888,29 +1895,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2218,7 +2225,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2232,7 +2239,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -2245,14 +2252,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-104</v>
+        <v>-108</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>24.972692307692306</v>
+        <v>24.047777777777778</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -2265,16 +2272,16 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>24.734857142857141</v>
+        <v>23.827155963302751</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2742,7 +2749,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="52">
+      <c r="A36" s="54">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -2756,7 +2763,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
+      <c r="A37" s="54"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -2768,7 +2775,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
+      <c r="A38" s="54"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -3582,20 +3589,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
@@ -3612,6 +3605,20 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3638,7 +3645,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3652,7 +3659,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -3665,14 +3672,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-73</v>
+        <v>-77</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>35.72616438356166</v>
+        <v>33.870259740259755</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -3694,7 +3701,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>35.243378378378395</v>
+        <v>33.436025641025658</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3922,7 +3929,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="52">
+      <c r="A16" s="54">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -3936,7 +3943,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="54"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -3948,7 +3955,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -3960,7 +3967,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
+      <c r="A19" s="54"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -3978,7 +3985,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="54"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -3997,7 +4004,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="54"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -4016,7 +4023,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="52">
+      <c r="A22" s="54">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -4037,7 +4044,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="54"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -4056,7 +4063,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="54"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -4291,7 +4298,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="52">
+      <c r="A43" s="54">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -4305,7 +4312,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
+      <c r="A44" s="54"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -4543,7 +4550,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="52">
+      <c r="A63" s="54">
         <v>43484</v>
       </c>
       <c r="B63">
@@ -4557,7 +4564,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
+      <c r="A64" s="54"/>
       <c r="B64">
         <v>-62</v>
       </c>
@@ -4569,7 +4576,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="52">
+      <c r="A65" s="54">
         <v>43485</v>
       </c>
       <c r="B65">
@@ -4583,7 +4590,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="52"/>
+      <c r="A66" s="54"/>
       <c r="B66">
         <v>-30</v>
       </c>
@@ -4595,7 +4602,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="52"/>
+      <c r="A67" s="54"/>
       <c r="B67">
         <v>-98</v>
       </c>
@@ -4796,7 +4803,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="52">
+      <c r="A83" s="54">
         <v>43492</v>
       </c>
       <c r="B83">
@@ -4810,7 +4817,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="52"/>
+      <c r="A84" s="54"/>
       <c r="B84">
         <v>-13.8</v>
       </c>
@@ -4975,18 +4982,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A92:A95"/>
@@ -5003,6 +4998,18 @@
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5030,7 +5037,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5049,7 +5056,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -5062,14 +5069,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>-45</v>
+        <v>-49</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>45.199555555555548</v>
+        <v>41.509795918367338</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5084,7 +5091,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>44.216956521739121</v>
+        <v>40.679599999999994</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5099,7 +5106,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="52">
+      <c r="A5" s="54">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -5110,7 +5117,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="54"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -5119,7 +5126,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="54"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -5164,7 +5171,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="56">
+      <c r="A10" s="55">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -5175,7 +5182,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
@@ -5191,7 +5198,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -5200,7 +5207,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -5209,7 +5216,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="56">
+      <c r="A14" s="55">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -5220,7 +5227,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -5234,7 +5241,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="56">
+      <c r="A17" s="55">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -5245,7 +5252,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+      <c r="A18" s="55"/>
       <c r="B18">
         <v>-300</v>
       </c>
@@ -5254,7 +5261,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19">
         <v>-149</v>
       </c>
@@ -5274,7 +5281,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="52">
+      <c r="A21" s="54">
         <v>43503</v>
       </c>
       <c r="B21">
@@ -5285,7 +5292,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="54"/>
       <c r="B22">
         <v>-130.27000000000001</v>
       </c>
@@ -5294,7 +5301,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="52">
+      <c r="A23" s="54">
         <v>43504</v>
       </c>
       <c r="B23">
@@ -5305,7 +5312,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="54"/>
       <c r="B24">
         <v>-15</v>
       </c>
@@ -5314,7 +5321,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="52">
+      <c r="A25" s="54">
         <v>43505</v>
       </c>
       <c r="B25">
@@ -5325,7 +5332,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
+      <c r="A26" s="54"/>
       <c r="B26">
         <v>-39</v>
       </c>
@@ -5334,7 +5341,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
+      <c r="A27" s="54"/>
       <c r="B27">
         <v>-10</v>
       </c>
@@ -5343,7 +5350,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
+      <c r="A28" s="54"/>
       <c r="B28">
         <v>-17.600000000000001</v>
       </c>
@@ -5355,7 +5362,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
+      <c r="A29" s="54"/>
       <c r="B29">
         <v>-25</v>
       </c>
@@ -5367,7 +5374,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
+      <c r="A30" s="54"/>
       <c r="B30">
         <v>-83</v>
       </c>
@@ -5376,7 +5383,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
+      <c r="A31" s="54"/>
       <c r="B31">
         <v>-128</v>
       </c>
@@ -5385,7 +5392,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
+      <c r="A32" s="54"/>
       <c r="B32">
         <v>-28</v>
       </c>
@@ -5394,7 +5401,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
+      <c r="A33" s="54"/>
       <c r="B33">
         <v>-65</v>
       </c>
@@ -5406,7 +5413,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
+      <c r="A34" s="54"/>
       <c r="B34">
         <v>-127.9</v>
       </c>
@@ -5434,7 +5441,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -5598,7 +5605,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="52">
+      <c r="A50" s="54">
         <v>43512</v>
       </c>
       <c r="B50">
@@ -5612,7 +5619,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="52"/>
+      <c r="A51" s="54"/>
       <c r="B51">
         <v>-33.5</v>
       </c>
@@ -5624,7 +5631,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="52">
+      <c r="A52" s="54">
         <v>43513</v>
       </c>
       <c r="B52">
@@ -5638,7 +5645,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="52"/>
+      <c r="A53" s="54"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -5650,7 +5657,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
+      <c r="A54" s="54"/>
       <c r="B54">
         <v>-2</v>
       </c>
@@ -5936,7 +5943,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="52">
+      <c r="A77" s="54">
         <v>43519</v>
       </c>
       <c r="B77">
@@ -5950,7 +5957,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="52"/>
+      <c r="A78" s="54"/>
       <c r="B78">
         <f>-2.8-7.2-9.34-4</f>
         <v>-23.34</v>
@@ -5963,7 +5970,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="52"/>
+      <c r="A79" s="54"/>
       <c r="B79">
         <v>-30</v>
       </c>
@@ -5975,7 +5982,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="52" t="s">
+      <c r="A80" s="54" t="s">
         <v>115</v>
       </c>
       <c r="B80">
@@ -5989,7 +5996,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
+      <c r="A81" s="54"/>
       <c r="B81">
         <v>-16</v>
       </c>
@@ -6001,7 +6008,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="52"/>
+      <c r="A82" s="54"/>
       <c r="B82">
         <v>-2.5</v>
       </c>
@@ -6013,7 +6020,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="52"/>
+      <c r="A83" s="54"/>
       <c r="B83">
         <v>-16</v>
       </c>
@@ -6256,6 +6263,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -6264,24 +6289,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6310,7 +6317,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6324,7 +6331,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -6337,14 +6344,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>43.988571428571468</v>
+        <v>34.213333333333367</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -6366,7 +6373,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>41.05600000000004</v>
+        <v>32.412631578947398</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6491,7 +6498,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="56">
+      <c r="A10" s="55">
         <v>43527</v>
       </c>
       <c r="B10">
@@ -6515,7 +6522,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="B11">
         <v>-2</v>
       </c>
@@ -6537,7 +6544,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="B12">
         <v>-49</v>
       </c>
@@ -6559,7 +6566,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13">
         <v>-109</v>
       </c>
@@ -6840,7 +6847,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="56">
+      <c r="A33" s="55">
         <v>43533</v>
       </c>
       <c r="B33">
@@ -6854,7 +6861,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
+      <c r="A34" s="55"/>
       <c r="B34">
         <v>-32.6</v>
       </c>
@@ -6866,7 +6873,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
+      <c r="A35" s="55"/>
       <c r="B35">
         <v>-51</v>
       </c>
@@ -6878,7 +6885,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
+      <c r="A36" s="55"/>
       <c r="B36">
         <v>-36.9</v>
       </c>
@@ -6890,7 +6897,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="56">
+      <c r="A37" s="55">
         <v>43534</v>
       </c>
       <c r="B37">
@@ -6904,7 +6911,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
+      <c r="A38" s="55"/>
       <c r="B38">
         <v>-6</v>
       </c>
@@ -6916,7 +6923,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
+      <c r="A39" s="55"/>
       <c r="B39">
         <v>-30</v>
       </c>
@@ -7152,7 +7159,7 @@
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="56">
+      <c r="A57" s="55">
         <v>43540</v>
       </c>
       <c r="B57">
@@ -7168,7 +7175,7 @@
       <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="56"/>
+      <c r="A58" s="55"/>
       <c r="B58">
         <v>-35</v>
       </c>
@@ -7182,7 +7189,7 @@
       <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="56"/>
+      <c r="A59" s="55"/>
       <c r="B59">
         <v>-21</v>
       </c>
@@ -7196,7 +7203,7 @@
       <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="56">
+      <c r="A60" s="55">
         <v>43541</v>
       </c>
       <c r="B60">
@@ -7212,7 +7219,7 @@
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="56"/>
+      <c r="A61" s="55"/>
       <c r="B61">
         <v>-13</v>
       </c>
@@ -7226,7 +7233,7 @@
       <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="56"/>
+      <c r="A62" s="55"/>
       <c r="B62">
         <v>-3</v>
       </c>
@@ -7494,7 +7501,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="56">
+      <c r="A83" s="55">
         <v>43547</v>
       </c>
       <c r="B83">
@@ -7508,7 +7515,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="56"/>
+      <c r="A84" s="55"/>
       <c r="B84">
         <v>-62</v>
       </c>
@@ -7520,7 +7527,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="56">
+      <c r="A85" s="55">
         <v>43548</v>
       </c>
       <c r="B85">
@@ -7534,7 +7541,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="56"/>
+      <c r="A86" s="55"/>
       <c r="B86">
         <v>-10.75</v>
       </c>
@@ -7546,7 +7553,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="56"/>
+      <c r="A87" s="55"/>
       <c r="B87">
         <v>-37.119999999999997</v>
       </c>
@@ -7760,7 +7767,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="56">
+      <c r="A104" s="55">
         <v>43554</v>
       </c>
       <c r="B104">
@@ -7774,7 +7781,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="56"/>
+      <c r="A105" s="55"/>
       <c r="B105">
         <v>-8</v>
       </c>
@@ -7786,7 +7793,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="56"/>
+      <c r="A106" s="55"/>
       <c r="B106">
         <v>-30</v>
       </c>
@@ -8023,6 +8030,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A160:A163"/>
     <mergeCell ref="A164:A167"/>
     <mergeCell ref="A29:A32"/>
@@ -8039,23 +8063,6 @@
     <mergeCell ref="A104:A106"/>
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A66:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8064,10 +8071,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N225"/>
+  <dimension ref="A1:N232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8084,41 +8091,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="37">
-        <f>SUMIF(B4:B267,"&lt;0")</f>
-        <v>-3109.33</v>
+        <f>SUMIF(B4:B274,"&lt;0")</f>
+        <v>-3230.83</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13">
         <f>3000+C1</f>
-        <v>-109.32999999999993</v>
+        <v>-230.82999999999993</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
-        <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-14</v>
+        <f ca="1">DATE(2019,5,1)-TODAY()</f>
+        <v>12</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>7.8092857142857088</v>
+        <v>-19.235833333333328</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -8140,7 +8147,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>7.2886666666666615</v>
+        <v>-20.984545454545447</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -8355,7 +8362,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52">
+      <c r="A13" s="54">
         <v>43560</v>
       </c>
       <c r="B13" s="8">
@@ -8379,7 +8386,7 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="8">
         <v>-6</v>
       </c>
@@ -8391,7 +8398,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="8">
         <v>-5</v>
       </c>
@@ -8420,7 +8427,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="52">
+      <c r="A17" s="54">
         <v>43562</v>
       </c>
       <c r="B17" s="8">
@@ -8437,7 +8444,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="8">
         <v>-30</v>
       </c>
@@ -8452,7 +8459,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="8">
         <v>-42.5</v>
       </c>
@@ -8467,7 +8474,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="8">
         <v>-2.5</v>
       </c>
@@ -8482,7 +8489,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="8">
         <v>-5.3</v>
       </c>
@@ -8503,7 +8510,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="8">
         <v>-3.33</v>
       </c>
@@ -8520,7 +8527,7 @@
         <v>142</v>
       </c>
       <c r="J22">
-        <f>SUMIF($D$4:$D293,H22,$B$4:$B$293)</f>
+        <f>SUMIF($D$4:$D300,H22,$B$4:$B$300)</f>
         <v>-242</v>
       </c>
     </row>
@@ -8544,8 +8551,8 @@
         <v>143</v>
       </c>
       <c r="J23">
-        <f ca="1">SUMIF($D$4:$D294,H23,$B$4:$B$293)</f>
-        <v>-435.90000000000009</v>
+        <f ca="1">SUMIF($D$4:$D301,H23,$B$4:$B$300)</f>
+        <v>-522.40000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -8607,8 +8614,8 @@
         <v>45</v>
       </c>
       <c r="J27">
-        <f ca="1">SUMIF($D$4:$D295,H27,$B$4:$B$293)</f>
-        <v>-1011.4300000000001</v>
+        <f ca="1">SUMIF($D$4:$D302,H27,$B$4:$B$300)</f>
+        <v>-1046.43</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -8644,7 +8651,7 @@
         <v>46</v>
       </c>
       <c r="J29">
-        <f ca="1">SUMIF($D$4:$D296,H29,$B$4:$B$293)</f>
+        <f ca="1">SUMIF($D$4:$D303,H29,$B$4:$B$300)</f>
         <v>0</v>
       </c>
     </row>
@@ -8720,7 +8727,7 @@
         <v>40</v>
       </c>
       <c r="J34">
-        <f ca="1">SUMIF($D$4:$D297,H34,$B$4:$B$293)</f>
+        <f ca="1">SUMIF($D$4:$D304,H34,$B$4:$B$300)</f>
         <v>-1420</v>
       </c>
     </row>
@@ -8805,7 +8812,7 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="52">
+      <c r="A41" s="54">
         <v>43568</v>
       </c>
       <c r="B41" s="8">
@@ -8820,7 +8827,7 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="52"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="8">
         <v>-4.5</v>
       </c>
@@ -8833,7 +8840,7 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="52"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="8">
         <v>-21.7</v>
       </c>
@@ -8846,7 +8853,7 @@
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="52">
+      <c r="A44" s="54">
         <v>43569</v>
       </c>
       <c r="B44" s="8">
@@ -8861,7 +8868,7 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="52"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="8">
         <v>-231.53</v>
       </c>
@@ -8874,7 +8881,7 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="52"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="8">
         <v>-4</v>
       </c>
@@ -8954,58 +8961,48 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="38">
+      <c r="A52" s="48">
         <v>43571</v>
       </c>
       <c r="B52" s="8">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="D52" s="12">
-        <v>1</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J52">
-        <f ca="1">SUM(J22:J34)</f>
-        <v>-3109.33</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="38">
-        <v>43572</v>
-      </c>
+      <c r="A53" s="48"/>
       <c r="B53" s="8">
-        <v>-11</v>
+        <v>-35</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="D53" s="12">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="38">
-        <v>43573</v>
-      </c>
+      <c r="A54" s="48"/>
       <c r="B54" s="8">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="D54" s="12">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="38">
-        <v>43574</v>
-      </c>
+      <c r="A55" s="48"/>
       <c r="B55" s="8">
         <v>-11</v>
       </c>
@@ -9015,27 +9012,44 @@
       <c r="D55" s="12">
         <v>1</v>
       </c>
+      <c r="I55" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J55">
+        <f ca="1">SUM(J22:J34)</f>
+        <v>-3230.83</v>
+      </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="40">
-        <v>43575</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="12"/>
+      <c r="A56" s="48">
+        <v>43572</v>
+      </c>
+      <c r="B56" s="8">
+        <v>-15</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="12">
+        <v>2</v>
+      </c>
+      <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="40">
-        <v>43576</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="12"/>
+      <c r="A57" s="48"/>
+      <c r="B57" s="8">
+        <v>-7</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="12">
+        <v>2</v>
+      </c>
+      <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="38">
-        <v>43577</v>
-      </c>
+      <c r="A58" s="48"/>
       <c r="B58" s="8">
         <v>-11</v>
       </c>
@@ -9047,23 +9061,21 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="38">
-        <v>43578</v>
+      <c r="A59" s="48">
+        <v>43573</v>
       </c>
       <c r="B59" s="8">
-        <v>-11</v>
+        <v>-37</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="D59" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="38">
-        <v>43579</v>
-      </c>
+      <c r="A60" s="48"/>
       <c r="B60" s="8">
         <v>-11</v>
       </c>
@@ -9075,23 +9087,21 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="38">
-        <v>43580</v>
+      <c r="A61" s="48">
+        <v>43574</v>
       </c>
       <c r="B61" s="8">
-        <v>-11</v>
+        <v>-4.5</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="D61" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="38">
-        <v>43581</v>
-      </c>
+      <c r="A62" s="48"/>
       <c r="B62" s="8">
         <v>-11</v>
       </c>
@@ -9103,30 +9113,24 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="46">
-        <v>43582</v>
-      </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
+      <c r="A63" s="40">
+        <v>43575</v>
+      </c>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
       <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="38">
-        <v>43583</v>
-      </c>
-      <c r="B64" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D64" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="40">
+        <v>43576</v>
+      </c>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="12"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="38">
-        <v>43584</v>
+        <v>43577</v>
       </c>
       <c r="B65" s="8">
         <v>-11</v>
@@ -9138,9 +9142,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="38">
-        <v>43585</v>
+        <v>43578</v>
       </c>
       <c r="B66" s="8">
         <v>-11</v>
@@ -9152,114 +9156,157 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="38"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="38">
+        <v>43579</v>
+      </c>
+      <c r="B67" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="38">
+        <v>43580</v>
+      </c>
+      <c r="B68" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="38">
+        <v>43581</v>
+      </c>
+      <c r="B69" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="46">
+        <v>43582</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="38">
+        <v>43583</v>
+      </c>
+      <c r="B71" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="38">
+        <v>43584</v>
+      </c>
+      <c r="B72" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="38">
+        <v>43585</v>
+      </c>
+      <c r="B73" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="38"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
@@ -9349,36 +9396,50 @@
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
@@ -9985,8 +10046,47 @@
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
     </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="8"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="8"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="8"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="8"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="8"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="8"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="8"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="8"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="8"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A52:A55"/>
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A6:A8"/>
@@ -10105,7 +10205,7 @@
       <c r="E6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="54"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="27"/>
       <c r="M6" t="s">
         <v>149</v>
@@ -10128,7 +10228,7 @@
       <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="54"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="27"/>
       <c r="M7" t="s">
         <v>172</v>
@@ -10146,7 +10246,7 @@
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="54"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="27"/>
       <c r="M8" t="s">
         <v>173</v>
@@ -10174,7 +10274,7 @@
       <c r="E9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="54"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="27"/>
       <c r="M9" t="s">
         <v>185</v>
@@ -10192,7 +10292,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="I10" s="54"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="27"/>
       <c r="M10" t="s">
         <v>186</v>
@@ -10346,7 +10446,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -10360,7 +10460,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -10373,14 +10473,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-214.28571428571428</v>
+        <v>-166.66666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -10402,7 +10502,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>-200</v>
+        <v>-157.89473684210526</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -10563,7 +10663,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52">
+      <c r="A13" s="54">
         <v>43560</v>
       </c>
       <c r="B13" s="8"/>
@@ -10581,13 +10681,13 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="12"/>
@@ -10604,7 +10704,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="52">
+      <c r="A17" s="54">
         <v>43562</v>
       </c>
       <c r="B17" s="8"/>
@@ -10615,7 +10715,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="12"/>
@@ -10624,7 +10724,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="12"/>
@@ -10633,7 +10733,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="12"/>
@@ -10642,7 +10742,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="12"/>
@@ -10657,7 +10757,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="12"/>

--- a/账本/健忘症患者的账本.xlsx
+++ b/账本/健忘症患者的账本.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="206">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1672,6 +1672,48 @@
     <t>益母草</t>
     <rPh sb="0" eb="1">
       <t>yi mu cao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋</t>
+    <rPh sb="0" eb="1">
+      <t>ji dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖</t>
+    <rPh sb="0" eb="1">
+      <t>wai mai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖</t>
+    <rPh sb="0" eb="1">
+      <t>waii mai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生巾</t>
+    <rPh sb="0" eb="1">
+      <t>w s jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内衣</t>
+    <rPh sb="0" eb="1">
+      <t>nei yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湿巾</t>
+    <rPh sb="0" eb="1">
+      <t>shi jin</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1895,29 +1937,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2225,7 +2267,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2239,7 +2281,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -2252,14 +2294,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-108</v>
+        <v>-111</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>24.047777777777778</v>
+        <v>23.397837837837837</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -2272,16 +2314,16 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>23.827155963302751</v>
+        <v>23.188928571428569</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2749,7 +2791,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="54">
+      <c r="A36" s="52">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -2763,7 +2805,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
+      <c r="A37" s="52"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -2775,7 +2817,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
+      <c r="A38" s="52"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -3589,6 +3631,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
@@ -3605,20 +3661,6 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3645,7 +3687,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3659,7 +3701,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -3672,14 +3714,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-77</v>
+        <v>-80</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>33.870259740259755</v>
+        <v>32.600125000000013</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -3701,7 +3743,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>33.436025641025658</v>
+        <v>32.197654320987667</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3929,7 +3971,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="54">
+      <c r="A16" s="52">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -3943,7 +3985,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
+      <c r="A17" s="52"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -3955,7 +3997,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="52"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -3967,7 +4009,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="52"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -3985,7 +4027,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="52"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -4004,7 +4046,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
+      <c r="A21" s="52"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -4023,7 +4065,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="54">
+      <c r="A22" s="52">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -4044,7 +4086,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
+      <c r="A23" s="52"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -4063,7 +4105,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
+      <c r="A24" s="52"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -4298,7 +4340,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="54">
+      <c r="A43" s="52">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -4312,7 +4354,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
+      <c r="A44" s="52"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -4550,7 +4592,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="54">
+      <c r="A63" s="52">
         <v>43484</v>
       </c>
       <c r="B63">
@@ -4564,7 +4606,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
+      <c r="A64" s="52"/>
       <c r="B64">
         <v>-62</v>
       </c>
@@ -4576,7 +4618,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="54">
+      <c r="A65" s="52">
         <v>43485</v>
       </c>
       <c r="B65">
@@ -4590,7 +4632,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
+      <c r="A66" s="52"/>
       <c r="B66">
         <v>-30</v>
       </c>
@@ -4602,7 +4644,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
+      <c r="A67" s="52"/>
       <c r="B67">
         <v>-98</v>
       </c>
@@ -4803,7 +4845,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="54">
+      <c r="A83" s="52">
         <v>43492</v>
       </c>
       <c r="B83">
@@ -4817,7 +4859,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="54"/>
+      <c r="A84" s="52"/>
       <c r="B84">
         <v>-13.8</v>
       </c>
@@ -4982,6 +5024,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A92:A95"/>
@@ -4998,18 +5052,6 @@
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5037,7 +5079,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5056,7 +5098,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -5069,14 +5111,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>-49</v>
+        <v>-52</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>41.509795918367338</v>
+        <v>39.114999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5091,7 +5133,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>40.679599999999994</v>
+        <v>38.376981132075464</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5106,7 +5148,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="54">
+      <c r="A5" s="52">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -5117,7 +5159,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="52"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -5126,7 +5168,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="52"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -5171,7 +5213,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="55">
+      <c r="A10" s="56">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -5182,7 +5224,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
@@ -5198,7 +5240,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -5207,7 +5249,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -5216,7 +5258,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="55">
+      <c r="A14" s="56">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -5227,7 +5269,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -5241,7 +5283,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="55">
+      <c r="A17" s="56">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -5252,7 +5294,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18">
         <v>-300</v>
       </c>
@@ -5261,7 +5303,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19">
         <v>-149</v>
       </c>
@@ -5281,7 +5323,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="54">
+      <c r="A21" s="52">
         <v>43503</v>
       </c>
       <c r="B21">
@@ -5292,7 +5334,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
+      <c r="A22" s="52"/>
       <c r="B22">
         <v>-130.27000000000001</v>
       </c>
@@ -5301,7 +5343,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="54">
+      <c r="A23" s="52">
         <v>43504</v>
       </c>
       <c r="B23">
@@ -5312,7 +5354,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
+      <c r="A24" s="52"/>
       <c r="B24">
         <v>-15</v>
       </c>
@@ -5321,7 +5363,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="54">
+      <c r="A25" s="52">
         <v>43505</v>
       </c>
       <c r="B25">
@@ -5332,7 +5374,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
+      <c r="A26" s="52"/>
       <c r="B26">
         <v>-39</v>
       </c>
@@ -5341,7 +5383,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
+      <c r="A27" s="52"/>
       <c r="B27">
         <v>-10</v>
       </c>
@@ -5350,7 +5392,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
+      <c r="A28" s="52"/>
       <c r="B28">
         <v>-17.600000000000001</v>
       </c>
@@ -5362,7 +5404,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
+      <c r="A29" s="52"/>
       <c r="B29">
         <v>-25</v>
       </c>
@@ -5374,7 +5416,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+      <c r="A30" s="52"/>
       <c r="B30">
         <v>-83</v>
       </c>
@@ -5383,7 +5425,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
+      <c r="A31" s="52"/>
       <c r="B31">
         <v>-128</v>
       </c>
@@ -5392,7 +5434,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
+      <c r="A32" s="52"/>
       <c r="B32">
         <v>-28</v>
       </c>
@@ -5401,7 +5443,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
+      <c r="A33" s="52"/>
       <c r="B33">
         <v>-65</v>
       </c>
@@ -5413,7 +5455,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
+      <c r="A34" s="52"/>
       <c r="B34">
         <v>-127.9</v>
       </c>
@@ -5441,7 +5483,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
+      <c r="A37" s="55"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -5605,7 +5647,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="54">
+      <c r="A50" s="52">
         <v>43512</v>
       </c>
       <c r="B50">
@@ -5619,7 +5661,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
+      <c r="A51" s="52"/>
       <c r="B51">
         <v>-33.5</v>
       </c>
@@ -5631,7 +5673,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="54">
+      <c r="A52" s="52">
         <v>43513</v>
       </c>
       <c r="B52">
@@ -5645,7 +5687,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="54"/>
+      <c r="A53" s="52"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -5657,7 +5699,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
+      <c r="A54" s="52"/>
       <c r="B54">
         <v>-2</v>
       </c>
@@ -5943,7 +5985,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="54">
+      <c r="A77" s="52">
         <v>43519</v>
       </c>
       <c r="B77">
@@ -5957,7 +5999,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
+      <c r="A78" s="52"/>
       <c r="B78">
         <f>-2.8-7.2-9.34-4</f>
         <v>-23.34</v>
@@ -5970,7 +6012,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="54"/>
+      <c r="A79" s="52"/>
       <c r="B79">
         <v>-30</v>
       </c>
@@ -5982,7 +6024,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="52" t="s">
         <v>115</v>
       </c>
       <c r="B80">
@@ -5996,7 +6038,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="54"/>
+      <c r="A81" s="52"/>
       <c r="B81">
         <v>-16</v>
       </c>
@@ -6008,7 +6050,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="54"/>
+      <c r="A82" s="52"/>
       <c r="B82">
         <v>-2.5</v>
       </c>
@@ -6020,7 +6062,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="54"/>
+      <c r="A83" s="52"/>
       <c r="B83">
         <v>-16</v>
       </c>
@@ -6263,6 +6305,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A69"/>
     <mergeCell ref="A87:A90"/>
     <mergeCell ref="A91:A94"/>
     <mergeCell ref="A95:A100"/>
@@ -6271,24 +6331,6 @@
     <mergeCell ref="A77:A79"/>
     <mergeCell ref="A80:A83"/>
     <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6317,7 +6359,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6331,7 +6373,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -6344,14 +6386,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>34.213333333333367</v>
+        <v>29.325714285714316</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -6373,7 +6415,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>32.412631578947398</v>
+        <v>27.992727272727301</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6498,7 +6540,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="55">
+      <c r="A10" s="56">
         <v>43527</v>
       </c>
       <c r="B10">
@@ -6522,7 +6564,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11">
         <v>-2</v>
       </c>
@@ -6544,7 +6586,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12">
         <v>-49</v>
       </c>
@@ -6566,7 +6608,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13">
         <v>-109</v>
       </c>
@@ -6847,7 +6889,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="55">
+      <c r="A33" s="56">
         <v>43533</v>
       </c>
       <c r="B33">
@@ -6861,7 +6903,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
+      <c r="A34" s="56"/>
       <c r="B34">
         <v>-32.6</v>
       </c>
@@ -6873,7 +6915,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
+      <c r="A35" s="56"/>
       <c r="B35">
         <v>-51</v>
       </c>
@@ -6885,7 +6927,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
+      <c r="A36" s="56"/>
       <c r="B36">
         <v>-36.9</v>
       </c>
@@ -6897,7 +6939,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="55">
+      <c r="A37" s="56">
         <v>43534</v>
       </c>
       <c r="B37">
@@ -6911,7 +6953,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
+      <c r="A38" s="56"/>
       <c r="B38">
         <v>-6</v>
       </c>
@@ -6923,7 +6965,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="55"/>
+      <c r="A39" s="56"/>
       <c r="B39">
         <v>-30</v>
       </c>
@@ -7159,7 +7201,7 @@
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="55">
+      <c r="A57" s="56">
         <v>43540</v>
       </c>
       <c r="B57">
@@ -7175,7 +7217,7 @@
       <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="55"/>
+      <c r="A58" s="56"/>
       <c r="B58">
         <v>-35</v>
       </c>
@@ -7189,7 +7231,7 @@
       <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="55"/>
+      <c r="A59" s="56"/>
       <c r="B59">
         <v>-21</v>
       </c>
@@ -7203,7 +7245,7 @@
       <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="55">
+      <c r="A60" s="56">
         <v>43541</v>
       </c>
       <c r="B60">
@@ -7219,7 +7261,7 @@
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="55"/>
+      <c r="A61" s="56"/>
       <c r="B61">
         <v>-13</v>
       </c>
@@ -7233,7 +7275,7 @@
       <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="55"/>
+      <c r="A62" s="56"/>
       <c r="B62">
         <v>-3</v>
       </c>
@@ -7501,7 +7543,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="55">
+      <c r="A83" s="56">
         <v>43547</v>
       </c>
       <c r="B83">
@@ -7515,7 +7557,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="55"/>
+      <c r="A84" s="56"/>
       <c r="B84">
         <v>-62</v>
       </c>
@@ -7527,7 +7569,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="55">
+      <c r="A85" s="56">
         <v>43548</v>
       </c>
       <c r="B85">
@@ -7541,7 +7583,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="55"/>
+      <c r="A86" s="56"/>
       <c r="B86">
         <v>-10.75</v>
       </c>
@@ -7553,7 +7595,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="55"/>
+      <c r="A87" s="56"/>
       <c r="B87">
         <v>-37.119999999999997</v>
       </c>
@@ -7767,7 +7809,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="55">
+      <c r="A104" s="56">
         <v>43554</v>
       </c>
       <c r="B104">
@@ -7781,7 +7823,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="55"/>
+      <c r="A105" s="56"/>
       <c r="B105">
         <v>-8</v>
       </c>
@@ -7793,7 +7835,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="55"/>
+      <c r="A106" s="56"/>
       <c r="B106">
         <v>-30</v>
       </c>
@@ -8030,23 +8072,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A160:A163"/>
     <mergeCell ref="A164:A167"/>
     <mergeCell ref="A29:A32"/>
@@ -8063,6 +8088,23 @@
     <mergeCell ref="A104:A106"/>
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A66:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8071,10 +8113,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N232"/>
+  <dimension ref="A1:N238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8091,41 +8133,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="37">
-        <f>SUMIF(B4:B274,"&lt;0")</f>
-        <v>-3230.83</v>
+        <f>SUMIF(B4:B280,"&lt;0")</f>
+        <v>-3593.6499999999996</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13">
         <f>3000+C1</f>
-        <v>-230.82999999999993</v>
+        <v>-593.64999999999964</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,5,1)-TODAY()</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-19.235833333333328</v>
+        <v>-65.961111111111066</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -8147,7 +8189,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>-20.984545454545447</v>
+        <v>-74.206249999999955</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -8362,7 +8404,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54">
+      <c r="A13" s="52">
         <v>43560</v>
       </c>
       <c r="B13" s="8">
@@ -8386,7 +8428,7 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="8">
         <v>-6</v>
       </c>
@@ -8398,7 +8440,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="8">
         <v>-5</v>
       </c>
@@ -8427,7 +8469,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="54">
+      <c r="A17" s="52">
         <v>43562</v>
       </c>
       <c r="B17" s="8">
@@ -8444,7 +8486,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="8">
         <v>-30</v>
       </c>
@@ -8459,7 +8501,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="8">
         <v>-42.5</v>
       </c>
@@ -8474,7 +8516,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="8">
         <v>-2.5</v>
       </c>
@@ -8489,7 +8531,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="8">
         <v>-5.3</v>
       </c>
@@ -8510,7 +8552,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="8">
         <v>-3.33</v>
       </c>
@@ -8527,7 +8569,7 @@
         <v>142</v>
       </c>
       <c r="J22">
-        <f>SUMIF($D$4:$D300,H22,$B$4:$B$300)</f>
+        <f>SUMIF($D$4:$D306,H22,$B$4:$B$306)</f>
         <v>-242</v>
       </c>
     </row>
@@ -8551,8 +8593,8 @@
         <v>143</v>
       </c>
       <c r="J23">
-        <f ca="1">SUMIF($D$4:$D301,H23,$B$4:$B$300)</f>
-        <v>-522.40000000000009</v>
+        <f ca="1">SUMIF($D$4:$D307,H23,$B$4:$B$306)</f>
+        <v>-585.22000000000014</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -8614,8 +8656,8 @@
         <v>45</v>
       </c>
       <c r="J27">
-        <f ca="1">SUMIF($D$4:$D302,H27,$B$4:$B$300)</f>
-        <v>-1046.43</v>
+        <f ca="1">SUMIF($D$4:$D308,H27,$B$4:$B$306)</f>
+        <v>-1346.43</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -8651,7 +8693,7 @@
         <v>46</v>
       </c>
       <c r="J29">
-        <f ca="1">SUMIF($D$4:$D303,H29,$B$4:$B$300)</f>
+        <f ca="1">SUMIF($D$4:$D309,H29,$B$4:$B$306)</f>
         <v>0</v>
       </c>
     </row>
@@ -8727,7 +8769,7 @@
         <v>40</v>
       </c>
       <c r="J34">
-        <f ca="1">SUMIF($D$4:$D304,H34,$B$4:$B$300)</f>
+        <f ca="1">SUMIF($D$4:$D310,H34,$B$4:$B$306)</f>
         <v>-1420</v>
       </c>
     </row>
@@ -8812,7 +8854,7 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="54">
+      <c r="A41" s="52">
         <v>43568</v>
       </c>
       <c r="B41" s="8">
@@ -8827,7 +8869,7 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="8">
         <v>-4.5</v>
       </c>
@@ -8840,7 +8882,7 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="8">
         <v>-21.7</v>
       </c>
@@ -8853,7 +8895,7 @@
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="54">
+      <c r="A44" s="52">
         <v>43569</v>
       </c>
       <c r="B44" s="8">
@@ -8868,7 +8910,7 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="8">
         <v>-231.53</v>
       </c>
@@ -8881,7 +8923,7 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="8">
         <v>-4</v>
       </c>
@@ -9004,44 +9046,44 @@
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="48"/>
       <c r="B55" s="8">
+        <v>-75</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D55" s="12">
+        <v>3</v>
+      </c>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="48"/>
+      <c r="B56" s="8">
         <v>-11</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="12">
-        <v>1</v>
-      </c>
-      <c r="I55" s="4" t="s">
+      <c r="D56" s="12">
+        <v>1</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J55">
+      <c r="J56">
         <f ca="1">SUM(J22:J34)</f>
-        <v>-3230.83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="48">
+        <v>-3593.65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="48">
         <v>43572</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B57" s="8">
         <v>-15</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="D56" s="12">
-        <v>2</v>
-      </c>
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="48"/>
-      <c r="B57" s="8">
-        <v>-7</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="D57" s="12">
         <v>2</v>
@@ -9051,87 +9093,96 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="48"/>
       <c r="B58" s="8">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="D58" s="12">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="48">
-        <v>43573</v>
-      </c>
+      <c r="A59" s="48"/>
       <c r="B59" s="8">
-        <v>-37</v>
+        <v>-10</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D59" s="12">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="48"/>
       <c r="B60" s="8">
+        <v>-215</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="12">
+        <v>3</v>
+      </c>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="48"/>
+      <c r="B61" s="8">
         <v>-11</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="48">
+      <c r="D61" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="48">
+        <v>43573</v>
+      </c>
+      <c r="B62" s="8">
+        <v>-37</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="48"/>
+      <c r="B63" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="48">
         <v>43574</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B64" s="8">
         <v>-4.5</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D61" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="48"/>
-      <c r="B62" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="40">
-        <v>43575</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="12"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="40">
-        <v>43576</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="12"/>
+      <c r="D64" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="38">
-        <v>43577</v>
-      </c>
+      <c r="A65" s="48"/>
       <c r="B65" s="8">
         <v>-11</v>
       </c>
@@ -9143,73 +9194,73 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="38">
-        <v>43578</v>
+      <c r="A66" s="52">
+        <v>43575</v>
       </c>
       <c r="B66" s="8">
-        <v>-11</v>
+        <v>-22.6</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="D66" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="38">
-        <v>43579</v>
-      </c>
+      <c r="A67" s="52"/>
       <c r="B67" s="8">
-        <v>-11</v>
+        <v>-14.5</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="D67" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="38">
-        <v>43580</v>
+      <c r="A68" s="40">
+        <v>43576</v>
       </c>
       <c r="B68" s="8">
-        <v>-11</v>
+        <v>-9.5</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="D68" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="38">
-        <v>43581</v>
+      <c r="A69" s="48">
+        <v>43577</v>
       </c>
       <c r="B69" s="8">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="D69" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="46">
-        <v>43582</v>
-      </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="8">
+        <v>-12.22</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="38">
-        <v>43583</v>
-      </c>
+      <c r="A71" s="48"/>
       <c r="B71" s="8">
         <v>-11</v>
       </c>
@@ -9222,7 +9273,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="38">
-        <v>43584</v>
+        <v>43578</v>
       </c>
       <c r="B72" s="8">
         <v>-11</v>
@@ -9236,7 +9287,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="38">
-        <v>43585</v>
+        <v>43579</v>
       </c>
       <c r="B73" s="8">
         <v>-11</v>
@@ -9249,37 +9300,85 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="38"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
+      <c r="A74" s="38">
+        <v>43580</v>
+      </c>
+      <c r="B74" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
+      <c r="A75" s="38">
+        <v>43581</v>
+      </c>
+      <c r="B75" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+      <c r="A76" s="46">
+        <v>43582</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
+      <c r="A77" s="38">
+        <v>43583</v>
+      </c>
+      <c r="B77" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
+      <c r="A78" s="38">
+        <v>43584</v>
+      </c>
+      <c r="B78" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
+      <c r="A79" s="38">
+        <v>43585</v>
+      </c>
+      <c r="B79" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
+      <c r="A80" s="38"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
     </row>
@@ -9312,43 +9411,31 @@
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
@@ -9445,31 +9532,43 @@
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
@@ -10081,23 +10180,55 @@
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
     </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="8"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="8"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="8"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="8"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="8"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="8"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="8"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="8"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A47:A51"/>
+  <mergeCells count="17">
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A47:A51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10205,7 +10336,7 @@
       <c r="E6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="50"/>
+      <c r="I6" s="54"/>
       <c r="J6" s="27"/>
       <c r="M6" t="s">
         <v>149</v>
@@ -10228,7 +10359,7 @@
       <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="50"/>
+      <c r="I7" s="54"/>
       <c r="J7" s="27"/>
       <c r="M7" t="s">
         <v>172</v>
@@ -10246,7 +10377,7 @@
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="50"/>
+      <c r="I8" s="54"/>
       <c r="J8" s="27"/>
       <c r="M8" t="s">
         <v>173</v>
@@ -10274,7 +10405,7 @@
       <c r="E9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="50"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="27"/>
       <c r="M9" t="s">
         <v>185</v>
@@ -10292,7 +10423,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="I10" s="50"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="27"/>
       <c r="M10" t="s">
         <v>186</v>
@@ -10446,7 +10577,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -10460,7 +10591,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -10473,14 +10604,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-166.66666666666666</v>
+        <v>-142.85714285714286</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -10502,7 +10633,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>-157.89473684210526</v>
+        <v>-136.36363636363637</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -10663,7 +10794,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54">
+      <c r="A13" s="52">
         <v>43560</v>
       </c>
       <c r="B13" s="8"/>
@@ -10681,13 +10812,13 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="12"/>
@@ -10704,7 +10835,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="54">
+      <c r="A17" s="52">
         <v>43562</v>
       </c>
       <c r="B17" s="8"/>
@@ -10715,7 +10846,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="12"/>
@@ -10724,7 +10855,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="12"/>
@@ -10733,7 +10864,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="12"/>
@@ -10742,7 +10873,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="12"/>
@@ -10757,7 +10888,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="12"/>

--- a/账本/健忘症患者的账本.xlsx
+++ b/账本/健忘症患者的账本.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="207">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1714,6 +1714,13 @@
     <t>湿巾</t>
     <rPh sb="0" eb="1">
       <t>shi jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣条</t>
+    <rPh sb="0" eb="1">
+      <t>la tiao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1937,29 +1944,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2267,7 +2274,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2281,7 +2288,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -2294,14 +2301,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-111</v>
+        <v>-113</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>23.397837837837837</v>
+        <v>22.98371681415929</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -2314,16 +2321,16 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>23.188928571428569</v>
+        <v>22.782105263157895</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2791,7 +2798,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="52">
+      <c r="A36" s="54">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -2805,7 +2812,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
+      <c r="A37" s="54"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -2817,7 +2824,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
+      <c r="A38" s="54"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -3631,20 +3638,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
@@ -3661,6 +3654,20 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3687,7 +3694,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3701,7 +3708,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -3714,14 +3721,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-80</v>
+        <v>-82</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>32.600125000000013</v>
+        <v>31.805000000000014</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -3743,7 +3750,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>32.197654320987667</v>
+        <v>31.421807228915675</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3971,7 +3978,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="52">
+      <c r="A16" s="54">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -3985,7 +3992,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="54"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -3997,7 +4004,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -4009,7 +4016,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
+      <c r="A19" s="54"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -4027,7 +4034,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="54"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -4046,7 +4053,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="54"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -4065,7 +4072,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="52">
+      <c r="A22" s="54">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -4086,7 +4093,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="54"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -4105,7 +4112,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="54"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -4340,7 +4347,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="52">
+      <c r="A43" s="54">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -4354,7 +4361,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="52"/>
+      <c r="A44" s="54"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -4592,7 +4599,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="52">
+      <c r="A63" s="54">
         <v>43484</v>
       </c>
       <c r="B63">
@@ -4606,7 +4613,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="52"/>
+      <c r="A64" s="54"/>
       <c r="B64">
         <v>-62</v>
       </c>
@@ -4618,7 +4625,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="52">
+      <c r="A65" s="54">
         <v>43485</v>
       </c>
       <c r="B65">
@@ -4632,7 +4639,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="52"/>
+      <c r="A66" s="54"/>
       <c r="B66">
         <v>-30</v>
       </c>
@@ -4644,7 +4651,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="52"/>
+      <c r="A67" s="54"/>
       <c r="B67">
         <v>-98</v>
       </c>
@@ -4845,7 +4852,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="52">
+      <c r="A83" s="54">
         <v>43492</v>
       </c>
       <c r="B83">
@@ -4859,7 +4866,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="52"/>
+      <c r="A84" s="54"/>
       <c r="B84">
         <v>-13.8</v>
       </c>
@@ -5024,18 +5031,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A92:A95"/>
@@ -5052,6 +5047,18 @@
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5079,7 +5086,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5098,7 +5105,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -5111,14 +5118,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>-52</v>
+        <v>-54</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>39.114999999999995</v>
+        <v>37.666296296296288</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5133,7 +5140,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>38.376981132075464</v>
+        <v>36.98145454545454</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5148,7 +5155,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="52">
+      <c r="A5" s="54">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -5159,7 +5166,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
+      <c r="A6" s="54"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -5168,7 +5175,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
+      <c r="A7" s="54"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -5213,7 +5220,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="56">
+      <c r="A10" s="55">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -5224,7 +5231,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
@@ -5240,7 +5247,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -5249,7 +5256,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -5258,7 +5265,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="56">
+      <c r="A14" s="55">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -5269,7 +5276,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -5283,7 +5290,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="56">
+      <c r="A17" s="55">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -5294,7 +5301,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+      <c r="A18" s="55"/>
       <c r="B18">
         <v>-300</v>
       </c>
@@ -5303,7 +5310,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19">
         <v>-149</v>
       </c>
@@ -5323,7 +5330,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="52">
+      <c r="A21" s="54">
         <v>43503</v>
       </c>
       <c r="B21">
@@ -5334,7 +5341,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="54"/>
       <c r="B22">
         <v>-130.27000000000001</v>
       </c>
@@ -5343,7 +5350,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="52">
+      <c r="A23" s="54">
         <v>43504</v>
       </c>
       <c r="B23">
@@ -5354,7 +5361,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="54"/>
       <c r="B24">
         <v>-15</v>
       </c>
@@ -5363,7 +5370,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="52">
+      <c r="A25" s="54">
         <v>43505</v>
       </c>
       <c r="B25">
@@ -5374,7 +5381,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
+      <c r="A26" s="54"/>
       <c r="B26">
         <v>-39</v>
       </c>
@@ -5383,7 +5390,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
+      <c r="A27" s="54"/>
       <c r="B27">
         <v>-10</v>
       </c>
@@ -5392,7 +5399,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
+      <c r="A28" s="54"/>
       <c r="B28">
         <v>-17.600000000000001</v>
       </c>
@@ -5404,7 +5411,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
+      <c r="A29" s="54"/>
       <c r="B29">
         <v>-25</v>
       </c>
@@ -5416,7 +5423,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
+      <c r="A30" s="54"/>
       <c r="B30">
         <v>-83</v>
       </c>
@@ -5425,7 +5432,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
+      <c r="A31" s="54"/>
       <c r="B31">
         <v>-128</v>
       </c>
@@ -5434,7 +5441,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
+      <c r="A32" s="54"/>
       <c r="B32">
         <v>-28</v>
       </c>
@@ -5443,7 +5450,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
+      <c r="A33" s="54"/>
       <c r="B33">
         <v>-65</v>
       </c>
@@ -5455,7 +5462,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
+      <c r="A34" s="54"/>
       <c r="B34">
         <v>-127.9</v>
       </c>
@@ -5483,7 +5490,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
+      <c r="A37" s="56"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -5647,7 +5654,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="52">
+      <c r="A50" s="54">
         <v>43512</v>
       </c>
       <c r="B50">
@@ -5661,7 +5668,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="52"/>
+      <c r="A51" s="54"/>
       <c r="B51">
         <v>-33.5</v>
       </c>
@@ -5673,7 +5680,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="52">
+      <c r="A52" s="54">
         <v>43513</v>
       </c>
       <c r="B52">
@@ -5687,7 +5694,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="52"/>
+      <c r="A53" s="54"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -5699,7 +5706,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="52"/>
+      <c r="A54" s="54"/>
       <c r="B54">
         <v>-2</v>
       </c>
@@ -5985,7 +5992,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="52">
+      <c r="A77" s="54">
         <v>43519</v>
       </c>
       <c r="B77">
@@ -5999,7 +6006,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="52"/>
+      <c r="A78" s="54"/>
       <c r="B78">
         <f>-2.8-7.2-9.34-4</f>
         <v>-23.34</v>
@@ -6012,7 +6019,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="52"/>
+      <c r="A79" s="54"/>
       <c r="B79">
         <v>-30</v>
       </c>
@@ -6024,7 +6031,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="52" t="s">
+      <c r="A80" s="54" t="s">
         <v>115</v>
       </c>
       <c r="B80">
@@ -6038,7 +6045,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="52"/>
+      <c r="A81" s="54"/>
       <c r="B81">
         <v>-16</v>
       </c>
@@ -6050,7 +6057,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="52"/>
+      <c r="A82" s="54"/>
       <c r="B82">
         <v>-2.5</v>
       </c>
@@ -6062,7 +6069,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="52"/>
+      <c r="A83" s="54"/>
       <c r="B83">
         <v>-16</v>
       </c>
@@ -6305,6 +6312,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -6313,24 +6338,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6359,7 +6366,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6373,7 +6380,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -6386,14 +6393,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-21</v>
+        <v>-23</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>29.325714285714316</v>
+        <v>26.77565217391307</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -6415,7 +6422,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>27.992727272727301</v>
+        <v>25.660000000000025</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6540,7 +6547,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="56">
+      <c r="A10" s="55">
         <v>43527</v>
       </c>
       <c r="B10">
@@ -6564,7 +6571,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
+      <c r="A11" s="55"/>
       <c r="B11">
         <v>-2</v>
       </c>
@@ -6586,7 +6593,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
       <c r="B12">
         <v>-49</v>
       </c>
@@ -6608,7 +6615,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13">
         <v>-109</v>
       </c>
@@ -6889,7 +6896,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="56">
+      <c r="A33" s="55">
         <v>43533</v>
       </c>
       <c r="B33">
@@ -6903,7 +6910,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
+      <c r="A34" s="55"/>
       <c r="B34">
         <v>-32.6</v>
       </c>
@@ -6915,7 +6922,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
+      <c r="A35" s="55"/>
       <c r="B35">
         <v>-51</v>
       </c>
@@ -6927,7 +6934,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
+      <c r="A36" s="55"/>
       <c r="B36">
         <v>-36.9</v>
       </c>
@@ -6939,7 +6946,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="56">
+      <c r="A37" s="55">
         <v>43534</v>
       </c>
       <c r="B37">
@@ -6953,7 +6960,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
+      <c r="A38" s="55"/>
       <c r="B38">
         <v>-6</v>
       </c>
@@ -6965,7 +6972,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
+      <c r="A39" s="55"/>
       <c r="B39">
         <v>-30</v>
       </c>
@@ -7201,7 +7208,7 @@
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="56">
+      <c r="A57" s="55">
         <v>43540</v>
       </c>
       <c r="B57">
@@ -7217,7 +7224,7 @@
       <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="56"/>
+      <c r="A58" s="55"/>
       <c r="B58">
         <v>-35</v>
       </c>
@@ -7231,7 +7238,7 @@
       <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="56"/>
+      <c r="A59" s="55"/>
       <c r="B59">
         <v>-21</v>
       </c>
@@ -7245,7 +7252,7 @@
       <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="56">
+      <c r="A60" s="55">
         <v>43541</v>
       </c>
       <c r="B60">
@@ -7261,7 +7268,7 @@
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="56"/>
+      <c r="A61" s="55"/>
       <c r="B61">
         <v>-13</v>
       </c>
@@ -7275,7 +7282,7 @@
       <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="56"/>
+      <c r="A62" s="55"/>
       <c r="B62">
         <v>-3</v>
       </c>
@@ -7543,7 +7550,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="56">
+      <c r="A83" s="55">
         <v>43547</v>
       </c>
       <c r="B83">
@@ -7557,7 +7564,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="56"/>
+      <c r="A84" s="55"/>
       <c r="B84">
         <v>-62</v>
       </c>
@@ -7569,7 +7576,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="56">
+      <c r="A85" s="55">
         <v>43548</v>
       </c>
       <c r="B85">
@@ -7583,7 +7590,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="56"/>
+      <c r="A86" s="55"/>
       <c r="B86">
         <v>-10.75</v>
       </c>
@@ -7595,7 +7602,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="56"/>
+      <c r="A87" s="55"/>
       <c r="B87">
         <v>-37.119999999999997</v>
       </c>
@@ -7809,7 +7816,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="56">
+      <c r="A104" s="55">
         <v>43554</v>
       </c>
       <c r="B104">
@@ -7823,7 +7830,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="56"/>
+      <c r="A105" s="55"/>
       <c r="B105">
         <v>-8</v>
       </c>
@@ -7835,7 +7842,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="56"/>
+      <c r="A106" s="55"/>
       <c r="B106">
         <v>-30</v>
       </c>
@@ -8072,6 +8079,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A160:A163"/>
     <mergeCell ref="A164:A167"/>
     <mergeCell ref="A29:A32"/>
@@ -8088,23 +8112,6 @@
     <mergeCell ref="A104:A106"/>
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A66:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8113,10 +8120,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N238"/>
+  <dimension ref="A1:N243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8133,41 +8140,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="37">
-        <f>SUMIF(B4:B280,"&lt;0")</f>
-        <v>-3593.6499999999996</v>
+        <f>SUMIF(B4:B285,"&lt;0")</f>
+        <v>-3641.7499999999995</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13">
         <f>3000+C1</f>
-        <v>-593.64999999999964</v>
+        <v>-641.74999999999955</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,5,1)-TODAY()</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-65.961111111111066</v>
+        <v>-91.67857142857136</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -8189,7 +8196,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>-74.206249999999955</v>
+        <v>-106.95833333333326</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -8404,7 +8411,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52">
+      <c r="A13" s="54">
         <v>43560</v>
       </c>
       <c r="B13" s="8">
@@ -8428,7 +8435,7 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="8">
         <v>-6</v>
       </c>
@@ -8440,7 +8447,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="8">
         <v>-5</v>
       </c>
@@ -8469,7 +8476,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="52">
+      <c r="A17" s="54">
         <v>43562</v>
       </c>
       <c r="B17" s="8">
@@ -8486,7 +8493,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="8">
         <v>-30</v>
       </c>
@@ -8501,7 +8508,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="8">
         <v>-42.5</v>
       </c>
@@ -8516,7 +8523,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="8">
         <v>-2.5</v>
       </c>
@@ -8531,7 +8538,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="8">
         <v>-5.3</v>
       </c>
@@ -8552,7 +8559,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="8">
         <v>-3.33</v>
       </c>
@@ -8569,7 +8576,7 @@
         <v>142</v>
       </c>
       <c r="J22">
-        <f>SUMIF($D$4:$D306,H22,$B$4:$B$306)</f>
+        <f>SUMIF($D$4:$D311,H22,$B$4:$B$311)</f>
         <v>-242</v>
       </c>
     </row>
@@ -8593,8 +8600,8 @@
         <v>143</v>
       </c>
       <c r="J23">
-        <f ca="1">SUMIF($D$4:$D307,H23,$B$4:$B$306)</f>
-        <v>-585.22000000000014</v>
+        <f ca="1">SUMIF($D$4:$D312,H23,$B$4:$B$311)</f>
+        <v>-633.32000000000016</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -8656,7 +8663,7 @@
         <v>45</v>
       </c>
       <c r="J27">
-        <f ca="1">SUMIF($D$4:$D308,H27,$B$4:$B$306)</f>
+        <f ca="1">SUMIF($D$4:$D313,H27,$B$4:$B$311)</f>
         <v>-1346.43</v>
       </c>
     </row>
@@ -8693,7 +8700,7 @@
         <v>46</v>
       </c>
       <c r="J29">
-        <f ca="1">SUMIF($D$4:$D309,H29,$B$4:$B$306)</f>
+        <f ca="1">SUMIF($D$4:$D314,H29,$B$4:$B$311)</f>
         <v>0</v>
       </c>
     </row>
@@ -8769,7 +8776,7 @@
         <v>40</v>
       </c>
       <c r="J34">
-        <f ca="1">SUMIF($D$4:$D310,H34,$B$4:$B$306)</f>
+        <f ca="1">SUMIF($D$4:$D315,H34,$B$4:$B$311)</f>
         <v>-1420</v>
       </c>
     </row>
@@ -8854,7 +8861,7 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="52">
+      <c r="A41" s="54">
         <v>43568</v>
       </c>
       <c r="B41" s="8">
@@ -8869,7 +8876,7 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="52"/>
+      <c r="A42" s="54"/>
       <c r="B42" s="8">
         <v>-4.5</v>
       </c>
@@ -8882,7 +8889,7 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="52"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="8">
         <v>-21.7</v>
       </c>
@@ -8895,7 +8902,7 @@
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="52">
+      <c r="A44" s="54">
         <v>43569</v>
       </c>
       <c r="B44" s="8">
@@ -8910,7 +8917,7 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="52"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="8">
         <v>-231.53</v>
       </c>
@@ -8923,7 +8930,7 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="52"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="8">
         <v>-4</v>
       </c>
@@ -9072,7 +9079,7 @@
       </c>
       <c r="J56">
         <f ca="1">SUM(J22:J34)</f>
-        <v>-3593.65</v>
+        <v>-3641.75</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -9194,7 +9201,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="52">
+      <c r="A66" s="54">
         <v>43575</v>
       </c>
       <c r="B66" s="8">
@@ -9208,7 +9215,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="52"/>
+      <c r="A67" s="54"/>
       <c r="B67" s="8">
         <v>-14.5</v>
       </c>
@@ -9272,51 +9279,45 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="38">
+      <c r="A72" s="48">
         <v>43578</v>
       </c>
       <c r="B72" s="8">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="D72" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="38">
-        <v>43579</v>
-      </c>
+      <c r="A73" s="48"/>
       <c r="B73" s="8">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="D73" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="38">
-        <v>43580</v>
-      </c>
+      <c r="A74" s="48"/>
       <c r="B74" s="8">
-        <v>-11</v>
+        <v>-2.5</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="D74" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="38">
-        <v>43581</v>
-      </c>
+      <c r="A75" s="48"/>
       <c r="B75" s="8">
         <v>-11</v>
       </c>
@@ -9328,31 +9329,33 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="46">
-        <v>43582</v>
-      </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
+      <c r="A76" s="48">
+        <v>43579</v>
+      </c>
+      <c r="B76" s="8">
+        <v>-14</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="38">
-        <v>43583</v>
-      </c>
+      <c r="A77" s="48"/>
       <c r="B77" s="8">
-        <v>-11</v>
+        <v>-13.6</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="D77" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="38">
-        <v>43584</v>
-      </c>
+      <c r="A78" s="48"/>
       <c r="B78" s="8">
         <v>-11</v>
       </c>
@@ -9365,7 +9368,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="38">
-        <v>43585</v>
+        <v>43580</v>
       </c>
       <c r="B79" s="8">
         <v>-11</v>
@@ -9378,99 +9381,128 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="38"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="8"/>
+      <c r="A80" s="38">
+        <v>43581</v>
+      </c>
+      <c r="B80" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="46">
+        <v>43582</v>
+      </c>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="38">
+        <v>43583</v>
+      </c>
+      <c r="B82" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="38">
+        <v>43584</v>
+      </c>
+      <c r="B83" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="38">
+        <v>43585</v>
+      </c>
+      <c r="B84" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="38"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
@@ -9574,88 +9606,98 @@
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H113" s="13"/>
+      <c r="I113" s="13"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -10210,13 +10252,38 @@
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
     </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="8"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="8"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="8"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="8"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="8"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A66:A67"/>
+  <mergeCells count="19">
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A1:A2"/>
@@ -10224,11 +10291,13 @@
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A66:A67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10239,8 +10308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10336,7 +10405,7 @@
       <c r="E6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="54"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="27"/>
       <c r="M6" t="s">
         <v>149</v>
@@ -10359,7 +10428,7 @@
       <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="54"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="27"/>
       <c r="M7" t="s">
         <v>172</v>
@@ -10377,7 +10446,7 @@
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="54"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="27"/>
       <c r="M8" t="s">
         <v>173</v>
@@ -10405,7 +10474,7 @@
       <c r="E9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="54"/>
+      <c r="I9" s="50"/>
       <c r="J9" s="27"/>
       <c r="M9" t="s">
         <v>185</v>
@@ -10423,7 +10492,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="I10" s="54"/>
+      <c r="I10" s="50"/>
       <c r="J10" s="27"/>
       <c r="M10" t="s">
         <v>186</v>
@@ -10577,7 +10646,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -10591,7 +10660,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -10604,14 +10673,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-21</v>
+        <v>-23</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-142.85714285714286</v>
+        <v>-130.43478260869566</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -10633,7 +10702,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>-136.36363636363637</v>
+        <v>-125</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -10794,7 +10863,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52">
+      <c r="A13" s="54">
         <v>43560</v>
       </c>
       <c r="B13" s="8"/>
@@ -10812,13 +10881,13 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="12"/>
@@ -10835,7 +10904,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="52">
+      <c r="A17" s="54">
         <v>43562</v>
       </c>
       <c r="B17" s="8"/>
@@ -10846,7 +10915,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="12"/>
@@ -10855,7 +10924,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="12"/>
@@ -10864,7 +10933,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="12"/>
@@ -10873,7 +10942,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="12"/>
@@ -10888,7 +10957,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="12"/>

--- a/账本/健忘症患者的账本.xlsx
+++ b/账本/健忘症患者的账本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="217">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1721,6 +1721,83 @@
     <t>辣条</t>
     <rPh sb="0" eb="1">
       <t>la tiao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托运</t>
+    <rPh sb="0" eb="1">
+      <t>tuo yun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣条</t>
+    <rPh sb="0" eb="1">
+      <t>la t</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷子</t>
+    <rPh sb="0" eb="1">
+      <t>shua zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山楂丸</t>
+    <rPh sb="0" eb="1">
+      <t>shan zha wan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚掌</t>
+    <rPh sb="0" eb="1">
+      <t>jiao zhang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面巾</t>
+    <rPh sb="0" eb="1">
+      <t>mian jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一共5000b，(1056)
+剩下740b(156)</t>
+    <rPh sb="0" eb="1">
+      <t>yi gong</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>sheng xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通</t>
+    <rPh sb="0" eb="1">
+      <t>jiao tong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡菜+可乐</t>
+    <rPh sb="0" eb="1">
+      <t>pao cai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百香果</t>
+    <rPh sb="0" eb="1">
+      <t>bai xaing guo</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1814,7 +1891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1917,9 +1994,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1929,19 +2003,40 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1950,23 +2045,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2274,7 +2357,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2288,7 +2371,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -2301,14 +2384,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-113</v>
+        <v>-129</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>22.98371681415929</v>
+        <v>20.133023255813953</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -2321,20 +2404,20 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>22.782105263157895</v>
+        <v>19.978153846153845</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="48">
+      <c r="A4" s="50">
         <v>43435</v>
       </c>
       <c r="B4">
@@ -2348,7 +2431,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
+      <c r="A5" s="50"/>
       <c r="B5">
         <v>-20</v>
       </c>
@@ -2374,7 +2457,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="48">
+      <c r="A7" s="50">
         <v>43437</v>
       </c>
       <c r="B7">
@@ -2388,7 +2471,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="50"/>
       <c r="B8">
         <v>-89</v>
       </c>
@@ -2409,7 +2492,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
+      <c r="A9" s="50"/>
       <c r="B9">
         <v>-6</v>
       </c>
@@ -2431,7 +2514,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10">
         <v>-4</v>
       </c>
@@ -2460,7 +2543,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="51">
+      <c r="A11" s="53">
         <v>43438</v>
       </c>
       <c r="B11">
@@ -2484,7 +2567,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
+      <c r="A12" s="53"/>
       <c r="B12">
         <v>18</v>
       </c>
@@ -2503,7 +2586,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="53"/>
       <c r="B13">
         <v>-7</v>
       </c>
@@ -2525,7 +2608,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
+      <c r="A14" s="53"/>
       <c r="B14">
         <v>-8</v>
       </c>
@@ -2537,7 +2620,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="53"/>
       <c r="B15">
         <v>-6</v>
       </c>
@@ -2549,7 +2632,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="53"/>
       <c r="B16">
         <v>-34.799999999999997</v>
       </c>
@@ -2561,7 +2644,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="48">
+      <c r="A17" s="50">
         <v>43439</v>
       </c>
       <c r="B17">
@@ -2576,7 +2659,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
+      <c r="A18" s="50"/>
       <c r="B18">
         <v>-1468</v>
       </c>
@@ -2588,7 +2671,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="2">
         <v>-6</v>
       </c>
@@ -2600,7 +2683,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="50"/>
       <c r="B20">
         <v>7</v>
       </c>
@@ -2609,7 +2692,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
+      <c r="A21" s="50"/>
       <c r="B21">
         <v>-4</v>
       </c>
@@ -2621,7 +2704,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
+      <c r="A22" s="50"/>
       <c r="B22">
         <v>-29.9</v>
       </c>
@@ -2633,7 +2716,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="51">
+      <c r="A23" s="53">
         <v>43440</v>
       </c>
       <c r="B23">
@@ -2647,7 +2730,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
+      <c r="A24" s="53"/>
       <c r="B24">
         <v>-5</v>
       </c>
@@ -2659,7 +2742,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+      <c r="A25" s="53"/>
       <c r="B25">
         <v>-9</v>
       </c>
@@ -2671,7 +2754,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
+      <c r="A26" s="53"/>
       <c r="B26">
         <v>-249</v>
       </c>
@@ -2683,7 +2766,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
+      <c r="A27" s="53"/>
       <c r="B27">
         <v>-13.88</v>
       </c>
@@ -2695,7 +2778,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="51">
+      <c r="A28" s="53">
         <v>43441</v>
       </c>
       <c r="B28">
@@ -2709,7 +2792,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
+      <c r="A29" s="53"/>
       <c r="B29">
         <v>-6</v>
       </c>
@@ -2721,7 +2804,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
+      <c r="A30" s="53"/>
       <c r="B30">
         <v>-4</v>
       </c>
@@ -2733,7 +2816,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
+      <c r="A31" s="53"/>
       <c r="B31">
         <v>-18</v>
       </c>
@@ -2745,7 +2828,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
+      <c r="A32" s="53"/>
       <c r="B32">
         <f>-89-129-119-89</f>
         <v>-426</v>
@@ -2758,7 +2841,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="48">
+      <c r="A33" s="50">
         <v>43442</v>
       </c>
       <c r="B33">
@@ -2772,7 +2855,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="48">
+      <c r="A34" s="50">
         <v>43443</v>
       </c>
       <c r="B34">
@@ -2786,7 +2869,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
+      <c r="A35" s="50"/>
       <c r="B35">
         <v>-2</v>
       </c>
@@ -2836,7 +2919,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="48">
+      <c r="A39" s="50">
         <v>43445</v>
       </c>
       <c r="B39">
@@ -2850,7 +2933,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="50"/>
       <c r="B40">
         <v>-4</v>
       </c>
@@ -2862,7 +2945,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="48"/>
+      <c r="A41" s="50"/>
       <c r="B41">
         <v>-5</v>
       </c>
@@ -2874,7 +2957,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="48"/>
+      <c r="A42" s="50"/>
       <c r="B42">
         <v>-16</v>
       </c>
@@ -2886,7 +2969,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="48">
+      <c r="A43" s="50">
         <v>43446</v>
       </c>
       <c r="B43">
@@ -2900,7 +2983,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="A44" s="50"/>
       <c r="B44">
         <v>-8</v>
       </c>
@@ -2912,7 +2995,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="48"/>
+      <c r="A45" s="50"/>
       <c r="B45">
         <v>-5</v>
       </c>
@@ -2924,7 +3007,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="48"/>
+      <c r="A46" s="50"/>
       <c r="B46">
         <v>-13</v>
       </c>
@@ -2936,7 +3019,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="48">
+      <c r="A47" s="50">
         <v>43447</v>
       </c>
       <c r="B47">
@@ -2950,7 +3033,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
+      <c r="A48" s="50"/>
       <c r="B48">
         <v>-6</v>
       </c>
@@ -2962,7 +3045,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
+      <c r="A49" s="50"/>
       <c r="B49">
         <v>-16</v>
       </c>
@@ -2974,7 +3057,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="48"/>
+      <c r="A50" s="50"/>
       <c r="B50">
         <v>-13</v>
       </c>
@@ -2986,7 +3069,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
+      <c r="A51" s="50"/>
       <c r="B51">
         <v>-99</v>
       </c>
@@ -2998,7 +3081,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="48">
+      <c r="A52" s="50">
         <v>43448</v>
       </c>
       <c r="B52">
@@ -3012,7 +3095,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="48"/>
+      <c r="A53" s="50"/>
       <c r="B53">
         <v>-14</v>
       </c>
@@ -3024,7 +3107,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="48"/>
+      <c r="A54" s="50"/>
       <c r="B54">
         <v>-13</v>
       </c>
@@ -3036,7 +3119,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="48">
+      <c r="A55" s="50">
         <v>43449</v>
       </c>
       <c r="B55">
@@ -3050,7 +3133,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="48"/>
+      <c r="A56" s="50"/>
       <c r="B56">
         <v>-20</v>
       </c>
@@ -3062,7 +3145,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="48">
+      <c r="A57" s="50">
         <v>43450</v>
       </c>
       <c r="B57">
@@ -3076,7 +3159,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
+      <c r="A58" s="50"/>
       <c r="B58">
         <v>-30</v>
       </c>
@@ -3088,7 +3171,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="48">
+      <c r="A59" s="50">
         <v>43451</v>
       </c>
       <c r="B59">
@@ -3102,7 +3185,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="48"/>
+      <c r="A60" s="50"/>
       <c r="B60">
         <v>-4.5</v>
       </c>
@@ -3114,7 +3197,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="48"/>
+      <c r="A61" s="50"/>
       <c r="B61">
         <v>-12</v>
       </c>
@@ -3126,7 +3209,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="48">
+      <c r="A62" s="50">
         <v>43452</v>
       </c>
       <c r="B62">
@@ -3140,7 +3223,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="48"/>
+      <c r="A63" s="50"/>
       <c r="B63">
         <v>-16</v>
       </c>
@@ -3152,7 +3235,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="48"/>
+      <c r="A64" s="50"/>
       <c r="B64">
         <v>-670</v>
       </c>
@@ -3164,7 +3247,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="48">
+      <c r="A65" s="50">
         <v>43453</v>
       </c>
       <c r="B65">
@@ -3178,7 +3261,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="48"/>
+      <c r="A66" s="50"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -3190,7 +3273,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="48"/>
+      <c r="A67" s="50"/>
       <c r="B67">
         <v>-12</v>
       </c>
@@ -3202,7 +3285,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="48">
+      <c r="A68" s="50">
         <v>43454</v>
       </c>
       <c r="B68">
@@ -3216,7 +3299,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="48"/>
+      <c r="A69" s="50"/>
       <c r="B69">
         <v>-18</v>
       </c>
@@ -3228,7 +3311,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="48"/>
+      <c r="A70" s="50"/>
       <c r="B70">
         <v>-982</v>
       </c>
@@ -3240,7 +3323,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="48">
+      <c r="A71" s="50">
         <v>43455</v>
       </c>
       <c r="B71">
@@ -3254,7 +3337,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
+      <c r="A72" s="50"/>
       <c r="B72">
         <v>-4</v>
       </c>
@@ -3266,7 +3349,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="48"/>
+      <c r="A73" s="50"/>
       <c r="B73">
         <v>-4</v>
       </c>
@@ -3278,7 +3361,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="48">
+      <c r="A74" s="50">
         <v>43456</v>
       </c>
       <c r="B74">
@@ -3292,7 +3375,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="48"/>
+      <c r="A75" s="50"/>
       <c r="B75">
         <v>-13</v>
       </c>
@@ -3304,7 +3387,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="48"/>
+      <c r="A76" s="50"/>
       <c r="B76">
         <v>-15</v>
       </c>
@@ -3316,7 +3399,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="48"/>
+      <c r="A77" s="50"/>
       <c r="B77">
         <v>-30</v>
       </c>
@@ -3328,7 +3411,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="48"/>
+      <c r="A78" s="50"/>
       <c r="B78">
         <v>-15</v>
       </c>
@@ -3340,7 +3423,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="48"/>
+      <c r="A79" s="50"/>
       <c r="B79">
         <v>-42</v>
       </c>
@@ -3357,7 +3440,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="48">
+      <c r="A81" s="50">
         <v>43458</v>
       </c>
       <c r="B81">
@@ -3371,7 +3454,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="48"/>
+      <c r="A82" s="50"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -3383,7 +3466,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="48">
+      <c r="A83" s="50">
         <v>43459</v>
       </c>
       <c r="B83">
@@ -3397,7 +3480,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="48"/>
+      <c r="A84" s="50"/>
       <c r="B84">
         <v>-16</v>
       </c>
@@ -3409,7 +3492,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="48">
+      <c r="A85" s="50">
         <v>43460</v>
       </c>
       <c r="B85">
@@ -3423,7 +3506,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="48"/>
+      <c r="A86" s="50"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -3435,7 +3518,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="48"/>
+      <c r="A87" s="50"/>
       <c r="B87">
         <v>-62</v>
       </c>
@@ -3447,7 +3530,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="48">
+      <c r="A88" s="50">
         <v>43461</v>
       </c>
       <c r="B88">
@@ -3461,7 +3544,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="48"/>
+      <c r="A89" s="50"/>
       <c r="B89">
         <v>-16</v>
       </c>
@@ -3473,7 +3556,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="48"/>
+      <c r="A90" s="50"/>
       <c r="B90">
         <v>-18.8</v>
       </c>
@@ -3485,7 +3568,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="48">
+      <c r="A91" s="50">
         <v>43462</v>
       </c>
       <c r="B91">
@@ -3499,7 +3582,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="48"/>
+      <c r="A92" s="50"/>
       <c r="B92">
         <v>-14</v>
       </c>
@@ -3511,7 +3594,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="48"/>
+      <c r="A93" s="50"/>
       <c r="B93">
         <v>-239</v>
       </c>
@@ -3523,7 +3606,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="48"/>
+      <c r="A94" s="50"/>
       <c r="B94">
         <v>-12</v>
       </c>
@@ -3535,7 +3618,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="48">
+      <c r="A95" s="50">
         <v>43463</v>
       </c>
       <c r="B95">
@@ -3549,7 +3632,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="48"/>
+      <c r="A96" s="50"/>
       <c r="B96">
         <v>-6</v>
       </c>
@@ -3561,7 +3644,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="48"/>
+      <c r="A97" s="50"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -3573,7 +3656,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="48"/>
+      <c r="A98" s="50"/>
       <c r="B98">
         <v>-39</v>
       </c>
@@ -3585,7 +3668,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="48">
+      <c r="A99" s="50">
         <v>43464</v>
       </c>
       <c r="B99">
@@ -3599,7 +3682,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="48"/>
+      <c r="A100" s="50"/>
       <c r="B100">
         <v>-50.4</v>
       </c>
@@ -3611,7 +3694,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="48"/>
+      <c r="A101" s="50"/>
       <c r="B101">
         <v>-30</v>
       </c>
@@ -3638,6 +3721,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
@@ -3654,20 +3751,6 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3694,7 +3777,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3708,7 +3791,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -3721,14 +3804,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-82</v>
+        <v>-98</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>31.805000000000014</v>
+        <v>26.61234693877552</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -3750,7 +3833,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>31.421807228915675</v>
+        <v>26.343535353535366</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3773,7 +3856,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="48">
+      <c r="A5" s="50">
         <v>43467</v>
       </c>
       <c r="B5">
@@ -3796,7 +3879,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
+      <c r="A6" s="50"/>
       <c r="B6">
         <v>-16</v>
       </c>
@@ -3818,7 +3901,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
+      <c r="A7" s="50"/>
       <c r="B7">
         <v>-24</v>
       </c>
@@ -3847,7 +3930,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="48">
+      <c r="A8" s="50">
         <v>43468</v>
       </c>
       <c r="B8">
@@ -3871,7 +3954,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
+      <c r="A9" s="50"/>
       <c r="B9">
         <v>-16</v>
       </c>
@@ -3893,7 +3976,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10">
         <v>-15</v>
       </c>
@@ -3915,7 +3998,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="48">
+      <c r="A11" s="50">
         <v>43469</v>
       </c>
       <c r="B11">
@@ -3930,7 +4013,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="50"/>
       <c r="B12">
         <v>-1453</v>
       </c>
@@ -3942,7 +4025,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
+      <c r="A13" s="50"/>
       <c r="B13">
         <v>-4</v>
       </c>
@@ -3954,7 +4037,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
+      <c r="A14" s="50"/>
       <c r="B14">
         <v>-55</v>
       </c>
@@ -3966,7 +4049,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
+      <c r="A15" s="50"/>
       <c r="B15">
         <v>-11</v>
       </c>
@@ -4131,7 +4214,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="48">
+      <c r="A25" s="50">
         <v>43472</v>
       </c>
       <c r="B25">
@@ -4145,7 +4228,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
+      <c r="A26" s="50"/>
       <c r="B26">
         <v>-4</v>
       </c>
@@ -4157,7 +4240,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
+      <c r="A27" s="50"/>
       <c r="B27">
         <v>-218</v>
       </c>
@@ -4169,7 +4252,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="48">
+      <c r="A28" s="50">
         <v>43473</v>
       </c>
       <c r="B28">
@@ -4183,7 +4266,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
+      <c r="A29" s="50"/>
       <c r="B29">
         <v>-16</v>
       </c>
@@ -4195,7 +4278,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
+      <c r="A30" s="50"/>
       <c r="B30">
         <v>-245</v>
       </c>
@@ -4207,7 +4290,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="51">
+      <c r="A31" s="53">
         <v>43474</v>
       </c>
       <c r="B31">
@@ -4221,7 +4304,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
+      <c r="A32" s="53"/>
       <c r="B32">
         <v>-4</v>
       </c>
@@ -4233,7 +4316,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="51"/>
+      <c r="A33" s="53"/>
       <c r="B33">
         <v>-500</v>
       </c>
@@ -4245,7 +4328,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="51"/>
+      <c r="A34" s="53"/>
       <c r="B34">
         <v>-16</v>
       </c>
@@ -4257,7 +4340,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="48">
+      <c r="A35" s="50">
         <v>43475</v>
       </c>
       <c r="B35">
@@ -4271,7 +4354,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+      <c r="A36" s="50"/>
       <c r="B36">
         <v>-6.5</v>
       </c>
@@ -4283,7 +4366,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="48">
+      <c r="A37" s="50">
         <v>43476</v>
       </c>
       <c r="B37">
@@ -4297,7 +4380,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
+      <c r="A38" s="50"/>
       <c r="B38">
         <v>-31</v>
       </c>
@@ -4309,7 +4392,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
+      <c r="A39" s="50"/>
       <c r="B39">
         <v>-15</v>
       </c>
@@ -4318,7 +4401,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="50"/>
       <c r="B40">
         <v>-49</v>
       </c>
@@ -4330,7 +4413,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="48"/>
+      <c r="A41" s="50"/>
       <c r="B41">
         <v>-8</v>
       </c>
@@ -4373,7 +4456,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="48">
+      <c r="A45" s="50">
         <v>43479</v>
       </c>
       <c r="B45">
@@ -4387,7 +4470,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="48"/>
+      <c r="A46" s="50"/>
       <c r="B46">
         <v>-8</v>
       </c>
@@ -4399,7 +4482,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="48"/>
+      <c r="A47" s="50"/>
       <c r="B47">
         <v>-6</v>
       </c>
@@ -4411,7 +4494,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="48">
+      <c r="A48" s="50">
         <v>43480</v>
       </c>
       <c r="B48">
@@ -4425,7 +4508,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
+      <c r="A49" s="50"/>
       <c r="B49">
         <v>-8</v>
       </c>
@@ -4437,7 +4520,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="48"/>
+      <c r="A50" s="50"/>
       <c r="B50">
         <v>-2.5</v>
       </c>
@@ -4449,7 +4532,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
+      <c r="A51" s="50"/>
       <c r="B51">
         <v>-6</v>
       </c>
@@ -4461,7 +4544,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="48">
+      <c r="A52" s="50">
         <v>43481</v>
       </c>
       <c r="B52">
@@ -4475,7 +4558,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="48"/>
+      <c r="A53" s="50"/>
       <c r="B53">
         <v>-10</v>
       </c>
@@ -4487,7 +4570,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="48"/>
+      <c r="A54" s="50"/>
       <c r="B54">
         <v>-8</v>
       </c>
@@ -4499,7 +4582,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="48"/>
+      <c r="A55" s="50"/>
       <c r="B55">
         <v>-23</v>
       </c>
@@ -4511,7 +4594,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="48">
+      <c r="A56" s="50">
         <v>43482</v>
       </c>
       <c r="B56">
@@ -4525,7 +4608,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="48"/>
+      <c r="A57" s="50"/>
       <c r="B57">
         <v>-8</v>
       </c>
@@ -4537,7 +4620,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
+      <c r="A58" s="50"/>
       <c r="B58">
         <v>-8.6999999999999993</v>
       </c>
@@ -4549,7 +4632,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="48"/>
+      <c r="A59" s="50"/>
       <c r="B59">
         <v>-110</v>
       </c>
@@ -4561,7 +4644,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="48"/>
+      <c r="A60" s="50"/>
       <c r="B60">
         <v>-14.5</v>
       </c>
@@ -4573,7 +4656,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="48">
+      <c r="A61" s="50">
         <v>43483</v>
       </c>
       <c r="B61">
@@ -4587,7 +4670,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="48"/>
+      <c r="A62" s="50"/>
       <c r="B62">
         <v>-16</v>
       </c>
@@ -4663,7 +4746,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="48">
+      <c r="A68" s="50">
         <v>43486</v>
       </c>
       <c r="B68">
@@ -4677,7 +4760,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="48"/>
+      <c r="A69" s="50"/>
       <c r="B69">
         <v>-4</v>
       </c>
@@ -4689,7 +4772,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="48">
+      <c r="A70" s="50">
         <v>43487</v>
       </c>
       <c r="B70">
@@ -4703,7 +4786,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="48"/>
+      <c r="A71" s="50"/>
       <c r="B71">
         <v>-12.75</v>
       </c>
@@ -4715,7 +4798,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="48">
+      <c r="A72" s="50">
         <v>43488</v>
       </c>
       <c r="B72">
@@ -4729,7 +4812,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="48"/>
+      <c r="A73" s="50"/>
       <c r="B73">
         <v>-10</v>
       </c>
@@ -4741,7 +4824,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="48"/>
+      <c r="A74" s="50"/>
       <c r="B74">
         <v>-4</v>
       </c>
@@ -4753,7 +4836,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="48">
+      <c r="A75" s="50">
         <v>43489</v>
       </c>
       <c r="B75">
@@ -4767,7 +4850,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="48"/>
+      <c r="A76" s="50"/>
       <c r="B76">
         <v>-10</v>
       </c>
@@ -4779,7 +4862,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="48">
+      <c r="A77" s="50">
         <v>43490</v>
       </c>
       <c r="B77">
@@ -4793,7 +4876,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="48"/>
+      <c r="A78" s="50"/>
       <c r="B78">
         <v>-4.8</v>
       </c>
@@ -4802,7 +4885,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="48"/>
+      <c r="A79" s="50"/>
       <c r="B79">
         <v>-10</v>
       </c>
@@ -4814,7 +4897,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="48"/>
+      <c r="A80" s="50"/>
       <c r="B80">
         <v>-12</v>
       </c>
@@ -4826,7 +4909,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="48"/>
+      <c r="A81" s="50"/>
       <c r="B81">
         <v>-6</v>
       </c>
@@ -4878,7 +4961,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="48">
+      <c r="A85" s="50">
         <v>43493</v>
       </c>
       <c r="B85">
@@ -4892,7 +4975,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="48"/>
+      <c r="A86" s="50"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -4904,7 +4987,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="48"/>
+      <c r="A87" s="50"/>
       <c r="B87">
         <v>-4.8</v>
       </c>
@@ -4916,7 +4999,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="48">
+      <c r="A88" s="50">
         <v>43494</v>
       </c>
       <c r="B88">
@@ -4930,7 +5013,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="48"/>
+      <c r="A89" s="50"/>
       <c r="B89">
         <v>-4.46</v>
       </c>
@@ -4942,7 +5025,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="48"/>
+      <c r="A90" s="50"/>
       <c r="B90">
         <v>-16.34</v>
       </c>
@@ -4954,7 +5037,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="48"/>
+      <c r="A91" s="50"/>
       <c r="B91">
         <v>-6</v>
       </c>
@@ -4966,7 +5049,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="48">
+      <c r="A92" s="50">
         <v>43495</v>
       </c>
       <c r="B92">
@@ -4980,7 +5063,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="48"/>
+      <c r="A93" s="50"/>
       <c r="B93">
         <v>-4.21</v>
       </c>
@@ -4992,7 +5075,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="48"/>
+      <c r="A94" s="50"/>
       <c r="B94">
         <v>-10</v>
       </c>
@@ -5004,7 +5087,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="48"/>
+      <c r="A95" s="50"/>
       <c r="B95">
         <v>-1441</v>
       </c>
@@ -5031,6 +5114,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A92:A95"/>
@@ -5047,18 +5142,6 @@
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5086,7 +5169,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5105,7 +5188,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -5118,14 +5201,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>-54</v>
+        <v>-70</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>37.666296296296288</v>
+        <v>29.056857142857137</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5140,7 +5223,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>36.98145454545454</v>
+        <v>28.647605633802812</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5220,7 +5303,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="55">
+      <c r="A10" s="58">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -5231,7 +5314,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="58"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
@@ -5247,7 +5330,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="58"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -5256,7 +5339,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="58"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -5265,7 +5348,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="55">
+      <c r="A14" s="58">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -5276,7 +5359,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
+      <c r="A15" s="58"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -5290,7 +5373,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="55">
+      <c r="A17" s="58">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -5301,7 +5384,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="58"/>
       <c r="B18">
         <v>-300</v>
       </c>
@@ -5310,7 +5393,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="58"/>
       <c r="B19">
         <v>-149</v>
       </c>
@@ -5476,7 +5559,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="48">
+      <c r="A36" s="50">
         <v>43507</v>
       </c>
       <c r="B36">
@@ -5490,7 +5573,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
+      <c r="A37" s="57"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -5502,7 +5585,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="48">
+      <c r="A38" s="50">
         <v>43508</v>
       </c>
       <c r="B38">
@@ -5516,7 +5599,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
+      <c r="A39" s="50"/>
       <c r="B39">
         <v>-16</v>
       </c>
@@ -5528,7 +5611,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="48">
+      <c r="A40" s="50">
         <v>43509</v>
       </c>
       <c r="B40">
@@ -5542,7 +5625,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="48"/>
+      <c r="A41" s="50"/>
       <c r="B41">
         <v>-12</v>
       </c>
@@ -5554,7 +5637,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="48"/>
+      <c r="A42" s="50"/>
       <c r="B42">
         <v>-14</v>
       </c>
@@ -5566,7 +5649,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
+      <c r="A43" s="50"/>
       <c r="B43">
         <v>-4</v>
       </c>
@@ -5578,7 +5661,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="48">
+      <c r="A44" s="50">
         <v>43510</v>
       </c>
       <c r="B44">
@@ -5592,7 +5675,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="48"/>
+      <c r="A45" s="50"/>
       <c r="B45">
         <v>0</v>
       </c>
@@ -5604,7 +5687,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="48"/>
+      <c r="A46" s="50"/>
       <c r="B46">
         <v>-14</v>
       </c>
@@ -5616,7 +5699,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="48">
+      <c r="A47" s="50">
         <v>43511</v>
       </c>
       <c r="B47">
@@ -5630,7 +5713,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
+      <c r="A48" s="50"/>
       <c r="B48">
         <v>-4</v>
       </c>
@@ -5642,7 +5725,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
+      <c r="A49" s="50"/>
       <c r="B49">
         <v>-12</v>
       </c>
@@ -5718,7 +5801,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="48">
+      <c r="A55" s="50">
         <v>43514</v>
       </c>
       <c r="B55">
@@ -5732,7 +5815,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="48"/>
+      <c r="A56" s="50"/>
       <c r="B56">
         <v>-10</v>
       </c>
@@ -5744,7 +5827,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="48"/>
+      <c r="A57" s="50"/>
       <c r="B57">
         <v>-10</v>
       </c>
@@ -5756,7 +5839,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
+      <c r="A58" s="50"/>
       <c r="B58">
         <v>-2.5</v>
       </c>
@@ -5768,7 +5851,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="48"/>
+      <c r="A59" s="50"/>
       <c r="B59">
         <v>-5</v>
       </c>
@@ -5780,7 +5863,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="48">
+      <c r="A60" s="50">
         <v>43515</v>
       </c>
       <c r="B60">
@@ -5794,7 +5877,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="48"/>
+      <c r="A61" s="50"/>
       <c r="B61">
         <v>-11</v>
       </c>
@@ -5806,7 +5889,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="48"/>
+      <c r="A62" s="50"/>
       <c r="B62">
         <v>-1250</v>
       </c>
@@ -5818,7 +5901,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="48"/>
+      <c r="A63" s="50"/>
       <c r="B63">
         <v>-12</v>
       </c>
@@ -5830,7 +5913,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="48"/>
+      <c r="A64" s="50"/>
       <c r="B64">
         <v>-203</v>
       </c>
@@ -5842,7 +5925,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
+      <c r="A65" s="50"/>
       <c r="B65">
         <v>-23</v>
       </c>
@@ -5854,7 +5937,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="48"/>
+      <c r="A66" s="50"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -5866,7 +5949,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="48">
+      <c r="A67" s="50">
         <v>43516</v>
       </c>
       <c r="B67">
@@ -5880,7 +5963,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="48"/>
+      <c r="A68" s="50"/>
       <c r="B68">
         <v>-26</v>
       </c>
@@ -5892,7 +5975,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="48"/>
+      <c r="A69" s="50"/>
       <c r="B69">
         <v>-2.5</v>
       </c>
@@ -5904,7 +5987,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="48">
+      <c r="A70" s="50">
         <v>43517</v>
       </c>
       <c r="B70">
@@ -5918,7 +6001,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="48"/>
+      <c r="A71" s="50"/>
       <c r="B71">
         <v>-7</v>
       </c>
@@ -5930,7 +6013,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
+      <c r="A72" s="50"/>
       <c r="B72">
         <v>-20</v>
       </c>
@@ -5942,7 +6025,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="48">
+      <c r="A73" s="50">
         <v>43518</v>
       </c>
       <c r="B73">
@@ -5956,7 +6039,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="48"/>
+      <c r="A74" s="50"/>
       <c r="B74">
         <v>-7.83</v>
       </c>
@@ -5968,7 +6051,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="48"/>
+      <c r="A75" s="50"/>
       <c r="B75">
         <v>-16</v>
       </c>
@@ -5980,7 +6063,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="48"/>
+      <c r="A76" s="50"/>
       <c r="B76">
         <v>-3.5</v>
       </c>
@@ -6081,7 +6164,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="48">
+      <c r="A84" s="50">
         <v>43521</v>
       </c>
       <c r="B84">
@@ -6095,7 +6178,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="48"/>
+      <c r="A85" s="50"/>
       <c r="B85">
         <v>-4</v>
       </c>
@@ -6107,7 +6190,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="48"/>
+      <c r="A86" s="50"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -6119,7 +6202,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="48">
+      <c r="A87" s="50">
         <v>43522</v>
       </c>
       <c r="B87">
@@ -6133,7 +6216,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="48"/>
+      <c r="A88" s="50"/>
       <c r="B88">
         <v>-3.8</v>
       </c>
@@ -6145,7 +6228,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="48"/>
+      <c r="A89" s="50"/>
       <c r="B89">
         <v>-10.84</v>
       </c>
@@ -6157,7 +6240,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="48"/>
+      <c r="A90" s="50"/>
       <c r="B90">
         <v>-18</v>
       </c>
@@ -6169,7 +6252,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="48">
+      <c r="A91" s="50">
         <v>43523</v>
       </c>
       <c r="B91">
@@ -6183,7 +6266,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="48"/>
+      <c r="A92" s="50"/>
       <c r="B92">
         <v>-4</v>
       </c>
@@ -6195,7 +6278,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="48"/>
+      <c r="A93" s="50"/>
       <c r="B93">
         <v>-4.4000000000000004</v>
       </c>
@@ -6207,7 +6290,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="48"/>
+      <c r="A94" s="50"/>
       <c r="B94">
         <v>-9.5399999999999991</v>
       </c>
@@ -6219,7 +6302,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="48">
+      <c r="A95" s="50">
         <v>43524</v>
       </c>
       <c r="B95">
@@ -6233,7 +6316,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="48"/>
+      <c r="A96" s="50"/>
       <c r="B96">
         <v>-16</v>
       </c>
@@ -6245,7 +6328,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="48"/>
+      <c r="A97" s="50"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -6257,7 +6340,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="48"/>
+      <c r="A98" s="50"/>
       <c r="B98">
         <v>-3</v>
       </c>
@@ -6269,7 +6352,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="48"/>
+      <c r="A99" s="50"/>
       <c r="B99">
         <v>-7.9</v>
       </c>
@@ -6281,7 +6364,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="48"/>
+      <c r="A100" s="50"/>
       <c r="B100">
         <v>-16</v>
       </c>
@@ -6312,6 +6395,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A69"/>
     <mergeCell ref="A87:A90"/>
     <mergeCell ref="A91:A94"/>
     <mergeCell ref="A95:A100"/>
@@ -6320,24 +6421,6 @@
     <mergeCell ref="A77:A79"/>
     <mergeCell ref="A80:A83"/>
     <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6366,7 +6449,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6380,7 +6463,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -6393,14 +6476,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-23</v>
+        <v>-39</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>26.77565217391307</v>
+        <v>15.790769230769246</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -6422,7 +6505,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>25.660000000000025</v>
+        <v>15.396000000000015</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6431,7 +6514,7 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51">
+      <c r="A4" s="53">
         <v>43525</v>
       </c>
       <c r="B4" s="8">
@@ -6455,7 +6538,7 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="8">
         <v>-17</v>
       </c>
@@ -6477,7 +6560,7 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="8">
         <v>-10</v>
       </c>
@@ -6499,7 +6582,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="8">
         <v>-10</v>
       </c>
@@ -6521,7 +6604,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
+      <c r="A8" s="53"/>
       <c r="B8">
         <v>-11.75</v>
       </c>
@@ -6547,7 +6630,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="55">
+      <c r="A10" s="58">
         <v>43527</v>
       </c>
       <c r="B10">
@@ -6571,7 +6654,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="58"/>
       <c r="B11">
         <v>-2</v>
       </c>
@@ -6593,7 +6676,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="58"/>
       <c r="B12">
         <v>-49</v>
       </c>
@@ -6615,7 +6698,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="58"/>
       <c r="B13">
         <v>-109</v>
       </c>
@@ -6637,7 +6720,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="51">
+      <c r="A14" s="53">
         <v>43528</v>
       </c>
       <c r="B14">
@@ -6661,7 +6744,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
+      <c r="A15" s="53"/>
       <c r="B15">
         <v>-1439</v>
       </c>
@@ -6674,7 +6757,7 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
+      <c r="A16" s="53"/>
       <c r="B16">
         <v>-16</v>
       </c>
@@ -6687,7 +6770,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
+      <c r="A17" s="53"/>
       <c r="B17">
         <v>-3</v>
       </c>
@@ -6700,7 +6783,7 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="51">
+      <c r="A18" s="53">
         <v>43529</v>
       </c>
       <c r="B18">
@@ -6715,7 +6798,7 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
+      <c r="A19" s="53"/>
       <c r="B19">
         <v>-16.260000000000002</v>
       </c>
@@ -6734,7 +6817,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="53"/>
       <c r="B20">
         <v>-6</v>
       </c>
@@ -6746,7 +6829,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="51">
+      <c r="A21" s="53">
         <v>43530</v>
       </c>
       <c r="B21">
@@ -6760,7 +6843,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="53"/>
       <c r="B22">
         <v>-16</v>
       </c>
@@ -6772,7 +6855,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="53"/>
       <c r="B23">
         <v>-3.5</v>
       </c>
@@ -6784,7 +6867,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="51">
+      <c r="A24" s="53">
         <v>43531</v>
       </c>
       <c r="B24">
@@ -6798,7 +6881,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+      <c r="A25" s="53"/>
       <c r="B25">
         <v>-14</v>
       </c>
@@ -6810,7 +6893,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
+      <c r="A26" s="53"/>
       <c r="B26">
         <v>-24</v>
       </c>
@@ -6822,7 +6905,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
+      <c r="A27" s="53"/>
       <c r="B27">
         <v>-19.899999999999999</v>
       </c>
@@ -6834,7 +6917,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
+      <c r="A28" s="53"/>
       <c r="B28">
         <v>-11.11</v>
       </c>
@@ -6846,7 +6929,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="51">
+      <c r="A29" s="53">
         <v>43532</v>
       </c>
       <c r="B29">
@@ -6860,7 +6943,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
+      <c r="A30" s="53"/>
       <c r="B30">
         <v>-22</v>
       </c>
@@ -6872,7 +6955,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
+      <c r="A31" s="53"/>
       <c r="B31">
         <v>-3</v>
       </c>
@@ -6884,7 +6967,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="51"/>
+      <c r="A32" s="53"/>
       <c r="B32">
         <v>-1</v>
       </c>
@@ -6896,7 +6979,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="55">
+      <c r="A33" s="58">
         <v>43533</v>
       </c>
       <c r="B33">
@@ -6910,7 +6993,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
+      <c r="A34" s="58"/>
       <c r="B34">
         <v>-32.6</v>
       </c>
@@ -6922,7 +7005,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
+      <c r="A35" s="58"/>
       <c r="B35">
         <v>-51</v>
       </c>
@@ -6934,7 +7017,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
+      <c r="A36" s="58"/>
       <c r="B36">
         <v>-36.9</v>
       </c>
@@ -6946,7 +7029,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="55">
+      <c r="A37" s="58">
         <v>43534</v>
       </c>
       <c r="B37">
@@ -6960,7 +7043,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
+      <c r="A38" s="58"/>
       <c r="B38">
         <v>-6</v>
       </c>
@@ -6972,7 +7055,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="55"/>
+      <c r="A39" s="58"/>
       <c r="B39">
         <v>-30</v>
       </c>
@@ -6996,7 +7079,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="51">
+      <c r="A41" s="53">
         <v>43535</v>
       </c>
       <c r="B41">
@@ -7010,7 +7093,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="51"/>
+      <c r="A42" s="53"/>
       <c r="B42">
         <v>-4</v>
       </c>
@@ -7022,7 +7105,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
+      <c r="A43" s="53"/>
       <c r="B43">
         <v>-14.76</v>
       </c>
@@ -7034,7 +7117,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="51">
+      <c r="A44" s="53">
         <v>43536</v>
       </c>
       <c r="B44">
@@ -7048,7 +7131,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="51"/>
+      <c r="A45" s="53"/>
       <c r="B45">
         <v>-22</v>
       </c>
@@ -7060,7 +7143,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="51"/>
+      <c r="A46" s="53"/>
       <c r="B46">
         <v>-8.4</v>
       </c>
@@ -7074,7 +7157,7 @@
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="51">
+      <c r="A47" s="53">
         <v>43537</v>
       </c>
       <c r="B47">
@@ -7090,7 +7173,7 @@
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="51"/>
+      <c r="A48" s="53"/>
       <c r="B48">
         <v>-10</v>
       </c>
@@ -7104,7 +7187,7 @@
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="51">
+      <c r="A49" s="53">
         <v>43538</v>
       </c>
       <c r="B49">
@@ -7120,7 +7203,7 @@
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="51"/>
+      <c r="A50" s="53"/>
       <c r="B50">
         <v>-18</v>
       </c>
@@ -7134,7 +7217,7 @@
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
+      <c r="A51" s="53"/>
       <c r="B51">
         <v>-10</v>
       </c>
@@ -7148,7 +7231,7 @@
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="51"/>
+      <c r="A52" s="53"/>
       <c r="B52">
         <v>-65.55</v>
       </c>
@@ -7162,7 +7245,7 @@
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="51"/>
+      <c r="A53" s="53"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -7176,7 +7259,7 @@
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="51">
+      <c r="A54" s="53">
         <v>43539</v>
       </c>
       <c r="B54">
@@ -7192,7 +7275,7 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="51"/>
+      <c r="A55" s="53"/>
       <c r="B55">
         <v>-4</v>
       </c>
@@ -7203,12 +7286,12 @@
       <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
+      <c r="A56" s="53"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="55">
+      <c r="A57" s="58">
         <v>43540</v>
       </c>
       <c r="B57">
@@ -7224,7 +7307,7 @@
       <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="55"/>
+      <c r="A58" s="58"/>
       <c r="B58">
         <v>-35</v>
       </c>
@@ -7238,7 +7321,7 @@
       <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="55"/>
+      <c r="A59" s="58"/>
       <c r="B59">
         <v>-21</v>
       </c>
@@ -7252,7 +7335,7 @@
       <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="55">
+      <c r="A60" s="58">
         <v>43541</v>
       </c>
       <c r="B60">
@@ -7268,7 +7351,7 @@
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="55"/>
+      <c r="A61" s="58"/>
       <c r="B61">
         <v>-13</v>
       </c>
@@ -7282,7 +7365,7 @@
       <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="55"/>
+      <c r="A62" s="58"/>
       <c r="B62">
         <v>-3</v>
       </c>
@@ -7296,7 +7379,7 @@
       <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="51">
+      <c r="A63" s="53">
         <v>43542</v>
       </c>
       <c r="B63">
@@ -7312,7 +7395,7 @@
       <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="51"/>
+      <c r="A64" s="53"/>
       <c r="B64">
         <v>-4</v>
       </c>
@@ -7326,7 +7409,7 @@
       <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="51"/>
+      <c r="A65" s="53"/>
       <c r="B65">
         <v>-2.4</v>
       </c>
@@ -7338,7 +7421,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="51">
+      <c r="A66" s="53">
         <v>43543</v>
       </c>
       <c r="B66">
@@ -7352,7 +7435,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="51"/>
+      <c r="A67" s="53"/>
       <c r="B67">
         <v>-16</v>
       </c>
@@ -7364,7 +7447,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="51"/>
+      <c r="A68" s="53"/>
       <c r="B68">
         <v>-17</v>
       </c>
@@ -7376,7 +7459,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="51">
+      <c r="A69" s="53">
         <v>43544</v>
       </c>
       <c r="B69">
@@ -7390,7 +7473,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="51"/>
+      <c r="A70" s="53"/>
       <c r="B70">
         <v>-16</v>
       </c>
@@ -7402,7 +7485,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="51"/>
+      <c r="A71" s="53"/>
       <c r="B71">
         <v>-7</v>
       </c>
@@ -7414,7 +7497,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="51">
+      <c r="A72" s="53">
         <v>43545</v>
       </c>
       <c r="B72">
@@ -7428,7 +7511,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="51"/>
+      <c r="A73" s="53"/>
       <c r="B73">
         <v>-14</v>
       </c>
@@ -7440,7 +7523,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="51"/>
+      <c r="A74" s="53"/>
       <c r="B74">
         <v>-1.5</v>
       </c>
@@ -7452,7 +7535,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="51"/>
+      <c r="A75" s="53"/>
       <c r="B75">
         <v>-7.8</v>
       </c>
@@ -7464,7 +7547,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="51"/>
+      <c r="A76" s="53"/>
       <c r="B76">
         <v>-3.5</v>
       </c>
@@ -7476,7 +7559,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="51">
+      <c r="A77" s="53">
         <v>43546</v>
       </c>
       <c r="B77">
@@ -7490,7 +7573,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="51"/>
+      <c r="A78" s="53"/>
       <c r="B78">
         <v>-17.399999999999999</v>
       </c>
@@ -7502,7 +7585,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
+      <c r="A79" s="53"/>
       <c r="B79">
         <v>-20.100000000000001</v>
       </c>
@@ -7514,7 +7597,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="51"/>
+      <c r="A80" s="53"/>
       <c r="B80">
         <v>-44.7</v>
       </c>
@@ -7526,7 +7609,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="51"/>
+      <c r="A81" s="53"/>
       <c r="B81">
         <v>-2.1</v>
       </c>
@@ -7538,7 +7621,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="51"/>
+      <c r="A82" s="53"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -7550,7 +7633,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="55">
+      <c r="A83" s="58">
         <v>43547</v>
       </c>
       <c r="B83">
@@ -7564,7 +7647,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="55"/>
+      <c r="A84" s="58"/>
       <c r="B84">
         <v>-62</v>
       </c>
@@ -7576,7 +7659,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="55">
+      <c r="A85" s="58">
         <v>43548</v>
       </c>
       <c r="B85">
@@ -7590,7 +7673,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="55"/>
+      <c r="A86" s="58"/>
       <c r="B86">
         <v>-10.75</v>
       </c>
@@ -7602,7 +7685,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="55"/>
+      <c r="A87" s="58"/>
       <c r="B87">
         <v>-37.119999999999997</v>
       </c>
@@ -7614,7 +7697,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="51">
+      <c r="A88" s="53">
         <v>43549</v>
       </c>
       <c r="B88">
@@ -7628,7 +7711,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="51"/>
+      <c r="A89" s="53"/>
       <c r="B89">
         <v>-4</v>
       </c>
@@ -7640,7 +7723,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="51"/>
+      <c r="A90" s="53"/>
       <c r="B90">
         <v>-16.02</v>
       </c>
@@ -7652,7 +7735,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="51"/>
+      <c r="A91" s="53"/>
       <c r="B91">
         <v>-4</v>
       </c>
@@ -7664,7 +7747,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="51">
+      <c r="A92" s="53">
         <v>43550</v>
       </c>
       <c r="B92">
@@ -7678,7 +7761,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="51"/>
+      <c r="A93" s="53"/>
       <c r="B93">
         <v>-24</v>
       </c>
@@ -7690,7 +7773,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="51"/>
+      <c r="A94" s="53"/>
       <c r="B94">
         <v>-3</v>
       </c>
@@ -7702,7 +7785,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="51">
+      <c r="A95" s="53">
         <v>43551</v>
       </c>
       <c r="B95">
@@ -7716,7 +7799,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="51"/>
+      <c r="A96" s="53"/>
       <c r="B96">
         <v>-10</v>
       </c>
@@ -7728,7 +7811,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="51">
+      <c r="A97" s="53">
         <v>43552</v>
       </c>
       <c r="B97">
@@ -7742,7 +7825,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="51"/>
+      <c r="A98" s="53"/>
       <c r="B98">
         <v>-6.72</v>
       </c>
@@ -7754,7 +7837,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="51"/>
+      <c r="A99" s="53"/>
       <c r="B99">
         <v>-2</v>
       </c>
@@ -7766,7 +7849,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="51"/>
+      <c r="A100" s="53"/>
       <c r="B100">
         <v>-9</v>
       </c>
@@ -7778,7 +7861,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="51">
+      <c r="A101" s="53">
         <v>43553</v>
       </c>
       <c r="B101">
@@ -7792,7 +7875,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="51"/>
+      <c r="A102" s="53"/>
       <c r="B102">
         <v>-3.4</v>
       </c>
@@ -7804,7 +7887,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="51"/>
+      <c r="A103" s="53"/>
       <c r="B103">
         <v>-30</v>
       </c>
@@ -7816,7 +7899,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="55">
+      <c r="A104" s="58">
         <v>43554</v>
       </c>
       <c r="B104">
@@ -7830,7 +7913,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="55"/>
+      <c r="A105" s="58"/>
       <c r="B105">
         <v>-8</v>
       </c>
@@ -7842,7 +7925,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="55"/>
+      <c r="A106" s="58"/>
       <c r="B106">
         <v>-30</v>
       </c>
@@ -7854,7 +7937,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="51">
+      <c r="A107" s="53">
         <v>43555</v>
       </c>
       <c r="B107">
@@ -7868,7 +7951,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="51"/>
+      <c r="A108" s="53"/>
       <c r="B108">
         <v>-21</v>
       </c>
@@ -7880,7 +7963,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="51"/>
+      <c r="A109" s="53"/>
       <c r="B109">
         <v>-9</v>
       </c>
@@ -7892,7 +7975,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="51"/>
+      <c r="A110" s="53"/>
       <c r="B110">
         <v>-38</v>
       </c>
@@ -8051,51 +8134,34 @@
       <c r="A159" s="33"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="51"/>
+      <c r="A160" s="53"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="51"/>
+      <c r="A161" s="53"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="51"/>
+      <c r="A162" s="53"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="51"/>
+      <c r="A163" s="53"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="51"/>
+      <c r="A164" s="53"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="51"/>
+      <c r="A165" s="53"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="51"/>
+      <c r="A166" s="53"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="51"/>
+      <c r="A167" s="53"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A160:A163"/>
     <mergeCell ref="A164:A167"/>
     <mergeCell ref="A29:A32"/>
@@ -8112,6 +8178,23 @@
     <mergeCell ref="A104:A106"/>
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A66:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8120,10 +8203,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N243"/>
+  <dimension ref="A1:N256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8140,41 +8223,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="37">
-        <f>SUMIF(B4:B285,"&lt;0")</f>
-        <v>-3641.7499999999995</v>
+        <f>SUMIF(B4:B298,"&lt;0")</f>
+        <v>-3990.4999999999995</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13">
         <f>3000+C1</f>
-        <v>-641.74999999999955</v>
+        <v>-990.49999999999955</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,5,1)-TODAY()</f>
-        <v>7</v>
+        <v>-9</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-91.67857142857136</v>
+        <v>110.0555555555555</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -8196,7 +8279,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>-106.95833333333326</v>
+        <v>99.049999999999955</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -8253,7 +8336,7 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48">
+      <c r="A6" s="50">
         <v>43558</v>
       </c>
       <c r="B6" s="8">
@@ -8277,7 +8360,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="8">
         <v>-7.3</v>
       </c>
@@ -8299,7 +8382,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="8">
         <v>-11</v>
       </c>
@@ -8321,7 +8404,7 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48">
+      <c r="A9" s="50">
         <v>43559</v>
       </c>
       <c r="B9" s="8">
@@ -8345,7 +8428,7 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="8">
         <v>-11</v>
       </c>
@@ -8367,7 +8450,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="8">
         <v>-1420</v>
       </c>
@@ -8389,7 +8472,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="8">
         <v>-89</v>
       </c>
@@ -8459,7 +8542,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="42">
+      <c r="A16" s="41">
         <v>43561</v>
       </c>
       <c r="B16" s="8">
@@ -8576,12 +8659,12 @@
         <v>142</v>
       </c>
       <c r="J22">
-        <f>SUMIF($D$4:$D311,H22,$B$4:$B$311)</f>
+        <f>SUMIF($D$4:$D324,H22,$B$4:$B$324)</f>
         <v>-242</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="48">
+      <c r="A23" s="50">
         <v>43563</v>
       </c>
       <c r="B23" s="8">
@@ -8600,12 +8683,12 @@
         <v>143</v>
       </c>
       <c r="J23">
-        <f ca="1">SUMIF($D$4:$D312,H23,$B$4:$B$311)</f>
-        <v>-633.32000000000016</v>
+        <f ca="1">SUMIF($D$4:$D325,H23,$B$4:$B$324)</f>
+        <v>-737.80000000000007</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="8">
         <v>-58.52</v>
       </c>
@@ -8618,7 +8701,7 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="8">
         <v>-6.3</v>
       </c>
@@ -8631,7 +8714,7 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="8">
         <v>-4</v>
       </c>
@@ -8644,7 +8727,7 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="48">
+      <c r="A27" s="50">
         <v>43564</v>
       </c>
       <c r="B27" s="8">
@@ -8663,12 +8746,12 @@
         <v>45</v>
       </c>
       <c r="J27">
-        <f ca="1">SUMIF($D$4:$D313,H27,$B$4:$B$311)</f>
-        <v>-1346.43</v>
+        <f ca="1">SUMIF($D$4:$D326,H27,$B$4:$B$324)</f>
+        <v>-1568.3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="8">
         <v>-10.199999999999999</v>
       </c>
@@ -8700,12 +8783,12 @@
         <v>46</v>
       </c>
       <c r="J29">
-        <f ca="1">SUMIF($D$4:$D314,H29,$B$4:$B$311)</f>
+        <f ca="1">SUMIF($D$4:$D327,H29,$B$4:$B$324)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
+      <c r="A30" s="42"/>
       <c r="B30" s="8">
         <v>-10</v>
       </c>
@@ -8718,7 +8801,7 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="8">
         <v>-12</v>
       </c>
@@ -8731,7 +8814,7 @@
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="8">
         <v>-20</v>
       </c>
@@ -8744,7 +8827,7 @@
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="41"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="8">
         <v>-5.3</v>
       </c>
@@ -8757,7 +8840,7 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="47">
+      <c r="A34" s="44">
         <v>43566</v>
       </c>
       <c r="B34" s="8">
@@ -8776,12 +8859,12 @@
         <v>40</v>
       </c>
       <c r="J34">
-        <f ca="1">SUMIF($D$4:$D315,H34,$B$4:$B$311)</f>
+        <f ca="1">SUMIF($D$4:$D328,H34,$B$4:$B$324)</f>
         <v>-1420</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="47"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="8">
         <v>-20</v>
       </c>
@@ -8794,7 +8877,7 @@
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="47"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="8">
         <v>-8</v>
       </c>
@@ -8807,7 +8890,7 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="48">
+      <c r="A37" s="50">
         <v>43567</v>
       </c>
       <c r="B37" s="8">
@@ -8822,7 +8905,7 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
+      <c r="A38" s="50"/>
       <c r="B38" s="8">
         <v>-59.9</v>
       </c>
@@ -8835,7 +8918,7 @@
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="8">
         <v>-31.1</v>
       </c>
@@ -8848,7 +8931,7 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="50"/>
       <c r="B40" s="8">
         <v>-11</v>
       </c>
@@ -8943,7 +9026,7 @@
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="48">
+      <c r="A47" s="50">
         <v>43570</v>
       </c>
       <c r="B47" s="8">
@@ -8958,7 +9041,7 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="8">
         <v>-189</v>
       </c>
@@ -8971,7 +9054,7 @@
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="8">
         <v>-410</v>
       </c>
@@ -8984,7 +9067,7 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="48"/>
+      <c r="A50" s="50"/>
       <c r="B50" s="8">
         <v>-2</v>
       </c>
@@ -8997,7 +9080,7 @@
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
+      <c r="A51" s="50"/>
       <c r="B51" s="8">
         <v>-11</v>
       </c>
@@ -9010,7 +9093,7 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="48">
+      <c r="A52" s="50">
         <v>43571</v>
       </c>
       <c r="B52" s="8">
@@ -9025,7 +9108,7 @@
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="48"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="8">
         <v>-35</v>
       </c>
@@ -9038,7 +9121,7 @@
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="48"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="8">
         <v>-7</v>
       </c>
@@ -9051,7 +9134,7 @@
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="48"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="8">
         <v>-75</v>
       </c>
@@ -9064,7 +9147,7 @@
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="48"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="8">
         <v>-11</v>
       </c>
@@ -9079,11 +9162,11 @@
       </c>
       <c r="J56">
         <f ca="1">SUM(J22:J34)</f>
-        <v>-3641.75</v>
+        <v>-3968.1</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="48">
+      <c r="A57" s="50">
         <v>43572</v>
       </c>
       <c r="B57" s="8">
@@ -9098,7 +9181,7 @@
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="8">
         <v>-7</v>
       </c>
@@ -9111,7 +9194,7 @@
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="48"/>
+      <c r="A59" s="50"/>
       <c r="B59" s="8">
         <v>-10</v>
       </c>
@@ -9124,7 +9207,7 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="48"/>
+      <c r="A60" s="50"/>
       <c r="B60" s="8">
         <v>-215</v>
       </c>
@@ -9137,7 +9220,7 @@
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="48"/>
+      <c r="A61" s="50"/>
       <c r="B61" s="8">
         <v>-11</v>
       </c>
@@ -9149,7 +9232,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="48">
+      <c r="A62" s="50">
         <v>43573</v>
       </c>
       <c r="B62" s="8">
@@ -9163,7 +9246,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="48"/>
+      <c r="A63" s="50"/>
       <c r="B63" s="8">
         <v>-11</v>
       </c>
@@ -9175,7 +9258,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="48">
+      <c r="A64" s="50">
         <v>43574</v>
       </c>
       <c r="B64" s="8">
@@ -9189,7 +9272,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="8">
         <v>-11</v>
       </c>
@@ -9227,184 +9310,184 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="40">
+      <c r="A68" s="54">
         <v>43576</v>
       </c>
       <c r="B68" s="8">
+        <v>-78</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="54"/>
+      <c r="B69" s="8">
+        <v>-11.92</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="54"/>
+      <c r="B70" s="8">
         <v>-9.5</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C70" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D68" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="48">
+      <c r="D70" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="50">
         <v>43577</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B71" s="8">
         <v>-4</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D69" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="48"/>
-      <c r="B70" s="8">
+      <c r="D71" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="50"/>
+      <c r="B72" s="8">
         <v>-12.22</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C72" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D70" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="48"/>
-      <c r="B71" s="8">
+      <c r="D72" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="50"/>
+      <c r="B73" s="8">
         <v>-11</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C73" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D71" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="48">
+      <c r="D73" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="50">
         <v>43578</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B74" s="8">
         <v>-16</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C74" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D72" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="48"/>
-      <c r="B73" s="8">
+      <c r="D74" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="50"/>
+      <c r="B75" s="8">
         <v>-2</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C75" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D73" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="48"/>
-      <c r="B74" s="8">
+      <c r="D75" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="50"/>
+      <c r="B76" s="8">
         <v>-2.5</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C76" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D74" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="48"/>
-      <c r="B75" s="8">
+      <c r="D76" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="50"/>
+      <c r="B77" s="8">
         <v>-11</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="48">
+      <c r="D77" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="50">
         <v>43579</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B78" s="8">
         <v>-14</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C78" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="48"/>
-      <c r="B77" s="8">
+      <c r="D78" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="50"/>
+      <c r="B79" s="8">
         <v>-13.6</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C79" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D77" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="48"/>
-      <c r="B78" s="8">
+      <c r="D79" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="50"/>
+      <c r="B80" s="8">
+        <v>-18</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D80" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="50"/>
+      <c r="B81" s="8">
         <v>-11</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D78" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="38">
+      <c r="D81" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="50">
         <v>43580</v>
-      </c>
-      <c r="B79" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D79" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="38">
-        <v>43581</v>
-      </c>
-      <c r="B80" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D80" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="46">
-        <v>43582</v>
-      </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="38">
-        <v>43583</v>
       </c>
       <c r="B82" s="8">
         <v>-11</v>
@@ -9417,183 +9500,250 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="38">
+      <c r="A83" s="50"/>
+      <c r="B83" s="8">
+        <v>-2.5</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D83" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="50"/>
+      <c r="B84" s="8">
+        <v>-27.67</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="50">
+        <v>43581</v>
+      </c>
+      <c r="B85" s="8">
+        <v>-10.5</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="12"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="50"/>
+      <c r="B86" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="54">
+        <v>43582</v>
+      </c>
+      <c r="B87" s="8">
+        <v>-3.31</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="54"/>
+      <c r="B88" s="8">
+        <v>-7.6</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D88" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="54"/>
+      <c r="B89" s="8">
+        <v>-94.35</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D89" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="54"/>
+      <c r="B90" s="8">
+        <v>-11.9</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" s="12"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="54"/>
+      <c r="B91" s="12">
+        <v>-30</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="50">
+        <v>43583</v>
+      </c>
+      <c r="B92" s="12">
+        <v>-15</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D92" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="50"/>
+      <c r="B93" s="12">
+        <v>-22</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D93" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="50"/>
+      <c r="B94" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D94" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="50">
         <v>43584</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B95" s="8">
+        <v>-16</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="50"/>
+      <c r="B96" s="8">
         <v>-11</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C96" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D83" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="38">
+      <c r="D96" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="38">
         <v>43585</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B97" s="8">
         <v>-11</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C97" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D84" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="38"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
+      <c r="D97" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="8"/>
+      <c r="A98" s="38"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
@@ -9641,66 +9791,92 @@
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
@@ -10277,27 +10453,98 @@
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
     </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="8"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="8"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="8"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="8"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="8"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="8"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="8"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="8"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="8"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="8"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="8"/>
+      <c r="B250" s="8"/>
+      <c r="C250" s="8"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="8"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="8"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="8"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="8"/>
+      <c r="B253" s="8"/>
+      <c r="C253" s="8"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="8"/>
+      <c r="B254" s="8"/>
+      <c r="C254" s="8"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="8"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="8"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="8"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A23:A26"/>
+  <mergeCells count="25">
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A96"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A64:A65"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A62:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10308,8 +10555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX20"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10324,6 +10571,7 @@
     <col min="9" max="9" width="16.5" style="8" customWidth="1"/>
     <col min="10" max="10" width="1.83203125" style="26" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
@@ -10341,13 +10589,13 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:50" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="E4" s="60"/>
       <c r="G4" s="26" t="s">
         <v>133</v>
       </c>
@@ -10362,7 +10610,7 @@
       </c>
       <c r="N4">
         <f>SUM(N5:N19)</f>
-        <v>-4115.5</v>
+        <v>-4173.5</v>
       </c>
       <c r="R4" t="s">
         <v>181</v>
@@ -10372,7 +10620,7 @@
       </c>
     </row>
     <row r="5" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="57"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="28" t="s">
         <v>136</v>
       </c>
@@ -10392,11 +10640,11 @@
         <v>-1547.46</v>
       </c>
       <c r="S5">
-        <v>-656.28</v>
+        <v>-1494.92</v>
       </c>
     </row>
     <row r="6" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="59">
+      <c r="C6" s="61">
         <v>43585</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -10405,7 +10653,7 @@
       <c r="E6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="50"/>
+      <c r="I6" s="56"/>
       <c r="J6" s="27"/>
       <c r="M6" t="s">
         <v>149</v>
@@ -10417,18 +10665,18 @@
         <v>-972.48</v>
       </c>
       <c r="S6">
-        <v>-345.65</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="59"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="29" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="50"/>
+      <c r="I7" s="56"/>
       <c r="J7" s="27"/>
       <c r="M7" t="s">
         <v>172</v>
@@ -10437,16 +10685,19 @@
         <f>-99/2</f>
         <v>-49.5</v>
       </c>
+      <c r="R7">
+        <v>-257</v>
+      </c>
     </row>
     <row r="8" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="59"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="29" t="s">
         <v>128</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="50"/>
+      <c r="I8" s="56"/>
       <c r="J8" s="27"/>
       <c r="M8" t="s">
         <v>173</v>
@@ -10459,22 +10710,22 @@
       </c>
       <c r="R8">
         <f>SUM(R5:R7)</f>
-        <v>-2519.94</v>
+        <v>-2776.94</v>
       </c>
       <c r="S8">
         <f>SUM(S5:S7)</f>
-        <v>-1001.93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="59"/>
+        <v>-1555.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="61"/>
       <c r="D9" s="29" t="s">
         <v>129</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="50"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="27"/>
       <c r="M9" t="s">
         <v>185</v>
@@ -10483,8 +10734,8 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="59"/>
+    <row r="10" spans="1:50" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="61"/>
       <c r="D10" s="29">
         <v>0.99305555555555547</v>
       </c>
@@ -10492,13 +10743,16 @@
         <v>132</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="I10" s="50"/>
+      <c r="I10" s="56"/>
       <c r="J10" s="27"/>
       <c r="M10" t="s">
         <v>186</v>
       </c>
       <c r="N10">
-        <v>-1056</v>
+        <v>-900</v>
+      </c>
+      <c r="O10" s="45" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="4" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
@@ -10554,7 +10808,7 @@
       <c r="AX11"/>
     </row>
     <row r="12" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="59">
+      <c r="C12" s="61">
         <v>43586</v>
       </c>
       <c r="D12" s="29">
@@ -10571,16 +10825,22 @@
       </c>
     </row>
     <row r="13" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="59"/>
+      <c r="C13" s="61"/>
+      <c r="M13" t="s">
+        <v>207</v>
+      </c>
+      <c r="N13">
+        <v>-214</v>
+      </c>
     </row>
     <row r="14" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="59"/>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="59"/>
+      <c r="C15" s="61"/>
     </row>
     <row r="16" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="59"/>
+      <c r="C16" s="61"/>
     </row>
     <row r="17" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="24">
@@ -10626,10 +10886,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N215"/>
+  <dimension ref="A1:N224"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:M45"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10646,41 +10906,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="37">
-        <f>SUMIF(B4:B257,"&lt;0")</f>
-        <v>0</v>
+        <f>SUMIF(B7:B266,"&lt;0")</f>
+        <v>-1573.5</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
+      <c r="A2" s="52"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13">
         <f>3000+C1</f>
-        <v>3000</v>
+        <v>1426.5</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
-        <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-23</v>
+        <f ca="1">DATE(2019,6,1)-TODAY()</f>
+        <v>22</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-130.43478260869566</v>
+        <v>64.840909090909093</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -10690,7 +10950,7 @@
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -10702,7 +10962,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>-125</v>
+        <v>67.928571428571431</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -10710,13 +10970,19 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43">
-        <v>43556</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="12"/>
+    <row r="4" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="50">
+        <v>43591</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
       <c r="E4" s="12"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -10728,13 +10994,17 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43">
-        <v>43557</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="12"/>
+    <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="50"/>
+      <c r="B5" s="8">
+        <v>-12.5</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -10746,13 +11016,17 @@
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48">
-        <v>43558</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="12"/>
+    <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="50"/>
+      <c r="B6" s="8">
+        <v>-5.5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -10764,11 +11038,17 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="12"/>
+    <row r="7" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="50"/>
+      <c r="B7" s="8">
+        <v>-1417</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="12">
+        <v>5</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
@@ -10781,10 +11061,18 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="50">
+        <v>43592</v>
+      </c>
+      <c r="B8" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -10797,12 +11085,16 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48">
-        <v>43559</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="12"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="8">
+        <v>-13</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
@@ -10815,10 +11107,18 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="50">
+        <v>43593</v>
+      </c>
+      <c r="B10" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -10831,10 +11131,16 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="8">
+        <v>-11.5</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -10847,10 +11153,18 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="50">
+        <v>43594</v>
+      </c>
+      <c r="B12" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -10863,12 +11177,16 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54">
-        <v>43560</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="8">
+        <v>-10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -10880,243 +11198,343 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="44">
-        <v>43561</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="12"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="54">
-        <v>43562</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="12"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+    <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="50"/>
+      <c r="B14" s="8">
+        <v>-33</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="50">
+        <v>43595</v>
+      </c>
+      <c r="B15" s="8">
+        <v>-15</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="8">
+        <v>-30</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
+      <c r="B17" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49">
+        <v>43596</v>
+      </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="12"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="49">
+        <v>43597</v>
+      </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="12"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="46">
+        <v>43598</v>
+      </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="12"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="46">
+        <v>43599</v>
+      </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="12"/>
-      <c r="H21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="46">
+        <v>43600</v>
+      </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="12"/>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J22">
-        <f>SUMIF($D$4:$D283,H22,$B$4:$B$283)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="48">
-        <v>43563</v>
+      <c r="E22" s="12"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="46">
+        <v>43601</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="12"/>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J23">
-        <f ca="1">SUMIF($D$4:$D284,H23,$B$4:$B$283)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="46">
+        <v>43602</v>
+      </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="12"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="49">
+        <v>43603</v>
+      </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="12"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="49">
+        <v>43604</v>
+      </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="12"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="48">
-        <v>43564</v>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="46">
+        <v>43605</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="12"/>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27">
-        <f ca="1">SUMIF($D$4:$D285,H27,$B$4:$B$283)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="46">
+        <v>43606</v>
+      </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="12"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="43">
-        <v>43565</v>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="46">
+        <v>43607</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="12"/>
-      <c r="H29">
-        <v>4</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J29">
-        <f ca="1">SUMIF($D$4:$D286,H29,$B$4:$B$283)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="46">
+        <v>43608</v>
+      </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="12"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
+      <c r="H30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="46">
+        <v>43609</v>
+      </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="12"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31">
+        <f>SUMIF($D$7:$D292,H31,$B$7:$B$292)</f>
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="49">
+        <v>43610</v>
+      </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="12"/>
-      <c r="I32" s="4"/>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J32">
+        <f ca="1">SUMIF($D$7:$D293,H32,$B$7:$B$292)</f>
+        <v>-112.5</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="43"/>
+      <c r="A33" s="48">
+        <v>43611</v>
+      </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="12"/>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="43">
-        <v>43566</v>
+      <c r="A34" s="46">
+        <v>43612</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="12"/>
-      <c r="H34">
-        <v>5</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34">
-        <f ca="1">SUMIF($D$4:$D287,H34,$B$4:$B$283)</f>
-        <v>0</v>
-      </c>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="43"/>
+      <c r="A35" s="46">
+        <v>43613</v>
+      </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="12"/>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="43"/>
+      <c r="A36" s="46">
+        <v>43614</v>
+      </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="12"/>
-      <c r="I36" s="4"/>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36">
+        <f ca="1">SUMIF($D$7:$D294,H36,$B$7:$B$292)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="48">
-        <v>43567</v>
+      <c r="A37" s="46">
+        <v>43615</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -11124,288 +11542,265 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
+      <c r="A38" s="46">
+        <v>43616</v>
+      </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="12"/>
-      <c r="I38" s="4"/>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38">
+        <f ca="1">SUMIF($D$7:$D295,H38,$B$7:$B$292)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
-        <v>43568</v>
-      </c>
+      <c r="A39" s="42"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="12"/>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="46">
-        <v>43569</v>
-      </c>
+      <c r="A40" s="42"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="12"/>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="43">
-        <v>43570</v>
-      </c>
+      <c r="A41" s="42"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="12"/>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="43">
-        <v>43571</v>
-      </c>
+      <c r="A42" s="42"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="12"/>
-      <c r="I42" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J42">
-        <f ca="1">SUM(J22:J34)</f>
-        <v>0</v>
-      </c>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="43">
-        <v>43572</v>
-      </c>
+      <c r="A43" s="42"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="12"/>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43">
+        <f ca="1">SUMIF($D$7:$D296,H43,$B$7:$B$292)</f>
+        <v>-1417</v>
+      </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="43">
-        <v>43573</v>
-      </c>
+      <c r="A44" s="42"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="12"/>
+      <c r="I44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J44">
+        <f ca="1">SUM(J24:J36)</f>
+        <v>-156.5</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="43">
-        <v>43574</v>
-      </c>
+      <c r="A45" s="48"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="46">
-        <v>43575</v>
-      </c>
+      <c r="A46" s="48"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="46">
-        <v>43576</v>
-      </c>
+      <c r="A47" s="48"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="43">
-        <v>43577</v>
-      </c>
+      <c r="A48" s="48"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="43">
-        <v>43578</v>
-      </c>
+      <c r="A49" s="48"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="43">
-        <v>43579</v>
-      </c>
+      <c r="A50" s="48"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="43">
-        <v>43580</v>
-      </c>
+      <c r="A51" s="48"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="43">
-        <v>43581</v>
-      </c>
+      <c r="A52" s="48"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="46">
-        <v>43582</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
       <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="43">
-        <v>43583</v>
-      </c>
+      <c r="A54" s="48"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="43">
-        <v>43584</v>
-      </c>
+      <c r="A55" s="48"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="43">
-        <v>43585</v>
-      </c>
+      <c r="A56" s="48"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="43"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
+      <c r="D58" s="12"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
+      <c r="D60" s="12"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
+      <c r="D63" s="12"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
+      <c r="D64" s="12"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
+      <c r="D65" s="12"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
@@ -11481,46 +11876,64 @@
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
@@ -12117,16 +12530,59 @@
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
     </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="8"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A27:A28"/>
+  <mergeCells count="6">
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A4:A7"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/账本/健忘症患者的账本.xlsx
+++ b/账本/健忘症患者的账本.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="230">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1798,6 +1798,97 @@
     <t>百香果</t>
     <rPh sb="0" eb="1">
       <t>bai xaing guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小龙虾</t>
+    <rPh sb="0" eb="1">
+      <t>xiao long xia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调料</t>
+    <rPh sb="0" eb="1">
+      <t>tiao liao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳环</t>
+    <rPh sb="0" eb="1">
+      <t>er huan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煎饼</t>
+    <rPh sb="0" eb="1">
+      <t>jian bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷饼</t>
+    <rPh sb="0" eb="1">
+      <t>juan bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西虹市</t>
+    <rPh sb="0" eb="1">
+      <t>xi hong shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐</t>
+    <rPh sb="0" eb="1">
+      <t>ke le</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颈椎贴</t>
+    <rPh sb="0" eb="1">
+      <t>jing hzui tie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足贴</t>
+    <rPh sb="0" eb="1">
+      <t>zu tie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防嗮霜</t>
+    <rPh sb="0" eb="1">
+      <t>fang sai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shuagn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午饭</t>
+    <rPh sb="0" eb="1">
+      <t>wu f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薰衣草</t>
+    <rPh sb="0" eb="1">
+      <t>xun yi cao</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2027,29 +2118,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2357,7 +2448,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2371,7 +2462,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -2384,14 +2475,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-129</v>
+        <v>-133</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>20.133023255813953</v>
+        <v>19.527518796992481</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -2404,16 +2495,16 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>19.978153846153845</v>
+        <v>19.381791044776119</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2881,7 +2972,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="54">
+      <c r="A36" s="56">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -2895,7 +2986,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
+      <c r="A37" s="56"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -2907,7 +2998,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
+      <c r="A38" s="56"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -3721,20 +3812,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
@@ -3751,6 +3828,20 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3777,7 +3868,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3791,7 +3882,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -3804,14 +3895,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-98</v>
+        <v>-102</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>26.61234693877552</v>
+        <v>25.568725490196091</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -3833,7 +3924,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>26.343535353535366</v>
+        <v>25.320485436893215</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -4061,7 +4152,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="54">
+      <c r="A16" s="56">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -4075,7 +4166,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
+      <c r="A17" s="56"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -4087,7 +4178,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="56"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -4099,7 +4190,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="56"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -4117,7 +4208,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="56"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -4136,7 +4227,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
+      <c r="A21" s="56"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -4155,7 +4246,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="54">
+      <c r="A22" s="56">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -4176,7 +4267,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
+      <c r="A23" s="56"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -4195,7 +4286,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
+      <c r="A24" s="56"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -4430,7 +4521,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="54">
+      <c r="A43" s="56">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -4444,7 +4535,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
+      <c r="A44" s="56"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -4682,7 +4773,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="54">
+      <c r="A63" s="56">
         <v>43484</v>
       </c>
       <c r="B63">
@@ -4696,7 +4787,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
+      <c r="A64" s="56"/>
       <c r="B64">
         <v>-62</v>
       </c>
@@ -4708,7 +4799,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="54">
+      <c r="A65" s="56">
         <v>43485</v>
       </c>
       <c r="B65">
@@ -4722,7 +4813,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
+      <c r="A66" s="56"/>
       <c r="B66">
         <v>-30</v>
       </c>
@@ -4734,7 +4825,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
+      <c r="A67" s="56"/>
       <c r="B67">
         <v>-98</v>
       </c>
@@ -4935,7 +5026,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="54">
+      <c r="A83" s="56">
         <v>43492</v>
       </c>
       <c r="B83">
@@ -4949,7 +5040,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="54"/>
+      <c r="A84" s="56"/>
       <c r="B84">
         <v>-13.8</v>
       </c>
@@ -5114,18 +5205,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A92:A95"/>
@@ -5142,6 +5221,18 @@
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5169,7 +5260,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5188,7 +5279,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -5201,14 +5292,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>-70</v>
+        <v>-74</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>29.056857142857137</v>
+        <v>27.48621621621621</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5223,7 +5314,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>28.647605633802812</v>
+        <v>27.119733333333329</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5238,7 +5329,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="54">
+      <c r="A5" s="56">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -5249,7 +5340,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="56"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -5258,7 +5349,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="56"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -5303,7 +5394,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="58">
+      <c r="A10" s="57">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -5314,7 +5405,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="57"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
@@ -5330,7 +5421,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
+      <c r="A12" s="57"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -5339,7 +5430,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="57"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -5348,7 +5439,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="58">
+      <c r="A14" s="57">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -5359,7 +5450,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="57"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -5373,7 +5464,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="58">
+      <c r="A17" s="57">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -5384,7 +5475,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+      <c r="A18" s="57"/>
       <c r="B18">
         <v>-300</v>
       </c>
@@ -5393,7 +5484,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
+      <c r="A19" s="57"/>
       <c r="B19">
         <v>-149</v>
       </c>
@@ -5413,7 +5504,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="54">
+      <c r="A21" s="56">
         <v>43503</v>
       </c>
       <c r="B21">
@@ -5424,7 +5515,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
+      <c r="A22" s="56"/>
       <c r="B22">
         <v>-130.27000000000001</v>
       </c>
@@ -5433,7 +5524,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="54">
+      <c r="A23" s="56">
         <v>43504</v>
       </c>
       <c r="B23">
@@ -5444,7 +5535,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
+      <c r="A24" s="56"/>
       <c r="B24">
         <v>-15</v>
       </c>
@@ -5453,7 +5544,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="54">
+      <c r="A25" s="56">
         <v>43505</v>
       </c>
       <c r="B25">
@@ -5464,7 +5555,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
+      <c r="A26" s="56"/>
       <c r="B26">
         <v>-39</v>
       </c>
@@ -5473,7 +5564,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
+      <c r="A27" s="56"/>
       <c r="B27">
         <v>-10</v>
       </c>
@@ -5482,7 +5573,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
+      <c r="A28" s="56"/>
       <c r="B28">
         <v>-17.600000000000001</v>
       </c>
@@ -5494,7 +5585,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
+      <c r="A29" s="56"/>
       <c r="B29">
         <v>-25</v>
       </c>
@@ -5506,7 +5597,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+      <c r="A30" s="56"/>
       <c r="B30">
         <v>-83</v>
       </c>
@@ -5515,7 +5606,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
+      <c r="A31" s="56"/>
       <c r="B31">
         <v>-128</v>
       </c>
@@ -5524,7 +5615,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
+      <c r="A32" s="56"/>
       <c r="B32">
         <v>-28</v>
       </c>
@@ -5533,7 +5624,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
+      <c r="A33" s="56"/>
       <c r="B33">
         <v>-65</v>
       </c>
@@ -5545,7 +5636,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
+      <c r="A34" s="56"/>
       <c r="B34">
         <v>-127.9</v>
       </c>
@@ -5573,7 +5664,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="57"/>
+      <c r="A37" s="58"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -5737,7 +5828,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="54">
+      <c r="A50" s="56">
         <v>43512</v>
       </c>
       <c r="B50">
@@ -5751,7 +5842,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
+      <c r="A51" s="56"/>
       <c r="B51">
         <v>-33.5</v>
       </c>
@@ -5763,7 +5854,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="54">
+      <c r="A52" s="56">
         <v>43513</v>
       </c>
       <c r="B52">
@@ -5777,7 +5868,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="54"/>
+      <c r="A53" s="56"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -5789,7 +5880,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
+      <c r="A54" s="56"/>
       <c r="B54">
         <v>-2</v>
       </c>
@@ -6075,7 +6166,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="54">
+      <c r="A77" s="56">
         <v>43519</v>
       </c>
       <c r="B77">
@@ -6089,7 +6180,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
+      <c r="A78" s="56"/>
       <c r="B78">
         <f>-2.8-7.2-9.34-4</f>
         <v>-23.34</v>
@@ -6102,7 +6193,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="54"/>
+      <c r="A79" s="56"/>
       <c r="B79">
         <v>-30</v>
       </c>
@@ -6114,7 +6205,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="56" t="s">
         <v>115</v>
       </c>
       <c r="B80">
@@ -6128,7 +6219,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="54"/>
+      <c r="A81" s="56"/>
       <c r="B81">
         <v>-16</v>
       </c>
@@ -6140,7 +6231,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="54"/>
+      <c r="A82" s="56"/>
       <c r="B82">
         <v>-2.5</v>
       </c>
@@ -6152,7 +6243,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="54"/>
+      <c r="A83" s="56"/>
       <c r="B83">
         <v>-16</v>
       </c>
@@ -6395,6 +6486,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -6403,24 +6512,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6449,7 +6540,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6463,7 +6554,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -6476,14 +6567,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-39</v>
+        <v>-43</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>15.790769230769246</v>
+        <v>14.321860465116293</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -6505,7 +6596,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>15.396000000000015</v>
+        <v>13.99636363636365</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6630,7 +6721,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="58">
+      <c r="A10" s="57">
         <v>43527</v>
       </c>
       <c r="B10">
@@ -6654,7 +6745,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
+      <c r="A11" s="57"/>
       <c r="B11">
         <v>-2</v>
       </c>
@@ -6676,7 +6767,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
+      <c r="A12" s="57"/>
       <c r="B12">
         <v>-49</v>
       </c>
@@ -6698,7 +6789,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
+      <c r="A13" s="57"/>
       <c r="B13">
         <v>-109</v>
       </c>
@@ -6979,7 +7070,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="58">
+      <c r="A33" s="57">
         <v>43533</v>
       </c>
       <c r="B33">
@@ -6993,7 +7084,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
+      <c r="A34" s="57"/>
       <c r="B34">
         <v>-32.6</v>
       </c>
@@ -7005,7 +7096,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
+      <c r="A35" s="57"/>
       <c r="B35">
         <v>-51</v>
       </c>
@@ -7017,7 +7108,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
+      <c r="A36" s="57"/>
       <c r="B36">
         <v>-36.9</v>
       </c>
@@ -7029,7 +7120,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="58">
+      <c r="A37" s="57">
         <v>43534</v>
       </c>
       <c r="B37">
@@ -7043,7 +7134,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
+      <c r="A38" s="57"/>
       <c r="B38">
         <v>-6</v>
       </c>
@@ -7055,7 +7146,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
+      <c r="A39" s="57"/>
       <c r="B39">
         <v>-30</v>
       </c>
@@ -7291,7 +7382,7 @@
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="58">
+      <c r="A57" s="57">
         <v>43540</v>
       </c>
       <c r="B57">
@@ -7307,7 +7398,7 @@
       <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="58"/>
+      <c r="A58" s="57"/>
       <c r="B58">
         <v>-35</v>
       </c>
@@ -7321,7 +7412,7 @@
       <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="58"/>
+      <c r="A59" s="57"/>
       <c r="B59">
         <v>-21</v>
       </c>
@@ -7335,7 +7426,7 @@
       <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="58">
+      <c r="A60" s="57">
         <v>43541</v>
       </c>
       <c r="B60">
@@ -7351,7 +7442,7 @@
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="58"/>
+      <c r="A61" s="57"/>
       <c r="B61">
         <v>-13</v>
       </c>
@@ -7365,7 +7456,7 @@
       <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="58"/>
+      <c r="A62" s="57"/>
       <c r="B62">
         <v>-3</v>
       </c>
@@ -7633,7 +7724,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="58">
+      <c r="A83" s="57">
         <v>43547</v>
       </c>
       <c r="B83">
@@ -7647,7 +7738,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="58"/>
+      <c r="A84" s="57"/>
       <c r="B84">
         <v>-62</v>
       </c>
@@ -7659,7 +7750,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="58">
+      <c r="A85" s="57">
         <v>43548</v>
       </c>
       <c r="B85">
@@ -7673,7 +7764,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="58"/>
+      <c r="A86" s="57"/>
       <c r="B86">
         <v>-10.75</v>
       </c>
@@ -7685,7 +7776,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="58"/>
+      <c r="A87" s="57"/>
       <c r="B87">
         <v>-37.119999999999997</v>
       </c>
@@ -7899,7 +7990,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="58">
+      <c r="A104" s="57">
         <v>43554</v>
       </c>
       <c r="B104">
@@ -7913,7 +8004,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="58"/>
+      <c r="A105" s="57"/>
       <c r="B105">
         <v>-8</v>
       </c>
@@ -7925,7 +8016,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="58"/>
+      <c r="A106" s="57"/>
       <c r="B106">
         <v>-30</v>
       </c>
@@ -8162,6 +8253,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A160:A163"/>
     <mergeCell ref="A164:A167"/>
     <mergeCell ref="A29:A32"/>
@@ -8178,23 +8286,6 @@
     <mergeCell ref="A104:A106"/>
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A66:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8223,7 +8314,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -8237,7 +8328,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -8250,14 +8341,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,5,1)-TODAY()</f>
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>110.0555555555555</v>
+        <v>76.192307692307651</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -8279,7 +8370,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>99.049999999999955</v>
+        <v>70.749999999999972</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -8494,7 +8585,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54">
+      <c r="A13" s="56">
         <v>43560</v>
       </c>
       <c r="B13" s="8">
@@ -8518,7 +8609,7 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="8">
         <v>-6</v>
       </c>
@@ -8530,7 +8621,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="8">
         <v>-5</v>
       </c>
@@ -8559,7 +8650,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="54">
+      <c r="A17" s="56">
         <v>43562</v>
       </c>
       <c r="B17" s="8">
@@ -8576,7 +8667,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="8">
         <v>-30</v>
       </c>
@@ -8591,7 +8682,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="8">
         <v>-42.5</v>
       </c>
@@ -8606,7 +8697,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="8">
         <v>-2.5</v>
       </c>
@@ -8621,7 +8712,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="8">
         <v>-5.3</v>
       </c>
@@ -8642,7 +8733,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="8">
         <v>-3.33</v>
       </c>
@@ -8944,7 +9035,7 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="54">
+      <c r="A41" s="56">
         <v>43568</v>
       </c>
       <c r="B41" s="8">
@@ -8959,7 +9050,7 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="8">
         <v>-4.5</v>
       </c>
@@ -8972,7 +9063,7 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="8">
         <v>-21.7</v>
       </c>
@@ -8985,7 +9076,7 @@
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="54">
+      <c r="A44" s="56">
         <v>43569</v>
       </c>
       <c r="B44" s="8">
@@ -9000,7 +9091,7 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="8">
         <v>-231.53</v>
       </c>
@@ -9013,7 +9104,7 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="8">
         <v>-4</v>
       </c>
@@ -9284,7 +9375,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="54">
+      <c r="A66" s="56">
         <v>43575</v>
       </c>
       <c r="B66" s="8">
@@ -9298,7 +9389,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
+      <c r="A67" s="56"/>
       <c r="B67" s="8">
         <v>-14.5</v>
       </c>
@@ -9310,7 +9401,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="54">
+      <c r="A68" s="56">
         <v>43576</v>
       </c>
       <c r="B68" s="8">
@@ -9324,7 +9415,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="54"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="8">
         <v>-11.92</v>
       </c>
@@ -9336,7 +9427,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="54"/>
+      <c r="A70" s="56"/>
       <c r="B70" s="8">
         <v>-9.5</v>
       </c>
@@ -9548,7 +9639,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="54">
+      <c r="A87" s="56">
         <v>43582</v>
       </c>
       <c r="B87" s="8">
@@ -9562,7 +9653,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="54"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="8">
         <v>-7.6</v>
       </c>
@@ -9574,7 +9665,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="54"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="8">
         <v>-94.35</v>
       </c>
@@ -9586,7 +9677,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="54"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="8">
         <v>-11.9</v>
       </c>
@@ -9596,7 +9687,7 @@
       <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="54"/>
+      <c r="A91" s="56"/>
       <c r="B91" s="12">
         <v>-30</v>
       </c>
@@ -10520,6 +10611,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A92:A94"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="A1:A2"/>
@@ -10536,15 +10636,6 @@
     <mergeCell ref="A78:A81"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A62:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10653,7 +10744,7 @@
       <c r="E6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="56"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="27"/>
       <c r="M6" t="s">
         <v>149</v>
@@ -10676,7 +10767,7 @@
       <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="56"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="27"/>
       <c r="M7" t="s">
         <v>172</v>
@@ -10697,7 +10788,7 @@
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="56"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="27"/>
       <c r="M8" t="s">
         <v>173</v>
@@ -10725,7 +10816,7 @@
       <c r="E9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="56"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="27"/>
       <c r="M9" t="s">
         <v>185</v>
@@ -10743,7 +10834,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="I10" s="56"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="27"/>
       <c r="M10" t="s">
         <v>186</v>
@@ -10886,10 +10977,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N224"/>
+  <dimension ref="A1:N236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10906,41 +10997,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="37">
-        <f>SUMIF(B7:B266,"&lt;0")</f>
-        <v>-1573.5</v>
+        <f>SUMIF(B7:B278,"&lt;0")</f>
+        <v>-2132.9</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13">
         <f>3000+C1</f>
-        <v>1426.5</v>
+        <v>867.09999999999991</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,6,1)-TODAY()</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>64.840909090909093</v>
+        <v>48.172222222222217</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -10962,7 +11053,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>67.928571428571431</v>
+        <v>51.005882352941171</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -11269,13 +11360,13 @@
     <row r="17" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50"/>
       <c r="B17" s="8">
-        <v>-11</v>
+        <v>-100</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D17" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="8"/>
@@ -11289,12 +11380,16 @@
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49">
-        <v>43596</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="12"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="8">
+        <v>-8</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -11307,12 +11402,16 @@
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49">
-        <v>43597</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -11325,12 +11424,18 @@
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46">
-        <v>43598</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="12"/>
+      <c r="A20" s="49">
+        <v>43596</v>
+      </c>
+      <c r="B20" s="8">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -11343,12 +11448,18 @@
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="46">
-        <v>43599</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="12"/>
+      <c r="A21" s="56">
+        <v>43597</v>
+      </c>
+      <c r="B21" s="8">
+        <v>-35</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -11361,12 +11472,16 @@
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="46">
-        <v>43600</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="8">
+        <v>-99</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="12">
+        <v>3</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -11378,513 +11493,693 @@
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="46">
-        <v>43601</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="46">
-        <v>43602</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="49">
-        <v>43603</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="49">
-        <v>43604</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="46">
-        <v>43605</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="46">
-        <v>43606</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="46">
-        <v>43607</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="46">
-        <v>43608</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="12"/>
-      <c r="H30" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="46">
-        <v>43609</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="12"/>
-      <c r="H31">
+    <row r="23" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="50">
+        <v>43598</v>
+      </c>
+      <c r="B23" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="12">
         <v>1</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J31">
-        <f>SUMIF($D$7:$D292,H31,$B$7:$B$292)</f>
-        <v>-44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="49">
-        <v>43610</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="12"/>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J32">
-        <f ca="1">SUMIF($D$7:$D293,H32,$B$7:$B$292)</f>
-        <v>-112.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="48">
-        <v>43611</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="12"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="12"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="50"/>
+      <c r="B24" s="8">
+        <v>-7</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="12">
+        <v>2</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="50"/>
+      <c r="B25" s="8">
+        <v>-9.4</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="12">
+        <v>2</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="50"/>
+      <c r="B26" s="8">
+        <v>-3.2</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="50"/>
+      <c r="B27" s="8">
+        <v>-59</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="12">
+        <v>3</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="50"/>
+      <c r="B28" s="8">
+        <v>-59</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="12">
+        <v>3</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="50"/>
+      <c r="B29" s="8">
+        <v>-69</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="12">
+        <v>3</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="50"/>
+      <c r="B30" s="8">
+        <v>-14</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="50">
+        <v>43599</v>
+      </c>
+      <c r="B31" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="50"/>
+      <c r="B32" s="8">
+        <v>-16</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="12">
+        <v>2</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="50"/>
+      <c r="B33" s="8">
+        <v>-18</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33" s="12">
+        <v>3</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="46">
-        <v>43612</v>
+        <v>43600</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="12"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E34" s="12"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="46">
-        <v>43613</v>
+        <v>43601</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="12"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="46">
-        <v>43614</v>
+        <v>43602</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="12"/>
-      <c r="H36">
-        <v>3</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J36">
-        <f ca="1">SUMIF($D$7:$D294,H36,$B$7:$B$292)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="46">
-        <v>43615</v>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="49">
+        <v>43603</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="12"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="46">
-        <v>43616</v>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="49">
+        <v>43604</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="12"/>
-      <c r="H38">
-        <v>4</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38">
-        <f ca="1">SUMIF($D$7:$D295,H38,$B$7:$B$292)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="42"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="46">
+        <v>43605</v>
+      </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="12"/>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="46">
+        <v>43606</v>
+      </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="12"/>
-      <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="42"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="46">
+        <v>43607</v>
+      </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="12"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="42"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="46">
+        <v>43608</v>
+      </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="12"/>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="42"/>
+      <c r="H42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="46">
+        <v>43609</v>
+      </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="12"/>
       <c r="H43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="J43">
-        <f ca="1">SUMIF($D$7:$D296,H43,$B$7:$B$292)</f>
-        <v>-1417</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
+        <f>SUMIF($D$7:$D304,H43,$B$7:$B$304)</f>
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="49">
+        <v>43610</v>
+      </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="12"/>
+      <c r="H44">
+        <v>2</v>
+      </c>
       <c r="I44" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J44">
-        <f ca="1">SUM(J24:J36)</f>
-        <v>-156.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="48"/>
+        <f ca="1">SUMIF($D$7:$D305,H44,$B$7:$B$304)</f>
+        <v>-345.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="48">
+        <v>43611</v>
+      </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="48"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="46">
+        <v>43612</v>
+      </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="12"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="48"/>
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="46">
+        <v>43613</v>
+      </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="12"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="46">
+        <v>43614</v>
+      </c>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="12"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48">
+        <f ca="1">SUMIF($D$7:$D306,H48,$B$7:$B$304)</f>
+        <v>-304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="46">
+        <v>43615</v>
+      </c>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="12"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="48"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="46">
+        <v>43616</v>
+      </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="12"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
+      <c r="H50">
+        <v>4</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50">
+        <f ca="1">SUMIF($D$7:$D307,H50,$B$7:$B$304)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="42"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="12"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="48"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="42"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="48"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="42"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="12"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="48"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="42"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="12"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="48"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="42"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="12"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="48"/>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55">
+        <f ca="1">SUMIF($D$7:$D308,H55,$B$7:$B$304)</f>
+        <v>-1417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="42"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="12"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I56" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J56">
+        <f ca="1">SUM(J36:J48)</f>
+        <v>-715.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="48"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="12"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="48"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="12"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="48"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="12"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="48"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="12"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="48"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="12"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="48"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
       <c r="D62" s="12"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="48"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="12"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="48"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="12"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="48"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="12"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="48"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D66" s="12"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="48"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D67" s="12"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="48"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D68" s="12"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="48"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D69" s="12"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="48"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
+      <c r="D70" s="12"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="48"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
+      <c r="D71" s="12"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="48"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
+      <c r="D72" s="12"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="48"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
+      <c r="D73" s="12"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="48"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="48"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
+      <c r="D75" s="12"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="48"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="8"/>
+      <c r="D76" s="12"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="48"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="8"/>
+      <c r="D77" s="12"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="48"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="8"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="48"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="8"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="48"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="8"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="8"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
@@ -11935,82 +12230,106 @@
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -12575,14 +12894,77 @@
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
     </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="8"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="8"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="8"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="8"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="8"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="8"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="8"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="8"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="8"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="8"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="8"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="8"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="8"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="8"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="8"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="8"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="8"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A4:A7"/>
+  <mergeCells count="9">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/账本/健忘症患者的账本.xlsx
+++ b/账本/健忘症患者的账本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="12月" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="4月" sheetId="10" r:id="rId5"/>
     <sheet name="泰国行" sheetId="8" r:id="rId6"/>
     <sheet name="5月" sheetId="11" r:id="rId7"/>
+    <sheet name="6月" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="250">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -1820,13 +1821,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耳环</t>
-    <rPh sb="0" eb="1">
-      <t>er huan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>煎饼</t>
     <rPh sb="0" eb="1">
       <t>jian bing</t>
@@ -1862,33 +1856,186 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>足贴</t>
-    <rPh sb="0" eb="1">
-      <t>zu tie</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防嗮霜</t>
-    <rPh sb="0" eb="1">
-      <t>fang sai</t>
-    </rPh>
+    <t>午饭</t>
+    <rPh sb="0" eb="1">
+      <t>wu f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薰衣草</t>
+    <rPh sb="0" eb="1">
+      <t>xun yi cao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枕头</t>
+    <rPh sb="0" eb="1">
+      <t>zhen tou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唇膜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗面奶首付</t>
+    <rPh sb="0" eb="1">
+      <t>xi mian nai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vc水</t>
     <rPh sb="2" eb="3">
-      <t>shuagn</t>
+      <t>shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗发水</t>
+    <rPh sb="0" eb="1">
+      <t>xi fa shui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕麦面</t>
+    <rPh sb="0" eb="1">
+      <t>yan mai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花椒芽</t>
+    <rPh sb="0" eb="1">
+      <t>hua jiao ya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶茶</t>
+    <rPh sb="0" eb="1">
+      <t>nai cha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维生素</t>
+    <rPh sb="0" eb="1">
+      <t>wei sheng s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒马生鲜</t>
+    <rPh sb="0" eb="1">
+      <t>he ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shegn xian</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>午饭</t>
     <rPh sb="0" eb="1">
-      <t>wu f</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薰衣草</t>
-    <rPh sb="0" eb="1">
-      <t>xun yi cao</t>
+      <t>wu fan f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚饭</t>
+    <rPh sb="0" eb="1">
+      <t>wan afn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
+    <rPh sb="0" eb="1">
+      <t>shu cai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子</t>
+    <rPh sb="0" eb="1">
+      <t>ye zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短袖</t>
+    <rPh sb="0" eb="1">
+      <t>duan xiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙汁</t>
+    <rPh sb="0" eb="1">
+      <t>cheng zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6月</t>
+    <rPh sb="6" eb="7">
+      <t>yue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛轧糖</t>
+    <rPh sb="0" eb="1">
+      <t>niu zha tang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗面奶尾款</t>
+    <rPh sb="0" eb="1">
+      <t>xi mian nai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei kuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菇酱</t>
+    <rPh sb="0" eb="1">
+      <t>xiang gu jiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕麦面</t>
+    <rPh sb="0" eb="1">
+      <t>yan mai mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面膜</t>
+    <rPh sb="0" eb="1">
+      <t>mian mo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洁面仪</t>
+    <rPh sb="0" eb="1">
+      <t>jie mian yi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1901,7 +2048,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1955,6 +2102,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1979,10 +2152,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2115,7 +2292,31 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2124,23 +2325,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2151,9 +2340,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2448,7 +2644,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2462,7 +2658,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -2475,14 +2671,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-133</v>
+        <v>-153</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>19.527518796992481</v>
+        <v>16.974901960784312</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -2495,20 +2691,20 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>19.381791044776119</v>
+        <v>16.864675324675325</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="50">
+      <c r="A4" s="54">
         <v>43435</v>
       </c>
       <c r="B4">
@@ -2522,7 +2718,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="54"/>
       <c r="B5">
         <v>-20</v>
       </c>
@@ -2548,7 +2744,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="50">
+      <c r="A7" s="54">
         <v>43437</v>
       </c>
       <c r="B7">
@@ -2562,7 +2758,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="54"/>
       <c r="B8">
         <v>-89</v>
       </c>
@@ -2583,7 +2779,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="54"/>
       <c r="B9">
         <v>-6</v>
       </c>
@@ -2605,7 +2801,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="54"/>
       <c r="B10">
         <v>-4</v>
       </c>
@@ -2634,7 +2830,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="53">
+      <c r="A11" s="57">
         <v>43438</v>
       </c>
       <c r="B11">
@@ -2658,7 +2854,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
+      <c r="A12" s="57"/>
       <c r="B12">
         <v>18</v>
       </c>
@@ -2677,7 +2873,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
+      <c r="A13" s="57"/>
       <c r="B13">
         <v>-7</v>
       </c>
@@ -2699,7 +2895,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
+      <c r="A14" s="57"/>
       <c r="B14">
         <v>-8</v>
       </c>
@@ -2711,7 +2907,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
+      <c r="A15" s="57"/>
       <c r="B15">
         <v>-6</v>
       </c>
@@ -2723,7 +2919,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
+      <c r="A16" s="57"/>
       <c r="B16">
         <v>-34.799999999999997</v>
       </c>
@@ -2735,7 +2931,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="50">
+      <c r="A17" s="54">
         <v>43439</v>
       </c>
       <c r="B17">
@@ -2750,7 +2946,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
+      <c r="A18" s="54"/>
       <c r="B18">
         <v>-1468</v>
       </c>
@@ -2762,7 +2958,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="2">
         <v>-6</v>
       </c>
@@ -2774,7 +2970,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
+      <c r="A20" s="54"/>
       <c r="B20">
         <v>7</v>
       </c>
@@ -2783,7 +2979,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
+      <c r="A21" s="54"/>
       <c r="B21">
         <v>-4</v>
       </c>
@@ -2795,7 +2991,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
+      <c r="A22" s="54"/>
       <c r="B22">
         <v>-29.9</v>
       </c>
@@ -2807,7 +3003,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="53">
+      <c r="A23" s="57">
         <v>43440</v>
       </c>
       <c r="B23">
@@ -2821,7 +3017,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
+      <c r="A24" s="57"/>
       <c r="B24">
         <v>-5</v>
       </c>
@@ -2833,7 +3029,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
+      <c r="A25" s="57"/>
       <c r="B25">
         <v>-9</v>
       </c>
@@ -2845,7 +3041,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
+      <c r="A26" s="57"/>
       <c r="B26">
         <v>-249</v>
       </c>
@@ -2857,7 +3053,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
+      <c r="A27" s="57"/>
       <c r="B27">
         <v>-13.88</v>
       </c>
@@ -2869,7 +3065,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="53">
+      <c r="A28" s="57">
         <v>43441</v>
       </c>
       <c r="B28">
@@ -2883,7 +3079,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
+      <c r="A29" s="57"/>
       <c r="B29">
         <v>-6</v>
       </c>
@@ -2895,7 +3091,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
+      <c r="A30" s="57"/>
       <c r="B30">
         <v>-4</v>
       </c>
@@ -2907,7 +3103,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
+      <c r="A31" s="57"/>
       <c r="B31">
         <v>-18</v>
       </c>
@@ -2919,7 +3115,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
+      <c r="A32" s="57"/>
       <c r="B32">
         <f>-89-129-119-89</f>
         <v>-426</v>
@@ -2932,7 +3128,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="50">
+      <c r="A33" s="54">
         <v>43442</v>
       </c>
       <c r="B33">
@@ -2946,7 +3142,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="50">
+      <c r="A34" s="54">
         <v>43443</v>
       </c>
       <c r="B34">
@@ -2960,7 +3156,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="50"/>
+      <c r="A35" s="54"/>
       <c r="B35">
         <v>-2</v>
       </c>
@@ -2972,7 +3168,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="56">
+      <c r="A36" s="58">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -2986,7 +3182,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
+      <c r="A37" s="58"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -2998,7 +3194,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
+      <c r="A38" s="58"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -3010,7 +3206,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="50">
+      <c r="A39" s="54">
         <v>43445</v>
       </c>
       <c r="B39">
@@ -3024,7 +3220,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
+      <c r="A40" s="54"/>
       <c r="B40">
         <v>-4</v>
       </c>
@@ -3036,7 +3232,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
+      <c r="A41" s="54"/>
       <c r="B41">
         <v>-5</v>
       </c>
@@ -3048,7 +3244,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="50"/>
+      <c r="A42" s="54"/>
       <c r="B42">
         <v>-16</v>
       </c>
@@ -3060,7 +3256,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="50">
+      <c r="A43" s="54">
         <v>43446</v>
       </c>
       <c r="B43">
@@ -3074,7 +3270,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="50"/>
+      <c r="A44" s="54"/>
       <c r="B44">
         <v>-8</v>
       </c>
@@ -3086,7 +3282,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="50"/>
+      <c r="A45" s="54"/>
       <c r="B45">
         <v>-5</v>
       </c>
@@ -3098,7 +3294,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
+      <c r="A46" s="54"/>
       <c r="B46">
         <v>-13</v>
       </c>
@@ -3110,7 +3306,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="50">
+      <c r="A47" s="54">
         <v>43447</v>
       </c>
       <c r="B47">
@@ -3124,7 +3320,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="50"/>
+      <c r="A48" s="54"/>
       <c r="B48">
         <v>-6</v>
       </c>
@@ -3136,7 +3332,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
+      <c r="A49" s="54"/>
       <c r="B49">
         <v>-16</v>
       </c>
@@ -3148,7 +3344,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
+      <c r="A50" s="54"/>
       <c r="B50">
         <v>-13</v>
       </c>
@@ -3160,7 +3356,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
+      <c r="A51" s="54"/>
       <c r="B51">
         <v>-99</v>
       </c>
@@ -3172,7 +3368,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="50">
+      <c r="A52" s="54">
         <v>43448</v>
       </c>
       <c r="B52">
@@ -3186,7 +3382,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="50"/>
+      <c r="A53" s="54"/>
       <c r="B53">
         <v>-14</v>
       </c>
@@ -3198,7 +3394,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="50"/>
+      <c r="A54" s="54"/>
       <c r="B54">
         <v>-13</v>
       </c>
@@ -3210,7 +3406,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="50">
+      <c r="A55" s="54">
         <v>43449</v>
       </c>
       <c r="B55">
@@ -3224,7 +3420,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="50"/>
+      <c r="A56" s="54"/>
       <c r="B56">
         <v>-20</v>
       </c>
@@ -3236,7 +3432,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="50">
+      <c r="A57" s="54">
         <v>43450</v>
       </c>
       <c r="B57">
@@ -3250,7 +3446,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="50"/>
+      <c r="A58" s="54"/>
       <c r="B58">
         <v>-30</v>
       </c>
@@ -3262,7 +3458,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="50">
+      <c r="A59" s="54">
         <v>43451</v>
       </c>
       <c r="B59">
@@ -3276,7 +3472,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="50"/>
+      <c r="A60" s="54"/>
       <c r="B60">
         <v>-4.5</v>
       </c>
@@ -3288,7 +3484,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="50"/>
+      <c r="A61" s="54"/>
       <c r="B61">
         <v>-12</v>
       </c>
@@ -3300,7 +3496,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="50">
+      <c r="A62" s="54">
         <v>43452</v>
       </c>
       <c r="B62">
@@ -3314,7 +3510,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="50"/>
+      <c r="A63" s="54"/>
       <c r="B63">
         <v>-16</v>
       </c>
@@ -3326,7 +3522,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="50"/>
+      <c r="A64" s="54"/>
       <c r="B64">
         <v>-670</v>
       </c>
@@ -3338,7 +3534,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="50">
+      <c r="A65" s="54">
         <v>43453</v>
       </c>
       <c r="B65">
@@ -3352,7 +3548,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="50"/>
+      <c r="A66" s="54"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -3364,7 +3560,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="50"/>
+      <c r="A67" s="54"/>
       <c r="B67">
         <v>-12</v>
       </c>
@@ -3376,7 +3572,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="50">
+      <c r="A68" s="54">
         <v>43454</v>
       </c>
       <c r="B68">
@@ -3390,7 +3586,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="50"/>
+      <c r="A69" s="54"/>
       <c r="B69">
         <v>-18</v>
       </c>
@@ -3402,7 +3598,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="50"/>
+      <c r="A70" s="54"/>
       <c r="B70">
         <v>-982</v>
       </c>
@@ -3414,7 +3610,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="50">
+      <c r="A71" s="54">
         <v>43455</v>
       </c>
       <c r="B71">
@@ -3428,7 +3624,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="50"/>
+      <c r="A72" s="54"/>
       <c r="B72">
         <v>-4</v>
       </c>
@@ -3440,7 +3636,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="50"/>
+      <c r="A73" s="54"/>
       <c r="B73">
         <v>-4</v>
       </c>
@@ -3452,7 +3648,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="50">
+      <c r="A74" s="54">
         <v>43456</v>
       </c>
       <c r="B74">
@@ -3466,7 +3662,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="50"/>
+      <c r="A75" s="54"/>
       <c r="B75">
         <v>-13</v>
       </c>
@@ -3478,7 +3674,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="50"/>
+      <c r="A76" s="54"/>
       <c r="B76">
         <v>-15</v>
       </c>
@@ -3490,7 +3686,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="50"/>
+      <c r="A77" s="54"/>
       <c r="B77">
         <v>-30</v>
       </c>
@@ -3502,7 +3698,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="50"/>
+      <c r="A78" s="54"/>
       <c r="B78">
         <v>-15</v>
       </c>
@@ -3514,7 +3710,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="50"/>
+      <c r="A79" s="54"/>
       <c r="B79">
         <v>-42</v>
       </c>
@@ -3531,7 +3727,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="50">
+      <c r="A81" s="54">
         <v>43458</v>
       </c>
       <c r="B81">
@@ -3545,7 +3741,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="50"/>
+      <c r="A82" s="54"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -3557,7 +3753,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="50">
+      <c r="A83" s="54">
         <v>43459</v>
       </c>
       <c r="B83">
@@ -3571,7 +3767,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="50"/>
+      <c r="A84" s="54"/>
       <c r="B84">
         <v>-16</v>
       </c>
@@ -3583,7 +3779,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="50">
+      <c r="A85" s="54">
         <v>43460</v>
       </c>
       <c r="B85">
@@ -3597,7 +3793,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="50"/>
+      <c r="A86" s="54"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -3609,7 +3805,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="50"/>
+      <c r="A87" s="54"/>
       <c r="B87">
         <v>-62</v>
       </c>
@@ -3621,7 +3817,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="50">
+      <c r="A88" s="54">
         <v>43461</v>
       </c>
       <c r="B88">
@@ -3635,7 +3831,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="50"/>
+      <c r="A89" s="54"/>
       <c r="B89">
         <v>-16</v>
       </c>
@@ -3647,7 +3843,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="50"/>
+      <c r="A90" s="54"/>
       <c r="B90">
         <v>-18.8</v>
       </c>
@@ -3659,7 +3855,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="50">
+      <c r="A91" s="54">
         <v>43462</v>
       </c>
       <c r="B91">
@@ -3673,7 +3869,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="50"/>
+      <c r="A92" s="54"/>
       <c r="B92">
         <v>-14</v>
       </c>
@@ -3685,7 +3881,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="50"/>
+      <c r="A93" s="54"/>
       <c r="B93">
         <v>-239</v>
       </c>
@@ -3697,7 +3893,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="50"/>
+      <c r="A94" s="54"/>
       <c r="B94">
         <v>-12</v>
       </c>
@@ -3709,7 +3905,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="50">
+      <c r="A95" s="54">
         <v>43463</v>
       </c>
       <c r="B95">
@@ -3723,7 +3919,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="50"/>
+      <c r="A96" s="54"/>
       <c r="B96">
         <v>-6</v>
       </c>
@@ -3735,7 +3931,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="50"/>
+      <c r="A97" s="54"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -3747,7 +3943,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="50"/>
+      <c r="A98" s="54"/>
       <c r="B98">
         <v>-39</v>
       </c>
@@ -3759,7 +3955,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="50">
+      <c r="A99" s="54">
         <v>43464</v>
       </c>
       <c r="B99">
@@ -3773,7 +3969,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="50"/>
+      <c r="A100" s="54"/>
       <c r="B100">
         <v>-50.4</v>
       </c>
@@ -3785,7 +3981,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="50"/>
+      <c r="A101" s="54"/>
       <c r="B101">
         <v>-30</v>
       </c>
@@ -3812,6 +4008,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
@@ -3828,20 +4038,6 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3868,7 +4064,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3882,7 +4078,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -3895,14 +4091,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-102</v>
+        <v>-122</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>25.568725490196091</v>
+        <v>21.377131147540993</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -3924,7 +4120,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>25.320485436893215</v>
+        <v>21.203333333333344</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3947,7 +4143,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="50">
+      <c r="A5" s="54">
         <v>43467</v>
       </c>
       <c r="B5">
@@ -3970,7 +4166,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="54"/>
       <c r="B6">
         <v>-16</v>
       </c>
@@ -3992,7 +4188,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="54"/>
       <c r="B7">
         <v>-24</v>
       </c>
@@ -4021,7 +4217,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="50">
+      <c r="A8" s="54">
         <v>43468</v>
       </c>
       <c r="B8">
@@ -4045,7 +4241,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="54"/>
       <c r="B9">
         <v>-16</v>
       </c>
@@ -4067,7 +4263,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="54"/>
       <c r="B10">
         <v>-15</v>
       </c>
@@ -4089,7 +4285,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="50">
+      <c r="A11" s="54">
         <v>43469</v>
       </c>
       <c r="B11">
@@ -4104,7 +4300,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
+      <c r="A12" s="54"/>
       <c r="B12">
         <v>-1453</v>
       </c>
@@ -4116,7 +4312,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="54"/>
       <c r="B13">
         <v>-4</v>
       </c>
@@ -4128,7 +4324,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="54"/>
       <c r="B14">
         <v>-55</v>
       </c>
@@ -4140,7 +4336,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
+      <c r="A15" s="54"/>
       <c r="B15">
         <v>-11</v>
       </c>
@@ -4152,7 +4348,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="56">
+      <c r="A16" s="58">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -4166,7 +4362,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
+      <c r="A17" s="58"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -4178,7 +4374,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+      <c r="A18" s="58"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -4190,7 +4386,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
+      <c r="A19" s="58"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -4208,7 +4404,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
+      <c r="A20" s="58"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -4227,7 +4423,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
+      <c r="A21" s="58"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -4246,7 +4442,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="56">
+      <c r="A22" s="58">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -4267,7 +4463,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
+      <c r="A23" s="58"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -4286,7 +4482,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
+      <c r="A24" s="58"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -4305,7 +4501,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="50">
+      <c r="A25" s="54">
         <v>43472</v>
       </c>
       <c r="B25">
@@ -4319,7 +4515,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
+      <c r="A26" s="54"/>
       <c r="B26">
         <v>-4</v>
       </c>
@@ -4331,7 +4527,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
+      <c r="A27" s="54"/>
       <c r="B27">
         <v>-218</v>
       </c>
@@ -4343,7 +4539,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="50">
+      <c r="A28" s="54">
         <v>43473</v>
       </c>
       <c r="B28">
@@ -4357,7 +4553,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
+      <c r="A29" s="54"/>
       <c r="B29">
         <v>-16</v>
       </c>
@@ -4369,7 +4565,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
+      <c r="A30" s="54"/>
       <c r="B30">
         <v>-245</v>
       </c>
@@ -4381,7 +4577,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="53">
+      <c r="A31" s="57">
         <v>43474</v>
       </c>
       <c r="B31">
@@ -4395,7 +4591,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
+      <c r="A32" s="57"/>
       <c r="B32">
         <v>-4</v>
       </c>
@@ -4407,7 +4603,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="53"/>
+      <c r="A33" s="57"/>
       <c r="B33">
         <v>-500</v>
       </c>
@@ -4419,7 +4615,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
+      <c r="A34" s="57"/>
       <c r="B34">
         <v>-16</v>
       </c>
@@ -4431,7 +4627,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="50">
+      <c r="A35" s="54">
         <v>43475</v>
       </c>
       <c r="B35">
@@ -4445,7 +4641,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="50"/>
+      <c r="A36" s="54"/>
       <c r="B36">
         <v>-6.5</v>
       </c>
@@ -4457,7 +4653,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="50">
+      <c r="A37" s="54">
         <v>43476</v>
       </c>
       <c r="B37">
@@ -4471,7 +4667,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
+      <c r="A38" s="54"/>
       <c r="B38">
         <v>-31</v>
       </c>
@@ -4483,7 +4679,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
+      <c r="A39" s="54"/>
       <c r="B39">
         <v>-15</v>
       </c>
@@ -4492,7 +4688,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
+      <c r="A40" s="54"/>
       <c r="B40">
         <v>-49</v>
       </c>
@@ -4504,7 +4700,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
+      <c r="A41" s="54"/>
       <c r="B41">
         <v>-8</v>
       </c>
@@ -4521,7 +4717,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="56">
+      <c r="A43" s="58">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -4535,7 +4731,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
+      <c r="A44" s="58"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -4547,7 +4743,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="50">
+      <c r="A45" s="54">
         <v>43479</v>
       </c>
       <c r="B45">
@@ -4561,7 +4757,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
+      <c r="A46" s="54"/>
       <c r="B46">
         <v>-8</v>
       </c>
@@ -4573,7 +4769,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="50"/>
+      <c r="A47" s="54"/>
       <c r="B47">
         <v>-6</v>
       </c>
@@ -4585,7 +4781,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="50">
+      <c r="A48" s="54">
         <v>43480</v>
       </c>
       <c r="B48">
@@ -4599,7 +4795,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
+      <c r="A49" s="54"/>
       <c r="B49">
         <v>-8</v>
       </c>
@@ -4611,7 +4807,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
+      <c r="A50" s="54"/>
       <c r="B50">
         <v>-2.5</v>
       </c>
@@ -4623,7 +4819,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
+      <c r="A51" s="54"/>
       <c r="B51">
         <v>-6</v>
       </c>
@@ -4635,7 +4831,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="50">
+      <c r="A52" s="54">
         <v>43481</v>
       </c>
       <c r="B52">
@@ -4649,7 +4845,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="50"/>
+      <c r="A53" s="54"/>
       <c r="B53">
         <v>-10</v>
       </c>
@@ -4661,7 +4857,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="50"/>
+      <c r="A54" s="54"/>
       <c r="B54">
         <v>-8</v>
       </c>
@@ -4673,7 +4869,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
+      <c r="A55" s="54"/>
       <c r="B55">
         <v>-23</v>
       </c>
@@ -4685,7 +4881,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="50">
+      <c r="A56" s="54">
         <v>43482</v>
       </c>
       <c r="B56">
@@ -4699,7 +4895,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="50"/>
+      <c r="A57" s="54"/>
       <c r="B57">
         <v>-8</v>
       </c>
@@ -4711,7 +4907,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="50"/>
+      <c r="A58" s="54"/>
       <c r="B58">
         <v>-8.6999999999999993</v>
       </c>
@@ -4723,7 +4919,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="50"/>
+      <c r="A59" s="54"/>
       <c r="B59">
         <v>-110</v>
       </c>
@@ -4735,7 +4931,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="50"/>
+      <c r="A60" s="54"/>
       <c r="B60">
         <v>-14.5</v>
       </c>
@@ -4747,7 +4943,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="50">
+      <c r="A61" s="54">
         <v>43483</v>
       </c>
       <c r="B61">
@@ -4761,7 +4957,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="50"/>
+      <c r="A62" s="54"/>
       <c r="B62">
         <v>-16</v>
       </c>
@@ -4773,7 +4969,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="56">
+      <c r="A63" s="58">
         <v>43484</v>
       </c>
       <c r="B63">
@@ -4787,7 +4983,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="56"/>
+      <c r="A64" s="58"/>
       <c r="B64">
         <v>-62</v>
       </c>
@@ -4799,7 +4995,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="56">
+      <c r="A65" s="58">
         <v>43485</v>
       </c>
       <c r="B65">
@@ -4813,7 +5009,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="56"/>
+      <c r="A66" s="58"/>
       <c r="B66">
         <v>-30</v>
       </c>
@@ -4825,7 +5021,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="56"/>
+      <c r="A67" s="58"/>
       <c r="B67">
         <v>-98</v>
       </c>
@@ -4837,7 +5033,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="50">
+      <c r="A68" s="54">
         <v>43486</v>
       </c>
       <c r="B68">
@@ -4851,7 +5047,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="50"/>
+      <c r="A69" s="54"/>
       <c r="B69">
         <v>-4</v>
       </c>
@@ -4863,7 +5059,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="50">
+      <c r="A70" s="54">
         <v>43487</v>
       </c>
       <c r="B70">
@@ -4877,7 +5073,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="50"/>
+      <c r="A71" s="54"/>
       <c r="B71">
         <v>-12.75</v>
       </c>
@@ -4889,7 +5085,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="50">
+      <c r="A72" s="54">
         <v>43488</v>
       </c>
       <c r="B72">
@@ -4903,7 +5099,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="50"/>
+      <c r="A73" s="54"/>
       <c r="B73">
         <v>-10</v>
       </c>
@@ -4915,7 +5111,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="50"/>
+      <c r="A74" s="54"/>
       <c r="B74">
         <v>-4</v>
       </c>
@@ -4927,7 +5123,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="50">
+      <c r="A75" s="54">
         <v>43489</v>
       </c>
       <c r="B75">
@@ -4941,7 +5137,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="50"/>
+      <c r="A76" s="54"/>
       <c r="B76">
         <v>-10</v>
       </c>
@@ -4953,7 +5149,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="50">
+      <c r="A77" s="54">
         <v>43490</v>
       </c>
       <c r="B77">
@@ -4967,7 +5163,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="50"/>
+      <c r="A78" s="54"/>
       <c r="B78">
         <v>-4.8</v>
       </c>
@@ -4976,7 +5172,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="50"/>
+      <c r="A79" s="54"/>
       <c r="B79">
         <v>-10</v>
       </c>
@@ -4988,7 +5184,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="50"/>
+      <c r="A80" s="54"/>
       <c r="B80">
         <v>-12</v>
       </c>
@@ -5000,7 +5196,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="50"/>
+      <c r="A81" s="54"/>
       <c r="B81">
         <v>-6</v>
       </c>
@@ -5026,7 +5222,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="56">
+      <c r="A83" s="58">
         <v>43492</v>
       </c>
       <c r="B83">
@@ -5040,7 +5236,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="56"/>
+      <c r="A84" s="58"/>
       <c r="B84">
         <v>-13.8</v>
       </c>
@@ -5052,7 +5248,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="50">
+      <c r="A85" s="54">
         <v>43493</v>
       </c>
       <c r="B85">
@@ -5066,7 +5262,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="50"/>
+      <c r="A86" s="54"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -5078,7 +5274,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="50"/>
+      <c r="A87" s="54"/>
       <c r="B87">
         <v>-4.8</v>
       </c>
@@ -5090,7 +5286,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="50">
+      <c r="A88" s="54">
         <v>43494</v>
       </c>
       <c r="B88">
@@ -5104,7 +5300,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="50"/>
+      <c r="A89" s="54"/>
       <c r="B89">
         <v>-4.46</v>
       </c>
@@ -5116,7 +5312,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="50"/>
+      <c r="A90" s="54"/>
       <c r="B90">
         <v>-16.34</v>
       </c>
@@ -5128,7 +5324,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="50"/>
+      <c r="A91" s="54"/>
       <c r="B91">
         <v>-6</v>
       </c>
@@ -5140,7 +5336,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="50">
+      <c r="A92" s="54">
         <v>43495</v>
       </c>
       <c r="B92">
@@ -5154,7 +5350,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="50"/>
+      <c r="A93" s="54"/>
       <c r="B93">
         <v>-4.21</v>
       </c>
@@ -5166,7 +5362,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="50"/>
+      <c r="A94" s="54"/>
       <c r="B94">
         <v>-10</v>
       </c>
@@ -5178,7 +5374,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="50"/>
+      <c r="A95" s="54"/>
       <c r="B95">
         <v>-1441</v>
       </c>
@@ -5205,6 +5401,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A92:A95"/>
@@ -5221,18 +5429,6 @@
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5260,7 +5456,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5279,7 +5475,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -5292,14 +5488,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>-74</v>
+        <v>-94</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>27.48621621621621</v>
+        <v>21.638085106382974</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5314,7 +5510,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>27.119733333333329</v>
+        <v>21.410315789473678</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5329,7 +5525,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="56">
+      <c r="A5" s="58">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -5340,7 +5536,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
+      <c r="A6" s="58"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -5349,7 +5545,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
+      <c r="A7" s="58"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -5394,7 +5590,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="57">
+      <c r="A10" s="62">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -5405,7 +5601,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="62"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
@@ -5421,7 +5617,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
+      <c r="A12" s="62"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -5430,7 +5626,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="62"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -5439,7 +5635,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="57">
+      <c r="A14" s="62">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -5450,7 +5646,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
+      <c r="A15" s="62"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -5464,7 +5660,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="57">
+      <c r="A17" s="62">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -5475,7 +5671,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
+      <c r="A18" s="62"/>
       <c r="B18">
         <v>-300</v>
       </c>
@@ -5484,7 +5680,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
+      <c r="A19" s="62"/>
       <c r="B19">
         <v>-149</v>
       </c>
@@ -5504,7 +5700,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="56">
+      <c r="A21" s="58">
         <v>43503</v>
       </c>
       <c r="B21">
@@ -5515,7 +5711,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
+      <c r="A22" s="58"/>
       <c r="B22">
         <v>-130.27000000000001</v>
       </c>
@@ -5524,7 +5720,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="56">
+      <c r="A23" s="58">
         <v>43504</v>
       </c>
       <c r="B23">
@@ -5535,7 +5731,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
+      <c r="A24" s="58"/>
       <c r="B24">
         <v>-15</v>
       </c>
@@ -5544,7 +5740,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="56">
+      <c r="A25" s="58">
         <v>43505</v>
       </c>
       <c r="B25">
@@ -5555,7 +5751,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
+      <c r="A26" s="58"/>
       <c r="B26">
         <v>-39</v>
       </c>
@@ -5564,7 +5760,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
+      <c r="A27" s="58"/>
       <c r="B27">
         <v>-10</v>
       </c>
@@ -5573,7 +5769,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
+      <c r="A28" s="58"/>
       <c r="B28">
         <v>-17.600000000000001</v>
       </c>
@@ -5585,7 +5781,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
+      <c r="A29" s="58"/>
       <c r="B29">
         <v>-25</v>
       </c>
@@ -5597,7 +5793,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
+      <c r="A30" s="58"/>
       <c r="B30">
         <v>-83</v>
       </c>
@@ -5606,7 +5802,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
+      <c r="A31" s="58"/>
       <c r="B31">
         <v>-128</v>
       </c>
@@ -5615,7 +5811,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
+      <c r="A32" s="58"/>
       <c r="B32">
         <v>-28</v>
       </c>
@@ -5624,7 +5820,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
+      <c r="A33" s="58"/>
       <c r="B33">
         <v>-65</v>
       </c>
@@ -5636,7 +5832,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
+      <c r="A34" s="58"/>
       <c r="B34">
         <v>-127.9</v>
       </c>
@@ -5650,7 +5846,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="50">
+      <c r="A36" s="54">
         <v>43507</v>
       </c>
       <c r="B36">
@@ -5664,7 +5860,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
+      <c r="A37" s="61"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -5676,7 +5872,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="50">
+      <c r="A38" s="54">
         <v>43508</v>
       </c>
       <c r="B38">
@@ -5690,7 +5886,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
+      <c r="A39" s="54"/>
       <c r="B39">
         <v>-16</v>
       </c>
@@ -5702,7 +5898,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="50">
+      <c r="A40" s="54">
         <v>43509</v>
       </c>
       <c r="B40">
@@ -5716,7 +5912,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="50"/>
+      <c r="A41" s="54"/>
       <c r="B41">
         <v>-12</v>
       </c>
@@ -5728,7 +5924,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="50"/>
+      <c r="A42" s="54"/>
       <c r="B42">
         <v>-14</v>
       </c>
@@ -5740,7 +5936,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="50"/>
+      <c r="A43" s="54"/>
       <c r="B43">
         <v>-4</v>
       </c>
@@ -5752,7 +5948,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="50">
+      <c r="A44" s="54">
         <v>43510</v>
       </c>
       <c r="B44">
@@ -5766,7 +5962,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="50"/>
+      <c r="A45" s="54"/>
       <c r="B45">
         <v>0</v>
       </c>
@@ -5778,7 +5974,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
+      <c r="A46" s="54"/>
       <c r="B46">
         <v>-14</v>
       </c>
@@ -5790,7 +5986,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="50">
+      <c r="A47" s="54">
         <v>43511</v>
       </c>
       <c r="B47">
@@ -5804,7 +6000,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="50"/>
+      <c r="A48" s="54"/>
       <c r="B48">
         <v>-4</v>
       </c>
@@ -5816,7 +6012,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
+      <c r="A49" s="54"/>
       <c r="B49">
         <v>-12</v>
       </c>
@@ -5828,7 +6024,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="56">
+      <c r="A50" s="58">
         <v>43512</v>
       </c>
       <c r="B50">
@@ -5842,7 +6038,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="56"/>
+      <c r="A51" s="58"/>
       <c r="B51">
         <v>-33.5</v>
       </c>
@@ -5854,7 +6050,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="56">
+      <c r="A52" s="58">
         <v>43513</v>
       </c>
       <c r="B52">
@@ -5868,7 +6064,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
+      <c r="A53" s="58"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -5880,7 +6076,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
+      <c r="A54" s="58"/>
       <c r="B54">
         <v>-2</v>
       </c>
@@ -5892,7 +6088,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="50">
+      <c r="A55" s="54">
         <v>43514</v>
       </c>
       <c r="B55">
@@ -5906,7 +6102,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="50"/>
+      <c r="A56" s="54"/>
       <c r="B56">
         <v>-10</v>
       </c>
@@ -5918,7 +6114,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="50"/>
+      <c r="A57" s="54"/>
       <c r="B57">
         <v>-10</v>
       </c>
@@ -5930,7 +6126,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="50"/>
+      <c r="A58" s="54"/>
       <c r="B58">
         <v>-2.5</v>
       </c>
@@ -5942,7 +6138,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="50"/>
+      <c r="A59" s="54"/>
       <c r="B59">
         <v>-5</v>
       </c>
@@ -5954,7 +6150,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="50">
+      <c r="A60" s="54">
         <v>43515</v>
       </c>
       <c r="B60">
@@ -5968,7 +6164,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="50"/>
+      <c r="A61" s="54"/>
       <c r="B61">
         <v>-11</v>
       </c>
@@ -5980,7 +6176,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="50"/>
+      <c r="A62" s="54"/>
       <c r="B62">
         <v>-1250</v>
       </c>
@@ -5992,7 +6188,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="50"/>
+      <c r="A63" s="54"/>
       <c r="B63">
         <v>-12</v>
       </c>
@@ -6004,7 +6200,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="50"/>
+      <c r="A64" s="54"/>
       <c r="B64">
         <v>-203</v>
       </c>
@@ -6016,7 +6212,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="50"/>
+      <c r="A65" s="54"/>
       <c r="B65">
         <v>-23</v>
       </c>
@@ -6028,7 +6224,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="50"/>
+      <c r="A66" s="54"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -6040,7 +6236,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="50">
+      <c r="A67" s="54">
         <v>43516</v>
       </c>
       <c r="B67">
@@ -6054,7 +6250,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="50"/>
+      <c r="A68" s="54"/>
       <c r="B68">
         <v>-26</v>
       </c>
@@ -6066,7 +6262,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="50"/>
+      <c r="A69" s="54"/>
       <c r="B69">
         <v>-2.5</v>
       </c>
@@ -6078,7 +6274,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="50">
+      <c r="A70" s="54">
         <v>43517</v>
       </c>
       <c r="B70">
@@ -6092,7 +6288,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="50"/>
+      <c r="A71" s="54"/>
       <c r="B71">
         <v>-7</v>
       </c>
@@ -6104,7 +6300,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="50"/>
+      <c r="A72" s="54"/>
       <c r="B72">
         <v>-20</v>
       </c>
@@ -6116,7 +6312,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="50">
+      <c r="A73" s="54">
         <v>43518</v>
       </c>
       <c r="B73">
@@ -6130,7 +6326,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="50"/>
+      <c r="A74" s="54"/>
       <c r="B74">
         <v>-7.83</v>
       </c>
@@ -6142,7 +6338,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="50"/>
+      <c r="A75" s="54"/>
       <c r="B75">
         <v>-16</v>
       </c>
@@ -6154,7 +6350,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="50"/>
+      <c r="A76" s="54"/>
       <c r="B76">
         <v>-3.5</v>
       </c>
@@ -6166,7 +6362,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="56">
+      <c r="A77" s="58">
         <v>43519</v>
       </c>
       <c r="B77">
@@ -6180,7 +6376,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="56"/>
+      <c r="A78" s="58"/>
       <c r="B78">
         <f>-2.8-7.2-9.34-4</f>
         <v>-23.34</v>
@@ -6193,7 +6389,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="56"/>
+      <c r="A79" s="58"/>
       <c r="B79">
         <v>-30</v>
       </c>
@@ -6205,7 +6401,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="56" t="s">
+      <c r="A80" s="58" t="s">
         <v>115</v>
       </c>
       <c r="B80">
@@ -6219,7 +6415,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="56"/>
+      <c r="A81" s="58"/>
       <c r="B81">
         <v>-16</v>
       </c>
@@ -6231,7 +6427,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="56"/>
+      <c r="A82" s="58"/>
       <c r="B82">
         <v>-2.5</v>
       </c>
@@ -6243,7 +6439,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="56"/>
+      <c r="A83" s="58"/>
       <c r="B83">
         <v>-16</v>
       </c>
@@ -6255,7 +6451,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="50">
+      <c r="A84" s="54">
         <v>43521</v>
       </c>
       <c r="B84">
@@ -6269,7 +6465,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="50"/>
+      <c r="A85" s="54"/>
       <c r="B85">
         <v>-4</v>
       </c>
@@ -6281,7 +6477,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="50"/>
+      <c r="A86" s="54"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -6293,7 +6489,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="50">
+      <c r="A87" s="54">
         <v>43522</v>
       </c>
       <c r="B87">
@@ -6307,7 +6503,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="50"/>
+      <c r="A88" s="54"/>
       <c r="B88">
         <v>-3.8</v>
       </c>
@@ -6319,7 +6515,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="50"/>
+      <c r="A89" s="54"/>
       <c r="B89">
         <v>-10.84</v>
       </c>
@@ -6331,7 +6527,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="50"/>
+      <c r="A90" s="54"/>
       <c r="B90">
         <v>-18</v>
       </c>
@@ -6343,7 +6539,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="50">
+      <c r="A91" s="54">
         <v>43523</v>
       </c>
       <c r="B91">
@@ -6357,7 +6553,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="50"/>
+      <c r="A92" s="54"/>
       <c r="B92">
         <v>-4</v>
       </c>
@@ -6369,7 +6565,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="50"/>
+      <c r="A93" s="54"/>
       <c r="B93">
         <v>-4.4000000000000004</v>
       </c>
@@ -6381,7 +6577,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="50"/>
+      <c r="A94" s="54"/>
       <c r="B94">
         <v>-9.5399999999999991</v>
       </c>
@@ -6393,7 +6589,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="50">
+      <c r="A95" s="54">
         <v>43524</v>
       </c>
       <c r="B95">
@@ -6407,7 +6603,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="50"/>
+      <c r="A96" s="54"/>
       <c r="B96">
         <v>-16</v>
       </c>
@@ -6419,7 +6615,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="50"/>
+      <c r="A97" s="54"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -6431,7 +6627,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="50"/>
+      <c r="A98" s="54"/>
       <c r="B98">
         <v>-3</v>
       </c>
@@ -6443,7 +6639,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="50"/>
+      <c r="A99" s="54"/>
       <c r="B99">
         <v>-7.9</v>
       </c>
@@ -6455,7 +6651,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="50"/>
+      <c r="A100" s="54"/>
       <c r="B100">
         <v>-16</v>
       </c>
@@ -6486,6 +6682,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A69"/>
     <mergeCell ref="A87:A90"/>
     <mergeCell ref="A91:A94"/>
     <mergeCell ref="A95:A100"/>
@@ -6494,24 +6708,6 @@
     <mergeCell ref="A77:A79"/>
     <mergeCell ref="A80:A83"/>
     <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6540,7 +6736,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6554,7 +6750,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -6567,14 +6763,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-43</v>
+        <v>-63</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>14.321860465116293</v>
+        <v>9.7752380952381053</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -6596,7 +6792,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>13.99636363636365</v>
+        <v>9.6225000000000094</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6605,7 +6801,7 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53">
+      <c r="A4" s="57">
         <v>43525</v>
       </c>
       <c r="B4" s="8">
@@ -6629,7 +6825,7 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="8">
         <v>-17</v>
       </c>
@@ -6651,7 +6847,7 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="8">
         <v>-10</v>
       </c>
@@ -6673,7 +6869,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="8">
         <v>-10</v>
       </c>
@@ -6695,7 +6891,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
+      <c r="A8" s="57"/>
       <c r="B8">
         <v>-11.75</v>
       </c>
@@ -6721,7 +6917,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="57">
+      <c r="A10" s="62">
         <v>43527</v>
       </c>
       <c r="B10">
@@ -6745,7 +6941,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
+      <c r="A11" s="62"/>
       <c r="B11">
         <v>-2</v>
       </c>
@@ -6767,7 +6963,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
+      <c r="A12" s="62"/>
       <c r="B12">
         <v>-49</v>
       </c>
@@ -6789,7 +6985,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="62"/>
       <c r="B13">
         <v>-109</v>
       </c>
@@ -6811,7 +7007,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="53">
+      <c r="A14" s="57">
         <v>43528</v>
       </c>
       <c r="B14">
@@ -6835,7 +7031,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
+      <c r="A15" s="57"/>
       <c r="B15">
         <v>-1439</v>
       </c>
@@ -6848,7 +7044,7 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
+      <c r="A16" s="57"/>
       <c r="B16">
         <v>-16</v>
       </c>
@@ -6861,7 +7057,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
+      <c r="A17" s="57"/>
       <c r="B17">
         <v>-3</v>
       </c>
@@ -6874,7 +7070,7 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="53">
+      <c r="A18" s="57">
         <v>43529</v>
       </c>
       <c r="B18">
@@ -6889,7 +7085,7 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
+      <c r="A19" s="57"/>
       <c r="B19">
         <v>-16.260000000000002</v>
       </c>
@@ -6908,7 +7104,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
+      <c r="A20" s="57"/>
       <c r="B20">
         <v>-6</v>
       </c>
@@ -6920,7 +7116,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="53">
+      <c r="A21" s="57">
         <v>43530</v>
       </c>
       <c r="B21">
@@ -6934,7 +7130,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
+      <c r="A22" s="57"/>
       <c r="B22">
         <v>-16</v>
       </c>
@@ -6946,7 +7142,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
+      <c r="A23" s="57"/>
       <c r="B23">
         <v>-3.5</v>
       </c>
@@ -6958,7 +7154,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="53">
+      <c r="A24" s="57">
         <v>43531</v>
       </c>
       <c r="B24">
@@ -6972,7 +7168,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
+      <c r="A25" s="57"/>
       <c r="B25">
         <v>-14</v>
       </c>
@@ -6984,7 +7180,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
+      <c r="A26" s="57"/>
       <c r="B26">
         <v>-24</v>
       </c>
@@ -6996,7 +7192,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
+      <c r="A27" s="57"/>
       <c r="B27">
         <v>-19.899999999999999</v>
       </c>
@@ -7008,7 +7204,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
+      <c r="A28" s="57"/>
       <c r="B28">
         <v>-11.11</v>
       </c>
@@ -7020,7 +7216,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="53">
+      <c r="A29" s="57">
         <v>43532</v>
       </c>
       <c r="B29">
@@ -7034,7 +7230,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
+      <c r="A30" s="57"/>
       <c r="B30">
         <v>-22</v>
       </c>
@@ -7046,7 +7242,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
+      <c r="A31" s="57"/>
       <c r="B31">
         <v>-3</v>
       </c>
@@ -7058,7 +7254,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
+      <c r="A32" s="57"/>
       <c r="B32">
         <v>-1</v>
       </c>
@@ -7070,7 +7266,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="57">
+      <c r="A33" s="62">
         <v>43533</v>
       </c>
       <c r="B33">
@@ -7084,7 +7280,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
+      <c r="A34" s="62"/>
       <c r="B34">
         <v>-32.6</v>
       </c>
@@ -7096,7 +7292,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
+      <c r="A35" s="62"/>
       <c r="B35">
         <v>-51</v>
       </c>
@@ -7108,7 +7304,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="57"/>
+      <c r="A36" s="62"/>
       <c r="B36">
         <v>-36.9</v>
       </c>
@@ -7120,7 +7316,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="57">
+      <c r="A37" s="62">
         <v>43534</v>
       </c>
       <c r="B37">
@@ -7134,7 +7330,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="57"/>
+      <c r="A38" s="62"/>
       <c r="B38">
         <v>-6</v>
       </c>
@@ -7146,7 +7342,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="57"/>
+      <c r="A39" s="62"/>
       <c r="B39">
         <v>-30</v>
       </c>
@@ -7170,7 +7366,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="53">
+      <c r="A41" s="57">
         <v>43535</v>
       </c>
       <c r="B41">
@@ -7184,7 +7380,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="53"/>
+      <c r="A42" s="57"/>
       <c r="B42">
         <v>-4</v>
       </c>
@@ -7196,7 +7392,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="53"/>
+      <c r="A43" s="57"/>
       <c r="B43">
         <v>-14.76</v>
       </c>
@@ -7208,7 +7404,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="53">
+      <c r="A44" s="57">
         <v>43536</v>
       </c>
       <c r="B44">
@@ -7222,7 +7418,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
+      <c r="A45" s="57"/>
       <c r="B45">
         <v>-22</v>
       </c>
@@ -7234,7 +7430,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="53"/>
+      <c r="A46" s="57"/>
       <c r="B46">
         <v>-8.4</v>
       </c>
@@ -7248,7 +7444,7 @@
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="53">
+      <c r="A47" s="57">
         <v>43537</v>
       </c>
       <c r="B47">
@@ -7264,7 +7460,7 @@
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="53"/>
+      <c r="A48" s="57"/>
       <c r="B48">
         <v>-10</v>
       </c>
@@ -7278,7 +7474,7 @@
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="53">
+      <c r="A49" s="57">
         <v>43538</v>
       </c>
       <c r="B49">
@@ -7294,7 +7490,7 @@
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="53"/>
+      <c r="A50" s="57"/>
       <c r="B50">
         <v>-18</v>
       </c>
@@ -7308,7 +7504,7 @@
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="53"/>
+      <c r="A51" s="57"/>
       <c r="B51">
         <v>-10</v>
       </c>
@@ -7322,7 +7518,7 @@
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="53"/>
+      <c r="A52" s="57"/>
       <c r="B52">
         <v>-65.55</v>
       </c>
@@ -7336,7 +7532,7 @@
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="53"/>
+      <c r="A53" s="57"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -7350,7 +7546,7 @@
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="53">
+      <c r="A54" s="57">
         <v>43539</v>
       </c>
       <c r="B54">
@@ -7366,7 +7562,7 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="53"/>
+      <c r="A55" s="57"/>
       <c r="B55">
         <v>-4</v>
       </c>
@@ -7377,12 +7573,12 @@
       <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="53"/>
+      <c r="A56" s="57"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="57">
+      <c r="A57" s="62">
         <v>43540</v>
       </c>
       <c r="B57">
@@ -7398,7 +7594,7 @@
       <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="57"/>
+      <c r="A58" s="62"/>
       <c r="B58">
         <v>-35</v>
       </c>
@@ -7412,7 +7608,7 @@
       <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="57"/>
+      <c r="A59" s="62"/>
       <c r="B59">
         <v>-21</v>
       </c>
@@ -7426,7 +7622,7 @@
       <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="57">
+      <c r="A60" s="62">
         <v>43541</v>
       </c>
       <c r="B60">
@@ -7442,7 +7638,7 @@
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="57"/>
+      <c r="A61" s="62"/>
       <c r="B61">
         <v>-13</v>
       </c>
@@ -7456,7 +7652,7 @@
       <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="57"/>
+      <c r="A62" s="62"/>
       <c r="B62">
         <v>-3</v>
       </c>
@@ -7470,7 +7666,7 @@
       <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="53">
+      <c r="A63" s="57">
         <v>43542</v>
       </c>
       <c r="B63">
@@ -7486,7 +7682,7 @@
       <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="53"/>
+      <c r="A64" s="57"/>
       <c r="B64">
         <v>-4</v>
       </c>
@@ -7500,7 +7696,7 @@
       <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="53"/>
+      <c r="A65" s="57"/>
       <c r="B65">
         <v>-2.4</v>
       </c>
@@ -7512,7 +7708,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="53">
+      <c r="A66" s="57">
         <v>43543</v>
       </c>
       <c r="B66">
@@ -7526,7 +7722,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="53"/>
+      <c r="A67" s="57"/>
       <c r="B67">
         <v>-16</v>
       </c>
@@ -7538,7 +7734,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="53"/>
+      <c r="A68" s="57"/>
       <c r="B68">
         <v>-17</v>
       </c>
@@ -7550,7 +7746,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="53">
+      <c r="A69" s="57">
         <v>43544</v>
       </c>
       <c r="B69">
@@ -7564,7 +7760,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="53"/>
+      <c r="A70" s="57"/>
       <c r="B70">
         <v>-16</v>
       </c>
@@ -7576,7 +7772,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="53"/>
+      <c r="A71" s="57"/>
       <c r="B71">
         <v>-7</v>
       </c>
@@ -7588,7 +7784,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="53">
+      <c r="A72" s="57">
         <v>43545</v>
       </c>
       <c r="B72">
@@ -7602,7 +7798,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="53"/>
+      <c r="A73" s="57"/>
       <c r="B73">
         <v>-14</v>
       </c>
@@ -7614,7 +7810,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="53"/>
+      <c r="A74" s="57"/>
       <c r="B74">
         <v>-1.5</v>
       </c>
@@ -7626,7 +7822,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="53"/>
+      <c r="A75" s="57"/>
       <c r="B75">
         <v>-7.8</v>
       </c>
@@ -7638,7 +7834,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="53"/>
+      <c r="A76" s="57"/>
       <c r="B76">
         <v>-3.5</v>
       </c>
@@ -7650,7 +7846,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="53">
+      <c r="A77" s="57">
         <v>43546</v>
       </c>
       <c r="B77">
@@ -7664,7 +7860,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="53"/>
+      <c r="A78" s="57"/>
       <c r="B78">
         <v>-17.399999999999999</v>
       </c>
@@ -7676,7 +7872,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="53"/>
+      <c r="A79" s="57"/>
       <c r="B79">
         <v>-20.100000000000001</v>
       </c>
@@ -7688,7 +7884,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="53"/>
+      <c r="A80" s="57"/>
       <c r="B80">
         <v>-44.7</v>
       </c>
@@ -7700,7 +7896,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="53"/>
+      <c r="A81" s="57"/>
       <c r="B81">
         <v>-2.1</v>
       </c>
@@ -7712,7 +7908,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="53"/>
+      <c r="A82" s="57"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -7724,7 +7920,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="57">
+      <c r="A83" s="62">
         <v>43547</v>
       </c>
       <c r="B83">
@@ -7738,7 +7934,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="57"/>
+      <c r="A84" s="62"/>
       <c r="B84">
         <v>-62</v>
       </c>
@@ -7750,7 +7946,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="57">
+      <c r="A85" s="62">
         <v>43548</v>
       </c>
       <c r="B85">
@@ -7764,7 +7960,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="57"/>
+      <c r="A86" s="62"/>
       <c r="B86">
         <v>-10.75</v>
       </c>
@@ -7776,7 +7972,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="57"/>
+      <c r="A87" s="62"/>
       <c r="B87">
         <v>-37.119999999999997</v>
       </c>
@@ -7788,7 +7984,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="53">
+      <c r="A88" s="57">
         <v>43549</v>
       </c>
       <c r="B88">
@@ -7802,7 +7998,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="53"/>
+      <c r="A89" s="57"/>
       <c r="B89">
         <v>-4</v>
       </c>
@@ -7814,7 +8010,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="53"/>
+      <c r="A90" s="57"/>
       <c r="B90">
         <v>-16.02</v>
       </c>
@@ -7826,7 +8022,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="53"/>
+      <c r="A91" s="57"/>
       <c r="B91">
         <v>-4</v>
       </c>
@@ -7838,7 +8034,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="53">
+      <c r="A92" s="57">
         <v>43550</v>
       </c>
       <c r="B92">
@@ -7852,7 +8048,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="53"/>
+      <c r="A93" s="57"/>
       <c r="B93">
         <v>-24</v>
       </c>
@@ -7864,7 +8060,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="53"/>
+      <c r="A94" s="57"/>
       <c r="B94">
         <v>-3</v>
       </c>
@@ -7876,7 +8072,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="53">
+      <c r="A95" s="57">
         <v>43551</v>
       </c>
       <c r="B95">
@@ -7890,7 +8086,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="53"/>
+      <c r="A96" s="57"/>
       <c r="B96">
         <v>-10</v>
       </c>
@@ -7902,7 +8098,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="53">
+      <c r="A97" s="57">
         <v>43552</v>
       </c>
       <c r="B97">
@@ -7916,7 +8112,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="53"/>
+      <c r="A98" s="57"/>
       <c r="B98">
         <v>-6.72</v>
       </c>
@@ -7928,7 +8124,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="53"/>
+      <c r="A99" s="57"/>
       <c r="B99">
         <v>-2</v>
       </c>
@@ -7940,7 +8136,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="53"/>
+      <c r="A100" s="57"/>
       <c r="B100">
         <v>-9</v>
       </c>
@@ -7952,7 +8148,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="53">
+      <c r="A101" s="57">
         <v>43553</v>
       </c>
       <c r="B101">
@@ -7966,7 +8162,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="53"/>
+      <c r="A102" s="57"/>
       <c r="B102">
         <v>-3.4</v>
       </c>
@@ -7978,7 +8174,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="53"/>
+      <c r="A103" s="57"/>
       <c r="B103">
         <v>-30</v>
       </c>
@@ -7990,7 +8186,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="57">
+      <c r="A104" s="62">
         <v>43554</v>
       </c>
       <c r="B104">
@@ -8004,7 +8200,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="57"/>
+      <c r="A105" s="62"/>
       <c r="B105">
         <v>-8</v>
       </c>
@@ -8016,7 +8212,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="57"/>
+      <c r="A106" s="62"/>
       <c r="B106">
         <v>-30</v>
       </c>
@@ -8028,7 +8224,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="53">
+      <c r="A107" s="57">
         <v>43555</v>
       </c>
       <c r="B107">
@@ -8042,7 +8238,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="53"/>
+      <c r="A108" s="57"/>
       <c r="B108">
         <v>-21</v>
       </c>
@@ -8054,7 +8250,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="53"/>
+      <c r="A109" s="57"/>
       <c r="B109">
         <v>-9</v>
       </c>
@@ -8066,7 +8262,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="53"/>
+      <c r="A110" s="57"/>
       <c r="B110">
         <v>-38</v>
       </c>
@@ -8225,51 +8421,34 @@
       <c r="A159" s="33"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="53"/>
+      <c r="A160" s="57"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="53"/>
+      <c r="A161" s="57"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="53"/>
+      <c r="A162" s="57"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="53"/>
+      <c r="A163" s="57"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="53"/>
+      <c r="A164" s="57"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="53"/>
+      <c r="A165" s="57"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="53"/>
+      <c r="A166" s="57"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="53"/>
+      <c r="A167" s="57"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A160:A163"/>
     <mergeCell ref="A164:A167"/>
     <mergeCell ref="A29:A32"/>
@@ -8286,6 +8465,23 @@
     <mergeCell ref="A104:A106"/>
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="A97:A100"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A66:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8314,7 +8510,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -8328,7 +8524,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -8341,14 +8537,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,5,1)-TODAY()</f>
-        <v>-13</v>
+        <v>-33</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>76.192307692307651</v>
+        <v>30.015151515151501</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -8370,7 +8566,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>70.749999999999972</v>
+        <v>29.132352941176457</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -8427,7 +8623,7 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50">
+      <c r="A6" s="54">
         <v>43558</v>
       </c>
       <c r="B6" s="8">
@@ -8451,7 +8647,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="8">
         <v>-7.3</v>
       </c>
@@ -8473,7 +8669,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="8">
         <v>-11</v>
       </c>
@@ -8495,7 +8691,7 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50">
+      <c r="A9" s="54">
         <v>43559</v>
       </c>
       <c r="B9" s="8">
@@ -8519,7 +8715,7 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="8">
         <v>-11</v>
       </c>
@@ -8541,7 +8737,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="8">
         <v>-1420</v>
       </c>
@@ -8563,7 +8759,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="8">
         <v>-89</v>
       </c>
@@ -8585,7 +8781,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56">
+      <c r="A13" s="58">
         <v>43560</v>
       </c>
       <c r="B13" s="8">
@@ -8609,7 +8805,7 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="8">
         <v>-6</v>
       </c>
@@ -8621,7 +8817,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="8">
         <v>-5</v>
       </c>
@@ -8650,7 +8846,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="56">
+      <c r="A17" s="58">
         <v>43562</v>
       </c>
       <c r="B17" s="8">
@@ -8667,7 +8863,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="8">
         <v>-30</v>
       </c>
@@ -8682,7 +8878,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="8">
         <v>-42.5</v>
       </c>
@@ -8697,7 +8893,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="8">
         <v>-2.5</v>
       </c>
@@ -8712,7 +8908,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="8">
         <v>-5.3</v>
       </c>
@@ -8733,7 +8929,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="8">
         <v>-3.33</v>
       </c>
@@ -8755,7 +8951,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="50">
+      <c r="A23" s="54">
         <v>43563</v>
       </c>
       <c r="B23" s="8">
@@ -8779,7 +8975,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="8">
         <v>-58.52</v>
       </c>
@@ -8792,7 +8988,7 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="8">
         <v>-6.3</v>
       </c>
@@ -8805,7 +9001,7 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="8">
         <v>-4</v>
       </c>
@@ -8818,7 +9014,7 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="50">
+      <c r="A27" s="54">
         <v>43564</v>
       </c>
       <c r="B27" s="8">
@@ -8842,7 +9038,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="8">
         <v>-10.199999999999999</v>
       </c>
@@ -8981,7 +9177,7 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="50">
+      <c r="A37" s="54">
         <v>43567</v>
       </c>
       <c r="B37" s="8">
@@ -8996,7 +9192,7 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="50"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="8">
         <v>-59.9</v>
       </c>
@@ -9009,7 +9205,7 @@
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="50"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="8">
         <v>-31.1</v>
       </c>
@@ -9022,7 +9218,7 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="50"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="8">
         <v>-11</v>
       </c>
@@ -9035,7 +9231,7 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="56">
+      <c r="A41" s="58">
         <v>43568</v>
       </c>
       <c r="B41" s="8">
@@ -9050,7 +9246,7 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
+      <c r="A42" s="58"/>
       <c r="B42" s="8">
         <v>-4.5</v>
       </c>
@@ -9063,7 +9259,7 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="8">
         <v>-21.7</v>
       </c>
@@ -9076,7 +9272,7 @@
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="56">
+      <c r="A44" s="58">
         <v>43569</v>
       </c>
       <c r="B44" s="8">
@@ -9091,7 +9287,7 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="56"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="8">
         <v>-231.53</v>
       </c>
@@ -9104,7 +9300,7 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="56"/>
+      <c r="A46" s="58"/>
       <c r="B46" s="8">
         <v>-4</v>
       </c>
@@ -9117,7 +9313,7 @@
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="50">
+      <c r="A47" s="54">
         <v>43570</v>
       </c>
       <c r="B47" s="8">
@@ -9132,7 +9328,7 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="50"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="8">
         <v>-189</v>
       </c>
@@ -9145,7 +9341,7 @@
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="50"/>
+      <c r="A49" s="54"/>
       <c r="B49" s="8">
         <v>-410</v>
       </c>
@@ -9158,7 +9354,7 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="50"/>
+      <c r="A50" s="54"/>
       <c r="B50" s="8">
         <v>-2</v>
       </c>
@@ -9171,7 +9367,7 @@
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="50"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="8">
         <v>-11</v>
       </c>
@@ -9184,7 +9380,7 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="50">
+      <c r="A52" s="54">
         <v>43571</v>
       </c>
       <c r="B52" s="8">
@@ -9199,7 +9395,7 @@
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="50"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="8">
         <v>-35</v>
       </c>
@@ -9212,7 +9408,7 @@
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="50"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="8">
         <v>-7</v>
       </c>
@@ -9225,7 +9421,7 @@
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="50"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="8">
         <v>-75</v>
       </c>
@@ -9238,7 +9434,7 @@
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="50"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="8">
         <v>-11</v>
       </c>
@@ -9257,7 +9453,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="50">
+      <c r="A57" s="54">
         <v>43572</v>
       </c>
       <c r="B57" s="8">
@@ -9272,7 +9468,7 @@
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="50"/>
+      <c r="A58" s="54"/>
       <c r="B58" s="8">
         <v>-7</v>
       </c>
@@ -9285,7 +9481,7 @@
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="50"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="8">
         <v>-10</v>
       </c>
@@ -9298,7 +9494,7 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="50"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="8">
         <v>-215</v>
       </c>
@@ -9311,7 +9507,7 @@
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="50"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="8">
         <v>-11</v>
       </c>
@@ -9323,7 +9519,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="50">
+      <c r="A62" s="54">
         <v>43573</v>
       </c>
       <c r="B62" s="8">
@@ -9337,7 +9533,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="50"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="8">
         <v>-11</v>
       </c>
@@ -9349,7 +9545,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="50">
+      <c r="A64" s="54">
         <v>43574</v>
       </c>
       <c r="B64" s="8">
@@ -9363,7 +9559,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="50"/>
+      <c r="A65" s="54"/>
       <c r="B65" s="8">
         <v>-11</v>
       </c>
@@ -9375,7 +9571,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="56">
+      <c r="A66" s="58">
         <v>43575</v>
       </c>
       <c r="B66" s="8">
@@ -9389,7 +9585,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="56"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="8">
         <v>-14.5</v>
       </c>
@@ -9401,7 +9597,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="56">
+      <c r="A68" s="58">
         <v>43576</v>
       </c>
       <c r="B68" s="8">
@@ -9415,7 +9611,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="56"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="8">
         <v>-11.92</v>
       </c>
@@ -9427,7 +9623,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="56"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="8">
         <v>-9.5</v>
       </c>
@@ -9439,7 +9635,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="50">
+      <c r="A71" s="54">
         <v>43577</v>
       </c>
       <c r="B71" s="8">
@@ -9453,7 +9649,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="50"/>
+      <c r="A72" s="54"/>
       <c r="B72" s="8">
         <v>-12.22</v>
       </c>
@@ -9465,7 +9661,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="50"/>
+      <c r="A73" s="54"/>
       <c r="B73" s="8">
         <v>-11</v>
       </c>
@@ -9477,7 +9673,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="50">
+      <c r="A74" s="54">
         <v>43578</v>
       </c>
       <c r="B74" s="8">
@@ -9491,7 +9687,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="50"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="8">
         <v>-2</v>
       </c>
@@ -9503,7 +9699,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="50"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="8">
         <v>-2.5</v>
       </c>
@@ -9515,7 +9711,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="50"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="8">
         <v>-11</v>
       </c>
@@ -9527,7 +9723,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="50">
+      <c r="A78" s="54">
         <v>43579</v>
       </c>
       <c r="B78" s="8">
@@ -9541,7 +9737,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="50"/>
+      <c r="A79" s="54"/>
       <c r="B79" s="8">
         <v>-13.6</v>
       </c>
@@ -9553,7 +9749,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="50"/>
+      <c r="A80" s="54"/>
       <c r="B80" s="8">
         <v>-18</v>
       </c>
@@ -9565,7 +9761,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="50"/>
+      <c r="A81" s="54"/>
       <c r="B81" s="8">
         <v>-11</v>
       </c>
@@ -9577,7 +9773,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="50">
+      <c r="A82" s="54">
         <v>43580</v>
       </c>
       <c r="B82" s="8">
@@ -9591,7 +9787,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="50"/>
+      <c r="A83" s="54"/>
       <c r="B83" s="8">
         <v>-2.5</v>
       </c>
@@ -9603,7 +9799,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="50"/>
+      <c r="A84" s="54"/>
       <c r="B84" s="8">
         <v>-27.67</v>
       </c>
@@ -9615,7 +9811,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="50">
+      <c r="A85" s="54">
         <v>43581</v>
       </c>
       <c r="B85" s="8">
@@ -9627,7 +9823,7 @@
       <c r="D85" s="12"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="50"/>
+      <c r="A86" s="54"/>
       <c r="B86" s="8">
         <v>-11</v>
       </c>
@@ -9639,7 +9835,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="56">
+      <c r="A87" s="58">
         <v>43582</v>
       </c>
       <c r="B87" s="8">
@@ -9653,7 +9849,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="56"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="8">
         <v>-7.6</v>
       </c>
@@ -9665,7 +9861,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="56"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="8">
         <v>-94.35</v>
       </c>
@@ -9677,7 +9873,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="56"/>
+      <c r="A90" s="58"/>
       <c r="B90" s="8">
         <v>-11.9</v>
       </c>
@@ -9687,7 +9883,7 @@
       <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="56"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="12">
         <v>-30</v>
       </c>
@@ -9699,7 +9895,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="50">
+      <c r="A92" s="54">
         <v>43583</v>
       </c>
       <c r="B92" s="12">
@@ -9713,7 +9909,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="50"/>
+      <c r="A93" s="54"/>
       <c r="B93" s="12">
         <v>-22</v>
       </c>
@@ -9725,7 +9921,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="50"/>
+      <c r="A94" s="54"/>
       <c r="B94" s="8">
         <v>-11</v>
       </c>
@@ -9737,7 +9933,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="50">
+      <c r="A95" s="54">
         <v>43584</v>
       </c>
       <c r="B95" s="8">
@@ -9751,7 +9947,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="50"/>
+      <c r="A96" s="54"/>
       <c r="B96" s="8">
         <v>-11</v>
       </c>
@@ -10611,15 +10807,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A92:A94"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="A1:A2"/>
@@ -10636,6 +10823,15 @@
     <mergeCell ref="A78:A81"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A62:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10680,13 +10876,13 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:50" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="60"/>
+      <c r="E4" s="64"/>
       <c r="G4" s="26" t="s">
         <v>133</v>
       </c>
@@ -10711,7 +10907,7 @@
       </c>
     </row>
     <row r="5" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="59"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="28" t="s">
         <v>136</v>
       </c>
@@ -10735,7 +10931,7 @@
       </c>
     </row>
     <row r="6" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="61">
+      <c r="C6" s="65">
         <v>43585</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -10744,7 +10940,7 @@
       <c r="E6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="52"/>
+      <c r="I6" s="60"/>
       <c r="J6" s="27"/>
       <c r="M6" t="s">
         <v>149</v>
@@ -10760,14 +10956,14 @@
       </c>
     </row>
     <row r="7" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="61"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="29" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="52"/>
+      <c r="I7" s="60"/>
       <c r="J7" s="27"/>
       <c r="M7" t="s">
         <v>172</v>
@@ -10781,14 +10977,14 @@
       </c>
     </row>
     <row r="8" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="61"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="29" t="s">
         <v>128</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="52"/>
+      <c r="I8" s="60"/>
       <c r="J8" s="27"/>
       <c r="M8" t="s">
         <v>173</v>
@@ -10809,14 +11005,14 @@
       </c>
     </row>
     <row r="9" spans="1:50" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="61"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="29" t="s">
         <v>129</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="52"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="27"/>
       <c r="M9" t="s">
         <v>185</v>
@@ -10826,7 +11022,7 @@
       </c>
     </row>
     <row r="10" spans="1:50" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="61"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="29">
         <v>0.99305555555555547</v>
       </c>
@@ -10834,7 +11030,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="I10" s="52"/>
+      <c r="I10" s="60"/>
       <c r="J10" s="27"/>
       <c r="M10" t="s">
         <v>186</v>
@@ -10899,7 +11095,7 @@
       <c r="AX11"/>
     </row>
     <row r="12" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="61">
+      <c r="C12" s="65">
         <v>43586</v>
       </c>
       <c r="D12" s="29">
@@ -10916,7 +11112,7 @@
       </c>
     </row>
     <row r="13" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="61"/>
+      <c r="C13" s="65"/>
       <c r="M13" t="s">
         <v>207</v>
       </c>
@@ -10925,13 +11121,13 @@
       </c>
     </row>
     <row r="14" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="61"/>
+      <c r="C14" s="65"/>
     </row>
     <row r="15" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="61"/>
+      <c r="C15" s="65"/>
     </row>
     <row r="16" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="61"/>
+      <c r="C16" s="65"/>
     </row>
     <row r="17" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="24">
@@ -10977,10 +11173,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N236"/>
+  <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10997,41 +11193,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="37">
-        <f>SUMIF(B7:B278,"&lt;0")</f>
-        <v>-2132.9</v>
+        <f>SUMIF(B7:B315,"&lt;0")</f>
+        <v>-3055.2300000000005</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13">
         <f>3000+C1</f>
-        <v>867.09999999999991</v>
+        <v>-55.230000000000473</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,6,1)-TODAY()</f>
-        <v>18</v>
+        <v>-2</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>48.172222222222217</v>
+        <v>27.615000000000236</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -11053,7 +11249,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>51.005882352941171</v>
+        <v>18.410000000000156</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -11062,7 +11258,7 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50">
+      <c r="A4" s="54">
         <v>43591</v>
       </c>
       <c r="B4" s="8">
@@ -11086,7 +11282,7 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="8">
         <v>-12.5</v>
       </c>
@@ -11108,7 +11304,7 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="8">
         <v>-5.5</v>
       </c>
@@ -11130,7 +11326,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="50"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="8">
         <v>-1417</v>
       </c>
@@ -11152,7 +11348,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50">
+      <c r="A8" s="54">
         <v>43592</v>
       </c>
       <c r="B8" s="8">
@@ -11176,7 +11372,7 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="8">
         <v>-13</v>
       </c>
@@ -11198,7 +11394,7 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50">
+      <c r="A10" s="54">
         <v>43593</v>
       </c>
       <c r="B10" s="8">
@@ -11222,7 +11418,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="8">
         <v>-11.5</v>
       </c>
@@ -11244,7 +11440,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50">
+      <c r="A12" s="54">
         <v>43594</v>
       </c>
       <c r="B12" s="8">
@@ -11268,7 +11464,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="8">
         <v>-10</v>
       </c>
@@ -11290,7 +11486,7 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="8">
         <v>-33</v>
       </c>
@@ -11312,7 +11508,7 @@
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50">
+      <c r="A15" s="54">
         <v>43595</v>
       </c>
       <c r="B15" s="8">
@@ -11336,7 +11532,7 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="8">
         <v>-30</v>
       </c>
@@ -11358,7 +11554,7 @@
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="8">
         <v>-100</v>
       </c>
@@ -11380,12 +11576,12 @@
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="8">
         <v>-8</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D18" s="12">
         <v>2</v>
@@ -11402,7 +11598,7 @@
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="8">
         <v>-11</v>
       </c>
@@ -11448,7 +11644,7 @@
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56">
+      <c r="A21" s="50">
         <v>43597</v>
       </c>
       <c r="B21" s="8">
@@ -11472,15 +11668,17 @@
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
+      <c r="A22" s="54">
+        <v>43598</v>
+      </c>
       <c r="B22" s="8">
-        <v>-99</v>
+        <v>-11</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D22" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="8"/>
@@ -11494,17 +11692,15 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50">
-        <v>43598</v>
-      </c>
+      <c r="A23" s="54"/>
       <c r="B23" s="8">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="D23" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="8"/>
@@ -11518,9 +11714,9 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="8">
-        <v>-7</v>
+        <v>-9.4</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>222</v>
@@ -11540,9 +11736,9 @@
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="8">
-        <v>-9.4</v>
+        <v>-3.2</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>223</v>
@@ -11562,15 +11758,15 @@
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="8">
-        <v>-3.2</v>
+        <v>-59</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>224</v>
       </c>
       <c r="D26" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="8"/>
@@ -11584,15 +11780,15 @@
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="8">
-        <v>-59</v>
+        <v>-14</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="D27" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="8"/>
@@ -11606,15 +11802,17 @@
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
+      <c r="A28" s="54">
+        <v>43599</v>
+      </c>
       <c r="B28" s="8">
-        <v>-59</v>
+        <v>-11</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D28" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="8"/>
@@ -11628,15 +11826,15 @@
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="8">
-        <v>-69</v>
+        <v>-16</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D29" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="8"/>
@@ -11650,12 +11848,12 @@
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="8">
-        <v>-14</v>
+        <v>-21</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D30" s="12">
         <v>2</v>
@@ -11672,17 +11870,15 @@
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="50">
-        <v>43599</v>
-      </c>
+      <c r="A31" s="54"/>
       <c r="B31" s="8">
-        <v>-11</v>
+        <v>-128</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D31" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="8"/>
@@ -11696,15 +11892,15 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="8">
-        <v>-16</v>
+        <v>-39</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>228</v>
       </c>
       <c r="D32" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="8"/>
@@ -11718,9 +11914,9 @@
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="50"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="8">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>229</v>
@@ -11740,8 +11936,2596 @@
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="46">
+      <c r="A34" s="54"/>
+      <c r="B34" s="8">
+        <v>-35</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="12">
+        <v>3</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+    </row>
+    <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="54"/>
+      <c r="B35" s="8">
+        <v>-33</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D35" s="12">
+        <v>3</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="54"/>
+      <c r="B36" s="8">
+        <v>-18</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="12">
+        <v>3</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="54">
         <v>43600</v>
+      </c>
+      <c r="B37" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="54"/>
+      <c r="B38" s="8">
+        <v>-10</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="54"/>
+      <c r="B39" s="8">
+        <v>-11.5</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="12">
+        <v>2</v>
+      </c>
+      <c r="E39" s="12"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="54">
+        <v>43601</v>
+      </c>
+      <c r="B40" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="54"/>
+      <c r="B41" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="12">
+        <v>2</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="54"/>
+      <c r="B42" s="8">
+        <v>-15</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="54">
+        <v>43602</v>
+      </c>
+      <c r="B43" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="54"/>
+      <c r="B44" s="8">
+        <v>-12.5</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="54"/>
+      <c r="B45" s="8">
+        <v>-15.8</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="58">
+        <v>43603</v>
+      </c>
+      <c r="B46" s="8">
+        <v>-28.9</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="58"/>
+      <c r="B47" s="8">
+        <v>-139</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="58"/>
+      <c r="B48" s="8">
+        <v>-30.9</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="58"/>
+      <c r="B49" s="8">
+        <v>-34</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D49" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="58"/>
+      <c r="B50" s="8">
+        <v>-26.1</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="58">
+        <v>43604</v>
+      </c>
+      <c r="B51" s="8">
+        <v>-12</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="58"/>
+      <c r="B52" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="58"/>
+      <c r="B53" s="8">
+        <v>-17</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="54">
+        <v>43605</v>
+      </c>
+      <c r="B54" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="54"/>
+      <c r="B55" s="8">
+        <v>-11.5</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="54"/>
+      <c r="B56" s="8">
+        <v>-12</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="54">
+        <v>43606</v>
+      </c>
+      <c r="B57" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="54"/>
+      <c r="B58" s="8">
+        <v>-5</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D58" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="54"/>
+      <c r="B59" s="8">
+        <f>-12+4.5</f>
+        <v>-7.5</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="54"/>
+      <c r="B60" s="8">
+        <v>-12.5</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="54">
+        <v>43607</v>
+      </c>
+      <c r="B61" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="54"/>
+      <c r="B62" s="8">
+        <v>-3</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D62" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="54"/>
+      <c r="B63" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="54"/>
+      <c r="B64" s="8">
+        <v>-19</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="54">
+        <v>43608</v>
+      </c>
+      <c r="B65" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="54"/>
+      <c r="B66" s="8">
+        <v>-13.5</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="54"/>
+      <c r="B67" s="8">
+        <v>-15</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67" s="12">
+        <v>2</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="54">
+        <v>43609</v>
+      </c>
+      <c r="B68" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" s="12">
+        <v>1</v>
+      </c>
+      <c r="H68" s="9"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="54"/>
+      <c r="B69" s="8">
+        <v>-18</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="12">
+        <v>2</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="54"/>
+      <c r="B70" s="8">
+        <v>-30.55</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D70" s="12">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J70">
+        <f>SUMIF($D$7:$D341,H70,$B$7:$B$341)</f>
+        <v>-243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="58">
+        <v>43610</v>
+      </c>
+      <c r="B71" s="8">
+        <v>-34</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" s="12">
+        <v>2</v>
+      </c>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="58"/>
+      <c r="B72" s="8">
+        <v>-3</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" s="12">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J72">
+        <f ca="1">SUMIF($D$7:$D342,H72,$B$7:$B$341)</f>
+        <v>-833.32999999999993</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="54">
+        <v>43611</v>
+      </c>
+      <c r="B73" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" s="12">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="54"/>
+      <c r="B74" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" s="12">
+        <v>3</v>
+      </c>
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="54">
+        <v>43612</v>
+      </c>
+      <c r="B75" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="12">
+        <v>1</v>
+      </c>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="54"/>
+      <c r="B76" s="8">
+        <v>-15</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="12">
+        <v>2</v>
+      </c>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="54"/>
+      <c r="B77" s="8">
+        <v>-2.5</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" s="12">
+        <v>2</v>
+      </c>
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="54"/>
+      <c r="B78" s="8">
+        <v>-12</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D78" s="12">
+        <v>2</v>
+      </c>
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="54">
+        <v>43613</v>
+      </c>
+      <c r="B79" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D79" s="12">
+        <v>1</v>
+      </c>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="54"/>
+      <c r="B80" s="8">
+        <v>-10.5</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="12">
+        <v>2</v>
+      </c>
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="54">
+        <v>43614</v>
+      </c>
+      <c r="B81" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" s="12">
+        <v>1</v>
+      </c>
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="54"/>
+      <c r="B82" s="8">
+        <v>-5.88</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" s="12">
+        <v>2</v>
+      </c>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="54"/>
+      <c r="B83" s="8">
+        <v>-16</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83" s="12">
+        <v>2</v>
+      </c>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="54">
+        <v>43615</v>
+      </c>
+      <c r="B84" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" s="12">
+        <v>1</v>
+      </c>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="54"/>
+      <c r="B85" s="8">
+        <v>-14</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" s="12">
+        <v>2</v>
+      </c>
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="54"/>
+      <c r="B86" s="8">
+        <v>-6.2</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D86" s="12">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J86">
+        <f ca="1">SUMIF($D$7:$D344,H86,$B$7:$B$341)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="51"/>
+      <c r="B87" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D87" s="12">
+        <v>1</v>
+      </c>
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="46">
+        <v>43616</v>
+      </c>
+      <c r="B88" s="8">
+        <v>-17</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" s="12">
+        <v>2</v>
+      </c>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="42"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="12"/>
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="42"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="12"/>
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="42"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="12"/>
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="42"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="12"/>
+      <c r="H92">
+        <v>5</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J92">
+        <f ca="1">SUMIF($D$7:$D345,H92,$B$7:$B$341)</f>
+        <v>-1417</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="42"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="12"/>
+      <c r="I93" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J93">
+        <f ca="1">SUM(J45:J80)</f>
+        <v>-1076.33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="42"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="12"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="48"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="12"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="48"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="12"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="48"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="12"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="48"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="12"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="48"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="12"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="48"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="12"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="48"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="12"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="48"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="12"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="48"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="12"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="48"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="12"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="48"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="12"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="48"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="12"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="48"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="12"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="48"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="12"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="48"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="12"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="48"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="12"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="48"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="48"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="12"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="48"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="12"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="48"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="12"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="48"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="48"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="48"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="48"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="48"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="48"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="8"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="8"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="8"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="8"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="8"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="8"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="8"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="8"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="8"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="8"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="8"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="8"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="8"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="8"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="8"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="8"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="8"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="8"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="8"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="8"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="8"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="8"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="8"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="8"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="8"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="8"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="8"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="8"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="8"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="8"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="8"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="8"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="8"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="8"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="8"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="8"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="8"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="8"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="8"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="8"/>
+      <c r="B250" s="8"/>
+      <c r="C250" s="8"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="8"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="8"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="8"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="8"/>
+      <c r="B253" s="8"/>
+      <c r="C253" s="8"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="8"/>
+      <c r="B254" s="8"/>
+      <c r="C254" s="8"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="8"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="8"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="8"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="8"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="8"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="8"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="8"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="8"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="8"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="8"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="8"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="8"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="8"/>
+      <c r="B261" s="8"/>
+      <c r="C261" s="8"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="8"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="8"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="8"/>
+      <c r="B263" s="8"/>
+      <c r="C263" s="8"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="8"/>
+      <c r="B264" s="8"/>
+      <c r="C264" s="8"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="8"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="8"/>
+      <c r="B266" s="8"/>
+      <c r="C266" s="8"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="8"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="8"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="8"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="8"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="8"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="8"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="8"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="8"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="8"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="8"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="8"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="8"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A79:A80"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N263"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="13"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="34" max="34" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="37">
+        <f>SUMIF(B17:B304,"&lt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="56"/>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="13">
+        <f>3000+C1</f>
+        <v>3000</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <f ca="1">DATE(2019,7,1)-TODAY()</f>
+        <v>28</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <f ca="1">C2/F2</f>
+        <v>107.14285714285714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8">
+        <f ca="1">C2/(F2-1)</f>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54">
+        <v>43617</v>
+      </c>
+      <c r="B4" s="8">
+        <v>-50</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="8">
+        <v>-37.119999999999997</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5">
+        <f>SUMIF($D$4:$D330,H5,$B$4:$B$330)</f>
+        <v>-11</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="8">
+        <v>-73.459999999999994</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6">
+        <f ca="1">SUMIF($D$4:$D331,H6,$B$4:$B$330)</f>
+        <v>-350.96000000000004</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="8">
+        <v>-89</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7">
+        <f ca="1">SUMIF($D$4:$D333,H7,$B$4:$B$330)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+    </row>
+    <row r="8" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="8">
+        <v>-83.25</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8">
+        <f ca="1">SUMIF($D$4:$D334,H8,$B$4:$B$330)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+    </row>
+    <row r="9" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="8">
+        <v>-17.8</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="I9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9">
+        <f>SUM(B4:B117)</f>
+        <v>-597.54</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="8">
+        <v>-36</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="8">
+        <v>-39.11</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="8">
+        <v>-56</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+    </row>
+    <row r="13" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="8">
+        <v>-69.900000000000006</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="52">
+        <v>43618</v>
+      </c>
+      <c r="B14" s="8">
+        <v>-34.9</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54">
+        <v>43619</v>
+      </c>
+      <c r="B15" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="52">
+        <v>43620</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="52">
+        <v>43621</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="52">
+        <v>43622</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+    </row>
+    <row r="20" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="52">
+        <v>43623</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="52">
+        <v>43624</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+    </row>
+    <row r="22" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="52">
+        <v>43625</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="52">
+        <v>43626</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="52">
+        <v>43627</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="52">
+        <v>43628</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="52">
+        <v>43629</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="52">
+        <v>43630</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="52">
+        <v>43631</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="52">
+        <v>43632</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="52">
+        <v>43633</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="52">
+        <v>43634</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="52">
+        <v>43635</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="52">
+        <v>43636</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+    </row>
+    <row r="34" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="52">
+        <v>43637</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -11757,739 +14541,847 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="46">
-        <v>43601</v>
+    <row r="35" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="52">
+        <v>43638</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="46">
-        <v>43602</v>
+      <c r="E35" s="12"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+    </row>
+    <row r="36" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="52">
+        <v>43639</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="49">
-        <v>43603</v>
+      <c r="E36" s="12"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+    </row>
+    <row r="37" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="52">
+        <v>43640</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="49">
-        <v>43604</v>
+      <c r="E37" s="12"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+    </row>
+    <row r="38" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="52">
+        <v>43641</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="12"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="46">
-        <v>43605</v>
+      <c r="E38" s="12"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="52">
+        <v>43642</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="12"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="46">
-        <v>43606</v>
+      <c r="E39" s="12"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="52">
+        <v>43643</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="12"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="46">
-        <v>43607</v>
+      <c r="E40" s="12"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+    </row>
+    <row r="41" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="52">
+        <v>43644</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="46">
-        <v>43608</v>
+      <c r="E41" s="12"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+    </row>
+    <row r="42" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="52">
+        <v>43645</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="12"/>
-      <c r="H42" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="46">
-        <v>43609</v>
+      <c r="E42" s="12"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+    </row>
+    <row r="43" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="52">
+        <v>43646</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="12"/>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J43">
-        <f>SUMIF($D$7:$D304,H43,$B$7:$B$304)</f>
-        <v>-66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="49">
-        <v>43610</v>
-      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="12"/>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J44">
-        <f ca="1">SUMIF($D$7:$D305,H44,$B$7:$B$304)</f>
-        <v>-345.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="48">
-        <v>43611</v>
-      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="66"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="12"/>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="46">
-        <v>43612</v>
-      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+    </row>
+    <row r="46" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="12"/>
-      <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="46">
-        <v>43613</v>
-      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+    </row>
+    <row r="47" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="12"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="46">
-        <v>43614</v>
-      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+    </row>
+    <row r="48" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="12"/>
-      <c r="H48">
-        <v>3</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J48">
-        <f ca="1">SUMIF($D$7:$D306,H48,$B$7:$B$304)</f>
-        <v>-304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="46">
-        <v>43615</v>
-      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+    </row>
+    <row r="49" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="12"/>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="46">
-        <v>43616</v>
-      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+    </row>
+    <row r="50" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="12"/>
-      <c r="H50">
-        <v>4</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J50">
-        <f ca="1">SUMIF($D$7:$D307,H50,$B$7:$B$304)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="42"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+    </row>
+    <row r="51" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="12"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="42"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="12"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="42"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="12"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="42"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="12"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="42"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="12"/>
-      <c r="H55">
-        <v>5</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J55">
-        <f ca="1">SUMIF($D$7:$D308,H55,$B$7:$B$304)</f>
-        <v>-1417</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="42"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="12"/>
-      <c r="I56" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J56">
-        <f ca="1">SUM(J36:J48)</f>
-        <v>-715.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="48"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="12"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="12"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="48"/>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="12"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="48"/>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="12"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="48"/>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="12"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="48"/>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="12"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="48"/>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="12"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="48"/>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="12"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
+      <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="12"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="48"/>
+      <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="12"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="48"/>
+      <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="12"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="48"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="12"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="48"/>
+      <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="12"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="48"/>
+      <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="12"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="48"/>
+      <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
+      <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="12"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="48"/>
+      <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="12"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="48"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
       <c r="D74" s="12"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="48"/>
+      <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="12"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="48"/>
+      <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="12"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="48"/>
+    <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="12"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="48"/>
+      <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
+      <c r="D78" s="12"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="48"/>
+      <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
+      <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="48"/>
+      <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="48"/>
+      <c r="D80" s="12"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="48"/>
+      <c r="D81" s="12"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D82" s="12"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D83" s="12"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D84" s="12"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D85" s="12"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D86" s="12"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D87" s="12"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D88" s="12"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D89" s="12"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D90" s="12"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D91" s="12"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D92" s="12"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D93" s="12"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D94" s="12"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D95" s="12"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D96" s="12"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D97" s="12"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D98" s="12"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D99" s="12"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D101" s="12"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D102" s="12"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D103" s="12"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -12954,17 +15846,144 @@
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
     </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="8"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="8"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="8"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="8"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="8"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="8"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="8"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="8"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="8"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="8"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="8"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="8"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="8"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="8"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="8"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="8"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="8"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="8"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="8"/>
+      <c r="B250" s="8"/>
+      <c r="C250" s="8"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="8"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="8"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="8"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="8"/>
+      <c r="B253" s="8"/>
+      <c r="C253" s="8"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="8"/>
+      <c r="B254" s="8"/>
+      <c r="C254" s="8"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="8"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="8"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="8"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="8"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="8"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="8"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="8"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="8"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="8"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="8"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="8"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="8"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="8"/>
+      <c r="B261" s="8"/>
+      <c r="C261" s="8"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="8"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="8"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="3">
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/账本/健忘症患者的账本.xlsx
+++ b/账本/健忘症患者的账本.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="265">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -2036,6 +2036,120 @@
     <t>洁面仪</t>
     <rPh sb="0" eb="1">
       <t>jie mian yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒马</t>
+    <rPh sb="0" eb="1">
+      <t>he ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭腿</t>
+    <rPh sb="0" eb="1">
+      <t>ya tui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉干</t>
+    <rPh sb="0" eb="1">
+      <t>niu rou gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉干</t>
+    <rPh sb="0" eb="1">
+      <t>niu rou t g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉鞋</t>
+    <rPh sb="0" eb="1">
+      <t>liang xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帽子</t>
+    <rPh sb="0" eb="1">
+      <t>mao zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐+方便面</t>
+    <rPh sb="0" eb="1">
+      <t>ke le</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fang bian mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通</t>
+    <rPh sb="0" eb="1">
+      <t>jiao togn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买赞</t>
+    <rPh sb="0" eb="1">
+      <t>mai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买手机</t>
+    <rPh sb="0" eb="1">
+      <t>mai shou ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊角蜜</t>
+    <rPh sb="0" eb="1">
+      <t>yang jiao mi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤子</t>
+    <rPh sb="0" eb="1">
+      <t>ku z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空心纱</t>
+    <rPh sb="0" eb="1">
+      <t>kong xin sha</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯德基</t>
+    <rPh sb="0" eb="1">
+      <t>ken de ji</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2159,7 +2273,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2304,6 +2418,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2339,9 +2480,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2644,7 +2782,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2658,7 +2796,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -2671,14 +2809,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-153</v>
+        <v>-168</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>16.974901960784312</v>
+        <v>15.459285714285713</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -2691,20 +2829,20 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>16.864675324675325</v>
+        <v>15.367810650887574</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="54">
+      <c r="A4" s="63">
         <v>43435</v>
       </c>
       <c r="B4">
@@ -2718,7 +2856,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
+      <c r="A5" s="63"/>
       <c r="B5">
         <v>-20</v>
       </c>
@@ -2744,7 +2882,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="54">
+      <c r="A7" s="63">
         <v>43437</v>
       </c>
       <c r="B7">
@@ -2758,7 +2896,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
+      <c r="A8" s="63"/>
       <c r="B8">
         <v>-89</v>
       </c>
@@ -2779,7 +2917,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="63"/>
       <c r="B9">
         <v>-6</v>
       </c>
@@ -2801,7 +2939,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
+      <c r="A10" s="63"/>
       <c r="B10">
         <v>-4</v>
       </c>
@@ -2830,7 +2968,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="57">
+      <c r="A11" s="66">
         <v>43438</v>
       </c>
       <c r="B11">
@@ -2854,7 +2992,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
+      <c r="A12" s="66"/>
       <c r="B12">
         <v>18</v>
       </c>
@@ -2873,7 +3011,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
+      <c r="A13" s="66"/>
       <c r="B13">
         <v>-7</v>
       </c>
@@ -2895,7 +3033,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
+      <c r="A14" s="66"/>
       <c r="B14">
         <v>-8</v>
       </c>
@@ -2907,7 +3045,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
+      <c r="A15" s="66"/>
       <c r="B15">
         <v>-6</v>
       </c>
@@ -2919,7 +3057,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
+      <c r="A16" s="66"/>
       <c r="B16">
         <v>-34.799999999999997</v>
       </c>
@@ -2931,7 +3069,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="54">
+      <c r="A17" s="63">
         <v>43439</v>
       </c>
       <c r="B17">
@@ -2946,7 +3084,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="63"/>
       <c r="B18">
         <v>-1468</v>
       </c>
@@ -2958,7 +3096,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="2">
         <v>-6</v>
       </c>
@@ -2970,7 +3108,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="63"/>
       <c r="B20">
         <v>7</v>
       </c>
@@ -2979,7 +3117,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
+      <c r="A21" s="63"/>
       <c r="B21">
         <v>-4</v>
       </c>
@@ -2991,7 +3129,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
+      <c r="A22" s="63"/>
       <c r="B22">
         <v>-29.9</v>
       </c>
@@ -3003,7 +3141,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
+      <c r="A23" s="66">
         <v>43440</v>
       </c>
       <c r="B23">
@@ -3017,7 +3155,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
+      <c r="A24" s="66"/>
       <c r="B24">
         <v>-5</v>
       </c>
@@ -3029,7 +3167,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
+      <c r="A25" s="66"/>
       <c r="B25">
         <v>-9</v>
       </c>
@@ -3041,7 +3179,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
+      <c r="A26" s="66"/>
       <c r="B26">
         <v>-249</v>
       </c>
@@ -3053,7 +3191,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
+      <c r="A27" s="66"/>
       <c r="B27">
         <v>-13.88</v>
       </c>
@@ -3065,7 +3203,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="57">
+      <c r="A28" s="66">
         <v>43441</v>
       </c>
       <c r="B28">
@@ -3079,7 +3217,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
+      <c r="A29" s="66"/>
       <c r="B29">
         <v>-6</v>
       </c>
@@ -3091,7 +3229,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
+      <c r="A30" s="66"/>
       <c r="B30">
         <v>-4</v>
       </c>
@@ -3103,7 +3241,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
+      <c r="A31" s="66"/>
       <c r="B31">
         <v>-18</v>
       </c>
@@ -3115,7 +3253,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
+      <c r="A32" s="66"/>
       <c r="B32">
         <f>-89-129-119-89</f>
         <v>-426</v>
@@ -3128,7 +3266,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="54">
+      <c r="A33" s="63">
         <v>43442</v>
       </c>
       <c r="B33">
@@ -3142,7 +3280,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="54">
+      <c r="A34" s="63">
         <v>43443</v>
       </c>
       <c r="B34">
@@ -3156,7 +3294,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
+      <c r="A35" s="63"/>
       <c r="B35">
         <v>-2</v>
       </c>
@@ -3168,7 +3306,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="58">
+      <c r="A36" s="67">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -3182,7 +3320,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
+      <c r="A37" s="67"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -3194,7 +3332,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
+      <c r="A38" s="67"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -3206,7 +3344,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="54">
+      <c r="A39" s="63">
         <v>43445</v>
       </c>
       <c r="B39">
@@ -3220,7 +3358,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
+      <c r="A40" s="63"/>
       <c r="B40">
         <v>-4</v>
       </c>
@@ -3232,7 +3370,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
+      <c r="A41" s="63"/>
       <c r="B41">
         <v>-5</v>
       </c>
@@ -3244,7 +3382,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
+      <c r="A42" s="63"/>
       <c r="B42">
         <v>-16</v>
       </c>
@@ -3256,7 +3394,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="54">
+      <c r="A43" s="63">
         <v>43446</v>
       </c>
       <c r="B43">
@@ -3270,7 +3408,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
+      <c r="A44" s="63"/>
       <c r="B44">
         <v>-8</v>
       </c>
@@ -3282,7 +3420,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
+      <c r="A45" s="63"/>
       <c r="B45">
         <v>-5</v>
       </c>
@@ -3294,7 +3432,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
+      <c r="A46" s="63"/>
       <c r="B46">
         <v>-13</v>
       </c>
@@ -3306,7 +3444,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="54">
+      <c r="A47" s="63">
         <v>43447</v>
       </c>
       <c r="B47">
@@ -3320,7 +3458,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
+      <c r="A48" s="63"/>
       <c r="B48">
         <v>-6</v>
       </c>
@@ -3332,7 +3470,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
+      <c r="A49" s="63"/>
       <c r="B49">
         <v>-16</v>
       </c>
@@ -3344,7 +3482,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
+      <c r="A50" s="63"/>
       <c r="B50">
         <v>-13</v>
       </c>
@@ -3356,7 +3494,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
+      <c r="A51" s="63"/>
       <c r="B51">
         <v>-99</v>
       </c>
@@ -3368,7 +3506,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="54">
+      <c r="A52" s="63">
         <v>43448</v>
       </c>
       <c r="B52">
@@ -3382,7 +3520,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="54"/>
+      <c r="A53" s="63"/>
       <c r="B53">
         <v>-14</v>
       </c>
@@ -3394,7 +3532,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
+      <c r="A54" s="63"/>
       <c r="B54">
         <v>-13</v>
       </c>
@@ -3406,7 +3544,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="54">
+      <c r="A55" s="63">
         <v>43449</v>
       </c>
       <c r="B55">
@@ -3420,7 +3558,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
+      <c r="A56" s="63"/>
       <c r="B56">
         <v>-20</v>
       </c>
@@ -3432,7 +3570,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="54">
+      <c r="A57" s="63">
         <v>43450</v>
       </c>
       <c r="B57">
@@ -3446,7 +3584,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
+      <c r="A58" s="63"/>
       <c r="B58">
         <v>-30</v>
       </c>
@@ -3458,7 +3596,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="54">
+      <c r="A59" s="63">
         <v>43451</v>
       </c>
       <c r="B59">
@@ -3472,7 +3610,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
+      <c r="A60" s="63"/>
       <c r="B60">
         <v>-4.5</v>
       </c>
@@ -3484,7 +3622,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
+      <c r="A61" s="63"/>
       <c r="B61">
         <v>-12</v>
       </c>
@@ -3496,7 +3634,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="54">
+      <c r="A62" s="63">
         <v>43452</v>
       </c>
       <c r="B62">
@@ -3510,7 +3648,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
+      <c r="A63" s="63"/>
       <c r="B63">
         <v>-16</v>
       </c>
@@ -3522,7 +3660,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
+      <c r="A64" s="63"/>
       <c r="B64">
         <v>-670</v>
       </c>
@@ -3534,7 +3672,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="54">
+      <c r="A65" s="63">
         <v>43453</v>
       </c>
       <c r="B65">
@@ -3548,7 +3686,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
+      <c r="A66" s="63"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -3560,7 +3698,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
+      <c r="A67" s="63"/>
       <c r="B67">
         <v>-12</v>
       </c>
@@ -3572,7 +3710,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="54">
+      <c r="A68" s="63">
         <v>43454</v>
       </c>
       <c r="B68">
@@ -3586,7 +3724,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="54"/>
+      <c r="A69" s="63"/>
       <c r="B69">
         <v>-18</v>
       </c>
@@ -3598,7 +3736,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="54"/>
+      <c r="A70" s="63"/>
       <c r="B70">
         <v>-982</v>
       </c>
@@ -3610,7 +3748,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="54">
+      <c r="A71" s="63">
         <v>43455</v>
       </c>
       <c r="B71">
@@ -3624,7 +3762,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="54"/>
+      <c r="A72" s="63"/>
       <c r="B72">
         <v>-4</v>
       </c>
@@ -3636,7 +3774,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="54"/>
+      <c r="A73" s="63"/>
       <c r="B73">
         <v>-4</v>
       </c>
@@ -3648,7 +3786,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="54">
+      <c r="A74" s="63">
         <v>43456</v>
       </c>
       <c r="B74">
@@ -3662,7 +3800,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="54"/>
+      <c r="A75" s="63"/>
       <c r="B75">
         <v>-13</v>
       </c>
@@ -3674,7 +3812,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
+      <c r="A76" s="63"/>
       <c r="B76">
         <v>-15</v>
       </c>
@@ -3686,7 +3824,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="54"/>
+      <c r="A77" s="63"/>
       <c r="B77">
         <v>-30</v>
       </c>
@@ -3698,7 +3836,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
+      <c r="A78" s="63"/>
       <c r="B78">
         <v>-15</v>
       </c>
@@ -3710,7 +3848,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="54"/>
+      <c r="A79" s="63"/>
       <c r="B79">
         <v>-42</v>
       </c>
@@ -3727,7 +3865,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="54">
+      <c r="A81" s="63">
         <v>43458</v>
       </c>
       <c r="B81">
@@ -3741,7 +3879,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="54"/>
+      <c r="A82" s="63"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -3753,7 +3891,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="54">
+      <c r="A83" s="63">
         <v>43459</v>
       </c>
       <c r="B83">
@@ -3767,7 +3905,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="54"/>
+      <c r="A84" s="63"/>
       <c r="B84">
         <v>-16</v>
       </c>
@@ -3779,7 +3917,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="54">
+      <c r="A85" s="63">
         <v>43460</v>
       </c>
       <c r="B85">
@@ -3793,7 +3931,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="54"/>
+      <c r="A86" s="63"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -3805,7 +3943,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="54"/>
+      <c r="A87" s="63"/>
       <c r="B87">
         <v>-62</v>
       </c>
@@ -3817,7 +3955,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="54">
+      <c r="A88" s="63">
         <v>43461</v>
       </c>
       <c r="B88">
@@ -3831,7 +3969,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="54"/>
+      <c r="A89" s="63"/>
       <c r="B89">
         <v>-16</v>
       </c>
@@ -3843,7 +3981,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="54"/>
+      <c r="A90" s="63"/>
       <c r="B90">
         <v>-18.8</v>
       </c>
@@ -3855,7 +3993,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="54">
+      <c r="A91" s="63">
         <v>43462</v>
       </c>
       <c r="B91">
@@ -3869,7 +4007,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="54"/>
+      <c r="A92" s="63"/>
       <c r="B92">
         <v>-14</v>
       </c>
@@ -3881,7 +4019,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="54"/>
+      <c r="A93" s="63"/>
       <c r="B93">
         <v>-239</v>
       </c>
@@ -3893,7 +4031,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="54"/>
+      <c r="A94" s="63"/>
       <c r="B94">
         <v>-12</v>
       </c>
@@ -3905,7 +4043,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="54">
+      <c r="A95" s="63">
         <v>43463</v>
       </c>
       <c r="B95">
@@ -3919,7 +4057,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="54"/>
+      <c r="A96" s="63"/>
       <c r="B96">
         <v>-6</v>
       </c>
@@ -3931,7 +4069,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="54"/>
+      <c r="A97" s="63"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -3943,7 +4081,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="54"/>
+      <c r="A98" s="63"/>
       <c r="B98">
         <v>-39</v>
       </c>
@@ -3955,7 +4093,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="54">
+      <c r="A99" s="63">
         <v>43464</v>
       </c>
       <c r="B99">
@@ -3969,7 +4107,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="54"/>
+      <c r="A100" s="63"/>
       <c r="B100">
         <v>-50.4</v>
       </c>
@@ -3981,7 +4119,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="54"/>
+      <c r="A101" s="63"/>
       <c r="B101">
         <v>-30</v>
       </c>
@@ -4064,7 +4202,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4078,7 +4216,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -4091,14 +4229,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-122</v>
+        <v>-137</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>21.377131147540993</v>
+        <v>19.0365693430657</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -4120,7 +4258,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>21.203333333333344</v>
+        <v>18.898623188405804</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -4143,7 +4281,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="54">
+      <c r="A5" s="63">
         <v>43467</v>
       </c>
       <c r="B5">
@@ -4166,7 +4304,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="63"/>
       <c r="B6">
         <v>-16</v>
       </c>
@@ -4188,7 +4326,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="63"/>
       <c r="B7">
         <v>-24</v>
       </c>
@@ -4217,7 +4355,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="54">
+      <c r="A8" s="63">
         <v>43468</v>
       </c>
       <c r="B8">
@@ -4241,7 +4379,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="63"/>
       <c r="B9">
         <v>-16</v>
       </c>
@@ -4263,7 +4401,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
+      <c r="A10" s="63"/>
       <c r="B10">
         <v>-15</v>
       </c>
@@ -4285,7 +4423,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="54">
+      <c r="A11" s="63">
         <v>43469</v>
       </c>
       <c r="B11">
@@ -4300,7 +4438,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="63"/>
       <c r="B12">
         <v>-1453</v>
       </c>
@@ -4312,7 +4450,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
+      <c r="A13" s="63"/>
       <c r="B13">
         <v>-4</v>
       </c>
@@ -4324,7 +4462,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="63"/>
       <c r="B14">
         <v>-55</v>
       </c>
@@ -4336,7 +4474,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
+      <c r="A15" s="63"/>
       <c r="B15">
         <v>-11</v>
       </c>
@@ -4348,7 +4486,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="58">
+      <c r="A16" s="67">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -4362,7 +4500,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
+      <c r="A17" s="67"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -4374,7 +4512,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+      <c r="A18" s="67"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -4386,7 +4524,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
+      <c r="A19" s="67"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -4404,7 +4542,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
+      <c r="A20" s="67"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -4423,7 +4561,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
+      <c r="A21" s="67"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -4442,7 +4580,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="58">
+      <c r="A22" s="67">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -4463,7 +4601,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
+      <c r="A23" s="67"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -4482,7 +4620,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
+      <c r="A24" s="67"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -4501,7 +4639,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="54">
+      <c r="A25" s="63">
         <v>43472</v>
       </c>
       <c r="B25">
@@ -4515,7 +4653,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
+      <c r="A26" s="63"/>
       <c r="B26">
         <v>-4</v>
       </c>
@@ -4527,7 +4665,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
+      <c r="A27" s="63"/>
       <c r="B27">
         <v>-218</v>
       </c>
@@ -4539,7 +4677,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="54">
+      <c r="A28" s="63">
         <v>43473</v>
       </c>
       <c r="B28">
@@ -4553,7 +4691,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
+      <c r="A29" s="63"/>
       <c r="B29">
         <v>-16</v>
       </c>
@@ -4565,7 +4703,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+      <c r="A30" s="63"/>
       <c r="B30">
         <v>-245</v>
       </c>
@@ -4577,7 +4715,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="57">
+      <c r="A31" s="66">
         <v>43474</v>
       </c>
       <c r="B31">
@@ -4591,7 +4729,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
+      <c r="A32" s="66"/>
       <c r="B32">
         <v>-4</v>
       </c>
@@ -4603,7 +4741,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
+      <c r="A33" s="66"/>
       <c r="B33">
         <v>-500</v>
       </c>
@@ -4615,7 +4753,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
+      <c r="A34" s="66"/>
       <c r="B34">
         <v>-16</v>
       </c>
@@ -4627,7 +4765,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="54">
+      <c r="A35" s="63">
         <v>43475</v>
       </c>
       <c r="B35">
@@ -4641,7 +4779,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
+      <c r="A36" s="63"/>
       <c r="B36">
         <v>-6.5</v>
       </c>
@@ -4653,7 +4791,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="54">
+      <c r="A37" s="63">
         <v>43476</v>
       </c>
       <c r="B37">
@@ -4667,7 +4805,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
+      <c r="A38" s="63"/>
       <c r="B38">
         <v>-31</v>
       </c>
@@ -4679,7 +4817,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
+      <c r="A39" s="63"/>
       <c r="B39">
         <v>-15</v>
       </c>
@@ -4688,7 +4826,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
+      <c r="A40" s="63"/>
       <c r="B40">
         <v>-49</v>
       </c>
@@ -4700,7 +4838,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
+      <c r="A41" s="63"/>
       <c r="B41">
         <v>-8</v>
       </c>
@@ -4717,7 +4855,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="58">
+      <c r="A43" s="67">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -4731,7 +4869,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="58"/>
+      <c r="A44" s="67"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -4743,7 +4881,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="54">
+      <c r="A45" s="63">
         <v>43479</v>
       </c>
       <c r="B45">
@@ -4757,7 +4895,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
+      <c r="A46" s="63"/>
       <c r="B46">
         <v>-8</v>
       </c>
@@ -4769,7 +4907,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
+      <c r="A47" s="63"/>
       <c r="B47">
         <v>-6</v>
       </c>
@@ -4781,7 +4919,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="54">
+      <c r="A48" s="63">
         <v>43480</v>
       </c>
       <c r="B48">
@@ -4795,7 +4933,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
+      <c r="A49" s="63"/>
       <c r="B49">
         <v>-8</v>
       </c>
@@ -4807,7 +4945,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
+      <c r="A50" s="63"/>
       <c r="B50">
         <v>-2.5</v>
       </c>
@@ -4819,7 +4957,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
+      <c r="A51" s="63"/>
       <c r="B51">
         <v>-6</v>
       </c>
@@ -4831,7 +4969,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="54">
+      <c r="A52" s="63">
         <v>43481</v>
       </c>
       <c r="B52">
@@ -4845,7 +4983,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="54"/>
+      <c r="A53" s="63"/>
       <c r="B53">
         <v>-10</v>
       </c>
@@ -4857,7 +4995,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
+      <c r="A54" s="63"/>
       <c r="B54">
         <v>-8</v>
       </c>
@@ -4869,7 +5007,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
+      <c r="A55" s="63"/>
       <c r="B55">
         <v>-23</v>
       </c>
@@ -4881,7 +5019,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="54">
+      <c r="A56" s="63">
         <v>43482</v>
       </c>
       <c r="B56">
@@ -4895,7 +5033,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="54"/>
+      <c r="A57" s="63"/>
       <c r="B57">
         <v>-8</v>
       </c>
@@ -4907,7 +5045,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
+      <c r="A58" s="63"/>
       <c r="B58">
         <v>-8.6999999999999993</v>
       </c>
@@ -4919,7 +5057,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
+      <c r="A59" s="63"/>
       <c r="B59">
         <v>-110</v>
       </c>
@@ -4931,7 +5069,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
+      <c r="A60" s="63"/>
       <c r="B60">
         <v>-14.5</v>
       </c>
@@ -4943,7 +5081,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="54">
+      <c r="A61" s="63">
         <v>43483</v>
       </c>
       <c r="B61">
@@ -4957,7 +5095,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
+      <c r="A62" s="63"/>
       <c r="B62">
         <v>-16</v>
       </c>
@@ -4969,7 +5107,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="58">
+      <c r="A63" s="67">
         <v>43484</v>
       </c>
       <c r="B63">
@@ -4983,7 +5121,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="58"/>
+      <c r="A64" s="67"/>
       <c r="B64">
         <v>-62</v>
       </c>
@@ -4995,7 +5133,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="58">
+      <c r="A65" s="67">
         <v>43485</v>
       </c>
       <c r="B65">
@@ -5009,7 +5147,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="58"/>
+      <c r="A66" s="67"/>
       <c r="B66">
         <v>-30</v>
       </c>
@@ -5021,7 +5159,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="58"/>
+      <c r="A67" s="67"/>
       <c r="B67">
         <v>-98</v>
       </c>
@@ -5033,7 +5171,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="54">
+      <c r="A68" s="63">
         <v>43486</v>
       </c>
       <c r="B68">
@@ -5047,7 +5185,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="54"/>
+      <c r="A69" s="63"/>
       <c r="B69">
         <v>-4</v>
       </c>
@@ -5059,7 +5197,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="54">
+      <c r="A70" s="63">
         <v>43487</v>
       </c>
       <c r="B70">
@@ -5073,7 +5211,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="54"/>
+      <c r="A71" s="63"/>
       <c r="B71">
         <v>-12.75</v>
       </c>
@@ -5085,7 +5223,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="54">
+      <c r="A72" s="63">
         <v>43488</v>
       </c>
       <c r="B72">
@@ -5099,7 +5237,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="54"/>
+      <c r="A73" s="63"/>
       <c r="B73">
         <v>-10</v>
       </c>
@@ -5111,7 +5249,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="54"/>
+      <c r="A74" s="63"/>
       <c r="B74">
         <v>-4</v>
       </c>
@@ -5123,7 +5261,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="54">
+      <c r="A75" s="63">
         <v>43489</v>
       </c>
       <c r="B75">
@@ -5137,7 +5275,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
+      <c r="A76" s="63"/>
       <c r="B76">
         <v>-10</v>
       </c>
@@ -5149,7 +5287,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="54">
+      <c r="A77" s="63">
         <v>43490</v>
       </c>
       <c r="B77">
@@ -5163,7 +5301,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
+      <c r="A78" s="63"/>
       <c r="B78">
         <v>-4.8</v>
       </c>
@@ -5172,7 +5310,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="54"/>
+      <c r="A79" s="63"/>
       <c r="B79">
         <v>-10</v>
       </c>
@@ -5184,7 +5322,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="54"/>
+      <c r="A80" s="63"/>
       <c r="B80">
         <v>-12</v>
       </c>
@@ -5196,7 +5334,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="54"/>
+      <c r="A81" s="63"/>
       <c r="B81">
         <v>-6</v>
       </c>
@@ -5222,7 +5360,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="58">
+      <c r="A83" s="67">
         <v>43492</v>
       </c>
       <c r="B83">
@@ -5236,7 +5374,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="58"/>
+      <c r="A84" s="67"/>
       <c r="B84">
         <v>-13.8</v>
       </c>
@@ -5248,7 +5386,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="54">
+      <c r="A85" s="63">
         <v>43493</v>
       </c>
       <c r="B85">
@@ -5262,7 +5400,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="54"/>
+      <c r="A86" s="63"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -5274,7 +5412,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="54"/>
+      <c r="A87" s="63"/>
       <c r="B87">
         <v>-4.8</v>
       </c>
@@ -5286,7 +5424,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="54">
+      <c r="A88" s="63">
         <v>43494</v>
       </c>
       <c r="B88">
@@ -5300,7 +5438,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="54"/>
+      <c r="A89" s="63"/>
       <c r="B89">
         <v>-4.46</v>
       </c>
@@ -5312,7 +5450,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="54"/>
+      <c r="A90" s="63"/>
       <c r="B90">
         <v>-16.34</v>
       </c>
@@ -5324,7 +5462,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="54"/>
+      <c r="A91" s="63"/>
       <c r="B91">
         <v>-6</v>
       </c>
@@ -5336,7 +5474,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="54">
+      <c r="A92" s="63">
         <v>43495</v>
       </c>
       <c r="B92">
@@ -5350,7 +5488,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="54"/>
+      <c r="A93" s="63"/>
       <c r="B93">
         <v>-4.21</v>
       </c>
@@ -5362,7 +5500,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="54"/>
+      <c r="A94" s="63"/>
       <c r="B94">
         <v>-10</v>
       </c>
@@ -5374,7 +5512,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="54"/>
+      <c r="A95" s="63"/>
       <c r="B95">
         <v>-1441</v>
       </c>
@@ -5456,7 +5594,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5475,7 +5613,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -5488,14 +5626,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>-94</v>
+        <v>-109</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>21.638085106382974</v>
+        <v>18.66036697247706</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5510,7 +5648,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>21.410315789473678</v>
+        <v>18.49072727272727</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5525,7 +5663,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="58">
+      <c r="A5" s="67">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -5536,7 +5674,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
+      <c r="A6" s="67"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -5545,7 +5683,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
+      <c r="A7" s="67"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -5590,7 +5728,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="62">
+      <c r="A10" s="71">
         <v>43498</v>
       </c>
       <c r="B10">
@@ -5601,7 +5739,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="71"/>
       <c r="B11">
         <v>-5.4</v>
       </c>
@@ -5617,7 +5755,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+      <c r="A12" s="71"/>
       <c r="B12">
         <v>-22.5</v>
       </c>
@@ -5626,7 +5764,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="71"/>
       <c r="B13">
         <v>-83.23</v>
       </c>
@@ -5635,7 +5773,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="62">
+      <c r="A14" s="71">
         <v>43499</v>
       </c>
       <c r="B14">
@@ -5646,7 +5784,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
+      <c r="A15" s="71"/>
       <c r="B15">
         <v>-49.8</v>
       </c>
@@ -5660,7 +5798,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="62">
+      <c r="A17" s="71">
         <v>43501</v>
       </c>
       <c r="B17">
@@ -5671,7 +5809,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
+      <c r="A18" s="71"/>
       <c r="B18">
         <v>-300</v>
       </c>
@@ -5680,7 +5818,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="62"/>
+      <c r="A19" s="71"/>
       <c r="B19">
         <v>-149</v>
       </c>
@@ -5700,7 +5838,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="58">
+      <c r="A21" s="67">
         <v>43503</v>
       </c>
       <c r="B21">
@@ -5711,7 +5849,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
+      <c r="A22" s="67"/>
       <c r="B22">
         <v>-130.27000000000001</v>
       </c>
@@ -5720,7 +5858,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="58">
+      <c r="A23" s="67">
         <v>43504</v>
       </c>
       <c r="B23">
@@ -5731,7 +5869,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
+      <c r="A24" s="67"/>
       <c r="B24">
         <v>-15</v>
       </c>
@@ -5740,7 +5878,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="58">
+      <c r="A25" s="67">
         <v>43505</v>
       </c>
       <c r="B25">
@@ -5751,7 +5889,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
+      <c r="A26" s="67"/>
       <c r="B26">
         <v>-39</v>
       </c>
@@ -5760,7 +5898,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
+      <c r="A27" s="67"/>
       <c r="B27">
         <v>-10</v>
       </c>
@@ -5769,7 +5907,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
+      <c r="A28" s="67"/>
       <c r="B28">
         <v>-17.600000000000001</v>
       </c>
@@ -5781,7 +5919,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
+      <c r="A29" s="67"/>
       <c r="B29">
         <v>-25</v>
       </c>
@@ -5793,7 +5931,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="58"/>
+      <c r="A30" s="67"/>
       <c r="B30">
         <v>-83</v>
       </c>
@@ -5802,7 +5940,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="58"/>
+      <c r="A31" s="67"/>
       <c r="B31">
         <v>-128</v>
       </c>
@@ -5811,7 +5949,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="58"/>
+      <c r="A32" s="67"/>
       <c r="B32">
         <v>-28</v>
       </c>
@@ -5820,7 +5958,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
+      <c r="A33" s="67"/>
       <c r="B33">
         <v>-65</v>
       </c>
@@ -5832,7 +5970,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
+      <c r="A34" s="67"/>
       <c r="B34">
         <v>-127.9</v>
       </c>
@@ -5846,7 +5984,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="54">
+      <c r="A36" s="63">
         <v>43507</v>
       </c>
       <c r="B36">
@@ -5860,7 +5998,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
+      <c r="A37" s="70"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -5872,7 +6010,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="54">
+      <c r="A38" s="63">
         <v>43508</v>
       </c>
       <c r="B38">
@@ -5886,7 +6024,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
+      <c r="A39" s="63"/>
       <c r="B39">
         <v>-16</v>
       </c>
@@ -5898,7 +6036,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="54">
+      <c r="A40" s="63">
         <v>43509</v>
       </c>
       <c r="B40">
@@ -5912,7 +6050,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
+      <c r="A41" s="63"/>
       <c r="B41">
         <v>-12</v>
       </c>
@@ -5924,7 +6062,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
+      <c r="A42" s="63"/>
       <c r="B42">
         <v>-14</v>
       </c>
@@ -5936,7 +6074,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="54"/>
+      <c r="A43" s="63"/>
       <c r="B43">
         <v>-4</v>
       </c>
@@ -5948,7 +6086,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="54">
+      <c r="A44" s="63">
         <v>43510</v>
       </c>
       <c r="B44">
@@ -5962,7 +6100,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
+      <c r="A45" s="63"/>
       <c r="B45">
         <v>0</v>
       </c>
@@ -5974,7 +6112,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="54"/>
+      <c r="A46" s="63"/>
       <c r="B46">
         <v>-14</v>
       </c>
@@ -5986,7 +6124,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="54">
+      <c r="A47" s="63">
         <v>43511</v>
       </c>
       <c r="B47">
@@ -6000,7 +6138,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
+      <c r="A48" s="63"/>
       <c r="B48">
         <v>-4</v>
       </c>
@@ -6012,7 +6150,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
+      <c r="A49" s="63"/>
       <c r="B49">
         <v>-12</v>
       </c>
@@ -6024,7 +6162,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="58">
+      <c r="A50" s="67">
         <v>43512</v>
       </c>
       <c r="B50">
@@ -6038,7 +6176,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="58"/>
+      <c r="A51" s="67"/>
       <c r="B51">
         <v>-33.5</v>
       </c>
@@ -6050,7 +6188,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="58">
+      <c r="A52" s="67">
         <v>43513</v>
       </c>
       <c r="B52">
@@ -6064,7 +6202,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="58"/>
+      <c r="A53" s="67"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -6076,7 +6214,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+      <c r="A54" s="67"/>
       <c r="B54">
         <v>-2</v>
       </c>
@@ -6088,7 +6226,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="54">
+      <c r="A55" s="63">
         <v>43514</v>
       </c>
       <c r="B55">
@@ -6102,7 +6240,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
+      <c r="A56" s="63"/>
       <c r="B56">
         <v>-10</v>
       </c>
@@ -6114,7 +6252,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="54"/>
+      <c r="A57" s="63"/>
       <c r="B57">
         <v>-10</v>
       </c>
@@ -6126,7 +6264,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
+      <c r="A58" s="63"/>
       <c r="B58">
         <v>-2.5</v>
       </c>
@@ -6138,7 +6276,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
+      <c r="A59" s="63"/>
       <c r="B59">
         <v>-5</v>
       </c>
@@ -6150,7 +6288,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="54">
+      <c r="A60" s="63">
         <v>43515</v>
       </c>
       <c r="B60">
@@ -6164,7 +6302,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
+      <c r="A61" s="63"/>
       <c r="B61">
         <v>-11</v>
       </c>
@@ -6176,7 +6314,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
+      <c r="A62" s="63"/>
       <c r="B62">
         <v>-1250</v>
       </c>
@@ -6188,7 +6326,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
+      <c r="A63" s="63"/>
       <c r="B63">
         <v>-12</v>
       </c>
@@ -6200,7 +6338,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
+      <c r="A64" s="63"/>
       <c r="B64">
         <v>-203</v>
       </c>
@@ -6212,7 +6350,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="54"/>
+      <c r="A65" s="63"/>
       <c r="B65">
         <v>-23</v>
       </c>
@@ -6224,7 +6362,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
+      <c r="A66" s="63"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -6236,7 +6374,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="54">
+      <c r="A67" s="63">
         <v>43516</v>
       </c>
       <c r="B67">
@@ -6250,7 +6388,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="54"/>
+      <c r="A68" s="63"/>
       <c r="B68">
         <v>-26</v>
       </c>
@@ -6262,7 +6400,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="54"/>
+      <c r="A69" s="63"/>
       <c r="B69">
         <v>-2.5</v>
       </c>
@@ -6274,7 +6412,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="54">
+      <c r="A70" s="63">
         <v>43517</v>
       </c>
       <c r="B70">
@@ -6288,7 +6426,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="54"/>
+      <c r="A71" s="63"/>
       <c r="B71">
         <v>-7</v>
       </c>
@@ -6300,7 +6438,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="54"/>
+      <c r="A72" s="63"/>
       <c r="B72">
         <v>-20</v>
       </c>
@@ -6312,7 +6450,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="54">
+      <c r="A73" s="63">
         <v>43518</v>
       </c>
       <c r="B73">
@@ -6326,7 +6464,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="54"/>
+      <c r="A74" s="63"/>
       <c r="B74">
         <v>-7.83</v>
       </c>
@@ -6338,7 +6476,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="54"/>
+      <c r="A75" s="63"/>
       <c r="B75">
         <v>-16</v>
       </c>
@@ -6350,7 +6488,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
+      <c r="A76" s="63"/>
       <c r="B76">
         <v>-3.5</v>
       </c>
@@ -6362,7 +6500,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="58">
+      <c r="A77" s="67">
         <v>43519</v>
       </c>
       <c r="B77">
@@ -6376,7 +6514,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="58"/>
+      <c r="A78" s="67"/>
       <c r="B78">
         <f>-2.8-7.2-9.34-4</f>
         <v>-23.34</v>
@@ -6389,7 +6527,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="58"/>
+      <c r="A79" s="67"/>
       <c r="B79">
         <v>-30</v>
       </c>
@@ -6401,7 +6539,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="58" t="s">
+      <c r="A80" s="67" t="s">
         <v>115</v>
       </c>
       <c r="B80">
@@ -6415,7 +6553,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="58"/>
+      <c r="A81" s="67"/>
       <c r="B81">
         <v>-16</v>
       </c>
@@ -6427,7 +6565,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="58"/>
+      <c r="A82" s="67"/>
       <c r="B82">
         <v>-2.5</v>
       </c>
@@ -6439,7 +6577,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="58"/>
+      <c r="A83" s="67"/>
       <c r="B83">
         <v>-16</v>
       </c>
@@ -6451,7 +6589,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="54">
+      <c r="A84" s="63">
         <v>43521</v>
       </c>
       <c r="B84">
@@ -6465,7 +6603,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="54"/>
+      <c r="A85" s="63"/>
       <c r="B85">
         <v>-4</v>
       </c>
@@ -6477,7 +6615,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="54"/>
+      <c r="A86" s="63"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -6489,7 +6627,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="54">
+      <c r="A87" s="63">
         <v>43522</v>
       </c>
       <c r="B87">
@@ -6503,7 +6641,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="54"/>
+      <c r="A88" s="63"/>
       <c r="B88">
         <v>-3.8</v>
       </c>
@@ -6515,7 +6653,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="54"/>
+      <c r="A89" s="63"/>
       <c r="B89">
         <v>-10.84</v>
       </c>
@@ -6527,7 +6665,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="54"/>
+      <c r="A90" s="63"/>
       <c r="B90">
         <v>-18</v>
       </c>
@@ -6539,7 +6677,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="54">
+      <c r="A91" s="63">
         <v>43523</v>
       </c>
       <c r="B91">
@@ -6553,7 +6691,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="54"/>
+      <c r="A92" s="63"/>
       <c r="B92">
         <v>-4</v>
       </c>
@@ -6565,7 +6703,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="54"/>
+      <c r="A93" s="63"/>
       <c r="B93">
         <v>-4.4000000000000004</v>
       </c>
@@ -6577,7 +6715,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="54"/>
+      <c r="A94" s="63"/>
       <c r="B94">
         <v>-9.5399999999999991</v>
       </c>
@@ -6589,7 +6727,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="54">
+      <c r="A95" s="63">
         <v>43524</v>
       </c>
       <c r="B95">
@@ -6603,7 +6741,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="54"/>
+      <c r="A96" s="63"/>
       <c r="B96">
         <v>-16</v>
       </c>
@@ -6615,7 +6753,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="54"/>
+      <c r="A97" s="63"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -6627,7 +6765,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="54"/>
+      <c r="A98" s="63"/>
       <c r="B98">
         <v>-3</v>
       </c>
@@ -6639,7 +6777,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="54"/>
+      <c r="A99" s="63"/>
       <c r="B99">
         <v>-7.9</v>
       </c>
@@ -6651,7 +6789,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="54"/>
+      <c r="A100" s="63"/>
       <c r="B100">
         <v>-16</v>
       </c>
@@ -6736,7 +6874,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6750,7 +6888,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -6763,14 +6901,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-63</v>
+        <v>-78</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>9.7752380952381053</v>
+        <v>7.8953846153846232</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -6792,7 +6930,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>9.6225000000000094</v>
+        <v>7.7954430379746915</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6801,7 +6939,7 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57">
+      <c r="A4" s="66">
         <v>43525</v>
       </c>
       <c r="B4" s="8">
@@ -6825,7 +6963,7 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="8">
         <v>-17</v>
       </c>
@@ -6847,7 +6985,7 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="8">
         <v>-10</v>
       </c>
@@ -6869,7 +7007,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="8">
         <v>-10</v>
       </c>
@@ -6891,7 +7029,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
+      <c r="A8" s="66"/>
       <c r="B8">
         <v>-11.75</v>
       </c>
@@ -6917,7 +7055,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="62">
+      <c r="A10" s="71">
         <v>43527</v>
       </c>
       <c r="B10">
@@ -6941,7 +7079,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="71"/>
       <c r="B11">
         <v>-2</v>
       </c>
@@ -6963,7 +7101,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+      <c r="A12" s="71"/>
       <c r="B12">
         <v>-49</v>
       </c>
@@ -6985,7 +7123,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
+      <c r="A13" s="71"/>
       <c r="B13">
         <v>-109</v>
       </c>
@@ -7007,7 +7145,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="57">
+      <c r="A14" s="66">
         <v>43528</v>
       </c>
       <c r="B14">
@@ -7031,7 +7169,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
+      <c r="A15" s="66"/>
       <c r="B15">
         <v>-1439</v>
       </c>
@@ -7044,7 +7182,7 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
+      <c r="A16" s="66"/>
       <c r="B16">
         <v>-16</v>
       </c>
@@ -7057,7 +7195,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
+      <c r="A17" s="66"/>
       <c r="B17">
         <v>-3</v>
       </c>
@@ -7070,7 +7208,7 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="57">
+      <c r="A18" s="66">
         <v>43529</v>
       </c>
       <c r="B18">
@@ -7085,7 +7223,7 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
+      <c r="A19" s="66"/>
       <c r="B19">
         <v>-16.260000000000002</v>
       </c>
@@ -7104,7 +7242,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
+      <c r="A20" s="66"/>
       <c r="B20">
         <v>-6</v>
       </c>
@@ -7116,7 +7254,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="57">
+      <c r="A21" s="66">
         <v>43530</v>
       </c>
       <c r="B21">
@@ -7130,7 +7268,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="57"/>
+      <c r="A22" s="66"/>
       <c r="B22">
         <v>-16</v>
       </c>
@@ -7142,7 +7280,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
+      <c r="A23" s="66"/>
       <c r="B23">
         <v>-3.5</v>
       </c>
@@ -7154,7 +7292,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="57">
+      <c r="A24" s="66">
         <v>43531</v>
       </c>
       <c r="B24">
@@ -7168,7 +7306,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
+      <c r="A25" s="66"/>
       <c r="B25">
         <v>-14</v>
       </c>
@@ -7180,7 +7318,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
+      <c r="A26" s="66"/>
       <c r="B26">
         <v>-24</v>
       </c>
@@ -7192,7 +7330,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
+      <c r="A27" s="66"/>
       <c r="B27">
         <v>-19.899999999999999</v>
       </c>
@@ -7204,7 +7342,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
+      <c r="A28" s="66"/>
       <c r="B28">
         <v>-11.11</v>
       </c>
@@ -7216,7 +7354,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="57">
+      <c r="A29" s="66">
         <v>43532</v>
       </c>
       <c r="B29">
@@ -7230,7 +7368,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
+      <c r="A30" s="66"/>
       <c r="B30">
         <v>-22</v>
       </c>
@@ -7242,7 +7380,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
+      <c r="A31" s="66"/>
       <c r="B31">
         <v>-3</v>
       </c>
@@ -7254,7 +7392,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
+      <c r="A32" s="66"/>
       <c r="B32">
         <v>-1</v>
       </c>
@@ -7266,7 +7404,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="62">
+      <c r="A33" s="71">
         <v>43533</v>
       </c>
       <c r="B33">
@@ -7280,7 +7418,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
+      <c r="A34" s="71"/>
       <c r="B34">
         <v>-32.6</v>
       </c>
@@ -7292,7 +7430,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
+      <c r="A35" s="71"/>
       <c r="B35">
         <v>-51</v>
       </c>
@@ -7304,7 +7442,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
+      <c r="A36" s="71"/>
       <c r="B36">
         <v>-36.9</v>
       </c>
@@ -7316,7 +7454,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="62">
+      <c r="A37" s="71">
         <v>43534</v>
       </c>
       <c r="B37">
@@ -7330,7 +7468,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
+      <c r="A38" s="71"/>
       <c r="B38">
         <v>-6</v>
       </c>
@@ -7342,7 +7480,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
+      <c r="A39" s="71"/>
       <c r="B39">
         <v>-30</v>
       </c>
@@ -7366,7 +7504,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="57">
+      <c r="A41" s="66">
         <v>43535</v>
       </c>
       <c r="B41">
@@ -7380,7 +7518,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="57"/>
+      <c r="A42" s="66"/>
       <c r="B42">
         <v>-4</v>
       </c>
@@ -7392,7 +7530,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="57"/>
+      <c r="A43" s="66"/>
       <c r="B43">
         <v>-14.76</v>
       </c>
@@ -7404,7 +7542,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="57">
+      <c r="A44" s="66">
         <v>43536</v>
       </c>
       <c r="B44">
@@ -7418,7 +7556,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="57"/>
+      <c r="A45" s="66"/>
       <c r="B45">
         <v>-22</v>
       </c>
@@ -7430,7 +7568,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="57"/>
+      <c r="A46" s="66"/>
       <c r="B46">
         <v>-8.4</v>
       </c>
@@ -7444,7 +7582,7 @@
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="57">
+      <c r="A47" s="66">
         <v>43537</v>
       </c>
       <c r="B47">
@@ -7460,7 +7598,7 @@
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="57"/>
+      <c r="A48" s="66"/>
       <c r="B48">
         <v>-10</v>
       </c>
@@ -7474,7 +7612,7 @@
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="57">
+      <c r="A49" s="66">
         <v>43538</v>
       </c>
       <c r="B49">
@@ -7490,7 +7628,7 @@
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="57"/>
+      <c r="A50" s="66"/>
       <c r="B50">
         <v>-18</v>
       </c>
@@ -7504,7 +7642,7 @@
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="57"/>
+      <c r="A51" s="66"/>
       <c r="B51">
         <v>-10</v>
       </c>
@@ -7518,7 +7656,7 @@
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="57"/>
+      <c r="A52" s="66"/>
       <c r="B52">
         <v>-65.55</v>
       </c>
@@ -7532,7 +7670,7 @@
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="57"/>
+      <c r="A53" s="66"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -7546,7 +7684,7 @@
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="57">
+      <c r="A54" s="66">
         <v>43539</v>
       </c>
       <c r="B54">
@@ -7562,7 +7700,7 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="57"/>
+      <c r="A55" s="66"/>
       <c r="B55">
         <v>-4</v>
       </c>
@@ -7573,12 +7711,12 @@
       <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="57"/>
+      <c r="A56" s="66"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="62">
+      <c r="A57" s="71">
         <v>43540</v>
       </c>
       <c r="B57">
@@ -7594,7 +7732,7 @@
       <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="62"/>
+      <c r="A58" s="71"/>
       <c r="B58">
         <v>-35</v>
       </c>
@@ -7608,7 +7746,7 @@
       <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="62"/>
+      <c r="A59" s="71"/>
       <c r="B59">
         <v>-21</v>
       </c>
@@ -7622,7 +7760,7 @@
       <c r="I59" s="13"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="62">
+      <c r="A60" s="71">
         <v>43541</v>
       </c>
       <c r="B60">
@@ -7638,7 +7776,7 @@
       <c r="I60" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="62"/>
+      <c r="A61" s="71"/>
       <c r="B61">
         <v>-13</v>
       </c>
@@ -7652,7 +7790,7 @@
       <c r="I61" s="13"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="62"/>
+      <c r="A62" s="71"/>
       <c r="B62">
         <v>-3</v>
       </c>
@@ -7666,7 +7804,7 @@
       <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="57">
+      <c r="A63" s="66">
         <v>43542</v>
       </c>
       <c r="B63">
@@ -7682,7 +7820,7 @@
       <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="57"/>
+      <c r="A64" s="66"/>
       <c r="B64">
         <v>-4</v>
       </c>
@@ -7696,7 +7834,7 @@
       <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="57"/>
+      <c r="A65" s="66"/>
       <c r="B65">
         <v>-2.4</v>
       </c>
@@ -7708,7 +7846,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="57">
+      <c r="A66" s="66">
         <v>43543</v>
       </c>
       <c r="B66">
@@ -7722,7 +7860,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="57"/>
+      <c r="A67" s="66"/>
       <c r="B67">
         <v>-16</v>
       </c>
@@ -7734,7 +7872,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="57"/>
+      <c r="A68" s="66"/>
       <c r="B68">
         <v>-17</v>
       </c>
@@ -7746,7 +7884,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="57">
+      <c r="A69" s="66">
         <v>43544</v>
       </c>
       <c r="B69">
@@ -7760,7 +7898,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="57"/>
+      <c r="A70" s="66"/>
       <c r="B70">
         <v>-16</v>
       </c>
@@ -7772,7 +7910,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="57"/>
+      <c r="A71" s="66"/>
       <c r="B71">
         <v>-7</v>
       </c>
@@ -7784,7 +7922,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="57">
+      <c r="A72" s="66">
         <v>43545</v>
       </c>
       <c r="B72">
@@ -7798,7 +7936,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="57"/>
+      <c r="A73" s="66"/>
       <c r="B73">
         <v>-14</v>
       </c>
@@ -7810,7 +7948,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="57"/>
+      <c r="A74" s="66"/>
       <c r="B74">
         <v>-1.5</v>
       </c>
@@ -7822,7 +7960,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="57"/>
+      <c r="A75" s="66"/>
       <c r="B75">
         <v>-7.8</v>
       </c>
@@ -7834,7 +7972,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="57"/>
+      <c r="A76" s="66"/>
       <c r="B76">
         <v>-3.5</v>
       </c>
@@ -7846,7 +7984,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="57">
+      <c r="A77" s="66">
         <v>43546</v>
       </c>
       <c r="B77">
@@ -7860,7 +7998,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="57"/>
+      <c r="A78" s="66"/>
       <c r="B78">
         <v>-17.399999999999999</v>
       </c>
@@ -7872,7 +8010,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="57"/>
+      <c r="A79" s="66"/>
       <c r="B79">
         <v>-20.100000000000001</v>
       </c>
@@ -7884,7 +8022,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="57"/>
+      <c r="A80" s="66"/>
       <c r="B80">
         <v>-44.7</v>
       </c>
@@ -7896,7 +8034,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="57"/>
+      <c r="A81" s="66"/>
       <c r="B81">
         <v>-2.1</v>
       </c>
@@ -7908,7 +8046,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="57"/>
+      <c r="A82" s="66"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -7920,7 +8058,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="62">
+      <c r="A83" s="71">
         <v>43547</v>
       </c>
       <c r="B83">
@@ -7934,7 +8072,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="62"/>
+      <c r="A84" s="71"/>
       <c r="B84">
         <v>-62</v>
       </c>
@@ -7946,7 +8084,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="62">
+      <c r="A85" s="71">
         <v>43548</v>
       </c>
       <c r="B85">
@@ -7960,7 +8098,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="62"/>
+      <c r="A86" s="71"/>
       <c r="B86">
         <v>-10.75</v>
       </c>
@@ -7972,7 +8110,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="62"/>
+      <c r="A87" s="71"/>
       <c r="B87">
         <v>-37.119999999999997</v>
       </c>
@@ -7984,7 +8122,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="57">
+      <c r="A88" s="66">
         <v>43549</v>
       </c>
       <c r="B88">
@@ -7998,7 +8136,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="57"/>
+      <c r="A89" s="66"/>
       <c r="B89">
         <v>-4</v>
       </c>
@@ -8010,7 +8148,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="57"/>
+      <c r="A90" s="66"/>
       <c r="B90">
         <v>-16.02</v>
       </c>
@@ -8022,7 +8160,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="57"/>
+      <c r="A91" s="66"/>
       <c r="B91">
         <v>-4</v>
       </c>
@@ -8034,7 +8172,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="57">
+      <c r="A92" s="66">
         <v>43550</v>
       </c>
       <c r="B92">
@@ -8048,7 +8186,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="57"/>
+      <c r="A93" s="66"/>
       <c r="B93">
         <v>-24</v>
       </c>
@@ -8060,7 +8198,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="57"/>
+      <c r="A94" s="66"/>
       <c r="B94">
         <v>-3</v>
       </c>
@@ -8072,7 +8210,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="57">
+      <c r="A95" s="66">
         <v>43551</v>
       </c>
       <c r="B95">
@@ -8086,7 +8224,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="57"/>
+      <c r="A96" s="66"/>
       <c r="B96">
         <v>-10</v>
       </c>
@@ -8098,7 +8236,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="57">
+      <c r="A97" s="66">
         <v>43552</v>
       </c>
       <c r="B97">
@@ -8112,7 +8250,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="57"/>
+      <c r="A98" s="66"/>
       <c r="B98">
         <v>-6.72</v>
       </c>
@@ -8124,7 +8262,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="57"/>
+      <c r="A99" s="66"/>
       <c r="B99">
         <v>-2</v>
       </c>
@@ -8136,7 +8274,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="57"/>
+      <c r="A100" s="66"/>
       <c r="B100">
         <v>-9</v>
       </c>
@@ -8148,7 +8286,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="57">
+      <c r="A101" s="66">
         <v>43553</v>
       </c>
       <c r="B101">
@@ -8162,7 +8300,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="57"/>
+      <c r="A102" s="66"/>
       <c r="B102">
         <v>-3.4</v>
       </c>
@@ -8174,7 +8312,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="57"/>
+      <c r="A103" s="66"/>
       <c r="B103">
         <v>-30</v>
       </c>
@@ -8186,7 +8324,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="62">
+      <c r="A104" s="71">
         <v>43554</v>
       </c>
       <c r="B104">
@@ -8200,7 +8338,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="62"/>
+      <c r="A105" s="71"/>
       <c r="B105">
         <v>-8</v>
       </c>
@@ -8212,7 +8350,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="62"/>
+      <c r="A106" s="71"/>
       <c r="B106">
         <v>-30</v>
       </c>
@@ -8224,7 +8362,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="57">
+      <c r="A107" s="66">
         <v>43555</v>
       </c>
       <c r="B107">
@@ -8238,7 +8376,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="57"/>
+      <c r="A108" s="66"/>
       <c r="B108">
         <v>-21</v>
       </c>
@@ -8250,7 +8388,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="57"/>
+      <c r="A109" s="66"/>
       <c r="B109">
         <v>-9</v>
       </c>
@@ -8262,7 +8400,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="57"/>
+      <c r="A110" s="66"/>
       <c r="B110">
         <v>-38</v>
       </c>
@@ -8421,28 +8559,28 @@
       <c r="A159" s="33"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="57"/>
+      <c r="A160" s="66"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="57"/>
+      <c r="A161" s="66"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="57"/>
+      <c r="A162" s="66"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="57"/>
+      <c r="A163" s="66"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="57"/>
+      <c r="A164" s="66"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="57"/>
+      <c r="A165" s="66"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="57"/>
+      <c r="A166" s="66"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="57"/>
+      <c r="A167" s="66"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="33"/>
@@ -8510,7 +8648,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -8524,7 +8662,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -8537,14 +8675,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,5,1)-TODAY()</f>
-        <v>-33</v>
+        <v>-48</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>30.015151515151501</v>
+        <v>20.635416666666657</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -8566,7 +8704,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>29.132352941176457</v>
+        <v>20.214285714285705</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -8623,7 +8761,7 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54">
+      <c r="A6" s="63">
         <v>43558</v>
       </c>
       <c r="B6" s="8">
@@ -8647,7 +8785,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="8">
         <v>-7.3</v>
       </c>
@@ -8669,7 +8807,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="8">
         <v>-11</v>
       </c>
@@ -8691,7 +8829,7 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54">
+      <c r="A9" s="63">
         <v>43559</v>
       </c>
       <c r="B9" s="8">
@@ -8715,7 +8853,7 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="8">
         <v>-11</v>
       </c>
@@ -8737,7 +8875,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="8">
         <v>-1420</v>
       </c>
@@ -8759,7 +8897,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="8">
         <v>-89</v>
       </c>
@@ -8781,7 +8919,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58">
+      <c r="A13" s="67">
         <v>43560</v>
       </c>
       <c r="B13" s="8">
@@ -8805,7 +8943,7 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="8">
         <v>-6</v>
       </c>
@@ -8817,7 +8955,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="8">
         <v>-5</v>
       </c>
@@ -8846,7 +8984,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="58">
+      <c r="A17" s="67">
         <v>43562</v>
       </c>
       <c r="B17" s="8">
@@ -8863,7 +9001,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
+      <c r="A18" s="67"/>
       <c r="B18" s="8">
         <v>-30</v>
       </c>
@@ -8878,7 +9016,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="8">
         <v>-42.5</v>
       </c>
@@ -8893,7 +9031,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="8">
         <v>-2.5</v>
       </c>
@@ -8908,7 +9046,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="8">
         <v>-5.3</v>
       </c>
@@ -8929,7 +9067,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="8">
         <v>-3.33</v>
       </c>
@@ -8951,7 +9089,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="54">
+      <c r="A23" s="63">
         <v>43563</v>
       </c>
       <c r="B23" s="8">
@@ -8975,7 +9113,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="8">
         <v>-58.52</v>
       </c>
@@ -8988,7 +9126,7 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="8">
         <v>-6.3</v>
       </c>
@@ -9001,7 +9139,7 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="8">
         <v>-4</v>
       </c>
@@ -9014,7 +9152,7 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="54">
+      <c r="A27" s="63">
         <v>43564</v>
       </c>
       <c r="B27" s="8">
@@ -9038,7 +9176,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="8">
         <v>-10.199999999999999</v>
       </c>
@@ -9177,7 +9315,7 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="54">
+      <c r="A37" s="63">
         <v>43567</v>
       </c>
       <c r="B37" s="8">
@@ -9192,7 +9330,7 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="8">
         <v>-59.9</v>
       </c>
@@ -9205,7 +9343,7 @@
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="8">
         <v>-31.1</v>
       </c>
@@ -9218,7 +9356,7 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
+      <c r="A40" s="63"/>
       <c r="B40" s="8">
         <v>-11</v>
       </c>
@@ -9231,7 +9369,7 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="58">
+      <c r="A41" s="67">
         <v>43568</v>
       </c>
       <c r="B41" s="8">
@@ -9246,7 +9384,7 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="58"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="8">
         <v>-4.5</v>
       </c>
@@ -9259,7 +9397,7 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="58"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="8">
         <v>-21.7</v>
       </c>
@@ -9272,7 +9410,7 @@
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="58">
+      <c r="A44" s="67">
         <v>43569</v>
       </c>
       <c r="B44" s="8">
@@ -9287,7 +9425,7 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="58"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="8">
         <v>-231.53</v>
       </c>
@@ -9300,7 +9438,7 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="58"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="8">
         <v>-4</v>
       </c>
@@ -9313,7 +9451,7 @@
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="54">
+      <c r="A47" s="63">
         <v>43570</v>
       </c>
       <c r="B47" s="8">
@@ -9328,7 +9466,7 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="54"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="8">
         <v>-189</v>
       </c>
@@ -9341,7 +9479,7 @@
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="54"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="8">
         <v>-410</v>
       </c>
@@ -9354,7 +9492,7 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="54"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="8">
         <v>-2</v>
       </c>
@@ -9367,7 +9505,7 @@
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="54"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="8">
         <v>-11</v>
       </c>
@@ -9380,7 +9518,7 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="54">
+      <c r="A52" s="63">
         <v>43571</v>
       </c>
       <c r="B52" s="8">
@@ -9395,7 +9533,7 @@
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="54"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="8">
         <v>-35</v>
       </c>
@@ -9408,7 +9546,7 @@
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="54"/>
+      <c r="A54" s="63"/>
       <c r="B54" s="8">
         <v>-7</v>
       </c>
@@ -9421,7 +9559,7 @@
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="8">
         <v>-75</v>
       </c>
@@ -9434,7 +9572,7 @@
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
+      <c r="A56" s="63"/>
       <c r="B56" s="8">
         <v>-11</v>
       </c>
@@ -9453,7 +9591,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="54">
+      <c r="A57" s="63">
         <v>43572</v>
       </c>
       <c r="B57" s="8">
@@ -9468,7 +9606,7 @@
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="8">
         <v>-7</v>
       </c>
@@ -9481,7 +9619,7 @@
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="8">
         <v>-10</v>
       </c>
@@ -9494,7 +9632,7 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="8">
         <v>-215</v>
       </c>
@@ -9507,7 +9645,7 @@
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="54"/>
+      <c r="A61" s="63"/>
       <c r="B61" s="8">
         <v>-11</v>
       </c>
@@ -9519,7 +9657,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="54">
+      <c r="A62" s="63">
         <v>43573</v>
       </c>
       <c r="B62" s="8">
@@ -9533,7 +9671,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="8">
         <v>-11</v>
       </c>
@@ -9545,7 +9683,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="54">
+      <c r="A64" s="63">
         <v>43574</v>
       </c>
       <c r="B64" s="8">
@@ -9559,7 +9697,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="54"/>
+      <c r="A65" s="63"/>
       <c r="B65" s="8">
         <v>-11</v>
       </c>
@@ -9571,7 +9709,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="58">
+      <c r="A66" s="67">
         <v>43575</v>
       </c>
       <c r="B66" s="8">
@@ -9585,7 +9723,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="58"/>
+      <c r="A67" s="67"/>
       <c r="B67" s="8">
         <v>-14.5</v>
       </c>
@@ -9597,7 +9735,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="58">
+      <c r="A68" s="67">
         <v>43576</v>
       </c>
       <c r="B68" s="8">
@@ -9611,7 +9749,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="58"/>
+      <c r="A69" s="67"/>
       <c r="B69" s="8">
         <v>-11.92</v>
       </c>
@@ -9623,7 +9761,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="58"/>
+      <c r="A70" s="67"/>
       <c r="B70" s="8">
         <v>-9.5</v>
       </c>
@@ -9635,7 +9773,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="54">
+      <c r="A71" s="63">
         <v>43577</v>
       </c>
       <c r="B71" s="8">
@@ -9649,7 +9787,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="54"/>
+      <c r="A72" s="63"/>
       <c r="B72" s="8">
         <v>-12.22</v>
       </c>
@@ -9661,7 +9799,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="54"/>
+      <c r="A73" s="63"/>
       <c r="B73" s="8">
         <v>-11</v>
       </c>
@@ -9673,7 +9811,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="54">
+      <c r="A74" s="63">
         <v>43578</v>
       </c>
       <c r="B74" s="8">
@@ -9687,7 +9825,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="54"/>
+      <c r="A75" s="63"/>
       <c r="B75" s="8">
         <v>-2</v>
       </c>
@@ -9699,7 +9837,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
+      <c r="A76" s="63"/>
       <c r="B76" s="8">
         <v>-2.5</v>
       </c>
@@ -9711,7 +9849,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="54"/>
+      <c r="A77" s="63"/>
       <c r="B77" s="8">
         <v>-11</v>
       </c>
@@ -9723,7 +9861,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="54">
+      <c r="A78" s="63">
         <v>43579</v>
       </c>
       <c r="B78" s="8">
@@ -9737,7 +9875,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="54"/>
+      <c r="A79" s="63"/>
       <c r="B79" s="8">
         <v>-13.6</v>
       </c>
@@ -9749,7 +9887,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="54"/>
+      <c r="A80" s="63"/>
       <c r="B80" s="8">
         <v>-18</v>
       </c>
@@ -9761,7 +9899,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="54"/>
+      <c r="A81" s="63"/>
       <c r="B81" s="8">
         <v>-11</v>
       </c>
@@ -9773,7 +9911,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="54">
+      <c r="A82" s="63">
         <v>43580</v>
       </c>
       <c r="B82" s="8">
@@ -9787,7 +9925,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="54"/>
+      <c r="A83" s="63"/>
       <c r="B83" s="8">
         <v>-2.5</v>
       </c>
@@ -9799,7 +9937,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="54"/>
+      <c r="A84" s="63"/>
       <c r="B84" s="8">
         <v>-27.67</v>
       </c>
@@ -9811,7 +9949,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="54">
+      <c r="A85" s="63">
         <v>43581</v>
       </c>
       <c r="B85" s="8">
@@ -9823,7 +9961,7 @@
       <c r="D85" s="12"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="54"/>
+      <c r="A86" s="63"/>
       <c r="B86" s="8">
         <v>-11</v>
       </c>
@@ -9835,7 +9973,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="58">
+      <c r="A87" s="67">
         <v>43582</v>
       </c>
       <c r="B87" s="8">
@@ -9849,7 +9987,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="58"/>
+      <c r="A88" s="67"/>
       <c r="B88" s="8">
         <v>-7.6</v>
       </c>
@@ -9861,7 +9999,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="58"/>
+      <c r="A89" s="67"/>
       <c r="B89" s="8">
         <v>-94.35</v>
       </c>
@@ -9873,7 +10011,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="58"/>
+      <c r="A90" s="67"/>
       <c r="B90" s="8">
         <v>-11.9</v>
       </c>
@@ -9883,7 +10021,7 @@
       <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="58"/>
+      <c r="A91" s="67"/>
       <c r="B91" s="12">
         <v>-30</v>
       </c>
@@ -9895,7 +10033,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="54">
+      <c r="A92" s="63">
         <v>43583</v>
       </c>
       <c r="B92" s="12">
@@ -9909,7 +10047,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="54"/>
+      <c r="A93" s="63"/>
       <c r="B93" s="12">
         <v>-22</v>
       </c>
@@ -9921,7 +10059,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="54"/>
+      <c r="A94" s="63"/>
       <c r="B94" s="8">
         <v>-11</v>
       </c>
@@ -9933,7 +10071,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="54">
+      <c r="A95" s="63">
         <v>43584</v>
       </c>
       <c r="B95" s="8">
@@ -9947,7 +10085,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="54"/>
+      <c r="A96" s="63"/>
       <c r="B96" s="8">
         <v>-11</v>
       </c>
@@ -10876,13 +11014,13 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:50" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="64"/>
+      <c r="E4" s="73"/>
       <c r="G4" s="26" t="s">
         <v>133</v>
       </c>
@@ -10907,7 +11045,7 @@
       </c>
     </row>
     <row r="5" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="63"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="28" t="s">
         <v>136</v>
       </c>
@@ -10931,7 +11069,7 @@
       </c>
     </row>
     <row r="6" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="65">
+      <c r="C6" s="74">
         <v>43585</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -10940,7 +11078,7 @@
       <c r="E6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="60"/>
+      <c r="I6" s="69"/>
       <c r="J6" s="27"/>
       <c r="M6" t="s">
         <v>149</v>
@@ -10956,14 +11094,14 @@
       </c>
     </row>
     <row r="7" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="65"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="29" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="60"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="27"/>
       <c r="M7" t="s">
         <v>172</v>
@@ -10977,14 +11115,14 @@
       </c>
     </row>
     <row r="8" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="65"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="29" t="s">
         <v>128</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="60"/>
+      <c r="I8" s="69"/>
       <c r="J8" s="27"/>
       <c r="M8" t="s">
         <v>173</v>
@@ -11005,14 +11143,14 @@
       </c>
     </row>
     <row r="9" spans="1:50" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="65"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="29" t="s">
         <v>129</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="60"/>
+      <c r="I9" s="69"/>
       <c r="J9" s="27"/>
       <c r="M9" t="s">
         <v>185</v>
@@ -11022,7 +11160,7 @@
       </c>
     </row>
     <row r="10" spans="1:50" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="65"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="29">
         <v>0.99305555555555547</v>
       </c>
@@ -11030,7 +11168,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="69"/>
       <c r="J10" s="27"/>
       <c r="M10" t="s">
         <v>186</v>
@@ -11095,7 +11233,7 @@
       <c r="AX11"/>
     </row>
     <row r="12" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="65">
+      <c r="C12" s="74">
         <v>43586</v>
       </c>
       <c r="D12" s="29">
@@ -11112,7 +11250,7 @@
       </c>
     </row>
     <row r="13" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="65"/>
+      <c r="C13" s="74"/>
       <c r="M13" t="s">
         <v>207</v>
       </c>
@@ -11121,13 +11259,13 @@
       </c>
     </row>
     <row r="14" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="65"/>
+      <c r="C14" s="74"/>
     </row>
     <row r="15" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="65"/>
+      <c r="C15" s="74"/>
     </row>
     <row r="16" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="65"/>
+      <c r="C16" s="74"/>
     </row>
     <row r="17" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="24">
@@ -11175,7 +11313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
@@ -11193,7 +11331,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -11207,7 +11345,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -11220,14 +11358,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,6,1)-TODAY()</f>
-        <v>-2</v>
+        <v>-17</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>27.615000000000236</v>
+        <v>3.2488235294117924</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -11249,7 +11387,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>18.410000000000156</v>
+        <v>3.0683333333333596</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -11258,7 +11396,7 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54">
+      <c r="A4" s="63">
         <v>43591</v>
       </c>
       <c r="B4" s="8">
@@ -11282,7 +11420,7 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="8">
         <v>-12.5</v>
       </c>
@@ -11304,7 +11442,7 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="8">
         <v>-5.5</v>
       </c>
@@ -11326,7 +11464,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="8">
         <v>-1417</v>
       </c>
@@ -11348,7 +11486,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54">
+      <c r="A8" s="63">
         <v>43592</v>
       </c>
       <c r="B8" s="8">
@@ -11372,7 +11510,7 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="8">
         <v>-13</v>
       </c>
@@ -11394,7 +11532,7 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54">
+      <c r="A10" s="63">
         <v>43593</v>
       </c>
       <c r="B10" s="8">
@@ -11418,7 +11556,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="8">
         <v>-11.5</v>
       </c>
@@ -11440,7 +11578,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54">
+      <c r="A12" s="63">
         <v>43594</v>
       </c>
       <c r="B12" s="8">
@@ -11464,7 +11602,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="8">
         <v>-10</v>
       </c>
@@ -11486,7 +11624,7 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="8">
         <v>-33</v>
       </c>
@@ -11508,7 +11646,7 @@
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54">
+      <c r="A15" s="63">
         <v>43595</v>
       </c>
       <c r="B15" s="8">
@@ -11532,7 +11670,7 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="8">
         <v>-30</v>
       </c>
@@ -11554,7 +11692,7 @@
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="8">
         <v>-100</v>
       </c>
@@ -11576,7 +11714,7 @@
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="8">
         <v>-8</v>
       </c>
@@ -11598,7 +11736,7 @@
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="63"/>
       <c r="B19" s="8">
         <v>-11</v>
       </c>
@@ -11668,7 +11806,7 @@
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54">
+      <c r="A22" s="63">
         <v>43598</v>
       </c>
       <c r="B22" s="8">
@@ -11692,7 +11830,7 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="8">
         <v>-7</v>
       </c>
@@ -11714,7 +11852,7 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
+      <c r="A24" s="63"/>
       <c r="B24" s="8">
         <v>-9.4</v>
       </c>
@@ -11736,7 +11874,7 @@
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="8">
         <v>-3.2</v>
       </c>
@@ -11758,7 +11896,7 @@
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="8">
         <v>-59</v>
       </c>
@@ -11780,7 +11918,7 @@
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
+      <c r="A27" s="63"/>
       <c r="B27" s="8">
         <v>-14</v>
       </c>
@@ -11802,7 +11940,7 @@
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54">
+      <c r="A28" s="63">
         <v>43599</v>
       </c>
       <c r="B28" s="8">
@@ -11826,7 +11964,7 @@
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="8">
         <v>-16</v>
       </c>
@@ -11848,7 +11986,7 @@
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+      <c r="A30" s="63"/>
       <c r="B30" s="8">
         <v>-21</v>
       </c>
@@ -11870,7 +12008,7 @@
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="8">
         <v>-128</v>
       </c>
@@ -11892,7 +12030,7 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="8">
         <v>-39</v>
       </c>
@@ -11914,7 +12052,7 @@
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
+      <c r="A33" s="63"/>
       <c r="B33" s="8">
         <v>-20</v>
       </c>
@@ -11936,7 +12074,7 @@
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
+      <c r="A34" s="63"/>
       <c r="B34" s="8">
         <v>-35</v>
       </c>
@@ -11958,7 +12096,7 @@
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="8">
         <v>-33</v>
       </c>
@@ -11980,7 +12118,7 @@
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
+      <c r="A36" s="63"/>
       <c r="B36" s="8">
         <v>-18</v>
       </c>
@@ -12002,7 +12140,7 @@
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="54">
+      <c r="A37" s="63">
         <v>43600</v>
       </c>
       <c r="B37" s="8">
@@ -12026,7 +12164,7 @@
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
+      <c r="A38" s="63"/>
       <c r="B38" s="8">
         <v>-10</v>
       </c>
@@ -12046,7 +12184,7 @@
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
+      <c r="A39" s="63"/>
       <c r="B39" s="8">
         <v>-11.5</v>
       </c>
@@ -12068,7 +12206,7 @@
       <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="54">
+      <c r="A40" s="63">
         <v>43601</v>
       </c>
       <c r="B40" s="8">
@@ -12092,7 +12230,7 @@
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="54"/>
+      <c r="A41" s="63"/>
       <c r="B41" s="8">
         <v>-11</v>
       </c>
@@ -12114,7 +12252,7 @@
       <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="54"/>
+      <c r="A42" s="63"/>
       <c r="B42" s="8">
         <v>-15</v>
       </c>
@@ -12126,7 +12264,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="54">
+      <c r="A43" s="63">
         <v>43602</v>
       </c>
       <c r="B43" s="8">
@@ -12140,7 +12278,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="54"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="8">
         <v>-12.5</v>
       </c>
@@ -12152,7 +12290,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="54"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="8">
         <v>-15.8</v>
       </c>
@@ -12164,7 +12302,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="58">
+      <c r="A46" s="67">
         <v>43603</v>
       </c>
       <c r="B46" s="8">
@@ -12178,7 +12316,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="58"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="8">
         <v>-139</v>
       </c>
@@ -12190,7 +12328,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="8">
         <v>-30.9</v>
       </c>
@@ -12202,7 +12340,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="58"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="8">
         <v>-34</v>
       </c>
@@ -12214,7 +12352,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="8">
         <v>-26.1</v>
       </c>
@@ -12226,7 +12364,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="58">
+      <c r="A51" s="67">
         <v>43604</v>
       </c>
       <c r="B51" s="8">
@@ -12240,7 +12378,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
+      <c r="A52" s="67"/>
       <c r="B52" s="8">
         <v>-11</v>
       </c>
@@ -12252,7 +12390,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="58"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="8">
         <v>-17</v>
       </c>
@@ -12264,7 +12402,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="54">
+      <c r="A54" s="63">
         <v>43605</v>
       </c>
       <c r="B54" s="8">
@@ -12278,7 +12416,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="54"/>
+      <c r="A55" s="63"/>
       <c r="B55" s="8">
         <v>-11.5</v>
       </c>
@@ -12290,7 +12428,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
+      <c r="A56" s="63"/>
       <c r="B56" s="8">
         <v>-12</v>
       </c>
@@ -12302,7 +12440,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="54">
+      <c r="A57" s="63">
         <v>43606</v>
       </c>
       <c r="B57" s="8">
@@ -12316,7 +12454,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="54"/>
+      <c r="A58" s="63"/>
       <c r="B58" s="8">
         <v>-5</v>
       </c>
@@ -12328,7 +12466,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="54"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="8">
         <f>-12+4.5</f>
         <v>-7.5</v>
@@ -12341,7 +12479,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="54"/>
+      <c r="A60" s="63"/>
       <c r="B60" s="8">
         <v>-12.5</v>
       </c>
@@ -12353,7 +12491,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="54">
+      <c r="A61" s="63">
         <v>43607</v>
       </c>
       <c r="B61" s="8">
@@ -12367,7 +12505,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="54"/>
+      <c r="A62" s="63"/>
       <c r="B62" s="8">
         <v>-3</v>
       </c>
@@ -12379,7 +12517,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="54"/>
+      <c r="A63" s="63"/>
       <c r="B63" s="8">
         <v>-11</v>
       </c>
@@ -12391,7 +12529,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="54"/>
+      <c r="A64" s="63"/>
       <c r="B64" s="8">
         <v>-19</v>
       </c>
@@ -12403,7 +12541,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="54">
+      <c r="A65" s="63">
         <v>43608</v>
       </c>
       <c r="B65" s="8">
@@ -12417,7 +12555,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="54"/>
+      <c r="A66" s="63"/>
       <c r="B66" s="8">
         <v>-13.5</v>
       </c>
@@ -12429,7 +12567,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="54"/>
+      <c r="A67" s="63"/>
       <c r="B67" s="8">
         <v>-15</v>
       </c>
@@ -12450,7 +12588,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="54">
+      <c r="A68" s="63">
         <v>43609</v>
       </c>
       <c r="B68" s="8">
@@ -12467,7 +12605,7 @@
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="54"/>
+      <c r="A69" s="63"/>
       <c r="B69" s="8">
         <v>-18</v>
       </c>
@@ -12482,7 +12620,7 @@
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="54"/>
+      <c r="A70" s="63"/>
       <c r="B70" s="8">
         <v>-30.55</v>
       </c>
@@ -12504,7 +12642,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="58">
+      <c r="A71" s="67">
         <v>43610</v>
       </c>
       <c r="B71" s="8">
@@ -12519,7 +12657,7 @@
       <c r="I71" s="4"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="58"/>
+      <c r="A72" s="67"/>
       <c r="B72" s="8">
         <v>-3</v>
       </c>
@@ -12541,7 +12679,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="54">
+      <c r="A73" s="63">
         <v>43611</v>
       </c>
       <c r="B73" s="8">
@@ -12556,7 +12694,7 @@
       <c r="I73" s="4"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="54"/>
+      <c r="A74" s="63"/>
       <c r="B74" s="8">
         <v>-50</v>
       </c>
@@ -12569,7 +12707,7 @@
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="54">
+      <c r="A75" s="63">
         <v>43612</v>
       </c>
       <c r="B75" s="8">
@@ -12584,7 +12722,7 @@
       <c r="I75" s="4"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="54"/>
+      <c r="A76" s="63"/>
       <c r="B76" s="8">
         <v>-15</v>
       </c>
@@ -12597,7 +12735,7 @@
       <c r="I76" s="4"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="54"/>
+      <c r="A77" s="63"/>
       <c r="B77" s="8">
         <v>-2.5</v>
       </c>
@@ -12610,7 +12748,7 @@
       <c r="I77" s="4"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="54"/>
+      <c r="A78" s="63"/>
       <c r="B78" s="8">
         <v>-12</v>
       </c>
@@ -12623,7 +12761,7 @@
       <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="54">
+      <c r="A79" s="63">
         <v>43613</v>
       </c>
       <c r="B79" s="8">
@@ -12638,7 +12776,7 @@
       <c r="I79" s="4"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="54"/>
+      <c r="A80" s="63"/>
       <c r="B80" s="8">
         <v>-10.5</v>
       </c>
@@ -12651,7 +12789,7 @@
       <c r="I80" s="4"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="54">
+      <c r="A81" s="63">
         <v>43614</v>
       </c>
       <c r="B81" s="8">
@@ -12666,7 +12804,7 @@
       <c r="I81" s="4"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="54"/>
+      <c r="A82" s="63"/>
       <c r="B82" s="8">
         <v>-5.88</v>
       </c>
@@ -12679,7 +12817,7 @@
       <c r="I82" s="4"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="54"/>
+      <c r="A83" s="63"/>
       <c r="B83" s="8">
         <v>-16</v>
       </c>
@@ -12692,7 +12830,7 @@
       <c r="I83" s="4"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="54">
+      <c r="A84" s="63">
         <v>43615</v>
       </c>
       <c r="B84" s="8">
@@ -12707,7 +12845,7 @@
       <c r="I84" s="4"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="54"/>
+      <c r="A85" s="63"/>
       <c r="B85" s="8">
         <v>-14</v>
       </c>
@@ -12720,7 +12858,7 @@
       <c r="I85" s="4"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="54"/>
+      <c r="A86" s="63"/>
       <c r="B86" s="8">
         <v>-6.2</v>
       </c>
@@ -13815,16 +13953,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N263"/>
+  <dimension ref="A1:N288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="13"/>
+    <col min="3" max="3" width="15.6640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
@@ -13835,41 +13973,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>243</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="37">
-        <f>SUMIF(B17:B304,"&lt;0")</f>
-        <v>0</v>
+        <f>SUMIF(B4:B105,"&lt;0")</f>
+        <v>-3046.3</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13">
         <f>3000+C1</f>
-        <v>3000</v>
+        <v>-46.300000000000182</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,7,1)-TODAY()</f>
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>107.14285714285714</v>
+        <v>-3.5615384615384755</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -13891,7 +14029,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>111.11111111111111</v>
+        <v>-3.8583333333333485</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -13900,7 +14038,7 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54">
+      <c r="A4" s="63">
         <v>43617</v>
       </c>
       <c r="B4" s="8">
@@ -13929,7 +14067,7 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="8">
         <v>-37.119999999999997</v>
       </c>
@@ -13949,15 +14087,15 @@
         <v>142</v>
       </c>
       <c r="J5">
-        <f>SUMIF($D$4:$D330,H5,$B$4:$B$330)</f>
-        <v>-11</v>
+        <f>SUMIF($D$4:$D355,H5,$B$4:$B$355)</f>
+        <v>-121</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="8">
         <v>-73.459999999999994</v>
       </c>
@@ -13977,15 +14115,15 @@
         <v>143</v>
       </c>
       <c r="J6">
-        <f ca="1">SUMIF($D$4:$D331,H6,$B$4:$B$330)</f>
-        <v>-350.96000000000004</v>
+        <f ca="1">SUMIF($D$4:$D356,H6,$B$4:$B$355)</f>
+        <v>-670.90000000000009</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="8">
         <v>-89</v>
       </c>
@@ -14005,7 +14143,7 @@
         <v>46</v>
       </c>
       <c r="J7">
-        <f ca="1">SUMIF($D$4:$D333,H7,$B$4:$B$330)</f>
+        <f ca="1">SUMIF($D$4:$D358,H7,$B$4:$B$355)</f>
         <v>0</v>
       </c>
       <c r="L7" s="8"/>
@@ -14013,9 +14151,9 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="8">
-        <v>-83.25</v>
+        <v>-27.25</v>
       </c>
       <c r="C8" s="53" t="s">
         <v>247</v>
@@ -14033,15 +14171,15 @@
         <v>40</v>
       </c>
       <c r="J8">
-        <f ca="1">SUMIF($D$4:$D334,H8,$B$4:$B$330)</f>
-        <v>0</v>
+        <f ca="1">SUMIF($D$4:$D359,H8,$B$4:$B$355)</f>
+        <v>-1416</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="8">
         <v>-17.8</v>
       </c>
@@ -14058,15 +14196,15 @@
         <v>144</v>
       </c>
       <c r="J9">
-        <f>SUM(B4:B117)</f>
-        <v>-597.54</v>
+        <f>SUM(B4:B142)</f>
+        <v>-3046.3</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="8">
         <v>-36</v>
       </c>
@@ -14088,9 +14226,9 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="8">
-        <v>-39.11</v>
+        <v>-16</v>
       </c>
       <c r="C11" s="53" t="s">
         <v>246</v>
@@ -14110,7 +14248,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="63"/>
       <c r="B12" s="8">
         <v>-56</v>
       </c>
@@ -14132,7 +14270,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
+      <c r="A13" s="63"/>
       <c r="B13" s="8">
         <v>-69.900000000000006</v>
       </c>
@@ -14178,7 +14316,7 @@
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54">
+      <c r="A15" s="63">
         <v>43619</v>
       </c>
       <c r="B15" s="8">
@@ -14202,10 +14340,16 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="8">
+        <v>-13.5</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -14217,13 +14361,19 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52">
+    <row r="17" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="63">
         <v>43620</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="12"/>
+      <c r="B17" s="8">
+        <v>-1416</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="12">
+        <v>5</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -14235,13 +14385,17 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52">
-        <v>43621</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="12"/>
+    <row r="18" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="63"/>
+      <c r="B18" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -14253,13 +14407,17 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52">
-        <v>43622</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="12"/>
+    <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="63"/>
+      <c r="B19" s="8">
+        <v>-3</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
@@ -14271,13 +14429,17 @@
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52">
-        <v>43623</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="12"/>
+    <row r="20" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="63"/>
+      <c r="B20" s="8">
+        <v>-10.5</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
       <c r="E20" s="12"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
@@ -14289,13 +14451,19 @@
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52">
-        <v>43624</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="12"/>
+    <row r="21" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="63">
+        <v>43621</v>
+      </c>
+      <c r="B21" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -14307,13 +14475,17 @@
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
     </row>
-    <row r="22" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52">
-        <v>43625</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="12"/>
+    <row r="22" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="63"/>
+      <c r="B22" s="8">
+        <v>-18</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -14326,12 +14498,18 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52">
-        <v>43626</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="12"/>
+      <c r="A23" s="63">
+        <v>43622</v>
+      </c>
+      <c r="B23" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
       <c r="E23" s="12"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -14344,12 +14522,16 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="52">
-        <v>43627</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="12"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="8">
+        <v>-18</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="12">
+        <v>2</v>
+      </c>
       <c r="E24" s="12"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -14362,12 +14544,18 @@
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52">
-        <v>43628</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="12"/>
+      <c r="A25" s="63">
+        <v>43623</v>
+      </c>
+      <c r="B25" s="8">
+        <v>-27.63</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" s="12">
+        <v>2</v>
+      </c>
       <c r="E25" s="12"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -14380,12 +14568,16 @@
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52">
-        <v>43629</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="12"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="8">
+        <v>-6</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
       <c r="E26" s="12"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -14398,12 +14590,16 @@
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52">
-        <v>43630</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="12"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="8">
+        <v>-15.9</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2</v>
+      </c>
       <c r="E27" s="12"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -14417,11 +14613,17 @@
     </row>
     <row r="28" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52">
-        <v>43631</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="12"/>
+        <v>43624</v>
+      </c>
+      <c r="B28" s="8">
+        <v>-62.42</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="12">
+        <v>3</v>
+      </c>
       <c r="E28" s="12"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -14434,12 +14636,18 @@
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52">
-        <v>43632</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="12"/>
+      <c r="A29" s="63">
+        <v>43625</v>
+      </c>
+      <c r="B29" s="8">
+        <v>-219</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="12">
+        <v>3</v>
+      </c>
       <c r="E29" s="12"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -14452,12 +14660,16 @@
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52">
-        <v>43633</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="8">
+        <v>-76.72</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2</v>
+      </c>
       <c r="E30" s="12"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -14470,12 +14682,16 @@
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52">
-        <v>43634</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="8">
+        <v>-19.8</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2</v>
+      </c>
       <c r="E31" s="12"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -14488,12 +14704,18 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="52">
-        <v>43635</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="12"/>
+      <c r="A32" s="63">
+        <v>43626</v>
+      </c>
+      <c r="B32" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
       <c r="E32" s="12"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -14506,12 +14728,16 @@
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52">
-        <v>43636</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="12"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="8">
+        <v>-4</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2</v>
+      </c>
       <c r="E33" s="12"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -14524,12 +14750,16 @@
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52">
-        <v>43637</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="12"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="12">
+        <v>2</v>
+      </c>
       <c r="E34" s="12"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -14542,12 +14772,18 @@
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="52">
-        <v>43638</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="63">
+        <v>43627</v>
+      </c>
+      <c r="B35" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
       <c r="E35" s="12"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -14560,12 +14796,16 @@
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="52">
-        <v>43639</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="12"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="8">
+        <v>-13.5</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="12">
+        <v>2</v>
+      </c>
       <c r="E36" s="12"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -14578,12 +14818,16 @@
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="52">
-        <v>43640</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="12"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="8">
+        <v>-29</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="12">
+        <v>3</v>
+      </c>
       <c r="E37" s="12"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -14596,12 +14840,16 @@
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="52">
-        <v>43641</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="12"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="8">
+        <v>-10</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="12">
+        <v>3</v>
+      </c>
       <c r="E38" s="12"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -14614,12 +14862,16 @@
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52">
-        <v>43642</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="12"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
       <c r="E39" s="12"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -14633,11 +14885,17 @@
     </row>
     <row r="40" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="52">
-        <v>43643</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="12"/>
+        <v>43628</v>
+      </c>
+      <c r="B40" s="8">
+        <v>-10.5</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="12">
+        <v>2</v>
+      </c>
       <c r="E40" s="12"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -14650,12 +14908,18 @@
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="52">
-        <v>43644</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="63">
+        <v>43629</v>
+      </c>
+      <c r="B41" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
       <c r="E41" s="12"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -14668,12 +14932,16 @@
       <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="52">
-        <v>43645</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="12"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="8">
+        <v>-3</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="12">
+        <v>2</v>
+      </c>
       <c r="E42" s="12"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -14685,13 +14953,17 @@
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
     </row>
-    <row r="43" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="52">
-        <v>43646</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="12"/>
+    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="63"/>
+      <c r="B43" s="8">
+        <v>-13</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="12">
+        <v>2</v>
+      </c>
       <c r="E43" s="12"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -14704,10 +14976,18 @@
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="12"/>
+      <c r="A44" s="63">
+        <v>43630</v>
+      </c>
+      <c r="B44" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
       <c r="E44" s="12"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -14719,11 +14999,17 @@
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
     </row>
-    <row r="45" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="66"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="12"/>
+    <row r="45" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="63"/>
+      <c r="B45" s="8">
+        <v>-7</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="D45" s="12">
+        <v>2</v>
+      </c>
       <c r="E45" s="12"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -14736,10 +15022,16 @@
       <c r="N45" s="8"/>
     </row>
     <row r="46" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="12"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="8">
+        <v>-73</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="12">
+        <v>2</v>
+      </c>
       <c r="E46" s="12"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -14752,10 +15044,16 @@
       <c r="N46" s="8"/>
     </row>
     <row r="47" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="12"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="8">
+        <v>-219</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" s="12">
+        <v>3</v>
+      </c>
       <c r="E47" s="12"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -14768,10 +15066,16 @@
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="12"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="8">
+        <v>-25</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="12">
+        <v>2</v>
+      </c>
       <c r="E48" s="12"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -14784,10 +15088,18 @@
       <c r="N48" s="8"/>
     </row>
     <row r="49" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="12"/>
+      <c r="A49" s="52">
+        <v>43631</v>
+      </c>
+      <c r="B49" s="8">
+        <v>-17</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="D49" s="12">
+        <v>2</v>
+      </c>
       <c r="E49" s="12"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -14800,10 +15112,18 @@
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="12"/>
+      <c r="A50" s="63">
+        <v>43632</v>
+      </c>
+      <c r="B50" s="8">
+        <v>-31</v>
+      </c>
+      <c r="C50" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="D50" s="12">
+        <v>3</v>
+      </c>
       <c r="E50" s="12"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -14816,10 +15136,16 @@
       <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="12"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="8">
+        <v>-9.9</v>
+      </c>
+      <c r="C51" s="61" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="12">
+        <v>3</v>
+      </c>
       <c r="E51" s="12"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -14831,1159 +15157,1623 @@
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="12"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="12"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
+    <row r="52" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="63"/>
+      <c r="B52" s="8">
+        <v>-22.5</v>
+      </c>
+      <c r="C52" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" s="12">
+        <v>3</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+    </row>
+    <row r="53" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="63">
+        <v>43633</v>
+      </c>
+      <c r="B53" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C53" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="12">
+        <v>1</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+    </row>
+    <row r="54" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="63"/>
+      <c r="B54" s="8">
+        <v>-13</v>
+      </c>
+      <c r="C54" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="12">
+        <v>2</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+    </row>
+    <row r="55" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="63">
+        <v>43634</v>
+      </c>
       <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="12"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="12"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+    </row>
+    <row r="56" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="63"/>
+      <c r="B56" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="12">
+        <v>1</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+    </row>
+    <row r="57" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="52">
+        <v>43635</v>
+      </c>
       <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
+      <c r="C57" s="53"/>
       <c r="D57" s="12"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+    </row>
+    <row r="58" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="52">
+        <v>43636</v>
+      </c>
       <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
+      <c r="C58" s="53"/>
       <c r="D58" s="12"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+    </row>
+    <row r="59" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="52">
+        <v>43637</v>
+      </c>
       <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="12"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+    </row>
+    <row r="60" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="52">
+        <v>43638</v>
+      </c>
       <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="12"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+    </row>
+    <row r="61" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="52">
+        <v>43639</v>
+      </c>
       <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="12"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+    </row>
+    <row r="62" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="52">
+        <v>43640</v>
+      </c>
       <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="12"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+    </row>
+    <row r="63" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="52">
+        <v>43641</v>
+      </c>
       <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="12"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+    </row>
+    <row r="64" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="52">
+        <v>43642</v>
+      </c>
       <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="12"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+    </row>
+    <row r="65" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="52">
+        <v>43643</v>
+      </c>
       <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
+      <c r="C65" s="53"/>
       <c r="D65" s="12"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+    </row>
+    <row r="66" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="52">
+        <v>43644</v>
+      </c>
       <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="12"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+    </row>
+    <row r="67" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="52">
+        <v>43645</v>
+      </c>
       <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="12"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="8"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+    </row>
+    <row r="68" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="52">
+        <v>43646</v>
+      </c>
       <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
+      <c r="C68" s="53"/>
       <c r="D68" s="12"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="12"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="12"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="8"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+    </row>
+    <row r="70" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="54"/>
       <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="12"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" s="12"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+    </row>
+    <row r="71" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="12"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" s="12"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+    </row>
+    <row r="72" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="12"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" s="12"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+    </row>
+    <row r="73" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="12"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" s="12"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+    </row>
+    <row r="74" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
+      <c r="C74" s="53"/>
       <c r="D74" s="12"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" s="12"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+    </row>
+    <row r="75" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
+      <c r="C75" s="53"/>
       <c r="D75" s="12"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" s="12"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+    </row>
+    <row r="76" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
+      <c r="C76" s="53"/>
       <c r="D76" s="12"/>
-    </row>
-    <row r="77" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E76" s="12"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="12"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
+      <c r="C78" s="53"/>
       <c r="D78" s="12"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="12"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
+      <c r="C80" s="53"/>
       <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
+      <c r="C81" s="53"/>
       <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
+      <c r="C82" s="53"/>
       <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
+      <c r="C83" s="53"/>
       <c r="D83" s="12"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
+      <c r="C84" s="53"/>
       <c r="D84" s="12"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
+      <c r="C85" s="53"/>
       <c r="D85" s="12"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
+      <c r="C86" s="53"/>
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
+      <c r="C87" s="53"/>
       <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
+      <c r="C88" s="53"/>
       <c r="D88" s="12"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
+      <c r="C89" s="53"/>
       <c r="D89" s="12"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
+      <c r="C90" s="53"/>
       <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
+      <c r="C91" s="53"/>
       <c r="D91" s="12"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
+      <c r="C92" s="53"/>
       <c r="D92" s="12"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
+      <c r="C93" s="53"/>
       <c r="D93" s="12"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
+      <c r="C94" s="53"/>
       <c r="D94" s="12"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
+      <c r="C95" s="53"/>
       <c r="D95" s="12"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
+      <c r="C96" s="53"/>
       <c r="D96" s="12"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
+      <c r="C97" s="53"/>
       <c r="D97" s="12"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
+      <c r="C98" s="53"/>
       <c r="D98" s="12"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
+      <c r="C99" s="53"/>
       <c r="D99" s="12"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="53"/>
       <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
+      <c r="C101" s="53"/>
       <c r="D101" s="12"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
+      <c r="C102" s="53"/>
       <c r="D102" s="12"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
+      <c r="C103" s="53"/>
       <c r="D103" s="12"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
+      <c r="C104" s="53"/>
+      <c r="D104" s="12"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="12"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="12"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
+      <c r="C107" s="53"/>
+      <c r="D107" s="12"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="12"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
+      <c r="C109" s="53"/>
+      <c r="D109" s="12"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="12"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="12"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C112" s="53"/>
+      <c r="D112" s="12"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C113" s="53"/>
+      <c r="D113" s="12"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C114" s="53"/>
+      <c r="D114" s="12"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C115" s="53"/>
+      <c r="D115" s="12"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C116" s="53"/>
+      <c r="D116" s="12"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C117" s="53"/>
+      <c r="D117" s="12"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C118" s="53"/>
+      <c r="D118" s="12"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C119" s="53"/>
+      <c r="D119" s="12"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C120" s="53"/>
+      <c r="D120" s="12"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C121" s="53"/>
+      <c r="D121" s="12"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C122" s="53"/>
+      <c r="D122" s="12"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C123" s="53"/>
+      <c r="D123" s="12"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
-      <c r="C124" s="8"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C124" s="53"/>
+      <c r="D124" s="12"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B125" s="12"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="12"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
-      <c r="C126" s="8"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C126" s="53"/>
+      <c r="D126" s="12"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C127" s="53"/>
+      <c r="D127" s="12"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="12"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
-      <c r="C129" s="8"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
+      <c r="C129" s="53"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
-      <c r="C130" s="8"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
+      <c r="C130" s="53"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
+      <c r="C131" s="53"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
+      <c r="C132" s="53"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
+      <c r="C133" s="53"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
+      <c r="C134" s="53"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
+      <c r="C135" s="53"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
+      <c r="C136" s="53"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
+      <c r="C137" s="53"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
-      <c r="C138" s="8"/>
+      <c r="C138" s="53"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
+      <c r="C139" s="53"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
+      <c r="C140" s="53"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
+      <c r="C141" s="53"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
+      <c r="C142" s="53"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
+      <c r="C143" s="53"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C144" s="53"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
-      <c r="C145" s="8"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C145" s="53"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
-      <c r="C146" s="8"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C146" s="53"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
-      <c r="C147" s="8"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C147" s="53"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
-      <c r="C148" s="8"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C148" s="53"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C149" s="53"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C150" s="53"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
-      <c r="C151" s="8"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C151" s="53"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
-      <c r="C152" s="8"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C152" s="53"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
-      <c r="C153" s="8"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C153" s="53"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C154" s="53"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
-      <c r="C155" s="8"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C155" s="53"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C156" s="53"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C157" s="53"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
-      <c r="C158" s="8"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C158" s="53"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
-      <c r="C159" s="8"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C159" s="53"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
-      <c r="C160" s="8"/>
+      <c r="C160" s="53"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
-      <c r="C161" s="8"/>
+      <c r="C161" s="53"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
+      <c r="C162" s="53"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
+      <c r="C163" s="53"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
-      <c r="C164" s="8"/>
+      <c r="C164" s="53"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
+      <c r="C165" s="53"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
+      <c r="C166" s="53"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
+      <c r="C167" s="53"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
+      <c r="C168" s="53"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
-      <c r="C169" s="8"/>
+      <c r="C169" s="53"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
-      <c r="C170" s="8"/>
+      <c r="C170" s="53"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
-      <c r="C171" s="8"/>
+      <c r="C171" s="53"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
+      <c r="C172" s="53"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
-      <c r="C173" s="8"/>
+      <c r="C173" s="53"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
+      <c r="C174" s="53"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
-      <c r="C175" s="8"/>
+      <c r="C175" s="53"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
-      <c r="C176" s="8"/>
+      <c r="C176" s="53"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
-      <c r="C177" s="8"/>
+      <c r="C177" s="53"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
+      <c r="C178" s="53"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
+      <c r="C179" s="53"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
-      <c r="C180" s="8"/>
+      <c r="C180" s="53"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
-      <c r="C181" s="8"/>
+      <c r="C181" s="53"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
+      <c r="C182" s="53"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
+      <c r="C183" s="53"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
-      <c r="C184" s="8"/>
+      <c r="C184" s="53"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
+      <c r="C185" s="53"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
+      <c r="C186" s="53"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
+      <c r="C187" s="53"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
+      <c r="C188" s="53"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
-      <c r="C189" s="8"/>
+      <c r="C189" s="53"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
-      <c r="C190" s="8"/>
+      <c r="C190" s="53"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
+      <c r="C191" s="53"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
-      <c r="C192" s="8"/>
+      <c r="C192" s="53"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
-      <c r="C193" s="8"/>
+      <c r="C193" s="53"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
-      <c r="C194" s="8"/>
+      <c r="C194" s="53"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
-      <c r="C195" s="8"/>
+      <c r="C195" s="53"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
+      <c r="C196" s="53"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
+      <c r="C197" s="53"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
-      <c r="C198" s="8"/>
+      <c r="C198" s="53"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
-      <c r="C199" s="8"/>
+      <c r="C199" s="53"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
-      <c r="C200" s="8"/>
+      <c r="C200" s="53"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
+      <c r="C201" s="53"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
-      <c r="C202" s="8"/>
+      <c r="C202" s="53"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
+      <c r="C203" s="53"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
-      <c r="C204" s="8"/>
+      <c r="C204" s="53"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
-      <c r="C205" s="8"/>
+      <c r="C205" s="53"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
-      <c r="C206" s="8"/>
+      <c r="C206" s="53"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
+      <c r="C207" s="53"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
+      <c r="C208" s="53"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
-      <c r="C209" s="8"/>
+      <c r="C209" s="53"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
+      <c r="C210" s="53"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
+      <c r="C211" s="53"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
-      <c r="C212" s="8"/>
+      <c r="C212" s="53"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
-      <c r="C213" s="8"/>
+      <c r="C213" s="53"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
-      <c r="C214" s="8"/>
+      <c r="C214" s="53"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
-      <c r="C215" s="8"/>
+      <c r="C215" s="53"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
-      <c r="C216" s="8"/>
+      <c r="C216" s="53"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
-      <c r="C217" s="8"/>
+      <c r="C217" s="53"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
-      <c r="C218" s="8"/>
+      <c r="C218" s="53"/>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
-      <c r="C219" s="8"/>
+      <c r="C219" s="53"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
-      <c r="C220" s="8"/>
+      <c r="C220" s="53"/>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="8"/>
       <c r="B221" s="8"/>
-      <c r="C221" s="8"/>
+      <c r="C221" s="53"/>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="8"/>
       <c r="B222" s="8"/>
-      <c r="C222" s="8"/>
+      <c r="C222" s="53"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="8"/>
       <c r="B223" s="8"/>
-      <c r="C223" s="8"/>
+      <c r="C223" s="53"/>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="8"/>
       <c r="B224" s="8"/>
-      <c r="C224" s="8"/>
+      <c r="C224" s="53"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="8"/>
       <c r="B225" s="8"/>
-      <c r="C225" s="8"/>
+      <c r="C225" s="53"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="8"/>
       <c r="B226" s="8"/>
-      <c r="C226" s="8"/>
+      <c r="C226" s="53"/>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="8"/>
       <c r="B227" s="8"/>
-      <c r="C227" s="8"/>
+      <c r="C227" s="53"/>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="8"/>
       <c r="B228" s="8"/>
-      <c r="C228" s="8"/>
+      <c r="C228" s="53"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="8"/>
       <c r="B229" s="8"/>
-      <c r="C229" s="8"/>
+      <c r="C229" s="53"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="8"/>
       <c r="B230" s="8"/>
-      <c r="C230" s="8"/>
+      <c r="C230" s="53"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="8"/>
       <c r="B231" s="8"/>
-      <c r="C231" s="8"/>
+      <c r="C231" s="53"/>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="8"/>
       <c r="B232" s="8"/>
-      <c r="C232" s="8"/>
+      <c r="C232" s="53"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="8"/>
       <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
+      <c r="C233" s="53"/>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="8"/>
       <c r="B234" s="8"/>
-      <c r="C234" s="8"/>
+      <c r="C234" s="53"/>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="8"/>
       <c r="B235" s="8"/>
-      <c r="C235" s="8"/>
+      <c r="C235" s="53"/>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="8"/>
       <c r="B236" s="8"/>
-      <c r="C236" s="8"/>
+      <c r="C236" s="53"/>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="8"/>
       <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
+      <c r="C237" s="53"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="8"/>
       <c r="B238" s="8"/>
-      <c r="C238" s="8"/>
+      <c r="C238" s="53"/>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="8"/>
       <c r="B239" s="8"/>
-      <c r="C239" s="8"/>
+      <c r="C239" s="53"/>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
-      <c r="C240" s="8"/>
+      <c r="C240" s="53"/>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="8"/>
       <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
+      <c r="C241" s="53"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="8"/>
       <c r="B242" s="8"/>
-      <c r="C242" s="8"/>
+      <c r="C242" s="53"/>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="8"/>
       <c r="B243" s="8"/>
-      <c r="C243" s="8"/>
+      <c r="C243" s="53"/>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="8"/>
       <c r="B244" s="8"/>
-      <c r="C244" s="8"/>
+      <c r="C244" s="53"/>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="8"/>
       <c r="B245" s="8"/>
-      <c r="C245" s="8"/>
+      <c r="C245" s="53"/>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="8"/>
       <c r="B246" s="8"/>
-      <c r="C246" s="8"/>
+      <c r="C246" s="53"/>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
-      <c r="C247" s="8"/>
+      <c r="C247" s="53"/>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="8"/>
       <c r="B248" s="8"/>
-      <c r="C248" s="8"/>
+      <c r="C248" s="53"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
-      <c r="C249" s="8"/>
+      <c r="C249" s="53"/>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="8"/>
       <c r="B250" s="8"/>
-      <c r="C250" s="8"/>
+      <c r="C250" s="53"/>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="8"/>
       <c r="B251" s="8"/>
-      <c r="C251" s="8"/>
+      <c r="C251" s="53"/>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="8"/>
       <c r="B252" s="8"/>
-      <c r="C252" s="8"/>
+      <c r="C252" s="53"/>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="8"/>
       <c r="B253" s="8"/>
-      <c r="C253" s="8"/>
+      <c r="C253" s="53"/>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="8"/>
       <c r="B254" s="8"/>
-      <c r="C254" s="8"/>
+      <c r="C254" s="53"/>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="8"/>
       <c r="B255" s="8"/>
-      <c r="C255" s="8"/>
+      <c r="C255" s="53"/>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
-      <c r="C256" s="8"/>
+      <c r="C256" s="53"/>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="8"/>
       <c r="B257" s="8"/>
-      <c r="C257" s="8"/>
+      <c r="C257" s="53"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="8"/>
       <c r="B258" s="8"/>
-      <c r="C258" s="8"/>
+      <c r="C258" s="53"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="8"/>
       <c r="B259" s="8"/>
-      <c r="C259" s="8"/>
+      <c r="C259" s="53"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="8"/>
       <c r="B260" s="8"/>
-      <c r="C260" s="8"/>
+      <c r="C260" s="53"/>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
-      <c r="C261" s="8"/>
+      <c r="C261" s="53"/>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="8"/>
       <c r="B262" s="8"/>
-      <c r="C262" s="8"/>
+      <c r="C262" s="53"/>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="8"/>
+      <c r="B263" s="8"/>
+      <c r="C263" s="53"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="8"/>
+      <c r="B264" s="8"/>
+      <c r="C264" s="53"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="53"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="8"/>
+      <c r="B266" s="8"/>
+      <c r="C266" s="53"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="8"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="53"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="53"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="8"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="53"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="8"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="53"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="8"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="53"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="8"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="53"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="8"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="53"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="8"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="53"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="8"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="53"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="8"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="53"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="8"/>
+      <c r="B277" s="8"/>
+      <c r="C277" s="53"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="8"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="53"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="8"/>
+      <c r="B279" s="8"/>
+      <c r="C279" s="53"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="8"/>
+      <c r="B280" s="8"/>
+      <c r="C280" s="53"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="8"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="53"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="8"/>
+      <c r="B282" s="8"/>
+      <c r="C282" s="53"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="8"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="53"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="8"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="53"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="8"/>
+      <c r="B285" s="8"/>
+      <c r="C285" s="53"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="8"/>
+      <c r="B286" s="8"/>
+      <c r="C286" s="53"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="8"/>
+      <c r="B287" s="8"/>
+      <c r="C287" s="53"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="15">
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/账本/健忘症患者的账本.xlsx
+++ b/账本/健忘症患者的账本.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="269">
   <si>
     <t>日期</t>
     <rPh sb="0" eb="1">
@@ -2150,6 +2150,34 @@
     <t>肯德基</t>
     <rPh sb="0" eb="1">
       <t>ken de ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小浣熊</t>
+    <rPh sb="0" eb="1">
+      <t>xiao haun xiong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物</t>
+    <rPh sb="0" eb="1">
+      <t>go wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购物</t>
+    <rPh sb="0" eb="1">
+      <t>gou wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递费</t>
+    <rPh sb="0" eb="1">
+      <t>kuai di fei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2273,7 +2301,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2445,19 +2473,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2466,11 +2485,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2782,7 +2813,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2796,7 +2827,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -2809,14 +2840,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,1,1)-TODAY()</f>
-        <v>-168</v>
+        <v>-171</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>15.459285714285713</v>
+        <v>15.188070175438595</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
@@ -2829,20 +2860,20 @@
       <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>15.367810650887574</v>
+        <v>15.099767441860465</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="63">
+      <c r="A4" s="64">
         <v>43435</v>
       </c>
       <c r="B4">
@@ -2856,7 +2887,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
+      <c r="A5" s="64"/>
       <c r="B5">
         <v>-20</v>
       </c>
@@ -2882,7 +2913,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="63">
+      <c r="A7" s="64">
         <v>43437</v>
       </c>
       <c r="B7">
@@ -2896,7 +2927,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
+      <c r="A8" s="64"/>
       <c r="B8">
         <v>-89</v>
       </c>
@@ -2917,7 +2948,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
+      <c r="A9" s="64"/>
       <c r="B9">
         <v>-6</v>
       </c>
@@ -2939,7 +2970,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
+      <c r="A10" s="64"/>
       <c r="B10">
         <v>-4</v>
       </c>
@@ -2968,7 +2999,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="66">
+      <c r="A11" s="67">
         <v>43438</v>
       </c>
       <c r="B11">
@@ -2992,7 +3023,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
+      <c r="A12" s="67"/>
       <c r="B12">
         <v>18</v>
       </c>
@@ -3011,7 +3042,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="66"/>
+      <c r="A13" s="67"/>
       <c r="B13">
         <v>-7</v>
       </c>
@@ -3033,7 +3064,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="66"/>
+      <c r="A14" s="67"/>
       <c r="B14">
         <v>-8</v>
       </c>
@@ -3045,7 +3076,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
+      <c r="A15" s="67"/>
       <c r="B15">
         <v>-6</v>
       </c>
@@ -3057,7 +3088,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
+      <c r="A16" s="67"/>
       <c r="B16">
         <v>-34.799999999999997</v>
       </c>
@@ -3069,7 +3100,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="63">
+      <c r="A17" s="64">
         <v>43439</v>
       </c>
       <c r="B17">
@@ -3084,7 +3115,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+      <c r="A18" s="64"/>
       <c r="B18">
         <v>-1468</v>
       </c>
@@ -3096,7 +3127,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="2">
         <v>-6</v>
       </c>
@@ -3108,7 +3139,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
+      <c r="A20" s="64"/>
       <c r="B20">
         <v>7</v>
       </c>
@@ -3117,7 +3148,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
+      <c r="A21" s="64"/>
       <c r="B21">
         <v>-4</v>
       </c>
@@ -3129,7 +3160,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
+      <c r="A22" s="64"/>
       <c r="B22">
         <v>-29.9</v>
       </c>
@@ -3141,7 +3172,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="66">
+      <c r="A23" s="67">
         <v>43440</v>
       </c>
       <c r="B23">
@@ -3155,7 +3186,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="66"/>
+      <c r="A24" s="67"/>
       <c r="B24">
         <v>-5</v>
       </c>
@@ -3167,7 +3198,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="66"/>
+      <c r="A25" s="67"/>
       <c r="B25">
         <v>-9</v>
       </c>
@@ -3179,7 +3210,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="66"/>
+      <c r="A26" s="67"/>
       <c r="B26">
         <v>-249</v>
       </c>
@@ -3191,7 +3222,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="66"/>
+      <c r="A27" s="67"/>
       <c r="B27">
         <v>-13.88</v>
       </c>
@@ -3203,7 +3234,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="66">
+      <c r="A28" s="67">
         <v>43441</v>
       </c>
       <c r="B28">
@@ -3217,7 +3248,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="66"/>
+      <c r="A29" s="67"/>
       <c r="B29">
         <v>-6</v>
       </c>
@@ -3229,7 +3260,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="66"/>
+      <c r="A30" s="67"/>
       <c r="B30">
         <v>-4</v>
       </c>
@@ -3241,7 +3272,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="66"/>
+      <c r="A31" s="67"/>
       <c r="B31">
         <v>-18</v>
       </c>
@@ -3253,7 +3284,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="66"/>
+      <c r="A32" s="67"/>
       <c r="B32">
         <f>-89-129-119-89</f>
         <v>-426</v>
@@ -3266,7 +3297,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="63">
+      <c r="A33" s="64">
         <v>43442</v>
       </c>
       <c r="B33">
@@ -3280,7 +3311,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="63">
+      <c r="A34" s="64">
         <v>43443</v>
       </c>
       <c r="B34">
@@ -3294,7 +3325,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
+      <c r="A35" s="64"/>
       <c r="B35">
         <v>-2</v>
       </c>
@@ -3306,7 +3337,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="67">
+      <c r="A36" s="70">
         <v>43444</v>
       </c>
       <c r="B36">
@@ -3320,7 +3351,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="67"/>
+      <c r="A37" s="70"/>
       <c r="B37">
         <v>-4</v>
       </c>
@@ -3332,7 +3363,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="67"/>
+      <c r="A38" s="70"/>
       <c r="B38">
         <v>-14.44</v>
       </c>
@@ -3344,7 +3375,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="63">
+      <c r="A39" s="64">
         <v>43445</v>
       </c>
       <c r="B39">
@@ -3358,7 +3389,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="63"/>
+      <c r="A40" s="64"/>
       <c r="B40">
         <v>-4</v>
       </c>
@@ -3370,7 +3401,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
+      <c r="A41" s="64"/>
       <c r="B41">
         <v>-5</v>
       </c>
@@ -3382,7 +3413,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="63"/>
+      <c r="A42" s="64"/>
       <c r="B42">
         <v>-16</v>
       </c>
@@ -3394,7 +3425,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="63">
+      <c r="A43" s="64">
         <v>43446</v>
       </c>
       <c r="B43">
@@ -3408,7 +3439,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="63"/>
+      <c r="A44" s="64"/>
       <c r="B44">
         <v>-8</v>
       </c>
@@ -3420,7 +3451,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="63"/>
+      <c r="A45" s="64"/>
       <c r="B45">
         <v>-5</v>
       </c>
@@ -3432,7 +3463,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="63"/>
+      <c r="A46" s="64"/>
       <c r="B46">
         <v>-13</v>
       </c>
@@ -3444,7 +3475,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="63">
+      <c r="A47" s="64">
         <v>43447</v>
       </c>
       <c r="B47">
@@ -3458,7 +3489,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="63"/>
+      <c r="A48" s="64"/>
       <c r="B48">
         <v>-6</v>
       </c>
@@ -3470,7 +3501,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="63"/>
+      <c r="A49" s="64"/>
       <c r="B49">
         <v>-16</v>
       </c>
@@ -3482,7 +3513,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="63"/>
+      <c r="A50" s="64"/>
       <c r="B50">
         <v>-13</v>
       </c>
@@ -3494,7 +3525,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="63"/>
+      <c r="A51" s="64"/>
       <c r="B51">
         <v>-99</v>
       </c>
@@ -3506,7 +3537,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="63">
+      <c r="A52" s="64">
         <v>43448</v>
       </c>
       <c r="B52">
@@ -3520,7 +3551,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="63"/>
+      <c r="A53" s="64"/>
       <c r="B53">
         <v>-14</v>
       </c>
@@ -3532,7 +3563,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
+      <c r="A54" s="64"/>
       <c r="B54">
         <v>-13</v>
       </c>
@@ -3544,7 +3575,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="63">
+      <c r="A55" s="64">
         <v>43449</v>
       </c>
       <c r="B55">
@@ -3558,7 +3589,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
+      <c r="A56" s="64"/>
       <c r="B56">
         <v>-20</v>
       </c>
@@ -3570,7 +3601,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="63">
+      <c r="A57" s="64">
         <v>43450</v>
       </c>
       <c r="B57">
@@ -3584,7 +3615,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
+      <c r="A58" s="64"/>
       <c r="B58">
         <v>-30</v>
       </c>
@@ -3596,7 +3627,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="63">
+      <c r="A59" s="64">
         <v>43451</v>
       </c>
       <c r="B59">
@@ -3610,7 +3641,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="63"/>
+      <c r="A60" s="64"/>
       <c r="B60">
         <v>-4.5</v>
       </c>
@@ -3622,7 +3653,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="63"/>
+      <c r="A61" s="64"/>
       <c r="B61">
         <v>-12</v>
       </c>
@@ -3634,7 +3665,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="63">
+      <c r="A62" s="64">
         <v>43452</v>
       </c>
       <c r="B62">
@@ -3648,7 +3679,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="63"/>
+      <c r="A63" s="64"/>
       <c r="B63">
         <v>-16</v>
       </c>
@@ -3660,7 +3691,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="63"/>
+      <c r="A64" s="64"/>
       <c r="B64">
         <v>-670</v>
       </c>
@@ -3672,7 +3703,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="63">
+      <c r="A65" s="64">
         <v>43453</v>
       </c>
       <c r="B65">
@@ -3686,7 +3717,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="63"/>
+      <c r="A66" s="64"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -3698,7 +3729,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="63"/>
+      <c r="A67" s="64"/>
       <c r="B67">
         <v>-12</v>
       </c>
@@ -3710,7 +3741,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="63">
+      <c r="A68" s="64">
         <v>43454</v>
       </c>
       <c r="B68">
@@ -3724,7 +3755,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="63"/>
+      <c r="A69" s="64"/>
       <c r="B69">
         <v>-18</v>
       </c>
@@ -3736,7 +3767,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="63"/>
+      <c r="A70" s="64"/>
       <c r="B70">
         <v>-982</v>
       </c>
@@ -3748,7 +3779,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="63">
+      <c r="A71" s="64">
         <v>43455</v>
       </c>
       <c r="B71">
@@ -3762,7 +3793,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="63"/>
+      <c r="A72" s="64"/>
       <c r="B72">
         <v>-4</v>
       </c>
@@ -3774,7 +3805,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="63"/>
+      <c r="A73" s="64"/>
       <c r="B73">
         <v>-4</v>
       </c>
@@ -3786,7 +3817,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="63">
+      <c r="A74" s="64">
         <v>43456</v>
       </c>
       <c r="B74">
@@ -3800,7 +3831,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="63"/>
+      <c r="A75" s="64"/>
       <c r="B75">
         <v>-13</v>
       </c>
@@ -3812,7 +3843,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="63"/>
+      <c r="A76" s="64"/>
       <c r="B76">
         <v>-15</v>
       </c>
@@ -3824,7 +3855,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="63"/>
+      <c r="A77" s="64"/>
       <c r="B77">
         <v>-30</v>
       </c>
@@ -3836,7 +3867,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="63"/>
+      <c r="A78" s="64"/>
       <c r="B78">
         <v>-15</v>
       </c>
@@ -3848,7 +3879,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="63"/>
+      <c r="A79" s="64"/>
       <c r="B79">
         <v>-42</v>
       </c>
@@ -3865,7 +3896,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="63">
+      <c r="A81" s="64">
         <v>43458</v>
       </c>
       <c r="B81">
@@ -3879,7 +3910,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="63"/>
+      <c r="A82" s="64"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -3891,7 +3922,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="63">
+      <c r="A83" s="64">
         <v>43459</v>
       </c>
       <c r="B83">
@@ -3905,7 +3936,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="63"/>
+      <c r="A84" s="64"/>
       <c r="B84">
         <v>-16</v>
       </c>
@@ -3917,7 +3948,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="63">
+      <c r="A85" s="64">
         <v>43460</v>
       </c>
       <c r="B85">
@@ -3931,7 +3962,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="63"/>
+      <c r="A86" s="64"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -3943,7 +3974,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="63"/>
+      <c r="A87" s="64"/>
       <c r="B87">
         <v>-62</v>
       </c>
@@ -3955,7 +3986,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="63">
+      <c r="A88" s="64">
         <v>43461</v>
       </c>
       <c r="B88">
@@ -3969,7 +4000,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="63"/>
+      <c r="A89" s="64"/>
       <c r="B89">
         <v>-16</v>
       </c>
@@ -3981,7 +4012,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="63"/>
+      <c r="A90" s="64"/>
       <c r="B90">
         <v>-18.8</v>
       </c>
@@ -3993,7 +4024,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="63">
+      <c r="A91" s="64">
         <v>43462</v>
       </c>
       <c r="B91">
@@ -4007,7 +4038,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="63"/>
+      <c r="A92" s="64"/>
       <c r="B92">
         <v>-14</v>
       </c>
@@ -4019,7 +4050,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="63"/>
+      <c r="A93" s="64"/>
       <c r="B93">
         <v>-239</v>
       </c>
@@ -4031,7 +4062,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="63"/>
+      <c r="A94" s="64"/>
       <c r="B94">
         <v>-12</v>
       </c>
@@ -4043,7 +4074,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="63">
+      <c r="A95" s="64">
         <v>43463</v>
       </c>
       <c r="B95">
@@ -4057,7 +4088,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="63"/>
+      <c r="A96" s="64"/>
       <c r="B96">
         <v>-6</v>
       </c>
@@ -4069,7 +4100,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="63"/>
+      <c r="A97" s="64"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -4081,7 +4112,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="63"/>
+      <c r="A98" s="64"/>
       <c r="B98">
         <v>-39</v>
       </c>
@@ -4093,7 +4124,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="63">
+      <c r="A99" s="64">
         <v>43464</v>
       </c>
       <c r="B99">
@@ -4107,7 +4138,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="63"/>
+      <c r="A100" s="64"/>
       <c r="B100">
         <v>-50.4</v>
       </c>
@@ -4119,7 +4150,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="63"/>
+      <c r="A101" s="64"/>
       <c r="B101">
         <v>-30</v>
       </c>
@@ -4146,20 +4177,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A74:A79"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A28:A32"/>
     <mergeCell ref="A99:A101"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="A62:A64"/>
@@ -4176,6 +4193,20 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A88:A90"/>
     <mergeCell ref="A57:A58"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A74:A79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4202,7 +4233,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4216,7 +4247,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -4229,14 +4260,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,2,1)-TODAY()</f>
-        <v>-137</v>
+        <v>-140</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>19.0365693430657</v>
+        <v>18.628642857142864</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -4258,7 +4289,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>18.898623188405804</v>
+        <v>18.496524822695044</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -4281,7 +4312,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="63">
+      <c r="A5" s="64">
         <v>43467</v>
       </c>
       <c r="B5">
@@ -4304,7 +4335,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
+      <c r="A6" s="64"/>
       <c r="B6">
         <v>-16</v>
       </c>
@@ -4326,7 +4357,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="64"/>
       <c r="B7">
         <v>-24</v>
       </c>
@@ -4355,7 +4386,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="63">
+      <c r="A8" s="64">
         <v>43468</v>
       </c>
       <c r="B8">
@@ -4379,7 +4410,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
+      <c r="A9" s="64"/>
       <c r="B9">
         <v>-16</v>
       </c>
@@ -4401,7 +4432,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
+      <c r="A10" s="64"/>
       <c r="B10">
         <v>-15</v>
       </c>
@@ -4423,7 +4454,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="63">
+      <c r="A11" s="64">
         <v>43469</v>
       </c>
       <c r="B11">
@@ -4438,7 +4469,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
+      <c r="A12" s="64"/>
       <c r="B12">
         <v>-1453</v>
       </c>
@@ -4450,7 +4481,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
+      <c r="A13" s="64"/>
       <c r="B13">
         <v>-4</v>
       </c>
@@ -4462,7 +4493,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
+      <c r="A14" s="64"/>
       <c r="B14">
         <v>-55</v>
       </c>
@@ -4474,7 +4505,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
+      <c r="A15" s="64"/>
       <c r="B15">
         <v>-11</v>
       </c>
@@ -4486,7 +4517,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="67">
+      <c r="A16" s="70">
         <v>43470</v>
       </c>
       <c r="B16">
@@ -4500,7 +4531,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
+      <c r="A17" s="70"/>
       <c r="B17">
         <v>-6</v>
       </c>
@@ -4512,7 +4543,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
+      <c r="A18" s="70"/>
       <c r="B18">
         <v>-30</v>
       </c>
@@ -4524,7 +4555,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
+      <c r="A19" s="70"/>
       <c r="B19">
         <v>-18</v>
       </c>
@@ -4542,7 +4573,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
+      <c r="A20" s="70"/>
       <c r="B20">
         <v>-3</v>
       </c>
@@ -4561,7 +4592,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
+      <c r="A21" s="70"/>
       <c r="B21">
         <v>-10</v>
       </c>
@@ -4580,7 +4611,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="67">
+      <c r="A22" s="70">
         <v>43471</v>
       </c>
       <c r="B22">
@@ -4601,7 +4632,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="67"/>
+      <c r="A23" s="70"/>
       <c r="B23">
         <v>-3</v>
       </c>
@@ -4620,7 +4651,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
+      <c r="A24" s="70"/>
       <c r="B24">
         <v>-13</v>
       </c>
@@ -4639,7 +4670,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="63">
+      <c r="A25" s="64">
         <v>43472</v>
       </c>
       <c r="B25">
@@ -4653,7 +4684,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
+      <c r="A26" s="64"/>
       <c r="B26">
         <v>-4</v>
       </c>
@@ -4665,7 +4696,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
+      <c r="A27" s="64"/>
       <c r="B27">
         <v>-218</v>
       </c>
@@ -4677,7 +4708,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="63">
+      <c r="A28" s="64">
         <v>43473</v>
       </c>
       <c r="B28">
@@ -4691,7 +4722,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
+      <c r="A29" s="64"/>
       <c r="B29">
         <v>-16</v>
       </c>
@@ -4703,7 +4734,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
+      <c r="A30" s="64"/>
       <c r="B30">
         <v>-245</v>
       </c>
@@ -4715,7 +4746,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="66">
+      <c r="A31" s="67">
         <v>43474</v>
       </c>
       <c r="B31">
@@ -4729,7 +4760,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="66"/>
+      <c r="A32" s="67"/>
       <c r="B32">
         <v>-4</v>
       </c>
@@ -4741,7 +4772,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="66"/>
+      <c r="A33" s="67"/>
       <c r="B33">
         <v>-500</v>
       </c>
@@ -4753,7 +4784,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="66"/>
+      <c r="A34" s="67"/>
       <c r="B34">
         <v>-16</v>
       </c>
@@ -4765,7 +4796,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="63">
+      <c r="A35" s="64">
         <v>43475</v>
       </c>
       <c r="B35">
@@ -4779,7 +4810,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
+      <c r="A36" s="64"/>
       <c r="B36">
         <v>-6.5</v>
       </c>
@@ -4791,7 +4822,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="63">
+      <c r="A37" s="64">
         <v>43476</v>
       </c>
       <c r="B37">
@@ -4805,7 +4836,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
+      <c r="A38" s="64"/>
       <c r="B38">
         <v>-31</v>
       </c>
@@ -4817,7 +4848,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
+      <c r="A39" s="64"/>
       <c r="B39">
         <v>-15</v>
       </c>
@@ -4826,7 +4857,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="63"/>
+      <c r="A40" s="64"/>
       <c r="B40">
         <v>-49</v>
       </c>
@@ -4838,7 +4869,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
+      <c r="A41" s="64"/>
       <c r="B41">
         <v>-8</v>
       </c>
@@ -4855,7 +4886,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="67">
+      <c r="A43" s="70">
         <v>43478</v>
       </c>
       <c r="B43">
@@ -4869,7 +4900,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="67"/>
+      <c r="A44" s="70"/>
       <c r="B44">
         <v>-30</v>
       </c>
@@ -4881,7 +4912,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="63">
+      <c r="A45" s="64">
         <v>43479</v>
       </c>
       <c r="B45">
@@ -4895,7 +4926,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="63"/>
+      <c r="A46" s="64"/>
       <c r="B46">
         <v>-8</v>
       </c>
@@ -4907,7 +4938,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="63"/>
+      <c r="A47" s="64"/>
       <c r="B47">
         <v>-6</v>
       </c>
@@ -4919,7 +4950,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="63">
+      <c r="A48" s="64">
         <v>43480</v>
       </c>
       <c r="B48">
@@ -4933,7 +4964,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="63"/>
+      <c r="A49" s="64"/>
       <c r="B49">
         <v>-8</v>
       </c>
@@ -4945,7 +4976,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="63"/>
+      <c r="A50" s="64"/>
       <c r="B50">
         <v>-2.5</v>
       </c>
@@ -4957,7 +4988,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="63"/>
+      <c r="A51" s="64"/>
       <c r="B51">
         <v>-6</v>
       </c>
@@ -4969,7 +5000,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="63">
+      <c r="A52" s="64">
         <v>43481</v>
       </c>
       <c r="B52">
@@ -4983,7 +5014,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="63"/>
+      <c r="A53" s="64"/>
       <c r="B53">
         <v>-10</v>
       </c>
@@ -4995,7 +5026,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
+      <c r="A54" s="64"/>
       <c r="B54">
         <v>-8</v>
       </c>
@@ -5007,7 +5038,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="63"/>
+      <c r="A55" s="64"/>
       <c r="B55">
         <v>-23</v>
       </c>
@@ -5019,7 +5050,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="63">
+      <c r="A56" s="64">
         <v>43482</v>
       </c>
       <c r="B56">
@@ -5033,7 +5064,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="63"/>
+      <c r="A57" s="64"/>
       <c r="B57">
         <v>-8</v>
       </c>
@@ -5045,7 +5076,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
+      <c r="A58" s="64"/>
       <c r="B58">
         <v>-8.6999999999999993</v>
       </c>
@@ -5057,7 +5088,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="63"/>
+      <c r="A59" s="64"/>
       <c r="B59">
         <v>-110</v>
       </c>
@@ -5069,7 +5100,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="63"/>
+      <c r="A60" s="64"/>
       <c r="B60">
         <v>-14.5</v>
       </c>
@@ -5081,7 +5112,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="63">
+      <c r="A61" s="64">
         <v>43483</v>
       </c>
       <c r="B61">
@@ -5095,7 +5126,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="63"/>
+      <c r="A62" s="64"/>
       <c r="B62">
         <v>-16</v>
       </c>
@@ -5107,7 +5138,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="67">
+      <c r="A63" s="70">
         <v>43484</v>
       </c>
       <c r="B63">
@@ -5121,7 +5152,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="67"/>
+      <c r="A64" s="70"/>
       <c r="B64">
         <v>-62</v>
       </c>
@@ -5133,7 +5164,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="67">
+      <c r="A65" s="70">
         <v>43485</v>
       </c>
       <c r="B65">
@@ -5147,7 +5178,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="67"/>
+      <c r="A66" s="70"/>
       <c r="B66">
         <v>-30</v>
       </c>
@@ -5159,7 +5190,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="67"/>
+      <c r="A67" s="70"/>
       <c r="B67">
         <v>-98</v>
       </c>
@@ -5171,7 +5202,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="63">
+      <c r="A68" s="64">
         <v>43486</v>
       </c>
       <c r="B68">
@@ -5185,7 +5216,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="63"/>
+      <c r="A69" s="64"/>
       <c r="B69">
         <v>-4</v>
       </c>
@@ -5197,7 +5228,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="63">
+      <c r="A70" s="64">
         <v>43487</v>
       </c>
       <c r="B70">
@@ -5211,7 +5242,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="63"/>
+      <c r="A71" s="64"/>
       <c r="B71">
         <v>-12.75</v>
       </c>
@@ -5223,7 +5254,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="63">
+      <c r="A72" s="64">
         <v>43488</v>
       </c>
       <c r="B72">
@@ -5237,7 +5268,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="63"/>
+      <c r="A73" s="64"/>
       <c r="B73">
         <v>-10</v>
       </c>
@@ -5249,7 +5280,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="63"/>
+      <c r="A74" s="64"/>
       <c r="B74">
         <v>-4</v>
       </c>
@@ -5261,7 +5292,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="63">
+      <c r="A75" s="64">
         <v>43489</v>
       </c>
       <c r="B75">
@@ -5275,7 +5306,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="63"/>
+      <c r="A76" s="64"/>
       <c r="B76">
         <v>-10</v>
       </c>
@@ -5287,7 +5318,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="63">
+      <c r="A77" s="64">
         <v>43490</v>
       </c>
       <c r="B77">
@@ -5301,7 +5332,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="63"/>
+      <c r="A78" s="64"/>
       <c r="B78">
         <v>-4.8</v>
       </c>
@@ -5310,7 +5341,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="63"/>
+      <c r="A79" s="64"/>
       <c r="B79">
         <v>-10</v>
       </c>
@@ -5322,7 +5353,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="63"/>
+      <c r="A80" s="64"/>
       <c r="B80">
         <v>-12</v>
       </c>
@@ -5334,7 +5365,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="63"/>
+      <c r="A81" s="64"/>
       <c r="B81">
         <v>-6</v>
       </c>
@@ -5360,7 +5391,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="67">
+      <c r="A83" s="70">
         <v>43492</v>
       </c>
       <c r="B83">
@@ -5374,7 +5405,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="67"/>
+      <c r="A84" s="70"/>
       <c r="B84">
         <v>-13.8</v>
       </c>
@@ -5386,7 +5417,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="63">
+      <c r="A85" s="64">
         <v>43493</v>
       </c>
       <c r="B85">
@@ -5400,7 +5431,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="63"/>
+      <c r="A86" s="64"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -5412,7 +5443,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="63"/>
+      <c r="A87" s="64"/>
       <c r="B87">
         <v>-4.8</v>
       </c>
@@ -5424,7 +5455,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="63">
+      <c r="A88" s="64">
         <v>43494</v>
       </c>
       <c r="B88">
@@ -5438,7 +5469,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="63"/>
+      <c r="A89" s="64"/>
       <c r="B89">
         <v>-4.46</v>
       </c>
@@ -5450,7 +5481,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="63"/>
+      <c r="A90" s="64"/>
       <c r="B90">
         <v>-16.34</v>
       </c>
@@ -5462,7 +5493,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="63"/>
+      <c r="A91" s="64"/>
       <c r="B91">
         <v>-6</v>
       </c>
@@ -5474,7 +5505,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="63">
+      <c r="A92" s="64">
         <v>43495</v>
       </c>
       <c r="B92">
@@ -5488,7 +5519,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="63"/>
+      <c r="A93" s="64"/>
       <c r="B93">
         <v>-4.21</v>
       </c>
@@ -5500,7 +5531,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="63"/>
+      <c r="A94" s="64"/>
       <c r="B94">
         <v>-10</v>
       </c>
@@ -5512,7 +5543,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="63"/>
+      <c r="A95" s="64"/>
       <c r="B95">
         <v>-1441</v>
       </c>
@@ -5539,18 +5570,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="A85:A87"/>
     <mergeCell ref="A88:A91"/>
     <mergeCell ref="A92:A95"/>
@@ -5567,6 +5586,18 @@
     <mergeCell ref="A56:A60"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5594,7 +5625,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5613,7 +5644,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -5626,14 +5657,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,3,1)-TODAY()</f>
-        <v>-109</v>
+        <v>-112</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>18.66036697247706</v>
+        <v>18.160535714285711</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5648,7 +5679,7 @@
       </c>
       <c r="I3">
         <f ca="1">C2/(F2-1)</f>
-        <v>18.49072727272727</v>
+        <v>17.999823008849553</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5663,7 +5694,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="67">
+      <c r="A5" s="70">
         <v>43447</v>
       </c>
       <c r="B5">
@@ -5674,7 +5705,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
+      <c r="A6" s="70"/>
       <c r="B6">
         <v>-350</v>
       </c>
@@ -5683,7 +5714,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
+      <c r="A7" s="70"/>
       <c r="B7">
         <v>-129</v>
       </c>
@@ -5838,7 +5869,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="67">
+      <c r="A21" s="70">
         <v>43503</v>
       </c>
       <c r="B21">
@@ -5849,7 +5880,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
+      <c r="A22" s="70"/>
       <c r="B22">
         <v>-130.27000000000001</v>
       </c>
@@ -5858,7 +5889,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="67">
+      <c r="A23" s="70">
         <v>43504</v>
       </c>
       <c r="B23">
@@ -5869,7 +5900,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="67"/>
+      <c r="A24" s="70"/>
       <c r="B24">
         <v>-15</v>
       </c>
@@ -5878,7 +5909,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="67">
+      <c r="A25" s="70">
         <v>43505</v>
       </c>
       <c r="B25">
@@ -5889,7 +5920,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="67"/>
+      <c r="A26" s="70"/>
       <c r="B26">
         <v>-39</v>
       </c>
@@ -5898,7 +5929,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="67"/>
+      <c r="A27" s="70"/>
       <c r="B27">
         <v>-10</v>
       </c>
@@ -5907,7 +5938,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="67"/>
+      <c r="A28" s="70"/>
       <c r="B28">
         <v>-17.600000000000001</v>
       </c>
@@ -5919,7 +5950,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
+      <c r="A29" s="70"/>
       <c r="B29">
         <v>-25</v>
       </c>
@@ -5931,7 +5962,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
+      <c r="A30" s="70"/>
       <c r="B30">
         <v>-83</v>
       </c>
@@ -5940,7 +5971,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="67"/>
+      <c r="A31" s="70"/>
       <c r="B31">
         <v>-128</v>
       </c>
@@ -5949,7 +5980,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="67"/>
+      <c r="A32" s="70"/>
       <c r="B32">
         <v>-28</v>
       </c>
@@ -5958,7 +5989,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="67"/>
+      <c r="A33" s="70"/>
       <c r="B33">
         <v>-65</v>
       </c>
@@ -5970,7 +6001,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="67"/>
+      <c r="A34" s="70"/>
       <c r="B34">
         <v>-127.9</v>
       </c>
@@ -5984,7 +6015,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="63">
+      <c r="A36" s="64">
         <v>43507</v>
       </c>
       <c r="B36">
@@ -5998,7 +6029,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="70"/>
+      <c r="A37" s="72"/>
       <c r="B37">
         <v>-12</v>
       </c>
@@ -6010,7 +6041,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="63">
+      <c r="A38" s="64">
         <v>43508</v>
       </c>
       <c r="B38">
@@ -6024,7 +6055,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
+      <c r="A39" s="64"/>
       <c r="B39">
         <v>-16</v>
       </c>
@@ -6036,7 +6067,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="63">
+      <c r="A40" s="64">
         <v>43509</v>
       </c>
       <c r="B40">
@@ -6050,7 +6081,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
+      <c r="A41" s="64"/>
       <c r="B41">
         <v>-12</v>
       </c>
@@ -6062,7 +6093,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="63"/>
+      <c r="A42" s="64"/>
       <c r="B42">
         <v>-14</v>
       </c>
@@ -6074,7 +6105,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="63"/>
+      <c r="A43" s="64"/>
       <c r="B43">
         <v>-4</v>
       </c>
@@ -6086,7 +6117,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="63">
+      <c r="A44" s="64">
         <v>43510</v>
       </c>
       <c r="B44">
@@ -6100,7 +6131,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="63"/>
+      <c r="A45" s="64"/>
       <c r="B45">
         <v>0</v>
       </c>
@@ -6112,7 +6143,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="63"/>
+      <c r="A46" s="64"/>
       <c r="B46">
         <v>-14</v>
       </c>
@@ -6124,7 +6155,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="63">
+      <c r="A47" s="64">
         <v>43511</v>
       </c>
       <c r="B47">
@@ -6138,7 +6169,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="63"/>
+      <c r="A48" s="64"/>
       <c r="B48">
         <v>-4</v>
       </c>
@@ -6150,7 +6181,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="63"/>
+      <c r="A49" s="64"/>
       <c r="B49">
         <v>-12</v>
       </c>
@@ -6162,7 +6193,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="67">
+      <c r="A50" s="70">
         <v>43512</v>
       </c>
       <c r="B50">
@@ -6176,7 +6207,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="67"/>
+      <c r="A51" s="70"/>
       <c r="B51">
         <v>-33.5</v>
       </c>
@@ -6188,7 +6219,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="67">
+      <c r="A52" s="70">
         <v>43513</v>
       </c>
       <c r="B52">
@@ -6202,7 +6233,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="67"/>
+      <c r="A53" s="70"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -6214,7 +6245,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="67"/>
+      <c r="A54" s="70"/>
       <c r="B54">
         <v>-2</v>
       </c>
@@ -6226,7 +6257,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="63">
+      <c r="A55" s="64">
         <v>43514</v>
       </c>
       <c r="B55">
@@ -6240,7 +6271,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
+      <c r="A56" s="64"/>
       <c r="B56">
         <v>-10</v>
       </c>
@@ -6252,7 +6283,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="63"/>
+      <c r="A57" s="64"/>
       <c r="B57">
         <v>-10</v>
       </c>
@@ -6264,7 +6295,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
+      <c r="A58" s="64"/>
       <c r="B58">
         <v>-2.5</v>
       </c>
@@ -6276,7 +6307,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="63"/>
+      <c r="A59" s="64"/>
       <c r="B59">
         <v>-5</v>
       </c>
@@ -6288,7 +6319,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="63">
+      <c r="A60" s="64">
         <v>43515</v>
       </c>
       <c r="B60">
@@ -6302,7 +6333,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="63"/>
+      <c r="A61" s="64"/>
       <c r="B61">
         <v>-11</v>
       </c>
@@ -6314,7 +6345,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="63"/>
+      <c r="A62" s="64"/>
       <c r="B62">
         <v>-1250</v>
       </c>
@@ -6326,7 +6357,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="63"/>
+      <c r="A63" s="64"/>
       <c r="B63">
         <v>-12</v>
       </c>
@@ -6338,7 +6369,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="63"/>
+      <c r="A64" s="64"/>
       <c r="B64">
         <v>-203</v>
       </c>
@@ -6350,7 +6381,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="63"/>
+      <c r="A65" s="64"/>
       <c r="B65">
         <v>-23</v>
       </c>
@@ -6362,7 +6393,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="63"/>
+      <c r="A66" s="64"/>
       <c r="B66">
         <v>-16</v>
       </c>
@@ -6374,7 +6405,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="63">
+      <c r="A67" s="64">
         <v>43516</v>
       </c>
       <c r="B67">
@@ -6388,7 +6419,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="63"/>
+      <c r="A68" s="64"/>
       <c r="B68">
         <v>-26</v>
       </c>
@@ -6400,7 +6431,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="63"/>
+      <c r="A69" s="64"/>
       <c r="B69">
         <v>-2.5</v>
       </c>
@@ -6412,7 +6443,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="63">
+      <c r="A70" s="64">
         <v>43517</v>
       </c>
       <c r="B70">
@@ -6426,7 +6457,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="63"/>
+      <c r="A71" s="64"/>
       <c r="B71">
         <v>-7</v>
       </c>
@@ -6438,7 +6469,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="63"/>
+      <c r="A72" s="64"/>
       <c r="B72">
         <v>-20</v>
       </c>
@@ -6450,7 +6481,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="63">
+      <c r="A73" s="64">
         <v>43518</v>
       </c>
       <c r="B73">
@@ -6464,7 +6495,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="63"/>
+      <c r="A74" s="64"/>
       <c r="B74">
         <v>-7.83</v>
       </c>
@@ -6476,7 +6507,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="63"/>
+      <c r="A75" s="64"/>
       <c r="B75">
         <v>-16</v>
       </c>
@@ -6488,7 +6519,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="63"/>
+      <c r="A76" s="64"/>
       <c r="B76">
         <v>-3.5</v>
       </c>
@@ -6500,7 +6531,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="67">
+      <c r="A77" s="70">
         <v>43519</v>
       </c>
       <c r="B77">
@@ -6514,7 +6545,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="67"/>
+      <c r="A78" s="70"/>
       <c r="B78">
         <f>-2.8-7.2-9.34-4</f>
         <v>-23.34</v>
@@ -6527,7 +6558,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="67"/>
+      <c r="A79" s="70"/>
       <c r="B79">
         <v>-30</v>
       </c>
@@ -6539,7 +6570,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="67" t="s">
+      <c r="A80" s="70" t="s">
         <v>115</v>
       </c>
       <c r="B80">
@@ -6553,7 +6584,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="67"/>
+      <c r="A81" s="70"/>
       <c r="B81">
         <v>-16</v>
       </c>
@@ -6565,7 +6596,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="67"/>
+      <c r="A82" s="70"/>
       <c r="B82">
         <v>-2.5</v>
       </c>
@@ -6577,7 +6608,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="67"/>
+      <c r="A83" s="70"/>
       <c r="B83">
         <v>-16</v>
       </c>
@@ -6589,7 +6620,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="63">
+      <c r="A84" s="64">
         <v>43521</v>
       </c>
       <c r="B84">
@@ -6603,7 +6634,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="63"/>
+      <c r="A85" s="64"/>
       <c r="B85">
         <v>-4</v>
       </c>
@@ -6615,7 +6646,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="63"/>
+      <c r="A86" s="64"/>
       <c r="B86">
         <v>-4</v>
       </c>
@@ -6627,7 +6658,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="63">
+      <c r="A87" s="64">
         <v>43522</v>
       </c>
       <c r="B87">
@@ -6641,7 +6672,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="63"/>
+      <c r="A88" s="64"/>
       <c r="B88">
         <v>-3.8</v>
       </c>
@@ -6653,7 +6684,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="63"/>
+      <c r="A89" s="64"/>
       <c r="B89">
         <v>-10.84</v>
       </c>
@@ -6665,7 +6696,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="63"/>
+      <c r="A90" s="64"/>
       <c r="B90">
         <v>-18</v>
       </c>
@@ -6677,7 +6708,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="63">
+      <c r="A91" s="64">
         <v>43523</v>
       </c>
       <c r="B91">
@@ -6691,7 +6722,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="63"/>
+      <c r="A92" s="64"/>
       <c r="B92">
         <v>-4</v>
       </c>
@@ -6703,7 +6734,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="63"/>
+      <c r="A93" s="64"/>
       <c r="B93">
         <v>-4.4000000000000004</v>
       </c>
@@ -6715,7 +6746,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="63"/>
+      <c r="A94" s="64"/>
       <c r="B94">
         <v>-9.5399999999999991</v>
       </c>
@@ -6727,7 +6758,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="63">
+      <c r="A95" s="64">
         <v>43524</v>
       </c>
       <c r="B95">
@@ -6741,7 +6772,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="63"/>
+      <c r="A96" s="64"/>
       <c r="B96">
         <v>-16</v>
       </c>
@@ -6753,7 +6784,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="63"/>
+      <c r="A97" s="64"/>
       <c r="B97">
         <v>-4</v>
       </c>
@@ -6765,7 +6796,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="63"/>
+      <c r="A98" s="64"/>
       <c r="B98">
         <v>-3</v>
       </c>
@@ -6777,7 +6808,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="63"/>
+      <c r="A99" s="64"/>
       <c r="B99">
         <v>-7.9</v>
       </c>
@@ -6789,7 +6820,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="63"/>
+      <c r="A100" s="64"/>
       <c r="B100">
         <v>-16</v>
       </c>
@@ -6820,6 +6851,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A15"/>
@@ -6828,24 +6877,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A95:A100"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6874,7 +6905,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -6888,7 +6919,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -6901,14 +6932,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,4,1)-TODAY()</f>
-        <v>-78</v>
+        <v>-81</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>7.8953846153846232</v>
+        <v>7.6029629629629705</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -6930,7 +6961,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>7.7954430379746915</v>
+        <v>7.5102439024390319</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -6939,7 +6970,7 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="66">
+      <c r="A4" s="67">
         <v>43525</v>
       </c>
       <c r="B4" s="8">
@@ -6963,7 +6994,7 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="8">
         <v>-17</v>
       </c>
@@ -6985,7 +7016,7 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="8">
         <v>-10</v>
       </c>
@@ -7007,7 +7038,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="8">
         <v>-10</v>
       </c>
@@ -7029,7 +7060,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
+      <c r="A8" s="67"/>
       <c r="B8">
         <v>-11.75</v>
       </c>
@@ -7145,7 +7176,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="66">
+      <c r="A14" s="67">
         <v>43528</v>
       </c>
       <c r="B14">
@@ -7169,7 +7200,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
+      <c r="A15" s="67"/>
       <c r="B15">
         <v>-1439</v>
       </c>
@@ -7182,7 +7213,7 @@
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="66"/>
+      <c r="A16" s="67"/>
       <c r="B16">
         <v>-16</v>
       </c>
@@ -7195,7 +7226,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="66"/>
+      <c r="A17" s="67"/>
       <c r="B17">
         <v>-3</v>
       </c>
@@ -7208,7 +7239,7 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="66">
+      <c r="A18" s="67">
         <v>43529</v>
       </c>
       <c r="B18">
@@ -7223,7 +7254,7 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
+      <c r="A19" s="67"/>
       <c r="B19">
         <v>-16.260000000000002</v>
       </c>
@@ -7242,7 +7273,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="66"/>
+      <c r="A20" s="67"/>
       <c r="B20">
         <v>-6</v>
       </c>
@@ -7254,7 +7285,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="66">
+      <c r="A21" s="67">
         <v>43530</v>
       </c>
       <c r="B21">
@@ -7268,7 +7299,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="66"/>
+      <c r="A22" s="67"/>
       <c r="B22">
         <v>-16</v>
       </c>
@@ -7280,7 +7311,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="66"/>
+      <c r="A23" s="67"/>
       <c r="B23">
         <v>-3.5</v>
       </c>
@@ -7292,7 +7323,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="66">
+      <c r="A24" s="67">
         <v>43531</v>
       </c>
       <c r="B24">
@@ -7306,7 +7337,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="66"/>
+      <c r="A25" s="67"/>
       <c r="B25">
         <v>-14</v>
       </c>
@@ -7318,7 +7349,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="66"/>
+      <c r="A26" s="67"/>
       <c r="B26">
         <v>-24</v>
       </c>
@@ -7330,7 +7361,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="66"/>
+      <c r="A27" s="67"/>
       <c r="B27">
         <v>-19.899999999999999</v>
       </c>
@@ -7342,7 +7373,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="66"/>
+      <c r="A28" s="67"/>
       <c r="B28">
         <v>-11.11</v>
       </c>
@@ -7354,7 +7385,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="66">
+      <c r="A29" s="67">
         <v>43532</v>
       </c>
       <c r="B29">
@@ -7368,7 +7399,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="66"/>
+      <c r="A30" s="67"/>
       <c r="B30">
         <v>-22</v>
       </c>
@@ -7380,7 +7411,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="66"/>
+      <c r="A31" s="67"/>
       <c r="B31">
         <v>-3</v>
       </c>
@@ -7392,7 +7423,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="66"/>
+      <c r="A32" s="67"/>
       <c r="B32">
         <v>-1</v>
       </c>
@@ -7504,7 +7535,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="66">
+      <c r="A41" s="67">
         <v>43535</v>
       </c>
       <c r="B41">
@@ -7518,7 +7549,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="66"/>
+      <c r="A42" s="67"/>
       <c r="B42">
         <v>-4</v>
       </c>
@@ -7530,7 +7561,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="66"/>
+      <c r="A43" s="67"/>
       <c r="B43">
         <v>-14.76</v>
       </c>
@@ -7542,7 +7573,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="66">
+      <c r="A44" s="67">
         <v>43536</v>
       </c>
       <c r="B44">
@@ -7556,7 +7587,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="66"/>
+      <c r="A45" s="67"/>
       <c r="B45">
         <v>-22</v>
       </c>
@@ -7568,7 +7599,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="66"/>
+      <c r="A46" s="67"/>
       <c r="B46">
         <v>-8.4</v>
       </c>
@@ -7582,7 +7613,7 @@
       <c r="I46" s="13"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="66">
+      <c r="A47" s="67">
         <v>43537</v>
       </c>
       <c r="B47">
@@ -7598,7 +7629,7 @@
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="66"/>
+      <c r="A48" s="67"/>
       <c r="B48">
         <v>-10</v>
       </c>
@@ -7612,7 +7643,7 @@
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="66">
+      <c r="A49" s="67">
         <v>43538</v>
       </c>
       <c r="B49">
@@ -7628,7 +7659,7 @@
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="66"/>
+      <c r="A50" s="67"/>
       <c r="B50">
         <v>-18</v>
       </c>
@@ -7642,7 +7673,7 @@
       <c r="I50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="66"/>
+      <c r="A51" s="67"/>
       <c r="B51">
         <v>-10</v>
       </c>
@@ -7656,7 +7687,7 @@
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="66"/>
+      <c r="A52" s="67"/>
       <c r="B52">
         <v>-65.55</v>
       </c>
@@ -7670,7 +7701,7 @@
       <c r="I52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="66"/>
+      <c r="A53" s="67"/>
       <c r="B53">
         <v>-2.5</v>
       </c>
@@ -7684,7 +7715,7 @@
       <c r="I53" s="13"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="66">
+      <c r="A54" s="67">
         <v>43539</v>
       </c>
       <c r="B54">
@@ -7700,7 +7731,7 @@
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="66"/>
+      <c r="A55" s="67"/>
       <c r="B55">
         <v>-4</v>
       </c>
@@ -7711,7 +7742,7 @@
       <c r="I55" s="13"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="66"/>
+      <c r="A56" s="67"/>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
@@ -7804,7 +7835,7 @@
       <c r="I62" s="13"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="66">
+      <c r="A63" s="67">
         <v>43542</v>
       </c>
       <c r="B63">
@@ -7820,7 +7851,7 @@
       <c r="I63" s="13"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="66"/>
+      <c r="A64" s="67"/>
       <c r="B64">
         <v>-4</v>
       </c>
@@ -7834,7 +7865,7 @@
       <c r="I64" s="13"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="66"/>
+      <c r="A65" s="67"/>
       <c r="B65">
         <v>-2.4</v>
       </c>
@@ -7846,7 +7877,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="66">
+      <c r="A66" s="67">
         <v>43543</v>
       </c>
       <c r="B66">
@@ -7860,7 +7891,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="66"/>
+      <c r="A67" s="67"/>
       <c r="B67">
         <v>-16</v>
       </c>
@@ -7872,7 +7903,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="66"/>
+      <c r="A68" s="67"/>
       <c r="B68">
         <v>-17</v>
       </c>
@@ -7884,7 +7915,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="66">
+      <c r="A69" s="67">
         <v>43544</v>
       </c>
       <c r="B69">
@@ -7898,7 +7929,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="66"/>
+      <c r="A70" s="67"/>
       <c r="B70">
         <v>-16</v>
       </c>
@@ -7910,7 +7941,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="66"/>
+      <c r="A71" s="67"/>
       <c r="B71">
         <v>-7</v>
       </c>
@@ -7922,7 +7953,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="66">
+      <c r="A72" s="67">
         <v>43545</v>
       </c>
       <c r="B72">
@@ -7936,7 +7967,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="66"/>
+      <c r="A73" s="67"/>
       <c r="B73">
         <v>-14</v>
       </c>
@@ -7948,7 +7979,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="66"/>
+      <c r="A74" s="67"/>
       <c r="B74">
         <v>-1.5</v>
       </c>
@@ -7960,7 +7991,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="66"/>
+      <c r="A75" s="67"/>
       <c r="B75">
         <v>-7.8</v>
       </c>
@@ -7972,7 +8003,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="66"/>
+      <c r="A76" s="67"/>
       <c r="B76">
         <v>-3.5</v>
       </c>
@@ -7984,7 +8015,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="66">
+      <c r="A77" s="67">
         <v>43546</v>
       </c>
       <c r="B77">
@@ -7998,7 +8029,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="66"/>
+      <c r="A78" s="67"/>
       <c r="B78">
         <v>-17.399999999999999</v>
       </c>
@@ -8010,7 +8041,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="66"/>
+      <c r="A79" s="67"/>
       <c r="B79">
         <v>-20.100000000000001</v>
       </c>
@@ -8022,7 +8053,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="66"/>
+      <c r="A80" s="67"/>
       <c r="B80">
         <v>-44.7</v>
       </c>
@@ -8034,7 +8065,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="66"/>
+      <c r="A81" s="67"/>
       <c r="B81">
         <v>-2.1</v>
       </c>
@@ -8046,7 +8077,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="66"/>
+      <c r="A82" s="67"/>
       <c r="B82">
         <v>-16</v>
       </c>
@@ -8122,7 +8153,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="66">
+      <c r="A88" s="67">
         <v>43549</v>
       </c>
       <c r="B88">
@@ -8136,7 +8167,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="66"/>
+      <c r="A89" s="67"/>
       <c r="B89">
         <v>-4</v>
       </c>
@@ -8148,7 +8179,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="66"/>
+      <c r="A90" s="67"/>
       <c r="B90">
         <v>-16.02</v>
       </c>
@@ -8160,7 +8191,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="66"/>
+      <c r="A91" s="67"/>
       <c r="B91">
         <v>-4</v>
       </c>
@@ -8172,7 +8203,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="66">
+      <c r="A92" s="67">
         <v>43550</v>
       </c>
       <c r="B92">
@@ -8186,7 +8217,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="66"/>
+      <c r="A93" s="67"/>
       <c r="B93">
         <v>-24</v>
       </c>
@@ -8198,7 +8229,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="66"/>
+      <c r="A94" s="67"/>
       <c r="B94">
         <v>-3</v>
       </c>
@@ -8210,7 +8241,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="66">
+      <c r="A95" s="67">
         <v>43551</v>
       </c>
       <c r="B95">
@@ -8224,7 +8255,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="66"/>
+      <c r="A96" s="67"/>
       <c r="B96">
         <v>-10</v>
       </c>
@@ -8236,7 +8267,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="66">
+      <c r="A97" s="67">
         <v>43552</v>
       </c>
       <c r="B97">
@@ -8250,7 +8281,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="66"/>
+      <c r="A98" s="67"/>
       <c r="B98">
         <v>-6.72</v>
       </c>
@@ -8262,7 +8293,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="66"/>
+      <c r="A99" s="67"/>
       <c r="B99">
         <v>-2</v>
       </c>
@@ -8274,7 +8305,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="66"/>
+      <c r="A100" s="67"/>
       <c r="B100">
         <v>-9</v>
       </c>
@@ -8286,7 +8317,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="66">
+      <c r="A101" s="67">
         <v>43553</v>
       </c>
       <c r="B101">
@@ -8300,7 +8331,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="66"/>
+      <c r="A102" s="67"/>
       <c r="B102">
         <v>-3.4</v>
       </c>
@@ -8312,7 +8343,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="66"/>
+      <c r="A103" s="67"/>
       <c r="B103">
         <v>-30</v>
       </c>
@@ -8362,7 +8393,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="66">
+      <c r="A107" s="67">
         <v>43555</v>
       </c>
       <c r="B107">
@@ -8376,7 +8407,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="66"/>
+      <c r="A108" s="67"/>
       <c r="B108">
         <v>-21</v>
       </c>
@@ -8388,7 +8419,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="66"/>
+      <c r="A109" s="67"/>
       <c r="B109">
         <v>-9</v>
       </c>
@@ -8400,7 +8431,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="66"/>
+      <c r="A110" s="67"/>
       <c r="B110">
         <v>-38</v>
       </c>
@@ -8559,34 +8590,51 @@
       <c r="A159" s="33"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="66"/>
+      <c r="A160" s="67"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="66"/>
+      <c r="A161" s="67"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="66"/>
+      <c r="A162" s="67"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="66"/>
+      <c r="A163" s="67"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="66"/>
+      <c r="A164" s="67"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="66"/>
+      <c r="A165" s="67"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="66"/>
+      <c r="A166" s="67"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="66"/>
+      <c r="A167" s="67"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="A160:A163"/>
     <mergeCell ref="A164:A167"/>
     <mergeCell ref="A29:A32"/>
@@ -8603,23 +8651,6 @@
     <mergeCell ref="A104:A106"/>
     <mergeCell ref="A101:A103"/>
     <mergeCell ref="A97:A100"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A66:A68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8648,7 +8679,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -8662,7 +8693,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -8675,14 +8706,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,5,1)-TODAY()</f>
-        <v>-48</v>
+        <v>-51</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>20.635416666666657</v>
+        <v>19.42156862745097</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -8704,7 +8735,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>20.214285714285705</v>
+        <v>19.048076923076913</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -8761,7 +8792,7 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63">
+      <c r="A6" s="64">
         <v>43558</v>
       </c>
       <c r="B6" s="8">
@@ -8785,7 +8816,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="8">
         <v>-7.3</v>
       </c>
@@ -8807,7 +8838,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="8">
         <v>-11</v>
       </c>
@@ -8829,7 +8860,7 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63">
+      <c r="A9" s="64">
         <v>43559</v>
       </c>
       <c r="B9" s="8">
@@ -8853,7 +8884,7 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="8">
         <v>-11</v>
       </c>
@@ -8875,7 +8906,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="8">
         <v>-1420</v>
       </c>
@@ -8897,7 +8928,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="8">
         <v>-89</v>
       </c>
@@ -8919,7 +8950,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67">
+      <c r="A13" s="70">
         <v>43560</v>
       </c>
       <c r="B13" s="8">
@@ -8943,7 +8974,7 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="67"/>
+      <c r="A14" s="70"/>
       <c r="B14" s="8">
         <v>-6</v>
       </c>
@@ -8955,7 +8986,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="8">
         <v>-5</v>
       </c>
@@ -8984,7 +9015,7 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="67">
+      <c r="A17" s="70">
         <v>43562</v>
       </c>
       <c r="B17" s="8">
@@ -9001,7 +9032,7 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="67"/>
+      <c r="A18" s="70"/>
       <c r="B18" s="8">
         <v>-30</v>
       </c>
@@ -9016,7 +9047,7 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="8">
         <v>-42.5</v>
       </c>
@@ -9031,7 +9062,7 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="8">
         <v>-2.5</v>
       </c>
@@ -9046,7 +9077,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="67"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="8">
         <v>-5.3</v>
       </c>
@@ -9067,7 +9098,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="8">
         <v>-3.33</v>
       </c>
@@ -9089,7 +9120,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="63">
+      <c r="A23" s="64">
         <v>43563</v>
       </c>
       <c r="B23" s="8">
@@ -9113,7 +9144,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="8">
         <v>-58.52</v>
       </c>
@@ -9126,7 +9157,7 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="8">
         <v>-6.3</v>
       </c>
@@ -9139,7 +9170,7 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="8">
         <v>-4</v>
       </c>
@@ -9152,7 +9183,7 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="63">
+      <c r="A27" s="64">
         <v>43564</v>
       </c>
       <c r="B27" s="8">
@@ -9176,7 +9207,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="8">
         <v>-10.199999999999999</v>
       </c>
@@ -9315,7 +9346,7 @@
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="63">
+      <c r="A37" s="64">
         <v>43567</v>
       </c>
       <c r="B37" s="8">
@@ -9330,7 +9361,7 @@
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="8">
         <v>-59.9</v>
       </c>
@@ -9343,7 +9374,7 @@
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="8">
         <v>-31.1</v>
       </c>
@@ -9356,7 +9387,7 @@
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="63"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="8">
         <v>-11</v>
       </c>
@@ -9369,7 +9400,7 @@
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="67">
+      <c r="A41" s="70">
         <v>43568</v>
       </c>
       <c r="B41" s="8">
@@ -9384,7 +9415,7 @@
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="67"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="8">
         <v>-4.5</v>
       </c>
@@ -9397,7 +9428,7 @@
       <c r="I42" s="4"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="67"/>
+      <c r="A43" s="70"/>
       <c r="B43" s="8">
         <v>-21.7</v>
       </c>
@@ -9410,7 +9441,7 @@
       <c r="I43" s="4"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="67">
+      <c r="A44" s="70">
         <v>43569</v>
       </c>
       <c r="B44" s="8">
@@ -9425,7 +9456,7 @@
       <c r="I44" s="4"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="67"/>
+      <c r="A45" s="70"/>
       <c r="B45" s="8">
         <v>-231.53</v>
       </c>
@@ -9438,7 +9469,7 @@
       <c r="I45" s="4"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="67"/>
+      <c r="A46" s="70"/>
       <c r="B46" s="8">
         <v>-4</v>
       </c>
@@ -9451,7 +9482,7 @@
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="63">
+      <c r="A47" s="64">
         <v>43570</v>
       </c>
       <c r="B47" s="8">
@@ -9466,7 +9497,7 @@
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="63"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="8">
         <v>-189</v>
       </c>
@@ -9479,7 +9510,7 @@
       <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="63"/>
+      <c r="A49" s="64"/>
       <c r="B49" s="8">
         <v>-410</v>
       </c>
@@ -9492,7 +9523,7 @@
       <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="63"/>
+      <c r="A50" s="64"/>
       <c r="B50" s="8">
         <v>-2</v>
       </c>
@@ -9505,7 +9536,7 @@
       <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="63"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="8">
         <v>-11</v>
       </c>
@@ -9518,7 +9549,7 @@
       <c r="I51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="63">
+      <c r="A52" s="64">
         <v>43571</v>
       </c>
       <c r="B52" s="8">
@@ -9533,7 +9564,7 @@
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="63"/>
+      <c r="A53" s="64"/>
       <c r="B53" s="8">
         <v>-35</v>
       </c>
@@ -9546,7 +9577,7 @@
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
+      <c r="A54" s="64"/>
       <c r="B54" s="8">
         <v>-7</v>
       </c>
@@ -9559,7 +9590,7 @@
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="63"/>
+      <c r="A55" s="64"/>
       <c r="B55" s="8">
         <v>-75</v>
       </c>
@@ -9572,7 +9603,7 @@
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
+      <c r="A56" s="64"/>
       <c r="B56" s="8">
         <v>-11</v>
       </c>
@@ -9591,7 +9622,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="63">
+      <c r="A57" s="64">
         <v>43572</v>
       </c>
       <c r="B57" s="8">
@@ -9606,7 +9637,7 @@
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
+      <c r="A58" s="64"/>
       <c r="B58" s="8">
         <v>-7</v>
       </c>
@@ -9619,7 +9650,7 @@
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="63"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="8">
         <v>-10</v>
       </c>
@@ -9632,7 +9663,7 @@
       <c r="I59" s="4"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="63"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="8">
         <v>-215</v>
       </c>
@@ -9645,7 +9676,7 @@
       <c r="I60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="63"/>
+      <c r="A61" s="64"/>
       <c r="B61" s="8">
         <v>-11</v>
       </c>
@@ -9657,7 +9688,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="63">
+      <c r="A62" s="64">
         <v>43573</v>
       </c>
       <c r="B62" s="8">
@@ -9671,7 +9702,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="63"/>
+      <c r="A63" s="64"/>
       <c r="B63" s="8">
         <v>-11</v>
       </c>
@@ -9683,7 +9714,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="63">
+      <c r="A64" s="64">
         <v>43574</v>
       </c>
       <c r="B64" s="8">
@@ -9697,7 +9728,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="63"/>
+      <c r="A65" s="64"/>
       <c r="B65" s="8">
         <v>-11</v>
       </c>
@@ -9709,7 +9740,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="67">
+      <c r="A66" s="70">
         <v>43575</v>
       </c>
       <c r="B66" s="8">
@@ -9723,7 +9754,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="67"/>
+      <c r="A67" s="70"/>
       <c r="B67" s="8">
         <v>-14.5</v>
       </c>
@@ -9735,7 +9766,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="67">
+      <c r="A68" s="70">
         <v>43576</v>
       </c>
       <c r="B68" s="8">
@@ -9749,7 +9780,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="67"/>
+      <c r="A69" s="70"/>
       <c r="B69" s="8">
         <v>-11.92</v>
       </c>
@@ -9761,7 +9792,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="67"/>
+      <c r="A70" s="70"/>
       <c r="B70" s="8">
         <v>-9.5</v>
       </c>
@@ -9773,7 +9804,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="63">
+      <c r="A71" s="64">
         <v>43577</v>
       </c>
       <c r="B71" s="8">
@@ -9787,7 +9818,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="63"/>
+      <c r="A72" s="64"/>
       <c r="B72" s="8">
         <v>-12.22</v>
       </c>
@@ -9799,7 +9830,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="63"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="8">
         <v>-11</v>
       </c>
@@ -9811,7 +9842,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="63">
+      <c r="A74" s="64">
         <v>43578</v>
       </c>
       <c r="B74" s="8">
@@ -9825,7 +9856,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="63"/>
+      <c r="A75" s="64"/>
       <c r="B75" s="8">
         <v>-2</v>
       </c>
@@ -9837,7 +9868,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="63"/>
+      <c r="A76" s="64"/>
       <c r="B76" s="8">
         <v>-2.5</v>
       </c>
@@ -9849,7 +9880,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="63"/>
+      <c r="A77" s="64"/>
       <c r="B77" s="8">
         <v>-11</v>
       </c>
@@ -9861,7 +9892,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="63">
+      <c r="A78" s="64">
         <v>43579</v>
       </c>
       <c r="B78" s="8">
@@ -9875,7 +9906,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="63"/>
+      <c r="A79" s="64"/>
       <c r="B79" s="8">
         <v>-13.6</v>
       </c>
@@ -9887,7 +9918,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="63"/>
+      <c r="A80" s="64"/>
       <c r="B80" s="8">
         <v>-18</v>
       </c>
@@ -9899,7 +9930,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="63"/>
+      <c r="A81" s="64"/>
       <c r="B81" s="8">
         <v>-11</v>
       </c>
@@ -9911,7 +9942,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="63">
+      <c r="A82" s="64">
         <v>43580</v>
       </c>
       <c r="B82" s="8">
@@ -9925,7 +9956,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="63"/>
+      <c r="A83" s="64"/>
       <c r="B83" s="8">
         <v>-2.5</v>
       </c>
@@ -9937,7 +9968,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="63"/>
+      <c r="A84" s="64"/>
       <c r="B84" s="8">
         <v>-27.67</v>
       </c>
@@ -9949,7 +9980,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="63">
+      <c r="A85" s="64">
         <v>43581</v>
       </c>
       <c r="B85" s="8">
@@ -9961,7 +9992,7 @@
       <c r="D85" s="12"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="63"/>
+      <c r="A86" s="64"/>
       <c r="B86" s="8">
         <v>-11</v>
       </c>
@@ -9973,7 +10004,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="67">
+      <c r="A87" s="70">
         <v>43582</v>
       </c>
       <c r="B87" s="8">
@@ -9987,7 +10018,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="67"/>
+      <c r="A88" s="70"/>
       <c r="B88" s="8">
         <v>-7.6</v>
       </c>
@@ -9999,7 +10030,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="67"/>
+      <c r="A89" s="70"/>
       <c r="B89" s="8">
         <v>-94.35</v>
       </c>
@@ -10011,7 +10042,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="67"/>
+      <c r="A90" s="70"/>
       <c r="B90" s="8">
         <v>-11.9</v>
       </c>
@@ -10021,7 +10052,7 @@
       <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="67"/>
+      <c r="A91" s="70"/>
       <c r="B91" s="12">
         <v>-30</v>
       </c>
@@ -10033,7 +10064,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="63">
+      <c r="A92" s="64">
         <v>43583</v>
       </c>
       <c r="B92" s="12">
@@ -10047,7 +10078,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="63"/>
+      <c r="A93" s="64"/>
       <c r="B93" s="12">
         <v>-22</v>
       </c>
@@ -10059,7 +10090,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="63"/>
+      <c r="A94" s="64"/>
       <c r="B94" s="8">
         <v>-11</v>
       </c>
@@ -10071,7 +10102,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="63">
+      <c r="A95" s="64">
         <v>43584</v>
       </c>
       <c r="B95" s="8">
@@ -10085,7 +10116,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="63"/>
+      <c r="A96" s="64"/>
       <c r="B96" s="8">
         <v>-11</v>
       </c>
@@ -10945,6 +10976,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A62:A63"/>
     <mergeCell ref="A92:A94"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="A1:A2"/>
@@ -10961,15 +11001,6 @@
     <mergeCell ref="A78:A81"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A62:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11014,13 +11045,13 @@
       <c r="J3"/>
     </row>
     <row r="4" spans="1:50" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="73"/>
+      <c r="E4" s="74"/>
       <c r="G4" s="26" t="s">
         <v>133</v>
       </c>
@@ -11045,7 +11076,7 @@
       </c>
     </row>
     <row r="5" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="72"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="28" t="s">
         <v>136</v>
       </c>
@@ -11069,7 +11100,7 @@
       </c>
     </row>
     <row r="6" spans="1:50" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="74">
+      <c r="C6" s="75">
         <v>43585</v>
       </c>
       <c r="D6" s="29" t="s">
@@ -11078,7 +11109,7 @@
       <c r="E6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="69"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="27"/>
       <c r="M6" t="s">
         <v>149</v>
@@ -11094,14 +11125,14 @@
       </c>
     </row>
     <row r="7" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="74"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="29" t="s">
         <v>126</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="69"/>
+      <c r="I7" s="66"/>
       <c r="J7" s="27"/>
       <c r="M7" t="s">
         <v>172</v>
@@ -11115,14 +11146,14 @@
       </c>
     </row>
     <row r="8" spans="1:50" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="74"/>
+      <c r="C8" s="75"/>
       <c r="D8" s="29" t="s">
         <v>128</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="69"/>
+      <c r="I8" s="66"/>
       <c r="J8" s="27"/>
       <c r="M8" t="s">
         <v>173</v>
@@ -11143,14 +11174,14 @@
       </c>
     </row>
     <row r="9" spans="1:50" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="74"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="29" t="s">
         <v>129</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="I9" s="69"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="27"/>
       <c r="M9" t="s">
         <v>185</v>
@@ -11160,7 +11191,7 @@
       </c>
     </row>
     <row r="10" spans="1:50" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="74"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="29">
         <v>0.99305555555555547</v>
       </c>
@@ -11168,7 +11199,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="31"/>
-      <c r="I10" s="69"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="27"/>
       <c r="M10" t="s">
         <v>186</v>
@@ -11233,7 +11264,7 @@
       <c r="AX11"/>
     </row>
     <row r="12" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="74">
+      <c r="C12" s="75">
         <v>43586</v>
       </c>
       <c r="D12" s="29">
@@ -11250,7 +11281,7 @@
       </c>
     </row>
     <row r="13" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="74"/>
+      <c r="C13" s="75"/>
       <c r="M13" t="s">
         <v>207</v>
       </c>
@@ -11259,13 +11290,13 @@
       </c>
     </row>
     <row r="14" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="74"/>
+      <c r="C14" s="75"/>
     </row>
     <row r="15" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="74"/>
+      <c r="C15" s="75"/>
     </row>
     <row r="16" spans="1:50" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="74"/>
+      <c r="C16" s="75"/>
     </row>
     <row r="17" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="24">
@@ -11331,7 +11362,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -11345,7 +11376,7 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
@@ -11358,14 +11389,14 @@
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,6,1)-TODAY()</f>
-        <v>-17</v>
+        <v>-20</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>3.2488235294117924</v>
+        <v>2.7615000000000238</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -11387,7 +11418,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>3.0683333333333596</v>
+        <v>2.6300000000000225</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -11396,7 +11427,7 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63">
+      <c r="A4" s="64">
         <v>43591</v>
       </c>
       <c r="B4" s="8">
@@ -11420,7 +11451,7 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="8">
         <v>-12.5</v>
       </c>
@@ -11442,7 +11473,7 @@
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="8">
         <v>-5.5</v>
       </c>
@@ -11464,7 +11495,7 @@
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="8">
         <v>-1417</v>
       </c>
@@ -11486,7 +11517,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63">
+      <c r="A8" s="64">
         <v>43592</v>
       </c>
       <c r="B8" s="8">
@@ -11510,7 +11541,7 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="8">
         <v>-13</v>
       </c>
@@ -11532,7 +11563,7 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63">
+      <c r="A10" s="64">
         <v>43593</v>
       </c>
       <c r="B10" s="8">
@@ -11556,7 +11587,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="8">
         <v>-11.5</v>
       </c>
@@ -11578,7 +11609,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63">
+      <c r="A12" s="64">
         <v>43594</v>
       </c>
       <c r="B12" s="8">
@@ -11602,7 +11633,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="8">
         <v>-10</v>
       </c>
@@ -11624,7 +11655,7 @@
       <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="8">
         <v>-33</v>
       </c>
@@ -11646,7 +11677,7 @@
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63">
+      <c r="A15" s="64">
         <v>43595</v>
       </c>
       <c r="B15" s="8">
@@ -11670,7 +11701,7 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="8">
         <v>-30</v>
       </c>
@@ -11692,7 +11723,7 @@
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="8">
         <v>-100</v>
       </c>
@@ -11714,7 +11745,7 @@
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="8">
         <v>-8</v>
       </c>
@@ -11736,7 +11767,7 @@
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="8">
         <v>-11</v>
       </c>
@@ -11806,7 +11837,7 @@
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63">
+      <c r="A22" s="64">
         <v>43598</v>
       </c>
       <c r="B22" s="8">
@@ -11830,7 +11861,7 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="8">
         <v>-7</v>
       </c>
@@ -11852,7 +11883,7 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="8">
         <v>-9.4</v>
       </c>
@@ -11874,7 +11905,7 @@
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="8">
         <v>-3.2</v>
       </c>
@@ -11896,7 +11927,7 @@
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="8">
         <v>-59</v>
       </c>
@@ -11918,7 +11949,7 @@
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="8">
         <v>-14</v>
       </c>
@@ -11940,7 +11971,7 @@
       <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63">
+      <c r="A28" s="64">
         <v>43599</v>
       </c>
       <c r="B28" s="8">
@@ -11964,7 +11995,7 @@
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="8">
         <v>-16</v>
       </c>
@@ -11986,7 +12017,7 @@
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="8">
         <v>-21</v>
       </c>
@@ -12008,7 +12039,7 @@
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="8">
         <v>-128</v>
       </c>
@@ -12030,7 +12061,7 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
+      <c r="A32" s="64"/>
       <c r="B32" s="8">
         <v>-39</v>
       </c>
@@ -12052,7 +12083,7 @@
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="63"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="8">
         <v>-20</v>
       </c>
@@ -12074,7 +12105,7 @@
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="63"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="8">
         <v>-35</v>
       </c>
@@ -12096,7 +12127,7 @@
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="8">
         <v>-33</v>
       </c>
@@ -12118,7 +12149,7 @@
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="8">
         <v>-18</v>
       </c>
@@ -12140,7 +12171,7 @@
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="63">
+      <c r="A37" s="64">
         <v>43600</v>
       </c>
       <c r="B37" s="8">
@@ -12164,7 +12195,7 @@
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="8">
         <v>-10</v>
       </c>
@@ -12184,7 +12215,7 @@
       <c r="N38" s="8"/>
     </row>
     <row r="39" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="8">
         <v>-11.5</v>
       </c>
@@ -12206,7 +12237,7 @@
       <c r="N39" s="8"/>
     </row>
     <row r="40" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="63">
+      <c r="A40" s="64">
         <v>43601</v>
       </c>
       <c r="B40" s="8">
@@ -12230,7 +12261,7 @@
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="8">
         <v>-11</v>
       </c>
@@ -12252,7 +12283,7 @@
       <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="63"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="8">
         <v>-15</v>
       </c>
@@ -12264,7 +12295,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="63">
+      <c r="A43" s="64">
         <v>43602</v>
       </c>
       <c r="B43" s="8">
@@ -12278,7 +12309,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="63"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="8">
         <v>-12.5</v>
       </c>
@@ -12290,7 +12321,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="63"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="8">
         <v>-15.8</v>
       </c>
@@ -12302,7 +12333,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="67">
+      <c r="A46" s="70">
         <v>43603</v>
       </c>
       <c r="B46" s="8">
@@ -12316,7 +12347,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="67"/>
+      <c r="A47" s="70"/>
       <c r="B47" s="8">
         <v>-139</v>
       </c>
@@ -12328,7 +12359,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="67"/>
+      <c r="A48" s="70"/>
       <c r="B48" s="8">
         <v>-30.9</v>
       </c>
@@ -12340,7 +12371,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="67"/>
+      <c r="A49" s="70"/>
       <c r="B49" s="8">
         <v>-34</v>
       </c>
@@ -12352,7 +12383,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="67"/>
+      <c r="A50" s="70"/>
       <c r="B50" s="8">
         <v>-26.1</v>
       </c>
@@ -12364,7 +12395,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="67">
+      <c r="A51" s="70">
         <v>43604</v>
       </c>
       <c r="B51" s="8">
@@ -12378,7 +12409,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="67"/>
+      <c r="A52" s="70"/>
       <c r="B52" s="8">
         <v>-11</v>
       </c>
@@ -12390,7 +12421,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="67"/>
+      <c r="A53" s="70"/>
       <c r="B53" s="8">
         <v>-17</v>
       </c>
@@ -12402,7 +12433,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="63">
+      <c r="A54" s="64">
         <v>43605</v>
       </c>
       <c r="B54" s="8">
@@ -12416,7 +12447,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="63"/>
+      <c r="A55" s="64"/>
       <c r="B55" s="8">
         <v>-11.5</v>
       </c>
@@ -12428,7 +12459,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
+      <c r="A56" s="64"/>
       <c r="B56" s="8">
         <v>-12</v>
       </c>
@@ -12440,7 +12471,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="63">
+      <c r="A57" s="64">
         <v>43606</v>
       </c>
       <c r="B57" s="8">
@@ -12454,7 +12485,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
+      <c r="A58" s="64"/>
       <c r="B58" s="8">
         <v>-5</v>
       </c>
@@ -12466,7 +12497,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="63"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="8">
         <f>-12+4.5</f>
         <v>-7.5</v>
@@ -12479,7 +12510,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="63"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="8">
         <v>-12.5</v>
       </c>
@@ -12491,7 +12522,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="63">
+      <c r="A61" s="64">
         <v>43607</v>
       </c>
       <c r="B61" s="8">
@@ -12505,7 +12536,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="63"/>
+      <c r="A62" s="64"/>
       <c r="B62" s="8">
         <v>-3</v>
       </c>
@@ -12517,7 +12548,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="63"/>
+      <c r="A63" s="64"/>
       <c r="B63" s="8">
         <v>-11</v>
       </c>
@@ -12529,7 +12560,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="63"/>
+      <c r="A64" s="64"/>
       <c r="B64" s="8">
         <v>-19</v>
       </c>
@@ -12541,7 +12572,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="63">
+      <c r="A65" s="64">
         <v>43608</v>
       </c>
       <c r="B65" s="8">
@@ -12555,7 +12586,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="63"/>
+      <c r="A66" s="64"/>
       <c r="B66" s="8">
         <v>-13.5</v>
       </c>
@@ -12567,7 +12598,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="63"/>
+      <c r="A67" s="64"/>
       <c r="B67" s="8">
         <v>-15</v>
       </c>
@@ -12588,7 +12619,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="63">
+      <c r="A68" s="64">
         <v>43609</v>
       </c>
       <c r="B68" s="8">
@@ -12605,7 +12636,7 @@
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="63"/>
+      <c r="A69" s="64"/>
       <c r="B69" s="8">
         <v>-18</v>
       </c>
@@ -12620,7 +12651,7 @@
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="63"/>
+      <c r="A70" s="64"/>
       <c r="B70" s="8">
         <v>-30.55</v>
       </c>
@@ -12642,7 +12673,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="67">
+      <c r="A71" s="70">
         <v>43610</v>
       </c>
       <c r="B71" s="8">
@@ -12657,7 +12688,7 @@
       <c r="I71" s="4"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="67"/>
+      <c r="A72" s="70"/>
       <c r="B72" s="8">
         <v>-3</v>
       </c>
@@ -12679,7 +12710,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="63">
+      <c r="A73" s="64">
         <v>43611</v>
       </c>
       <c r="B73" s="8">
@@ -12694,7 +12725,7 @@
       <c r="I73" s="4"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="63"/>
+      <c r="A74" s="64"/>
       <c r="B74" s="8">
         <v>-50</v>
       </c>
@@ -12707,7 +12738,7 @@
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="63">
+      <c r="A75" s="64">
         <v>43612</v>
       </c>
       <c r="B75" s="8">
@@ -12722,7 +12753,7 @@
       <c r="I75" s="4"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="63"/>
+      <c r="A76" s="64"/>
       <c r="B76" s="8">
         <v>-15</v>
       </c>
@@ -12735,7 +12766,7 @@
       <c r="I76" s="4"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="63"/>
+      <c r="A77" s="64"/>
       <c r="B77" s="8">
         <v>-2.5</v>
       </c>
@@ -12748,7 +12779,7 @@
       <c r="I77" s="4"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="63"/>
+      <c r="A78" s="64"/>
       <c r="B78" s="8">
         <v>-12</v>
       </c>
@@ -12761,7 +12792,7 @@
       <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="63">
+      <c r="A79" s="64">
         <v>43613</v>
       </c>
       <c r="B79" s="8">
@@ -12776,7 +12807,7 @@
       <c r="I79" s="4"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="63"/>
+      <c r="A80" s="64"/>
       <c r="B80" s="8">
         <v>-10.5</v>
       </c>
@@ -12789,7 +12820,7 @@
       <c r="I80" s="4"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="63">
+      <c r="A81" s="64">
         <v>43614</v>
       </c>
       <c r="B81" s="8">
@@ -12804,7 +12835,7 @@
       <c r="I81" s="4"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="63"/>
+      <c r="A82" s="64"/>
       <c r="B82" s="8">
         <v>-5.88</v>
       </c>
@@ -12817,7 +12848,7 @@
       <c r="I82" s="4"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="63"/>
+      <c r="A83" s="64"/>
       <c r="B83" s="8">
         <v>-16</v>
       </c>
@@ -12830,7 +12861,7 @@
       <c r="I83" s="4"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="63">
+      <c r="A84" s="64">
         <v>43615</v>
       </c>
       <c r="B84" s="8">
@@ -12845,7 +12876,7 @@
       <c r="I84" s="4"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="63"/>
+      <c r="A85" s="64"/>
       <c r="B85" s="8">
         <v>-14</v>
       </c>
@@ -12858,7 +12889,7 @@
       <c r="I85" s="4"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="63"/>
+      <c r="A86" s="64"/>
       <c r="B86" s="8">
         <v>-6.2</v>
       </c>
@@ -13921,6 +13952,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A79:A80"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="A1:A2"/>
@@ -13936,15 +13976,6 @@
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A79:A80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13953,10 +13984,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N288"/>
+  <dimension ref="A1:N294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:A56"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13973,41 +14004,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>243</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="37">
-        <f>SUMIF(B4:B105,"&lt;0")</f>
-        <v>-3046.3</v>
+        <f>SUMIF(B4:B111,"&lt;0")</f>
+        <v>-3130.7400000000002</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13">
         <f>3000+C1</f>
-        <v>-46.300000000000182</v>
+        <v>-130.74000000000024</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F2">
         <f ca="1">DATE(2019,7,1)-TODAY()</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">C2/F2</f>
-        <v>-3.5615384615384755</v>
+        <v>-13.074000000000023</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="77" customHeight="1" x14ac:dyDescent="0.2">
@@ -14029,7 +14060,7 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8">
         <f ca="1">C2/(F2-1)</f>
-        <v>-3.8583333333333485</v>
+        <v>-14.526666666666692</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -14038,7 +14069,7 @@
       <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63">
+      <c r="A4" s="64">
         <v>43617</v>
       </c>
       <c r="B4" s="8">
@@ -14067,7 +14098,7 @@
       <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="8">
         <v>-37.119999999999997</v>
       </c>
@@ -14087,15 +14118,15 @@
         <v>142</v>
       </c>
       <c r="J5">
-        <f>SUMIF($D$4:$D355,H5,$B$4:$B$355)</f>
-        <v>-121</v>
+        <f>SUMIF($D$4:$D361,H5,$B$4:$B$361)</f>
+        <v>-154</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="8">
         <v>-73.459999999999994</v>
       </c>
@@ -14115,15 +14146,15 @@
         <v>143</v>
       </c>
       <c r="J6">
-        <f ca="1">SUMIF($D$4:$D356,H6,$B$4:$B$355)</f>
-        <v>-670.90000000000009</v>
+        <f ca="1">SUMIF($D$4:$D362,H6,$B$4:$B$361)</f>
+        <v>-717.34</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="8">
         <v>-89</v>
       </c>
@@ -14143,7 +14174,7 @@
         <v>46</v>
       </c>
       <c r="J7">
-        <f ca="1">SUMIF($D$4:$D358,H7,$B$4:$B$355)</f>
+        <f ca="1">SUMIF($D$4:$D364,H7,$B$4:$B$361)</f>
         <v>0</v>
       </c>
       <c r="L7" s="8"/>
@@ -14151,7 +14182,7 @@
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="8">
         <v>-27.25</v>
       </c>
@@ -14171,7 +14202,7 @@
         <v>40</v>
       </c>
       <c r="J8">
-        <f ca="1">SUMIF($D$4:$D359,H8,$B$4:$B$355)</f>
+        <f ca="1">SUMIF($D$4:$D365,H8,$B$4:$B$361)</f>
         <v>-1416</v>
       </c>
       <c r="L8" s="8"/>
@@ -14179,7 +14210,7 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="8">
         <v>-17.8</v>
       </c>
@@ -14196,15 +14227,15 @@
         <v>144</v>
       </c>
       <c r="J9">
-        <f>SUM(B4:B142)</f>
-        <v>-3046.3</v>
+        <f>SUM(B4:B148)</f>
+        <v>-3130.7400000000002</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="8">
         <v>-36</v>
       </c>
@@ -14226,7 +14257,7 @@
       <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="8">
         <v>-16</v>
       </c>
@@ -14248,7 +14279,7 @@
       <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="8">
         <v>-56</v>
       </c>
@@ -14270,7 +14301,7 @@
       <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="8">
         <v>-69.900000000000006</v>
       </c>
@@ -14316,7 +14347,7 @@
       <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63">
+      <c r="A15" s="64">
         <v>43619</v>
       </c>
       <c r="B15" s="8">
@@ -14340,7 +14371,7 @@
       <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
+      <c r="A16" s="64"/>
       <c r="B16" s="8">
         <v>-13.5</v>
       </c>
@@ -14362,7 +14393,7 @@
       <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63">
+      <c r="A17" s="64">
         <v>43620</v>
       </c>
       <c r="B17" s="8">
@@ -14386,7 +14417,7 @@
       <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="8">
         <v>-11</v>
       </c>
@@ -14408,7 +14439,7 @@
       <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="8">
         <v>-3</v>
       </c>
@@ -14430,7 +14461,7 @@
       <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="8">
         <v>-10.5</v>
       </c>
@@ -14452,7 +14483,7 @@
       <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63">
+      <c r="A21" s="64">
         <v>43621</v>
       </c>
       <c r="B21" s="8">
@@ -14476,7 +14507,7 @@
       <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="8">
         <v>-18</v>
       </c>
@@ -14498,7 +14529,7 @@
       <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63">
+      <c r="A23" s="64">
         <v>43622</v>
       </c>
       <c r="B23" s="8">
@@ -14522,7 +14553,7 @@
       <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="8">
         <v>-18</v>
       </c>
@@ -14544,7 +14575,7 @@
       <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63">
+      <c r="A25" s="64">
         <v>43623</v>
       </c>
       <c r="B25" s="8">
@@ -14568,7 +14599,7 @@
       <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="8">
         <v>-6</v>
       </c>
@@ -14590,7 +14621,7 @@
       <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="8">
         <v>-15.9</v>
       </c>
@@ -14636,7 +14667,7 @@
       <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63">
+      <c r="A29" s="64">
         <v>43625</v>
       </c>
       <c r="B29" s="8">
@@ -14660,7 +14691,7 @@
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="8">
         <v>-76.72</v>
       </c>
@@ -14682,7 +14713,7 @@
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="8">
         <v>-19.8</v>
       </c>
@@ -14704,7 +14735,7 @@
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63">
+      <c r="A32" s="64">
         <v>43626</v>
       </c>
       <c r="B32" s="8">
@@ -14728,7 +14759,7 @@
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="63"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="8">
         <v>-4</v>
       </c>
@@ -14750,7 +14781,7 @@
       <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="63"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="8">
         <v>-11</v>
       </c>
@@ -14772,7 +14803,7 @@
       <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="63">
+      <c r="A35" s="64">
         <v>43627</v>
       </c>
       <c r="B35" s="8">
@@ -14796,7 +14827,7 @@
       <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="8">
         <v>-13.5</v>
       </c>
@@ -14818,7 +14849,7 @@
       <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="63"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="8">
         <v>-29</v>
       </c>
@@ -14840,7 +14871,7 @@
       <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="8">
         <v>-10</v>
       </c>
@@ -14908,7 +14939,7 @@
       <c r="N40" s="8"/>
     </row>
     <row r="41" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="63">
+      <c r="A41" s="64">
         <v>43629</v>
       </c>
       <c r="B41" s="8">
@@ -14932,7 +14963,7 @@
       <c r="N41" s="8"/>
     </row>
     <row r="42" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="63"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="8">
         <v>-3</v>
       </c>
@@ -14954,7 +14985,7 @@
       <c r="N42" s="8"/>
     </row>
     <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="63"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="8">
         <v>-13</v>
       </c>
@@ -14976,7 +15007,7 @@
       <c r="N43" s="8"/>
     </row>
     <row r="44" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="63">
+      <c r="A44" s="64">
         <v>43630</v>
       </c>
       <c r="B44" s="8">
@@ -15000,7 +15031,7 @@
       <c r="N44" s="8"/>
     </row>
     <row r="45" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="63"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="8">
         <v>-7</v>
       </c>
@@ -15022,7 +15053,7 @@
       <c r="N45" s="8"/>
     </row>
     <row r="46" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="63"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="8">
         <v>-73</v>
       </c>
@@ -15044,7 +15075,7 @@
       <c r="N46" s="8"/>
     </row>
     <row r="47" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="63"/>
+      <c r="A47" s="64"/>
       <c r="B47" s="8">
         <v>-219</v>
       </c>
@@ -15066,7 +15097,7 @@
       <c r="N47" s="8"/>
     </row>
     <row r="48" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="63"/>
+      <c r="A48" s="64"/>
       <c r="B48" s="8">
         <v>-25</v>
       </c>
@@ -15112,7 +15143,7 @@
       <c r="N49" s="8"/>
     </row>
     <row r="50" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="63">
+      <c r="A50" s="64">
         <v>43632</v>
       </c>
       <c r="B50" s="8">
@@ -15136,7 +15167,7 @@
       <c r="N50" s="8"/>
     </row>
     <row r="51" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="63"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="8">
         <v>-9.9</v>
       </c>
@@ -15158,7 +15189,7 @@
       <c r="N51" s="8"/>
     </row>
     <row r="52" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="63"/>
+      <c r="A52" s="64"/>
       <c r="B52" s="8">
         <v>-22.5</v>
       </c>
@@ -15180,7 +15211,7 @@
       <c r="N52" s="8"/>
     </row>
     <row r="53" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="63">
+      <c r="A53" s="64">
         <v>43633</v>
       </c>
       <c r="B53" s="8">
@@ -15204,7 +15235,7 @@
       <c r="N53" s="8"/>
     </row>
     <row r="54" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
+      <c r="A54" s="64"/>
       <c r="B54" s="8">
         <v>-13</v>
       </c>
@@ -15226,12 +15257,18 @@
       <c r="N54" s="8"/>
     </row>
     <row r="55" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="63">
+      <c r="A55" s="64">
         <v>43634</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="12"/>
+      <c r="B55" s="8">
+        <v>-8.14</v>
+      </c>
+      <c r="C55" s="63" t="s">
+        <v>267</v>
+      </c>
+      <c r="D55" s="12">
+        <v>2</v>
+      </c>
       <c r="E55" s="12"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -15244,15 +15281,15 @@
       <c r="N55" s="8"/>
     </row>
     <row r="56" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
+      <c r="A56" s="64"/>
       <c r="B56" s="8">
-        <v>-11</v>
-      </c>
-      <c r="C56" s="53" t="s">
-        <v>214</v>
+        <v>-17.8</v>
+      </c>
+      <c r="C56" s="62" t="s">
+        <v>266</v>
       </c>
       <c r="D56" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="8"/>
@@ -15266,12 +15303,16 @@
       <c r="N56" s="8"/>
     </row>
     <row r="57" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="52">
-        <v>43635</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="12"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C57" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="12">
+        <v>1</v>
+      </c>
       <c r="E57" s="12"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -15284,12 +15325,18 @@
       <c r="N57" s="8"/>
     </row>
     <row r="58" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="52">
-        <v>43636</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="12"/>
+      <c r="A58" s="64">
+        <v>43635</v>
+      </c>
+      <c r="B58" s="8">
+        <v>-5</v>
+      </c>
+      <c r="C58" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="D58" s="12">
+        <v>3</v>
+      </c>
       <c r="E58" s="12"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -15302,12 +15349,16 @@
       <c r="N58" s="8"/>
     </row>
     <row r="59" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="52">
-        <v>43637</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="12"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="8">
+        <v>-10.5</v>
+      </c>
+      <c r="C59" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" s="12">
+        <v>2</v>
+      </c>
       <c r="E59" s="12"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -15320,12 +15371,16 @@
       <c r="N59" s="8"/>
     </row>
     <row r="60" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="52">
-        <v>43638</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="12"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C60" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="12">
+        <v>1</v>
+      </c>
       <c r="E60" s="12"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -15338,12 +15393,16 @@
       <c r="N60" s="8"/>
     </row>
     <row r="61" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="52">
-        <v>43639</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="12"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="8">
+        <v>-3</v>
+      </c>
+      <c r="C61" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" s="12">
+        <v>2</v>
+      </c>
       <c r="E61" s="12"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -15356,12 +15415,18 @@
       <c r="N61" s="8"/>
     </row>
     <row r="62" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="52">
-        <v>43640</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="12"/>
+      <c r="A62" s="64">
+        <v>43636</v>
+      </c>
+      <c r="B62" s="8">
+        <v>-6</v>
+      </c>
+      <c r="C62" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="12">
+        <v>2</v>
+      </c>
       <c r="E62" s="12"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -15374,12 +15439,16 @@
       <c r="N62" s="8"/>
     </row>
     <row r="63" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="52">
-        <v>43641</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="12"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C63" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="D63" s="12">
+        <v>2</v>
+      </c>
       <c r="E63" s="12"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -15392,12 +15461,16 @@
       <c r="N63" s="8"/>
     </row>
     <row r="64" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="52">
-        <v>43642</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="12"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C64" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D64" s="12">
+        <v>1</v>
+      </c>
       <c r="E64" s="12"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -15411,11 +15484,17 @@
     </row>
     <row r="65" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="52">
-        <v>43643</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="12"/>
+        <v>43637</v>
+      </c>
+      <c r="B65" s="8">
+        <v>-11</v>
+      </c>
+      <c r="C65" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" s="12">
+        <v>1</v>
+      </c>
       <c r="E65" s="12"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -15429,7 +15508,7 @@
     </row>
     <row r="66" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="52">
-        <v>43644</v>
+        <v>43638</v>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="53"/>
@@ -15447,7 +15526,7 @@
     </row>
     <row r="67" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="52">
-        <v>43645</v>
+        <v>43639</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="53"/>
@@ -15465,7 +15544,7 @@
     </row>
     <row r="68" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="52">
-        <v>43646</v>
+        <v>43640</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="53"/>
@@ -15482,7 +15561,9 @@
       <c r="N68" s="8"/>
     </row>
     <row r="69" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
+      <c r="A69" s="52">
+        <v>43641</v>
+      </c>
       <c r="B69" s="8"/>
       <c r="C69" s="53"/>
       <c r="D69" s="12"/>
@@ -15497,8 +15578,10 @@
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
     </row>
-    <row r="70" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="54"/>
+    <row r="70" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="52">
+        <v>43642</v>
+      </c>
       <c r="B70" s="8"/>
       <c r="C70" s="53"/>
       <c r="D70" s="12"/>
@@ -15514,7 +15597,9 @@
       <c r="N70" s="8"/>
     </row>
     <row r="71" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="8"/>
+      <c r="A71" s="52">
+        <v>43643</v>
+      </c>
       <c r="B71" s="8"/>
       <c r="C71" s="53"/>
       <c r="D71" s="12"/>
@@ -15530,7 +15615,9 @@
       <c r="N71" s="8"/>
     </row>
     <row r="72" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="8"/>
+      <c r="A72" s="52">
+        <v>43644</v>
+      </c>
       <c r="B72" s="8"/>
       <c r="C72" s="53"/>
       <c r="D72" s="12"/>
@@ -15546,7 +15633,9 @@
       <c r="N72" s="8"/>
     </row>
     <row r="73" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="8"/>
+      <c r="A73" s="52">
+        <v>43645</v>
+      </c>
       <c r="B73" s="8"/>
       <c r="C73" s="53"/>
       <c r="D73" s="12"/>
@@ -15562,7 +15651,9 @@
       <c r="N73" s="8"/>
     </row>
     <row r="74" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="8"/>
+      <c r="A74" s="52">
+        <v>43646</v>
+      </c>
       <c r="B74" s="8"/>
       <c r="C74" s="53"/>
       <c r="D74" s="12"/>
@@ -15593,8 +15684,8 @@
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
     </row>
-    <row r="76" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8"/>
+    <row r="76" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="54"/>
       <c r="B76" s="8"/>
       <c r="C76" s="53"/>
       <c r="D76" s="12"/>
@@ -15609,121 +15700,181 @@
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="53"/>
       <c r="D77" s="12"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E77" s="12"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+    </row>
+    <row r="78" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="53"/>
       <c r="D78" s="12"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E78" s="12"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+    </row>
+    <row r="79" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="53"/>
       <c r="D79" s="12"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E79" s="12"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+    </row>
+    <row r="80" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="53"/>
       <c r="D80" s="12"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="12"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+    </row>
+    <row r="81" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="53"/>
       <c r="D81" s="12"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" s="12"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+    </row>
+    <row r="82" spans="1:14" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="53"/>
       <c r="D82" s="12"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="12"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="53"/>
       <c r="D83" s="12"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="53"/>
       <c r="D84" s="12"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="53"/>
       <c r="D85" s="12"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="53"/>
       <c r="D86" s="12"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="53"/>
       <c r="D87" s="12"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="53"/>
       <c r="D88" s="12"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="53"/>
       <c r="D89" s="12"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="53"/>
       <c r="D90" s="12"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="53"/>
       <c r="D91" s="12"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="53"/>
       <c r="D92" s="12"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="53"/>
       <c r="D93" s="12"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="53"/>
       <c r="D94" s="12"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="53"/>
       <c r="D95" s="12"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="53"/>
@@ -15759,7 +15910,7 @@
       <c r="C101" s="53"/>
       <c r="D101" s="12"/>
     </row>
-    <row r="102" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="53"/>
@@ -15795,7 +15946,7 @@
       <c r="C107" s="53"/>
       <c r="D107" s="12"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="53"/>
@@ -15899,8 +16050,8 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="55"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="53"/>
       <c r="D125" s="12"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -15921,107 +16072,101 @@
       <c r="C128" s="53"/>
       <c r="D128" s="12"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="53"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D129" s="12"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="53"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D130" s="12"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="53"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B131" s="12"/>
+      <c r="C131" s="55"/>
+      <c r="D131" s="12"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="53"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D132" s="12"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="53"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D133" s="12"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="53"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D134" s="12"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="53"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="53"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="53"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="53"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="53"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="53"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="53"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="13"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="53"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="13"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="53"/>
-      <c r="H143" s="13"/>
-      <c r="I143" s="13"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="53"/>
-      <c r="H144" s="13"/>
-      <c r="I144" s="13"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="53"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="13"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="53"/>
-      <c r="H146" s="13"/>
-      <c r="I146" s="13"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="8"/>
@@ -16118,83 +16263,95 @@
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="53"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="53"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="53"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="53"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H163" s="13"/>
+      <c r="I163" s="13"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="53"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H164" s="13"/>
+      <c r="I164" s="13"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="53"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="53"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="53"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="53"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="53"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="53"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="53"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="53"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="53"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="53"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="53"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="53"/>
@@ -16756,14 +16913,42 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="8"/>
+      <c r="B288" s="8"/>
+      <c r="C288" s="53"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="8"/>
+      <c r="B289" s="8"/>
+      <c r="C289" s="53"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="8"/>
+      <c r="B290" s="8"/>
+      <c r="C290" s="53"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="8"/>
+      <c r="B291" s="8"/>
+      <c r="C291" s="53"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="8"/>
+      <c r="B292" s="8"/>
+      <c r="C292" s="53"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="8"/>
+      <c r="B293" s="8"/>
+      <c r="C293" s="53"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A41:A43"/>
+  <mergeCells count="17">
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A61"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A22"/>
@@ -16774,6 +16959,10 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A41:A43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
